--- a/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA398D8-2F43-47E9-A77A-B12C1E235F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -487,7 +488,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -534,6 +535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,17 +755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -785,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -899,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -954,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1335,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1392,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1451,107 +1486,107 @@
       <c r="U11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
+      <c r="V11" s="11">
+        <v>572825</v>
       </c>
       <c r="W11" s="11">
-        <v>572825</v>
+        <v>1670355</v>
       </c>
       <c r="X11" s="11">
-        <v>1670355</v>
+        <v>1325693</v>
       </c>
       <c r="Y11" s="11">
-        <v>1325693</v>
+        <v>1529312</v>
       </c>
       <c r="Z11" s="11">
-        <v>1529312</v>
+        <v>1216536</v>
       </c>
       <c r="AA11" s="11">
-        <v>1216536</v>
+        <v>1335177</v>
       </c>
       <c r="AB11" s="11">
-        <v>1335177</v>
+        <v>1252610</v>
       </c>
       <c r="AC11" s="11">
-        <v>1252610</v>
+        <v>1592244</v>
       </c>
       <c r="AD11" s="11">
-        <v>1592244</v>
+        <v>1835508</v>
       </c>
       <c r="AE11" s="11">
-        <v>1835508</v>
+        <v>1287997</v>
       </c>
       <c r="AF11" s="11">
-        <v>1287997</v>
+        <v>1852460</v>
       </c>
       <c r="AG11" s="11">
-        <v>1852460</v>
+        <v>1052952</v>
       </c>
       <c r="AH11" s="11">
-        <v>1052952</v>
+        <v>99864</v>
       </c>
       <c r="AI11" s="11">
-        <v>99864</v>
+        <v>1446848</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1446848</v>
+        <v>2080512</v>
       </c>
       <c r="AK11" s="11">
-        <v>2080512</v>
+        <v>947237</v>
       </c>
       <c r="AL11" s="11">
-        <v>947237</v>
+        <v>594708</v>
       </c>
       <c r="AM11" s="11">
-        <v>594708</v>
+        <v>1030971</v>
       </c>
       <c r="AN11" s="11">
-        <v>1030971</v>
+        <v>1539501</v>
       </c>
       <c r="AO11" s="11">
-        <v>1539501</v>
+        <v>854766</v>
       </c>
       <c r="AP11" s="11">
-        <v>854766</v>
+        <v>1287124</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1287124</v>
+        <v>995899</v>
       </c>
       <c r="AR11" s="11">
-        <v>995899</v>
+        <v>1049813</v>
       </c>
       <c r="AS11" s="11">
-        <v>1049813</v>
+        <v>355815</v>
       </c>
       <c r="AT11" s="11">
-        <v>355815</v>
+        <v>977321</v>
       </c>
       <c r="AU11" s="11">
-        <v>977321</v>
+        <v>2088784</v>
       </c>
       <c r="AV11" s="11">
-        <v>2088784</v>
+        <v>2131586</v>
       </c>
       <c r="AW11" s="11">
-        <v>2131586</v>
+        <v>1475050</v>
       </c>
       <c r="AX11" s="11">
-        <v>1475050</v>
+        <v>1284063</v>
       </c>
       <c r="AY11" s="11">
-        <v>1284063</v>
+        <v>1874107</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1874107</v>
+        <v>892649</v>
       </c>
       <c r="BA11" s="11">
-        <v>892649</v>
+        <v>1570042</v>
       </c>
       <c r="BB11" s="11">
-        <v>1570042</v>
+        <v>1727414</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1610,107 +1645,107 @@
       <c r="U12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
+      <c r="V12" s="13">
+        <v>2186283</v>
       </c>
       <c r="W12" s="13">
-        <v>2186283</v>
+        <v>3813277</v>
       </c>
       <c r="X12" s="13">
-        <v>3813277</v>
+        <v>776689</v>
       </c>
       <c r="Y12" s="13">
-        <v>776689</v>
+        <v>3355766</v>
       </c>
       <c r="Z12" s="13">
-        <v>3355766</v>
+        <v>2780267</v>
       </c>
       <c r="AA12" s="13">
-        <v>2780267</v>
+        <v>3055221</v>
       </c>
       <c r="AB12" s="13">
-        <v>3055221</v>
+        <v>3195329</v>
       </c>
       <c r="AC12" s="13">
-        <v>3195329</v>
+        <v>3297602</v>
       </c>
       <c r="AD12" s="13">
-        <v>3297602</v>
+        <v>4346169</v>
       </c>
       <c r="AE12" s="13">
-        <v>4346169</v>
+        <v>2883923</v>
       </c>
       <c r="AF12" s="13">
-        <v>2883923</v>
+        <v>4543763</v>
       </c>
       <c r="AG12" s="13">
-        <v>4543763</v>
+        <v>2641514</v>
       </c>
       <c r="AH12" s="13">
-        <v>2641514</v>
+        <v>1634310</v>
       </c>
       <c r="AI12" s="13">
-        <v>1634310</v>
+        <v>2391353</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2391353</v>
+        <v>1960167</v>
       </c>
       <c r="AK12" s="13">
-        <v>1960167</v>
+        <v>2973768</v>
       </c>
       <c r="AL12" s="13">
-        <v>2973768</v>
+        <v>3528060</v>
       </c>
       <c r="AM12" s="13">
-        <v>3528060</v>
+        <v>3425974</v>
       </c>
       <c r="AN12" s="13">
-        <v>3425974</v>
+        <v>2757778</v>
       </c>
       <c r="AO12" s="13">
-        <v>2757778</v>
+        <v>2485617</v>
       </c>
       <c r="AP12" s="13">
-        <v>2485617</v>
+        <v>2969134</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2969134</v>
+        <v>2540486</v>
       </c>
       <c r="AR12" s="13">
-        <v>2540486</v>
+        <v>3162952</v>
       </c>
       <c r="AS12" s="13">
-        <v>3162952</v>
+        <v>2618191</v>
       </c>
       <c r="AT12" s="13">
-        <v>2618191</v>
+        <v>1928006</v>
       </c>
       <c r="AU12" s="13">
-        <v>1928006</v>
+        <v>3794614</v>
       </c>
       <c r="AV12" s="13">
-        <v>3794614</v>
+        <v>3914006</v>
       </c>
       <c r="AW12" s="13">
-        <v>3914006</v>
+        <v>3669007</v>
       </c>
       <c r="AX12" s="13">
-        <v>3669007</v>
+        <v>3583799</v>
       </c>
       <c r="AY12" s="13">
-        <v>3583799</v>
+        <v>3436273</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3436273</v>
+        <v>2961610</v>
       </c>
       <c r="BA12" s="13">
-        <v>2961610</v>
+        <v>3366519</v>
       </c>
       <c r="BB12" s="13">
-        <v>3366519</v>
+        <v>3618865</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1769,107 +1804,107 @@
       <c r="U13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>58</v>
+      <c r="V13" s="11">
+        <v>421040</v>
       </c>
       <c r="W13" s="11">
-        <v>421040</v>
+        <v>338935</v>
       </c>
       <c r="X13" s="11">
-        <v>338935</v>
+        <v>354951</v>
       </c>
       <c r="Y13" s="11">
-        <v>354951</v>
+        <v>838313</v>
       </c>
       <c r="Z13" s="11">
-        <v>838313</v>
+        <v>844613</v>
       </c>
       <c r="AA13" s="11">
-        <v>844613</v>
+        <v>475662</v>
       </c>
       <c r="AB13" s="11">
-        <v>475662</v>
+        <v>1043827</v>
       </c>
       <c r="AC13" s="11">
-        <v>1043827</v>
+        <v>865436</v>
       </c>
       <c r="AD13" s="11">
-        <v>865436</v>
+        <v>820140</v>
       </c>
       <c r="AE13" s="11">
-        <v>820140</v>
+        <v>780906</v>
       </c>
       <c r="AF13" s="11">
-        <v>780906</v>
+        <v>1449256</v>
       </c>
       <c r="AG13" s="11">
-        <v>1449256</v>
+        <v>344491</v>
       </c>
       <c r="AH13" s="11">
-        <v>344491</v>
+        <v>302700</v>
       </c>
       <c r="AI13" s="11">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AJ13" s="11">
-        <v>576123</v>
+        <v>554882</v>
       </c>
       <c r="AK13" s="11">
-        <v>554882</v>
+        <v>812592</v>
       </c>
       <c r="AL13" s="11">
-        <v>812592</v>
+        <v>568832</v>
       </c>
       <c r="AM13" s="11">
-        <v>568832</v>
+        <v>676145</v>
       </c>
       <c r="AN13" s="11">
-        <v>676145</v>
+        <v>341164</v>
       </c>
       <c r="AO13" s="11">
-        <v>341164</v>
+        <v>713382</v>
       </c>
       <c r="AP13" s="11">
-        <v>713382</v>
+        <v>877199</v>
       </c>
       <c r="AQ13" s="11">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AR13" s="11">
-        <v>864518</v>
+        <v>673365</v>
       </c>
       <c r="AS13" s="11">
-        <v>673365</v>
+        <v>923051</v>
       </c>
       <c r="AT13" s="11">
-        <v>923051</v>
+        <v>439173</v>
       </c>
       <c r="AU13" s="11">
-        <v>439173</v>
+        <v>477046</v>
       </c>
       <c r="AV13" s="11">
-        <v>477046</v>
+        <v>568460</v>
       </c>
       <c r="AW13" s="11">
-        <v>568460</v>
+        <v>1019233</v>
       </c>
       <c r="AX13" s="11">
-        <v>1019233</v>
+        <v>868951</v>
       </c>
       <c r="AY13" s="11">
-        <v>868951</v>
+        <v>580397</v>
       </c>
       <c r="AZ13" s="11">
-        <v>580397</v>
+        <v>592818</v>
       </c>
       <c r="BA13" s="11">
-        <v>592818</v>
+        <v>824890</v>
       </c>
       <c r="BB13" s="11">
-        <v>824890</v>
+        <v>1080234</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1927,106 +1962,106 @@
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <v>0</v>
+        <v>3180148</v>
       </c>
       <c r="W14" s="15">
-        <v>3180148</v>
+        <v>5822567</v>
       </c>
       <c r="X14" s="15">
-        <v>5822567</v>
+        <v>2457333</v>
       </c>
       <c r="Y14" s="15">
-        <v>2457333</v>
+        <v>5723391</v>
       </c>
       <c r="Z14" s="15">
-        <v>5723391</v>
+        <v>4841416</v>
       </c>
       <c r="AA14" s="15">
-        <v>4841416</v>
+        <v>4866060</v>
       </c>
       <c r="AB14" s="15">
-        <v>4866060</v>
+        <v>5491766</v>
       </c>
       <c r="AC14" s="15">
-        <v>5491766</v>
+        <v>5755282</v>
       </c>
       <c r="AD14" s="15">
-        <v>5755282</v>
+        <v>7001817</v>
       </c>
       <c r="AE14" s="15">
-        <v>7001817</v>
+        <v>4952826</v>
       </c>
       <c r="AF14" s="15">
-        <v>4952826</v>
+        <v>7845479</v>
       </c>
       <c r="AG14" s="15">
-        <v>7845479</v>
+        <v>4038957</v>
       </c>
       <c r="AH14" s="15">
-        <v>4038957</v>
+        <v>2036874</v>
       </c>
       <c r="AI14" s="15">
-        <v>2036874</v>
+        <v>4414324</v>
       </c>
       <c r="AJ14" s="15">
-        <v>4414324</v>
+        <v>4595561</v>
       </c>
       <c r="AK14" s="15">
-        <v>4595561</v>
+        <v>4733597</v>
       </c>
       <c r="AL14" s="15">
-        <v>4733597</v>
+        <v>4691600</v>
       </c>
       <c r="AM14" s="15">
-        <v>4691600</v>
+        <v>5133090</v>
       </c>
       <c r="AN14" s="15">
-        <v>5133090</v>
+        <v>4638443</v>
       </c>
       <c r="AO14" s="15">
-        <v>4638443</v>
+        <v>4053765</v>
       </c>
       <c r="AP14" s="15">
-        <v>4053765</v>
+        <v>5133457</v>
       </c>
       <c r="AQ14" s="15">
-        <v>5133457</v>
+        <v>4400903</v>
       </c>
       <c r="AR14" s="15">
-        <v>4400903</v>
+        <v>4886130</v>
       </c>
       <c r="AS14" s="15">
-        <v>4886130</v>
+        <v>3897057</v>
       </c>
       <c r="AT14" s="15">
-        <v>3897057</v>
+        <v>3344500</v>
       </c>
       <c r="AU14" s="15">
-        <v>3344500</v>
+        <v>6360444</v>
       </c>
       <c r="AV14" s="15">
-        <v>6360444</v>
+        <v>6614052</v>
       </c>
       <c r="AW14" s="15">
-        <v>6614052</v>
+        <v>6163290</v>
       </c>
       <c r="AX14" s="15">
-        <v>6163290</v>
+        <v>5736813</v>
       </c>
       <c r="AY14" s="15">
-        <v>5736813</v>
+        <v>5890777</v>
       </c>
       <c r="AZ14" s="15">
-        <v>5890777</v>
+        <v>4447077</v>
       </c>
       <c r="BA14" s="15">
-        <v>4447077</v>
+        <v>5761451</v>
       </c>
       <c r="BB14" s="15">
-        <v>5761451</v>
+        <v>6426513</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2083,7 +2118,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2142,107 +2177,107 @@
       <c r="U16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>58</v>
+      <c r="V16" s="11">
+        <v>1860</v>
       </c>
       <c r="W16" s="11">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="X16" s="11">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="Y16" s="11">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="Z16" s="11">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="AA16" s="11">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="AB16" s="11">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="AC16" s="11">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="AD16" s="11">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="AE16" s="11">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="AF16" s="11">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="AG16" s="11">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="AH16" s="11">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="AI16" s="11">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AJ16" s="11">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AK16" s="11">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AL16" s="11">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AM16" s="11">
+        <v>31524</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO16" s="11">
+        <v>89967</v>
+      </c>
+      <c r="AP16" s="11">
+        <v>7441</v>
+      </c>
+      <c r="AQ16" s="11">
+        <v>38500</v>
+      </c>
+      <c r="AR16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>69784</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>1044</v>
+      </c>
+      <c r="AU16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="11">
+        <v>76776</v>
+      </c>
+      <c r="AW16" s="11">
         <v>9732</v>
       </c>
-      <c r="AN16" s="11">
-        <v>31524</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="11">
-        <v>89967</v>
-      </c>
-      <c r="AQ16" s="11">
-        <v>7441</v>
-      </c>
-      <c r="AR16" s="11">
-        <v>38500</v>
-      </c>
-      <c r="AS16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="11">
-        <v>69784</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>1044</v>
-      </c>
-      <c r="AV16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="11">
-        <v>76776</v>
-      </c>
       <c r="AX16" s="11">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AY16" s="11">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AZ16" s="11">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="BA16" s="11">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="BB16" s="11">
-        <v>54240</v>
+        <v>62336</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2301,107 +2336,107 @@
       <c r="U17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="13" t="s">
-        <v>58</v>
+      <c r="V17" s="13">
+        <v>9512</v>
       </c>
       <c r="W17" s="13">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="X17" s="13">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="Y17" s="13">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="Z17" s="13">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="AA17" s="13">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="AB17" s="13">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="AC17" s="13">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="AD17" s="13">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="AE17" s="13">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="AF17" s="13">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="AG17" s="13">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="AH17" s="13">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="AI17" s="13">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AJ17" s="13">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AK17" s="13">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AL17" s="13">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AM17" s="13">
-        <v>29676</v>
-      </c>
-      <c r="AN17" s="13">
         <v>17112</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
+      <c r="AN17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>51469</v>
       </c>
       <c r="AP17" s="13">
-        <v>51469</v>
-      </c>
-      <c r="AQ17" s="13">
         <v>19463</v>
       </c>
-      <c r="AR17" s="13" t="s">
-        <v>58</v>
+      <c r="AQ17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>62036</v>
       </c>
       <c r="AS17" s="13">
-        <v>62036</v>
+        <v>159940</v>
       </c>
       <c r="AT17" s="13">
-        <v>159940</v>
+        <v>4128</v>
       </c>
       <c r="AU17" s="13">
-        <v>4128</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="13">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AW17" s="13">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AX17" s="13">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AY17" s="13">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AZ17" s="13">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="BA17" s="13">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="BB17" s="13">
-        <v>48648</v>
+        <v>52604</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
@@ -2460,107 +2495,107 @@
       <c r="U18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="11" t="s">
-        <v>58</v>
+      <c r="V18" s="11">
+        <v>0</v>
       </c>
       <c r="W18" s="11">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="X18" s="11">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="11">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="Z18" s="11">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="AA18" s="11">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="AB18" s="11">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="AC18" s="11">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="AD18" s="11">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="AE18" s="11">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="AF18" s="11">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="AG18" s="11">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="AH18" s="11">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="11">
         <v>0</v>
       </c>
       <c r="AJ18" s="11">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AK18" s="11">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AL18" s="11">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AM18" s="11">
-        <v>5365</v>
-      </c>
-      <c r="AN18" s="11">
         <v>3311</v>
       </c>
-      <c r="AO18" s="11" t="s">
-        <v>58</v>
+      <c r="AN18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>4201</v>
       </c>
       <c r="AP18" s="11">
-        <v>4201</v>
-      </c>
-      <c r="AQ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR18" s="11">
+        <v>12103</v>
       </c>
       <c r="AS18" s="11">
-        <v>12103</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="11">
-        <v>0</v>
+        <v>3768</v>
       </c>
       <c r="AU18" s="11">
-        <v>3768</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="11">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AW18" s="11">
-        <v>9000</v>
+        <v>28356</v>
       </c>
       <c r="AX18" s="11">
-        <v>28356</v>
+        <v>9168</v>
       </c>
       <c r="AY18" s="11">
-        <v>9168</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="11">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="BA18" s="11">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="BB18" s="11">
-        <v>9060</v>
+        <v>18632</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>63</v>
       </c>
@@ -2618,106 +2653,106 @@
         <v>0</v>
       </c>
       <c r="V19" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="W19" s="15">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="X19" s="15">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="Y19" s="15">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="Z19" s="15">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="AA19" s="15">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="AB19" s="15">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="AC19" s="15">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="AD19" s="15">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="AE19" s="15">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="AF19" s="15">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="AG19" s="15">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="AH19" s="15">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="AI19" s="15">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AJ19" s="15">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AK19" s="15">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AL19" s="15">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AM19" s="15">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AN19" s="15">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="15">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AP19" s="15">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AQ19" s="15">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AR19" s="15">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AS19" s="15">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AT19" s="15">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AU19" s="15">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="15">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AW19" s="15">
-        <v>143160</v>
+        <v>45204</v>
       </c>
       <c r="AX19" s="15">
-        <v>45204</v>
+        <v>46280</v>
       </c>
       <c r="AY19" s="15">
-        <v>46280</v>
+        <v>34200</v>
       </c>
       <c r="AZ19" s="15">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="BA19" s="15">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="BB19" s="15">
-        <v>111948</v>
+        <v>133572</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
@@ -2774,7 +2809,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
@@ -2831,8 +2866,8 @@
       <c r="U21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="19" t="s">
-        <v>58</v>
+      <c r="V21" s="19">
+        <v>0</v>
       </c>
       <c r="W21" s="19">
         <v>0</v>
@@ -2931,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -2989,106 +3024,106 @@
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="W22" s="15">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="X22" s="15">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="Y22" s="15">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="Z22" s="15">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="AA22" s="15">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="AB22" s="15">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="AC22" s="15">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="AD22" s="15">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="AE22" s="15">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="AF22" s="15">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="AG22" s="15">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="AH22" s="15">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="AI22" s="15">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AJ22" s="15">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AK22" s="15">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AL22" s="15">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AM22" s="15">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AN22" s="15">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AO22" s="15">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AP22" s="15">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AQ22" s="15">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AR22" s="15">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AS22" s="15">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AT22" s="15">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AU22" s="15">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AV22" s="15">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AW22" s="15">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AX22" s="15">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AY22" s="15">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AZ22" s="15">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="BA22" s="15">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="BB22" s="15">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3143,7 +3178,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3198,7 +3233,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3253,7 +3288,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3465,7 +3500,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3522,7 +3557,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
@@ -3581,107 +3616,107 @@
       <c r="U29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="11" t="s">
-        <v>58</v>
+      <c r="V29" s="11">
+        <v>727155</v>
       </c>
       <c r="W29" s="11">
-        <v>727155</v>
+        <v>1758207</v>
       </c>
       <c r="X29" s="11">
-        <v>1758207</v>
+        <v>1428328</v>
       </c>
       <c r="Y29" s="11">
-        <v>1428328</v>
+        <v>1347200</v>
       </c>
       <c r="Z29" s="11">
-        <v>1347200</v>
+        <v>1194794</v>
       </c>
       <c r="AA29" s="11">
-        <v>1194794</v>
+        <v>1212186</v>
       </c>
       <c r="AB29" s="11">
-        <v>1212186</v>
+        <v>1505135</v>
       </c>
       <c r="AC29" s="11">
-        <v>1505135</v>
+        <v>1275979</v>
       </c>
       <c r="AD29" s="11">
-        <v>1275979</v>
+        <v>808366</v>
       </c>
       <c r="AE29" s="11">
-        <v>808366</v>
+        <v>1354994</v>
       </c>
       <c r="AF29" s="11">
-        <v>1354994</v>
+        <v>1657995</v>
       </c>
       <c r="AG29" s="11">
-        <v>1657995</v>
+        <v>820801</v>
       </c>
       <c r="AH29" s="11">
-        <v>820801</v>
+        <v>794112</v>
       </c>
       <c r="AI29" s="11">
-        <v>794112</v>
+        <v>1357659</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1357659</v>
+        <v>1241976</v>
       </c>
       <c r="AK29" s="11">
-        <v>1241976</v>
+        <v>905633</v>
       </c>
       <c r="AL29" s="11">
-        <v>905633</v>
+        <v>949622</v>
       </c>
       <c r="AM29" s="11">
-        <v>949622</v>
+        <v>752521</v>
       </c>
       <c r="AN29" s="11">
-        <v>752521</v>
+        <v>1502793</v>
       </c>
       <c r="AO29" s="11">
-        <v>1502793</v>
+        <v>1217963</v>
       </c>
       <c r="AP29" s="11">
-        <v>1217963</v>
+        <v>1151102</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1151102</v>
+        <v>876643</v>
       </c>
       <c r="AR29" s="11">
-        <v>876643</v>
+        <v>1478014</v>
       </c>
       <c r="AS29" s="11">
-        <v>1478014</v>
+        <v>1063891</v>
       </c>
       <c r="AT29" s="11">
-        <v>1063891</v>
+        <v>858394</v>
       </c>
       <c r="AU29" s="11">
-        <v>858394</v>
+        <v>1373302</v>
       </c>
       <c r="AV29" s="11">
-        <v>1373302</v>
+        <v>1538347</v>
       </c>
       <c r="AW29" s="11">
-        <v>1538347</v>
+        <v>914425</v>
       </c>
       <c r="AX29" s="11">
-        <v>914425</v>
+        <v>1080451</v>
       </c>
       <c r="AY29" s="11">
-        <v>1080451</v>
+        <v>1243693</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1243693</v>
+        <v>1048105</v>
       </c>
       <c r="BA29" s="11">
-        <v>1048105</v>
+        <v>1427268</v>
       </c>
       <c r="BB29" s="11">
-        <v>1427268</v>
+        <v>1508550</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
@@ -3740,107 +3775,107 @@
       <c r="U30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V30" s="13" t="s">
-        <v>58</v>
+      <c r="V30" s="13">
+        <v>1320729</v>
       </c>
       <c r="W30" s="13">
-        <v>1320729</v>
+        <v>2580766</v>
       </c>
       <c r="X30" s="13">
-        <v>2580766</v>
+        <v>3783148</v>
       </c>
       <c r="Y30" s="13">
-        <v>3783148</v>
+        <v>4173866</v>
       </c>
       <c r="Z30" s="13">
-        <v>4173866</v>
+        <v>3130742</v>
       </c>
       <c r="AA30" s="13">
-        <v>3130742</v>
+        <v>3023239</v>
       </c>
       <c r="AB30" s="13">
-        <v>3023239</v>
+        <v>3779960</v>
       </c>
       <c r="AC30" s="13">
-        <v>3779960</v>
+        <v>2779130</v>
       </c>
       <c r="AD30" s="13">
-        <v>2779130</v>
+        <v>1564164</v>
       </c>
       <c r="AE30" s="13">
-        <v>1564164</v>
+        <v>3044748</v>
       </c>
       <c r="AF30" s="13">
-        <v>3044748</v>
+        <v>4107914</v>
       </c>
       <c r="AG30" s="13">
-        <v>4107914</v>
+        <v>2394796</v>
       </c>
       <c r="AH30" s="13">
-        <v>2394796</v>
+        <v>1566309</v>
       </c>
       <c r="AI30" s="13">
-        <v>1566309</v>
+        <v>2515494</v>
       </c>
       <c r="AJ30" s="13">
-        <v>2515494</v>
+        <v>2682261</v>
       </c>
       <c r="AK30" s="13">
-        <v>2682261</v>
+        <v>3193511</v>
       </c>
       <c r="AL30" s="13">
-        <v>3193511</v>
+        <v>3698752</v>
       </c>
       <c r="AM30" s="13">
-        <v>3698752</v>
+        <v>4100440</v>
       </c>
       <c r="AN30" s="13">
-        <v>4100440</v>
+        <v>1870160</v>
       </c>
       <c r="AO30" s="13">
-        <v>1870160</v>
+        <v>2479481</v>
       </c>
       <c r="AP30" s="13">
-        <v>2479481</v>
+        <v>2914177</v>
       </c>
       <c r="AQ30" s="13">
-        <v>2914177</v>
+        <v>3038566</v>
       </c>
       <c r="AR30" s="13">
-        <v>3038566</v>
+        <v>3595991</v>
       </c>
       <c r="AS30" s="13">
-        <v>3595991</v>
+        <v>3609528</v>
       </c>
       <c r="AT30" s="13">
-        <v>3609528</v>
+        <v>1989681</v>
       </c>
       <c r="AU30" s="13">
-        <v>1989681</v>
+        <v>3496200</v>
       </c>
       <c r="AV30" s="13">
-        <v>3496200</v>
+        <v>4200541</v>
       </c>
       <c r="AW30" s="13">
-        <v>4200541</v>
+        <v>2815617</v>
       </c>
       <c r="AX30" s="13">
-        <v>2815617</v>
+        <v>3081726</v>
       </c>
       <c r="AY30" s="13">
-        <v>3081726</v>
+        <v>2968577</v>
       </c>
       <c r="AZ30" s="13">
-        <v>2968577</v>
+        <v>2765128</v>
       </c>
       <c r="BA30" s="13">
-        <v>2765128</v>
+        <v>3309430</v>
       </c>
       <c r="BB30" s="13">
-        <v>3309430</v>
+        <v>3495912</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
@@ -3899,107 +3934,107 @@
       <c r="U31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="11" t="s">
-        <v>58</v>
+      <c r="V31" s="11">
+        <v>130340</v>
       </c>
       <c r="W31" s="11">
-        <v>130340</v>
+        <v>323957</v>
       </c>
       <c r="X31" s="11">
-        <v>323957</v>
+        <v>908037</v>
       </c>
       <c r="Y31" s="11">
-        <v>908037</v>
+        <v>693492</v>
       </c>
       <c r="Z31" s="11">
-        <v>693492</v>
+        <v>545746</v>
       </c>
       <c r="AA31" s="11">
-        <v>545746</v>
+        <v>715714</v>
       </c>
       <c r="AB31" s="11">
-        <v>715714</v>
+        <v>671640</v>
       </c>
       <c r="AC31" s="11">
-        <v>671640</v>
+        <v>585828</v>
       </c>
       <c r="AD31" s="11">
-        <v>585828</v>
+        <v>305848</v>
       </c>
       <c r="AE31" s="11">
-        <v>305848</v>
+        <v>1092631</v>
       </c>
       <c r="AF31" s="11">
-        <v>1092631</v>
+        <v>1560939</v>
       </c>
       <c r="AG31" s="11">
-        <v>1560939</v>
+        <v>550735</v>
       </c>
       <c r="AH31" s="11">
-        <v>550735</v>
+        <v>256651</v>
       </c>
       <c r="AI31" s="11">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AJ31" s="11">
-        <v>852995</v>
+        <v>841409</v>
       </c>
       <c r="AK31" s="11">
-        <v>841409</v>
+        <v>728770</v>
       </c>
       <c r="AL31" s="11">
-        <v>728770</v>
+        <v>513533</v>
       </c>
       <c r="AM31" s="11">
-        <v>513533</v>
+        <v>668065</v>
       </c>
       <c r="AN31" s="11">
-        <v>668065</v>
+        <v>1301462</v>
       </c>
       <c r="AO31" s="11">
-        <v>1301462</v>
+        <v>779020</v>
       </c>
       <c r="AP31" s="11">
-        <v>779020</v>
+        <v>851136</v>
       </c>
       <c r="AQ31" s="11">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AR31" s="11">
-        <v>561149</v>
+        <v>1152560</v>
       </c>
       <c r="AS31" s="11">
-        <v>1152560</v>
+        <v>574133</v>
       </c>
       <c r="AT31" s="11">
-        <v>574133</v>
+        <v>660344</v>
       </c>
       <c r="AU31" s="11">
-        <v>660344</v>
+        <v>1140687</v>
       </c>
       <c r="AV31" s="11">
-        <v>1140687</v>
+        <v>1249883</v>
       </c>
       <c r="AW31" s="11">
-        <v>1249883</v>
+        <v>1343740</v>
       </c>
       <c r="AX31" s="11">
-        <v>1343740</v>
+        <v>1123452</v>
       </c>
       <c r="AY31" s="11">
-        <v>1123452</v>
+        <v>1408978</v>
       </c>
       <c r="AZ31" s="11">
-        <v>1408978</v>
+        <v>893959</v>
       </c>
       <c r="BA31" s="11">
-        <v>893959</v>
+        <v>1763718</v>
       </c>
       <c r="BB31" s="11">
-        <v>1763718</v>
+        <v>1493027</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>69</v>
       </c>
@@ -4057,106 +4092,106 @@
         <v>0</v>
       </c>
       <c r="V32" s="15">
-        <v>0</v>
+        <v>2178224</v>
       </c>
       <c r="W32" s="15">
-        <v>2178224</v>
+        <v>4662930</v>
       </c>
       <c r="X32" s="15">
-        <v>4662930</v>
+        <v>6119513</v>
       </c>
       <c r="Y32" s="15">
-        <v>6119513</v>
+        <v>6214558</v>
       </c>
       <c r="Z32" s="15">
-        <v>6214558</v>
+        <v>4871282</v>
       </c>
       <c r="AA32" s="15">
-        <v>4871282</v>
+        <v>4951139</v>
       </c>
       <c r="AB32" s="15">
-        <v>4951139</v>
+        <v>5956735</v>
       </c>
       <c r="AC32" s="15">
-        <v>5956735</v>
+        <v>4640937</v>
       </c>
       <c r="AD32" s="15">
-        <v>4640937</v>
+        <v>2678378</v>
       </c>
       <c r="AE32" s="15">
-        <v>2678378</v>
+        <v>5492373</v>
       </c>
       <c r="AF32" s="15">
-        <v>5492373</v>
+        <v>7326848</v>
       </c>
       <c r="AG32" s="15">
-        <v>7326848</v>
+        <v>3766332</v>
       </c>
       <c r="AH32" s="15">
-        <v>3766332</v>
+        <v>2617072</v>
       </c>
       <c r="AI32" s="15">
-        <v>2617072</v>
+        <v>4726148</v>
       </c>
       <c r="AJ32" s="15">
-        <v>4726148</v>
+        <v>4765646</v>
       </c>
       <c r="AK32" s="15">
-        <v>4765646</v>
+        <v>4827914</v>
       </c>
       <c r="AL32" s="15">
-        <v>4827914</v>
+        <v>5161907</v>
       </c>
       <c r="AM32" s="15">
-        <v>5161907</v>
+        <v>5521026</v>
       </c>
       <c r="AN32" s="15">
-        <v>5521026</v>
+        <v>4674415</v>
       </c>
       <c r="AO32" s="15">
-        <v>4674415</v>
+        <v>4476464</v>
       </c>
       <c r="AP32" s="15">
-        <v>4476464</v>
+        <v>4916415</v>
       </c>
       <c r="AQ32" s="15">
-        <v>4916415</v>
+        <v>4476358</v>
       </c>
       <c r="AR32" s="15">
-        <v>4476358</v>
+        <v>6226565</v>
       </c>
       <c r="AS32" s="15">
-        <v>6226565</v>
+        <v>5247552</v>
       </c>
       <c r="AT32" s="15">
-        <v>5247552</v>
+        <v>3508419</v>
       </c>
       <c r="AU32" s="15">
-        <v>3508419</v>
+        <v>6010189</v>
       </c>
       <c r="AV32" s="15">
-        <v>6010189</v>
+        <v>6988771</v>
       </c>
       <c r="AW32" s="15">
-        <v>6988771</v>
+        <v>5073782</v>
       </c>
       <c r="AX32" s="15">
-        <v>5073782</v>
+        <v>5285629</v>
       </c>
       <c r="AY32" s="15">
-        <v>5285629</v>
+        <v>5621248</v>
       </c>
       <c r="AZ32" s="15">
-        <v>5621248</v>
+        <v>4707192</v>
       </c>
       <c r="BA32" s="15">
-        <v>4707192</v>
+        <v>6500416</v>
       </c>
       <c r="BB32" s="15">
-        <v>6500416</v>
+        <v>6497489</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>70</v>
       </c>
@@ -4213,7 +4248,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4272,107 +4307,107 @@
       <c r="U34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V34" s="11" t="s">
-        <v>58</v>
+      <c r="V34" s="11">
+        <v>1860</v>
       </c>
       <c r="W34" s="11">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="X34" s="11">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="Y34" s="11">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="Z34" s="11">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="AA34" s="11">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="AB34" s="11">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="AC34" s="11">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="AD34" s="11">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="AE34" s="11">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="AF34" s="11">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="AG34" s="11">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="AH34" s="11">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="AI34" s="11">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AJ34" s="11">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AK34" s="11">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AL34" s="11">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AM34" s="11">
+        <v>31524</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>89967</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>7441</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>38500</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>69784</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>1044</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>76776</v>
+      </c>
+      <c r="AW34" s="11">
         <v>9732</v>
       </c>
-      <c r="AN34" s="11">
-        <v>31524</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>89967</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>7441</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>38500</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>69784</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>1044</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>76776</v>
-      </c>
       <c r="AX34" s="11">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AY34" s="11">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AZ34" s="11">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="BA34" s="11">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="BB34" s="11">
-        <v>54240</v>
+        <v>62336</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4431,107 +4466,107 @@
       <c r="U35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V35" s="13" t="s">
-        <v>58</v>
+      <c r="V35" s="13">
+        <v>9512</v>
       </c>
       <c r="W35" s="13">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="X35" s="13">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="Y35" s="13">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="Z35" s="13">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="AA35" s="13">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="AB35" s="13">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="AC35" s="13">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="AD35" s="13">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="AE35" s="13">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="AF35" s="13">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="AG35" s="13">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="AH35" s="13">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="AI35" s="13">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AJ35" s="13">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AK35" s="13">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AL35" s="13">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AM35" s="13">
-        <v>29676</v>
-      </c>
-      <c r="AN35" s="13">
         <v>17112</v>
       </c>
-      <c r="AO35" s="13" t="s">
-        <v>58</v>
+      <c r="AN35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>51469</v>
       </c>
       <c r="AP35" s="13">
-        <v>51469</v>
-      </c>
-      <c r="AQ35" s="13">
         <v>19463</v>
       </c>
-      <c r="AR35" s="13" t="s">
-        <v>58</v>
+      <c r="AQ35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>62036</v>
       </c>
       <c r="AS35" s="13">
-        <v>62036</v>
+        <v>159940</v>
       </c>
       <c r="AT35" s="13">
-        <v>159940</v>
+        <v>4128</v>
       </c>
       <c r="AU35" s="13">
-        <v>4128</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="13">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AW35" s="13">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AX35" s="13">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AY35" s="13">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AZ35" s="13">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="BA35" s="13">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="BB35" s="13">
-        <v>48648</v>
+        <v>52604</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4590,107 +4625,107 @@
       <c r="U36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V36" s="11" t="s">
-        <v>58</v>
+      <c r="V36" s="11">
+        <v>0</v>
       </c>
       <c r="W36" s="11">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="X36" s="11">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="11">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="Z36" s="11">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="AA36" s="11">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="AB36" s="11">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="AC36" s="11">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="AD36" s="11">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="AE36" s="11">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="AF36" s="11">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="AG36" s="11">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="AH36" s="11">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="11">
         <v>0</v>
       </c>
       <c r="AJ36" s="11">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AK36" s="11">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AL36" s="11">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AM36" s="11">
-        <v>5365</v>
-      </c>
-      <c r="AN36" s="11">
         <v>3311</v>
       </c>
-      <c r="AO36" s="11" t="s">
-        <v>58</v>
+      <c r="AN36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>4201</v>
       </c>
       <c r="AP36" s="11">
-        <v>4201</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>12103</v>
       </c>
       <c r="AS36" s="11">
-        <v>12103</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="11">
-        <v>0</v>
+        <v>3768</v>
       </c>
       <c r="AU36" s="11">
-        <v>3768</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="11">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AW36" s="11">
-        <v>9000</v>
+        <v>11508</v>
       </c>
       <c r="AX36" s="11">
-        <v>11508</v>
+        <v>26016</v>
       </c>
       <c r="AY36" s="11">
-        <v>26016</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="11">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="BA36" s="11">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="BB36" s="11">
-        <v>9060</v>
+        <v>18632</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>71</v>
       </c>
@@ -4748,106 +4783,106 @@
         <v>0</v>
       </c>
       <c r="V37" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="W37" s="15">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="X37" s="15">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="Y37" s="15">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="Z37" s="15">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="AA37" s="15">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="AB37" s="15">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="AC37" s="15">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="AD37" s="15">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="AE37" s="15">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="AF37" s="15">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="AG37" s="15">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="AH37" s="15">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="AI37" s="15">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AJ37" s="15">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AK37" s="15">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AL37" s="15">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AM37" s="15">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AN37" s="15">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="15">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AP37" s="15">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AQ37" s="15">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AR37" s="15">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AS37" s="15">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AT37" s="15">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AU37" s="15">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="15">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AW37" s="15">
-        <v>143160</v>
+        <v>28356</v>
       </c>
       <c r="AX37" s="15">
-        <v>28356</v>
+        <v>63128</v>
       </c>
       <c r="AY37" s="15">
-        <v>63128</v>
+        <v>34200</v>
       </c>
       <c r="AZ37" s="15">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="BA37" s="15">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="BB37" s="15">
-        <v>111948</v>
+        <v>133572</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>64</v>
       </c>
@@ -4904,7 +4939,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +4996,8 @@
       <c r="U39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V39" s="19" t="s">
-        <v>58</v>
+      <c r="V39" s="19">
+        <v>0</v>
       </c>
       <c r="W39" s="19">
         <v>0</v>
@@ -5061,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>72</v>
       </c>
@@ -5118,7 +5153,7 @@
       <c r="BA40" s="17"/>
       <c r="BB40" s="17"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>73</v>
       </c>
@@ -5175,8 +5210,8 @@
       <c r="U41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V41" s="19" t="s">
-        <v>58</v>
+      <c r="V41" s="19">
+        <v>0</v>
       </c>
       <c r="W41" s="19">
         <v>0</v>
@@ -5275,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>66</v>
       </c>
@@ -5333,106 +5368,106 @@
         <v>0</v>
       </c>
       <c r="V42" s="15">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="W42" s="15">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="X42" s="15">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="Y42" s="15">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="Z42" s="15">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="AA42" s="15">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="AB42" s="15">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="AC42" s="15">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="AD42" s="15">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="AE42" s="15">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="AF42" s="15">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="AG42" s="15">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="AH42" s="15">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="AI42" s="15">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AJ42" s="15">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AK42" s="15">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AL42" s="15">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AM42" s="15">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AN42" s="15">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AO42" s="15">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AP42" s="15">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AQ42" s="15">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AR42" s="15">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AS42" s="15">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AT42" s="15">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AU42" s="15">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AV42" s="15">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AW42" s="15">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AX42" s="15">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AY42" s="15">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AZ42" s="15">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="BA42" s="15">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="BB42" s="15">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5487,7 +5522,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5542,7 +5577,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5597,7 +5632,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>74</v>
       </c>
@@ -5754,7 +5789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5809,7 +5844,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>75</v>
       </c>
@@ -5866,7 +5901,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -5925,107 +5960,107 @@
       <c r="U49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V49" s="11" t="s">
-        <v>58</v>
+      <c r="V49" s="11">
+        <v>107356</v>
       </c>
       <c r="W49" s="11">
-        <v>107356</v>
+        <v>264463</v>
       </c>
       <c r="X49" s="11">
-        <v>264463</v>
+        <v>312989</v>
       </c>
       <c r="Y49" s="11">
-        <v>312989</v>
+        <v>311214</v>
       </c>
       <c r="Z49" s="11">
-        <v>311214</v>
+        <v>284377</v>
       </c>
       <c r="AA49" s="11">
-        <v>284377</v>
+        <v>262582</v>
       </c>
       <c r="AB49" s="11">
-        <v>262582</v>
+        <v>291013</v>
       </c>
       <c r="AC49" s="11">
-        <v>291013</v>
+        <v>303673</v>
       </c>
       <c r="AD49" s="11">
-        <v>303673</v>
+        <v>204875</v>
       </c>
       <c r="AE49" s="11">
-        <v>204875</v>
+        <v>310919</v>
       </c>
       <c r="AF49" s="11">
-        <v>310919</v>
+        <v>435566</v>
       </c>
       <c r="AG49" s="11">
-        <v>435566</v>
+        <v>322153</v>
       </c>
       <c r="AH49" s="11">
-        <v>322153</v>
+        <v>237020</v>
       </c>
       <c r="AI49" s="11">
-        <v>237020</v>
+        <v>443682</v>
       </c>
       <c r="AJ49" s="11">
-        <v>443682</v>
+        <v>379317</v>
       </c>
       <c r="AK49" s="11">
-        <v>379317</v>
+        <v>361340</v>
       </c>
       <c r="AL49" s="11">
-        <v>361340</v>
+        <v>292867</v>
       </c>
       <c r="AM49" s="11">
-        <v>292867</v>
+        <v>211220</v>
       </c>
       <c r="AN49" s="11">
-        <v>211220</v>
+        <v>409790</v>
       </c>
       <c r="AO49" s="11">
-        <v>409790</v>
+        <v>380457</v>
       </c>
       <c r="AP49" s="11">
-        <v>380457</v>
+        <v>332376</v>
       </c>
       <c r="AQ49" s="11">
-        <v>332376</v>
+        <v>296503</v>
       </c>
       <c r="AR49" s="11">
-        <v>296503</v>
+        <v>531290</v>
       </c>
       <c r="AS49" s="11">
-        <v>531290</v>
+        <v>255696</v>
       </c>
       <c r="AT49" s="11">
-        <v>255696</v>
+        <v>241291</v>
       </c>
       <c r="AU49" s="11">
-        <v>241291</v>
+        <v>438589</v>
       </c>
       <c r="AV49" s="11">
-        <v>438589</v>
+        <v>494639</v>
       </c>
       <c r="AW49" s="11">
-        <v>494639</v>
+        <v>329574</v>
       </c>
       <c r="AX49" s="11">
-        <v>329574</v>
+        <v>346258</v>
       </c>
       <c r="AY49" s="11">
-        <v>346258</v>
+        <v>421735</v>
       </c>
       <c r="AZ49" s="11">
-        <v>421735</v>
+        <v>355816</v>
       </c>
       <c r="BA49" s="11">
-        <v>355816</v>
+        <v>432481</v>
       </c>
       <c r="BB49" s="11">
-        <v>432481</v>
+        <v>477529</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6084,107 +6119,107 @@
       <c r="U50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V50" s="13" t="s">
-        <v>58</v>
+      <c r="V50" s="13">
+        <v>165283</v>
       </c>
       <c r="W50" s="13">
-        <v>165283</v>
+        <v>396066</v>
       </c>
       <c r="X50" s="13">
-        <v>396066</v>
+        <v>393106</v>
       </c>
       <c r="Y50" s="13">
-        <v>393106</v>
+        <v>592602</v>
       </c>
       <c r="Z50" s="13">
-        <v>592602</v>
+        <v>514433</v>
       </c>
       <c r="AA50" s="13">
-        <v>514433</v>
+        <v>553392</v>
       </c>
       <c r="AB50" s="13">
-        <v>553392</v>
+        <v>593051</v>
       </c>
       <c r="AC50" s="13">
-        <v>593051</v>
+        <v>596707</v>
       </c>
       <c r="AD50" s="13">
-        <v>596707</v>
+        <v>507198</v>
       </c>
       <c r="AE50" s="13">
-        <v>507198</v>
+        <v>618102</v>
       </c>
       <c r="AF50" s="13">
-        <v>618102</v>
+        <v>908940</v>
       </c>
       <c r="AG50" s="13">
-        <v>908940</v>
+        <v>746452</v>
       </c>
       <c r="AH50" s="13">
-        <v>746452</v>
+        <v>346417</v>
       </c>
       <c r="AI50" s="13">
-        <v>346417</v>
+        <v>589789</v>
       </c>
       <c r="AJ50" s="13">
-        <v>589789</v>
+        <v>605399</v>
       </c>
       <c r="AK50" s="13">
-        <v>605399</v>
+        <v>768772</v>
       </c>
       <c r="AL50" s="13">
-        <v>768772</v>
+        <v>791113</v>
       </c>
       <c r="AM50" s="13">
-        <v>791113</v>
+        <v>978070</v>
       </c>
       <c r="AN50" s="13">
-        <v>978070</v>
+        <v>520867</v>
       </c>
       <c r="AO50" s="13">
-        <v>520867</v>
+        <v>721711</v>
       </c>
       <c r="AP50" s="13">
-        <v>721711</v>
+        <v>701817</v>
       </c>
       <c r="AQ50" s="13">
-        <v>701817</v>
+        <v>778548</v>
       </c>
       <c r="AR50" s="13">
-        <v>778548</v>
+        <v>978172</v>
       </c>
       <c r="AS50" s="13">
-        <v>978172</v>
+        <v>888182</v>
       </c>
       <c r="AT50" s="13">
-        <v>888182</v>
+        <v>491503</v>
       </c>
       <c r="AU50" s="13">
-        <v>491503</v>
+        <v>975476</v>
       </c>
       <c r="AV50" s="13">
-        <v>975476</v>
+        <v>1253144</v>
       </c>
       <c r="AW50" s="13">
-        <v>1253144</v>
+        <v>933931</v>
       </c>
       <c r="AX50" s="13">
-        <v>933931</v>
+        <v>1027166</v>
       </c>
       <c r="AY50" s="13">
-        <v>1027166</v>
+        <v>1177383</v>
       </c>
       <c r="AZ50" s="13">
-        <v>1177383</v>
+        <v>894249</v>
       </c>
       <c r="BA50" s="13">
-        <v>894249</v>
+        <v>1217495</v>
       </c>
       <c r="BB50" s="13">
-        <v>1217495</v>
+        <v>1278709</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
@@ -6243,107 +6278,107 @@
       <c r="U51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V51" s="11" t="s">
-        <v>58</v>
+      <c r="V51" s="11">
+        <v>27600</v>
       </c>
       <c r="W51" s="11">
-        <v>27600</v>
+        <v>139228</v>
       </c>
       <c r="X51" s="11">
-        <v>139228</v>
+        <v>151990</v>
       </c>
       <c r="Y51" s="11">
-        <v>151990</v>
+        <v>165748</v>
       </c>
       <c r="Z51" s="11">
-        <v>165748</v>
+        <v>176972</v>
       </c>
       <c r="AA51" s="11">
-        <v>176972</v>
+        <v>227532</v>
       </c>
       <c r="AB51" s="11">
-        <v>227532</v>
+        <v>217613</v>
       </c>
       <c r="AC51" s="11">
-        <v>217613</v>
+        <v>223101</v>
       </c>
       <c r="AD51" s="11">
-        <v>223101</v>
+        <v>137180</v>
       </c>
       <c r="AE51" s="11">
-        <v>137180</v>
+        <v>306629</v>
       </c>
       <c r="AF51" s="11">
-        <v>306629</v>
+        <v>457113</v>
       </c>
       <c r="AG51" s="11">
-        <v>457113</v>
+        <v>251125</v>
       </c>
       <c r="AH51" s="11">
-        <v>251125</v>
+        <v>102359</v>
       </c>
       <c r="AI51" s="11">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AJ51" s="11">
-        <v>350389</v>
+        <v>281941</v>
       </c>
       <c r="AK51" s="11">
-        <v>281941</v>
+        <v>353573</v>
       </c>
       <c r="AL51" s="11">
-        <v>353573</v>
+        <v>192767</v>
       </c>
       <c r="AM51" s="11">
-        <v>192767</v>
+        <v>233404</v>
       </c>
       <c r="AN51" s="11">
-        <v>233404</v>
+        <v>439739</v>
       </c>
       <c r="AO51" s="11">
-        <v>439739</v>
+        <v>455549</v>
       </c>
       <c r="AP51" s="11">
-        <v>455549</v>
+        <v>429007</v>
       </c>
       <c r="AQ51" s="11">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AR51" s="11">
-        <v>387230</v>
+        <v>601535</v>
       </c>
       <c r="AS51" s="11">
-        <v>601535</v>
+        <v>380655</v>
       </c>
       <c r="AT51" s="11">
-        <v>380655</v>
+        <v>295706</v>
       </c>
       <c r="AU51" s="11">
-        <v>295706</v>
+        <v>677102</v>
       </c>
       <c r="AV51" s="11">
-        <v>677102</v>
+        <v>713538</v>
       </c>
       <c r="AW51" s="11">
-        <v>713538</v>
+        <v>767728</v>
       </c>
       <c r="AX51" s="11">
-        <v>767728</v>
+        <v>608822</v>
       </c>
       <c r="AY51" s="11">
-        <v>608822</v>
+        <v>995123</v>
       </c>
       <c r="AZ51" s="11">
-        <v>995123</v>
+        <v>495959</v>
       </c>
       <c r="BA51" s="11">
-        <v>495959</v>
+        <v>1065343</v>
       </c>
       <c r="BB51" s="11">
-        <v>1065343</v>
+        <v>980075</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
@@ -6401,106 +6436,106 @@
         <v>0</v>
       </c>
       <c r="V52" s="15">
-        <v>0</v>
+        <v>300239</v>
       </c>
       <c r="W52" s="15">
-        <v>300239</v>
+        <v>799757</v>
       </c>
       <c r="X52" s="15">
-        <v>799757</v>
+        <v>858085</v>
       </c>
       <c r="Y52" s="15">
-        <v>858085</v>
+        <v>1069564</v>
       </c>
       <c r="Z52" s="15">
-        <v>1069564</v>
+        <v>975782</v>
       </c>
       <c r="AA52" s="15">
-        <v>975782</v>
+        <v>1043506</v>
       </c>
       <c r="AB52" s="15">
-        <v>1043506</v>
+        <v>1101677</v>
       </c>
       <c r="AC52" s="15">
-        <v>1101677</v>
+        <v>1123481</v>
       </c>
       <c r="AD52" s="15">
-        <v>1123481</v>
+        <v>849253</v>
       </c>
       <c r="AE52" s="15">
-        <v>849253</v>
+        <v>1235650</v>
       </c>
       <c r="AF52" s="15">
-        <v>1235650</v>
+        <v>1801619</v>
       </c>
       <c r="AG52" s="15">
-        <v>1801619</v>
+        <v>1319730</v>
       </c>
       <c r="AH52" s="15">
-        <v>1319730</v>
+        <v>685796</v>
       </c>
       <c r="AI52" s="15">
-        <v>685796</v>
+        <v>1383860</v>
       </c>
       <c r="AJ52" s="15">
-        <v>1383860</v>
+        <v>1266657</v>
       </c>
       <c r="AK52" s="15">
-        <v>1266657</v>
+        <v>1483685</v>
       </c>
       <c r="AL52" s="15">
-        <v>1483685</v>
+        <v>1276747</v>
       </c>
       <c r="AM52" s="15">
-        <v>1276747</v>
+        <v>1422694</v>
       </c>
       <c r="AN52" s="15">
-        <v>1422694</v>
+        <v>1370396</v>
       </c>
       <c r="AO52" s="15">
-        <v>1370396</v>
+        <v>1557717</v>
       </c>
       <c r="AP52" s="15">
-        <v>1557717</v>
+        <v>1463200</v>
       </c>
       <c r="AQ52" s="15">
-        <v>1463200</v>
+        <v>1462281</v>
       </c>
       <c r="AR52" s="15">
-        <v>1462281</v>
+        <v>2110997</v>
       </c>
       <c r="AS52" s="15">
-        <v>2110997</v>
+        <v>1524533</v>
       </c>
       <c r="AT52" s="15">
-        <v>1524533</v>
+        <v>1028500</v>
       </c>
       <c r="AU52" s="15">
-        <v>1028500</v>
+        <v>2091167</v>
       </c>
       <c r="AV52" s="15">
-        <v>2091167</v>
+        <v>2461321</v>
       </c>
       <c r="AW52" s="15">
-        <v>2461321</v>
+        <v>2031233</v>
       </c>
       <c r="AX52" s="15">
-        <v>2031233</v>
+        <v>1982246</v>
       </c>
       <c r="AY52" s="15">
-        <v>1982246</v>
+        <v>2594241</v>
       </c>
       <c r="AZ52" s="15">
-        <v>2594241</v>
+        <v>1746024</v>
       </c>
       <c r="BA52" s="15">
-        <v>1746024</v>
+        <v>2715319</v>
       </c>
       <c r="BB52" s="15">
-        <v>2715319</v>
+        <v>2736313</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>77</v>
       </c>
@@ -6557,7 +6592,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -6616,107 +6651,107 @@
       <c r="U54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V54" s="11" t="s">
-        <v>58</v>
+      <c r="V54" s="11">
+        <v>237</v>
       </c>
       <c r="W54" s="11">
-        <v>237</v>
+        <v>1638</v>
       </c>
       <c r="X54" s="11">
-        <v>1638</v>
+        <v>5599</v>
       </c>
       <c r="Y54" s="11">
-        <v>5599</v>
+        <v>4439</v>
       </c>
       <c r="Z54" s="11">
-        <v>4439</v>
+        <v>6119</v>
       </c>
       <c r="AA54" s="11">
-        <v>6119</v>
+        <v>4642</v>
       </c>
       <c r="AB54" s="11">
-        <v>4642</v>
+        <v>4957</v>
       </c>
       <c r="AC54" s="11">
-        <v>4957</v>
+        <v>10652</v>
       </c>
       <c r="AD54" s="11">
-        <v>10652</v>
+        <v>9420</v>
       </c>
       <c r="AE54" s="11">
-        <v>9420</v>
+        <v>3843</v>
       </c>
       <c r="AF54" s="11">
-        <v>3843</v>
+        <v>3960</v>
       </c>
       <c r="AG54" s="11">
-        <v>3960</v>
+        <v>4454</v>
       </c>
       <c r="AH54" s="11">
-        <v>4454</v>
+        <v>1918</v>
       </c>
       <c r="AI54" s="11">
-        <v>1918</v>
+        <v>3638</v>
       </c>
       <c r="AJ54" s="11">
-        <v>3638</v>
+        <v>16914</v>
       </c>
       <c r="AK54" s="11">
-        <v>16914</v>
+        <v>860</v>
       </c>
       <c r="AL54" s="11">
-        <v>860</v>
+        <v>1581</v>
       </c>
       <c r="AM54" s="11">
-        <v>1581</v>
+        <v>7462</v>
       </c>
       <c r="AN54" s="11">
-        <v>7462</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="11">
-        <v>0</v>
+        <v>18160</v>
       </c>
       <c r="AP54" s="11">
-        <v>18160</v>
+        <v>1674</v>
       </c>
       <c r="AQ54" s="11">
-        <v>1674</v>
+        <v>11790</v>
       </c>
       <c r="AR54" s="11">
-        <v>11790</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="11">
-        <v>0</v>
+        <v>16265</v>
       </c>
       <c r="AT54" s="11">
-        <v>16265</v>
+        <v>214</v>
       </c>
       <c r="AU54" s="11">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="11">
-        <v>0</v>
+        <v>20170</v>
       </c>
       <c r="AW54" s="11">
-        <v>20170</v>
+        <v>1752</v>
       </c>
       <c r="AX54" s="11">
-        <v>1752</v>
+        <v>12940</v>
       </c>
       <c r="AY54" s="11">
-        <v>12940</v>
+        <v>1938</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1938</v>
+        <v>20092</v>
       </c>
       <c r="BA54" s="11">
-        <v>20092</v>
+        <v>17842</v>
       </c>
       <c r="BB54" s="11">
-        <v>17842</v>
+        <v>20757</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -6775,107 +6810,107 @@
       <c r="U55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V55" s="13" t="s">
-        <v>58</v>
+      <c r="V55" s="13">
+        <v>611</v>
       </c>
       <c r="W55" s="13">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="X55" s="13">
-        <v>363</v>
+        <v>7629</v>
       </c>
       <c r="Y55" s="13">
-        <v>7629</v>
+        <v>5786</v>
       </c>
       <c r="Z55" s="13">
-        <v>5786</v>
+        <v>2560</v>
       </c>
       <c r="AA55" s="13">
-        <v>2560</v>
+        <v>7795</v>
       </c>
       <c r="AB55" s="13">
-        <v>7795</v>
+        <v>4849</v>
       </c>
       <c r="AC55" s="13">
-        <v>4849</v>
+        <v>10837</v>
       </c>
       <c r="AD55" s="13">
-        <v>10837</v>
+        <v>9206</v>
       </c>
       <c r="AE55" s="13">
-        <v>9206</v>
+        <v>4070</v>
       </c>
       <c r="AF55" s="13">
-        <v>4070</v>
+        <v>4422</v>
       </c>
       <c r="AG55" s="13">
-        <v>4422</v>
+        <v>10885</v>
       </c>
       <c r="AH55" s="13">
-        <v>10885</v>
+        <v>1501</v>
       </c>
       <c r="AI55" s="13">
-        <v>1501</v>
+        <v>9009</v>
       </c>
       <c r="AJ55" s="13">
-        <v>9009</v>
+        <v>15333</v>
       </c>
       <c r="AK55" s="13">
-        <v>15333</v>
+        <v>1020</v>
       </c>
       <c r="AL55" s="13">
-        <v>1020</v>
+        <v>5279</v>
       </c>
       <c r="AM55" s="13">
-        <v>5279</v>
+        <v>3777</v>
       </c>
       <c r="AN55" s="13">
-        <v>3777</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="13">
-        <v>0</v>
+        <v>9707</v>
       </c>
       <c r="AP55" s="13">
-        <v>9707</v>
+        <v>3366</v>
       </c>
       <c r="AQ55" s="13">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="13">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="AS55" s="13">
-        <v>14700</v>
+        <v>37489</v>
       </c>
       <c r="AT55" s="13">
-        <v>37489</v>
+        <v>1339</v>
       </c>
       <c r="AU55" s="13">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="13">
-        <v>0</v>
+        <v>11682</v>
       </c>
       <c r="AW55" s="13">
-        <v>11682</v>
+        <v>1337</v>
       </c>
       <c r="AX55" s="13">
-        <v>1337</v>
+        <v>3637</v>
       </c>
       <c r="AY55" s="13">
-        <v>3637</v>
+        <v>5396</v>
       </c>
       <c r="AZ55" s="13">
-        <v>5396</v>
+        <v>21055</v>
       </c>
       <c r="BA55" s="13">
-        <v>21055</v>
+        <v>13304</v>
       </c>
       <c r="BB55" s="13">
-        <v>13304</v>
+        <v>17136</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -6934,107 +6969,107 @@
       <c r="U56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V56" s="11" t="s">
-        <v>58</v>
+      <c r="V56" s="11">
+        <v>0</v>
       </c>
       <c r="W56" s="11">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="X56" s="11">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="Z56" s="11">
-        <v>2032</v>
+        <v>417</v>
       </c>
       <c r="AA56" s="11">
-        <v>417</v>
+        <v>1847</v>
       </c>
       <c r="AB56" s="11">
-        <v>1847</v>
+        <v>1325</v>
       </c>
       <c r="AC56" s="11">
-        <v>1325</v>
+        <v>2217</v>
       </c>
       <c r="AD56" s="11">
-        <v>2217</v>
+        <v>4027</v>
       </c>
       <c r="AE56" s="11">
-        <v>4027</v>
+        <v>1745</v>
       </c>
       <c r="AF56" s="11">
-        <v>1745</v>
+        <v>1477</v>
       </c>
       <c r="AG56" s="11">
-        <v>1477</v>
+        <v>3283</v>
       </c>
       <c r="AH56" s="11">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="11">
         <v>0</v>
       </c>
       <c r="AJ56" s="11">
-        <v>0</v>
+        <v>5218</v>
       </c>
       <c r="AK56" s="11">
-        <v>5218</v>
+        <v>85</v>
       </c>
       <c r="AL56" s="11">
-        <v>85</v>
+        <v>1324</v>
       </c>
       <c r="AM56" s="11">
-        <v>1324</v>
+        <v>809</v>
       </c>
       <c r="AN56" s="11">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="11">
-        <v>0</v>
+        <v>4003</v>
       </c>
       <c r="AP56" s="11">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
       <c r="AR56" s="11">
-        <v>0</v>
+        <v>8664</v>
       </c>
       <c r="AS56" s="11">
-        <v>8664</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="11">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="AU56" s="11">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="11">
-        <v>0</v>
+        <v>4078</v>
       </c>
       <c r="AW56" s="11">
-        <v>4078</v>
+        <v>2037</v>
       </c>
       <c r="AX56" s="11">
-        <v>2037</v>
+        <v>7255</v>
       </c>
       <c r="AY56" s="11">
-        <v>7255</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="11">
-        <v>0</v>
+        <v>3674</v>
       </c>
       <c r="BA56" s="11">
-        <v>3674</v>
+        <v>2879</v>
       </c>
       <c r="BB56" s="11">
-        <v>2879</v>
+        <v>5978</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>71</v>
       </c>
@@ -7092,106 +7127,106 @@
         <v>0</v>
       </c>
       <c r="V57" s="15">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="W57" s="15">
-        <v>848</v>
+        <v>2394</v>
       </c>
       <c r="X57" s="15">
-        <v>2394</v>
+        <v>13228</v>
       </c>
       <c r="Y57" s="15">
-        <v>13228</v>
+        <v>12257</v>
       </c>
       <c r="Z57" s="15">
-        <v>12257</v>
+        <v>9096</v>
       </c>
       <c r="AA57" s="15">
-        <v>9096</v>
+        <v>14284</v>
       </c>
       <c r="AB57" s="15">
-        <v>14284</v>
+        <v>11131</v>
       </c>
       <c r="AC57" s="15">
-        <v>11131</v>
+        <v>23706</v>
       </c>
       <c r="AD57" s="15">
-        <v>23706</v>
+        <v>22653</v>
       </c>
       <c r="AE57" s="15">
-        <v>22653</v>
+        <v>9658</v>
       </c>
       <c r="AF57" s="15">
-        <v>9658</v>
+        <v>9859</v>
       </c>
       <c r="AG57" s="15">
-        <v>9859</v>
+        <v>18622</v>
       </c>
       <c r="AH57" s="15">
-        <v>18622</v>
+        <v>3419</v>
       </c>
       <c r="AI57" s="15">
-        <v>3419</v>
+        <v>12647</v>
       </c>
       <c r="AJ57" s="15">
-        <v>12647</v>
+        <v>37465</v>
       </c>
       <c r="AK57" s="15">
-        <v>37465</v>
+        <v>1965</v>
       </c>
       <c r="AL57" s="15">
-        <v>1965</v>
+        <v>8184</v>
       </c>
       <c r="AM57" s="15">
-        <v>8184</v>
+        <v>12048</v>
       </c>
       <c r="AN57" s="15">
-        <v>12048</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="15">
-        <v>0</v>
+        <v>31870</v>
       </c>
       <c r="AP57" s="15">
-        <v>31870</v>
+        <v>5040</v>
       </c>
       <c r="AQ57" s="15">
-        <v>5040</v>
+        <v>11790</v>
       </c>
       <c r="AR57" s="15">
-        <v>11790</v>
+        <v>23364</v>
       </c>
       <c r="AS57" s="15">
-        <v>23364</v>
+        <v>53754</v>
       </c>
       <c r="AT57" s="15">
-        <v>53754</v>
+        <v>2737</v>
       </c>
       <c r="AU57" s="15">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="15">
-        <v>0</v>
+        <v>35930</v>
       </c>
       <c r="AW57" s="15">
-        <v>35930</v>
+        <v>5126</v>
       </c>
       <c r="AX57" s="15">
-        <v>5126</v>
+        <v>23832</v>
       </c>
       <c r="AY57" s="15">
-        <v>23832</v>
+        <v>7334</v>
       </c>
       <c r="AZ57" s="15">
-        <v>7334</v>
+        <v>44821</v>
       </c>
       <c r="BA57" s="15">
-        <v>44821</v>
+        <v>34025</v>
       </c>
       <c r="BB57" s="15">
-        <v>34025</v>
+        <v>43871</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>78</v>
       </c>
@@ -7248,7 +7283,7 @@
       <c r="BA58" s="17"/>
       <c r="BB58" s="17"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>65</v>
       </c>
@@ -7307,8 +7342,8 @@
       <c r="U59" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V59" s="19" t="s">
-        <v>58</v>
+      <c r="V59" s="19">
+        <v>0</v>
       </c>
       <c r="W59" s="19">
         <v>0</v>
@@ -7407,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>79</v>
       </c>
@@ -7464,7 +7499,7 @@
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>73</v>
       </c>
@@ -7523,8 +7558,8 @@
       <c r="U61" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V61" s="19" t="s">
-        <v>58</v>
+      <c r="V61" s="19">
+        <v>0</v>
       </c>
       <c r="W61" s="19">
         <v>0</v>
@@ -7623,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>80</v>
       </c>
@@ -7680,7 +7715,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>81</v>
       </c>
@@ -7739,8 +7774,8 @@
       <c r="U63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>58</v>
+      <c r="V63" s="11">
+        <v>0</v>
       </c>
       <c r="W63" s="11">
         <v>0</v>
@@ -7839,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>66</v>
       </c>
@@ -7897,106 +7932,106 @@
         <v>0</v>
       </c>
       <c r="V64" s="15">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="W64" s="15">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="X64" s="15">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="Y64" s="15">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="Z64" s="15">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="AA64" s="15">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="AB64" s="15">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="AC64" s="15">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="AD64" s="15">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="AE64" s="15">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="AF64" s="15">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="AG64" s="15">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="AH64" s="15">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="AI64" s="15">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AJ64" s="15">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AK64" s="15">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AL64" s="15">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AM64" s="15">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AN64" s="15">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AO64" s="15">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AP64" s="15">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AQ64" s="15">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AR64" s="15">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AS64" s="15">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AT64" s="15">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AU64" s="15">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AV64" s="15">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AW64" s="15">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AX64" s="15">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AY64" s="15">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AZ64" s="15">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="BA64" s="15">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="BB64" s="15">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8051,7 +8086,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8106,7 +8141,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8161,7 +8196,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -8318,7 +8353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8373,7 +8408,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
@@ -8430,7 +8465,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
@@ -8489,107 +8524,107 @@
       <c r="U71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V71" s="11" t="s">
-        <v>58</v>
+      <c r="V71" s="11">
+        <v>147638</v>
       </c>
       <c r="W71" s="11">
-        <v>147638</v>
+        <v>150416</v>
       </c>
       <c r="X71" s="11">
-        <v>150416</v>
+        <v>219130</v>
       </c>
       <c r="Y71" s="11">
-        <v>219130</v>
+        <v>231008</v>
       </c>
       <c r="Z71" s="11">
-        <v>231008</v>
+        <v>238013</v>
       </c>
       <c r="AA71" s="11">
-        <v>238013</v>
+        <v>216619</v>
       </c>
       <c r="AB71" s="11">
-        <v>216619</v>
+        <v>193347</v>
       </c>
       <c r="AC71" s="11">
-        <v>193347</v>
+        <v>237992</v>
       </c>
       <c r="AD71" s="11">
-        <v>237992</v>
+        <v>253443</v>
       </c>
       <c r="AE71" s="11">
-        <v>253443</v>
+        <v>229462</v>
       </c>
       <c r="AF71" s="11">
-        <v>229462</v>
+        <v>262706</v>
       </c>
       <c r="AG71" s="11">
-        <v>262706</v>
+        <v>392486</v>
       </c>
       <c r="AH71" s="11">
-        <v>392486</v>
+        <v>298472</v>
       </c>
       <c r="AI71" s="11">
-        <v>298472</v>
+        <v>326799</v>
       </c>
       <c r="AJ71" s="11">
-        <v>326799</v>
+        <v>305414</v>
       </c>
       <c r="AK71" s="11">
-        <v>305414</v>
+        <v>398992</v>
       </c>
       <c r="AL71" s="11">
-        <v>398992</v>
+        <v>308404</v>
       </c>
       <c r="AM71" s="11">
-        <v>308404</v>
+        <v>280683</v>
       </c>
       <c r="AN71" s="11">
-        <v>280683</v>
+        <v>272686</v>
       </c>
       <c r="AO71" s="11">
-        <v>272686</v>
+        <v>312372</v>
       </c>
       <c r="AP71" s="11">
-        <v>312372</v>
+        <v>288746</v>
       </c>
       <c r="AQ71" s="11">
-        <v>288746</v>
+        <v>338225</v>
       </c>
       <c r="AR71" s="11">
-        <v>338225</v>
+        <v>359462</v>
       </c>
       <c r="AS71" s="11">
-        <v>359462</v>
+        <v>240340</v>
       </c>
       <c r="AT71" s="11">
-        <v>240340</v>
+        <v>281096</v>
       </c>
       <c r="AU71" s="11">
-        <v>281096</v>
+        <v>319368</v>
       </c>
       <c r="AV71" s="11">
-        <v>319368</v>
+        <v>321539</v>
       </c>
       <c r="AW71" s="11">
-        <v>321539</v>
+        <v>360417</v>
       </c>
       <c r="AX71" s="11">
-        <v>360417</v>
+        <v>320475</v>
       </c>
       <c r="AY71" s="11">
-        <v>320475</v>
+        <v>339099</v>
       </c>
       <c r="AZ71" s="11">
-        <v>339099</v>
+        <v>339485</v>
       </c>
       <c r="BA71" s="11">
-        <v>339485</v>
+        <v>303013</v>
       </c>
       <c r="BB71" s="11">
-        <v>303013</v>
+        <v>316548</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>59</v>
       </c>
@@ -8648,107 +8683,107 @@
       <c r="U72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V72" s="13" t="s">
-        <v>58</v>
+      <c r="V72" s="13">
+        <v>125145</v>
       </c>
       <c r="W72" s="13">
-        <v>125145</v>
+        <v>153468</v>
       </c>
       <c r="X72" s="13">
-        <v>153468</v>
+        <v>103910</v>
       </c>
       <c r="Y72" s="13">
-        <v>103910</v>
+        <v>141979</v>
       </c>
       <c r="Z72" s="13">
-        <v>141979</v>
+        <v>164317</v>
       </c>
       <c r="AA72" s="13">
-        <v>164317</v>
+        <v>183046</v>
       </c>
       <c r="AB72" s="13">
-        <v>183046</v>
+        <v>156893</v>
       </c>
       <c r="AC72" s="13">
-        <v>156893</v>
+        <v>214710</v>
       </c>
       <c r="AD72" s="13">
-        <v>214710</v>
+        <v>324261</v>
       </c>
       <c r="AE72" s="13">
-        <v>324261</v>
+        <v>203006</v>
       </c>
       <c r="AF72" s="13">
-        <v>203006</v>
+        <v>221266</v>
       </c>
       <c r="AG72" s="13">
-        <v>221266</v>
+        <v>311698</v>
       </c>
       <c r="AH72" s="13">
-        <v>311698</v>
+        <v>221168</v>
       </c>
       <c r="AI72" s="13">
-        <v>221168</v>
+        <v>234463</v>
       </c>
       <c r="AJ72" s="13">
-        <v>234463</v>
+        <v>225705</v>
       </c>
       <c r="AK72" s="13">
-        <v>225705</v>
+        <v>240729</v>
       </c>
       <c r="AL72" s="13">
-        <v>240729</v>
+        <v>213886</v>
       </c>
       <c r="AM72" s="13">
-        <v>213886</v>
+        <v>238528</v>
       </c>
       <c r="AN72" s="13">
-        <v>238528</v>
+        <v>278515</v>
       </c>
       <c r="AO72" s="13">
-        <v>278515</v>
+        <v>291073</v>
       </c>
       <c r="AP72" s="13">
-        <v>291073</v>
+        <v>240829</v>
       </c>
       <c r="AQ72" s="13">
-        <v>240829</v>
+        <v>256222</v>
       </c>
       <c r="AR72" s="13">
-        <v>256222</v>
+        <v>272017</v>
       </c>
       <c r="AS72" s="13">
-        <v>272017</v>
+        <v>246066</v>
       </c>
       <c r="AT72" s="13">
-        <v>246066</v>
+        <v>247026</v>
       </c>
       <c r="AU72" s="13">
-        <v>247026</v>
+        <v>279010</v>
       </c>
       <c r="AV72" s="13">
-        <v>279010</v>
+        <v>298329</v>
       </c>
       <c r="AW72" s="13">
-        <v>298329</v>
+        <v>331697</v>
       </c>
       <c r="AX72" s="13">
-        <v>331697</v>
+        <v>333309</v>
       </c>
       <c r="AY72" s="13">
-        <v>333309</v>
+        <v>396615</v>
       </c>
       <c r="AZ72" s="13">
-        <v>396615</v>
+        <v>323402</v>
       </c>
       <c r="BA72" s="13">
-        <v>323402</v>
+        <v>367887</v>
       </c>
       <c r="BB72" s="13">
-        <v>367887</v>
+        <v>365773</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
@@ -8807,107 +8842,107 @@
       <c r="U73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V73" s="11" t="s">
-        <v>58</v>
+      <c r="V73" s="11">
+        <v>211754</v>
       </c>
       <c r="W73" s="11">
-        <v>211754</v>
+        <v>429773</v>
       </c>
       <c r="X73" s="11">
-        <v>429773</v>
+        <v>167383</v>
       </c>
       <c r="Y73" s="11">
-        <v>167383</v>
+        <v>239005</v>
       </c>
       <c r="Z73" s="11">
-        <v>239005</v>
+        <v>324275</v>
       </c>
       <c r="AA73" s="11">
-        <v>324275</v>
+        <v>317909</v>
       </c>
       <c r="AB73" s="11">
-        <v>317909</v>
+        <v>324002</v>
       </c>
       <c r="AC73" s="11">
-        <v>324002</v>
+        <v>380830</v>
       </c>
       <c r="AD73" s="11">
-        <v>380830</v>
+        <v>448523</v>
       </c>
       <c r="AE73" s="11">
-        <v>448523</v>
+        <v>280634</v>
       </c>
       <c r="AF73" s="11">
-        <v>280634</v>
+        <v>292845</v>
       </c>
       <c r="AG73" s="11">
-        <v>292845</v>
+        <v>455982</v>
       </c>
       <c r="AH73" s="11">
-        <v>455982</v>
+        <v>398826</v>
       </c>
       <c r="AI73" s="11">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AJ73" s="11">
-        <v>410775</v>
+        <v>335082</v>
       </c>
       <c r="AK73" s="11">
-        <v>335082</v>
+        <v>485164</v>
       </c>
       <c r="AL73" s="11">
-        <v>485164</v>
+        <v>375374</v>
       </c>
       <c r="AM73" s="11">
-        <v>375374</v>
+        <v>349373</v>
       </c>
       <c r="AN73" s="11">
-        <v>349373</v>
+        <v>337881</v>
       </c>
       <c r="AO73" s="11">
-        <v>337881</v>
+        <v>584772</v>
       </c>
       <c r="AP73" s="11">
-        <v>584772</v>
+        <v>504040</v>
       </c>
       <c r="AQ73" s="11">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AR73" s="11">
-        <v>690066</v>
+        <v>521912</v>
       </c>
       <c r="AS73" s="11">
-        <v>521912</v>
+        <v>663008</v>
       </c>
       <c r="AT73" s="11">
-        <v>663008</v>
+        <v>447806</v>
       </c>
       <c r="AU73" s="11">
-        <v>447806</v>
+        <v>593591</v>
       </c>
       <c r="AV73" s="11">
-        <v>593591</v>
+        <v>570884</v>
       </c>
       <c r="AW73" s="11">
-        <v>570884</v>
+        <v>571337</v>
       </c>
       <c r="AX73" s="11">
-        <v>571337</v>
+        <v>541921</v>
       </c>
       <c r="AY73" s="11">
-        <v>541921</v>
+        <v>706273</v>
       </c>
       <c r="AZ73" s="11">
-        <v>706273</v>
+        <v>554789</v>
       </c>
       <c r="BA73" s="11">
-        <v>554789</v>
+        <v>604033</v>
       </c>
       <c r="BB73" s="11">
-        <v>604033</v>
+        <v>656435</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>85</v>
       </c>
@@ -8964,7 +8999,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
@@ -9023,107 +9058,107 @@
       <c r="U75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V75" s="11" t="s">
-        <v>58</v>
+      <c r="V75" s="11">
+        <v>127419</v>
       </c>
       <c r="W75" s="11">
-        <v>127419</v>
+        <v>110976</v>
       </c>
       <c r="X75" s="11">
-        <v>110976</v>
+        <v>139030</v>
       </c>
       <c r="Y75" s="11">
-        <v>139030</v>
+        <v>146212</v>
       </c>
       <c r="Z75" s="11">
-        <v>146212</v>
+        <v>359857</v>
       </c>
       <c r="AA75" s="11">
-        <v>359857</v>
+        <v>156233</v>
       </c>
       <c r="AB75" s="11">
-        <v>156233</v>
+        <v>224940</v>
       </c>
       <c r="AC75" s="11">
-        <v>224940</v>
+        <v>179738</v>
       </c>
       <c r="AD75" s="11">
-        <v>179738</v>
+        <v>249503</v>
       </c>
       <c r="AE75" s="11">
-        <v>249503</v>
+        <v>189012</v>
       </c>
       <c r="AF75" s="11">
-        <v>189012</v>
+        <v>170162</v>
       </c>
       <c r="AG75" s="11">
-        <v>170162</v>
+        <v>179713</v>
       </c>
       <c r="AH75" s="11">
-        <v>179713</v>
+        <v>262884</v>
       </c>
       <c r="AI75" s="11">
-        <v>262884</v>
+        <v>200773</v>
       </c>
       <c r="AJ75" s="11">
-        <v>200773</v>
+        <v>200612</v>
       </c>
       <c r="AK75" s="11">
-        <v>200612</v>
+        <v>200186</v>
       </c>
       <c r="AL75" s="11">
-        <v>200186</v>
+        <v>162454</v>
       </c>
       <c r="AM75" s="11">
-        <v>162454</v>
-      </c>
-      <c r="AN75" s="11">
         <v>236709</v>
       </c>
-      <c r="AO75" s="11" t="s">
-        <v>58</v>
+      <c r="AN75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO75" s="11">
+        <v>201852</v>
       </c>
       <c r="AP75" s="11">
-        <v>201852</v>
+        <v>224970</v>
       </c>
       <c r="AQ75" s="11">
-        <v>224970</v>
+        <v>306234</v>
       </c>
       <c r="AR75" s="11">
-        <v>306234</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="11">
-        <v>0</v>
+        <v>233076</v>
       </c>
       <c r="AT75" s="11">
-        <v>233076</v>
-      </c>
-      <c r="AU75" s="11">
         <v>204981</v>
       </c>
-      <c r="AV75" s="11" t="s">
-        <v>58</v>
+      <c r="AU75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV75" s="11">
+        <v>262712</v>
       </c>
       <c r="AW75" s="11">
-        <v>262712</v>
+        <v>180025</v>
       </c>
       <c r="AX75" s="11">
-        <v>180025</v>
+        <v>540879</v>
       </c>
       <c r="AY75" s="11">
-        <v>540879</v>
+        <v>246942</v>
       </c>
       <c r="AZ75" s="11">
-        <v>246942</v>
+        <v>395123</v>
       </c>
       <c r="BA75" s="11">
-        <v>395123</v>
+        <v>328945</v>
       </c>
       <c r="BB75" s="11">
-        <v>328945</v>
+        <v>332986</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>59</v>
       </c>
@@ -9182,107 +9217,107 @@
       <c r="U76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V76" s="13" t="s">
-        <v>58</v>
+      <c r="V76" s="13">
+        <v>64235</v>
       </c>
       <c r="W76" s="13">
-        <v>64235</v>
+        <v>106140</v>
       </c>
       <c r="X76" s="13">
-        <v>106140</v>
+        <v>163474</v>
       </c>
       <c r="Y76" s="13">
-        <v>163474</v>
+        <v>152103</v>
       </c>
       <c r="Z76" s="13">
-        <v>152103</v>
+        <v>143562</v>
       </c>
       <c r="AA76" s="13">
-        <v>143562</v>
+        <v>185631</v>
       </c>
       <c r="AB76" s="13">
-        <v>185631</v>
+        <v>190053</v>
       </c>
       <c r="AC76" s="13">
-        <v>190053</v>
+        <v>157044</v>
       </c>
       <c r="AD76" s="13">
-        <v>157044</v>
+        <v>159284</v>
       </c>
       <c r="AE76" s="13">
-        <v>159284</v>
+        <v>171658</v>
       </c>
       <c r="AF76" s="13">
-        <v>171658</v>
+        <v>195612</v>
       </c>
       <c r="AG76" s="13">
-        <v>195612</v>
+        <v>170408</v>
       </c>
       <c r="AH76" s="13">
-        <v>170408</v>
+        <v>177423</v>
       </c>
       <c r="AI76" s="13">
-        <v>177423</v>
+        <v>160075</v>
       </c>
       <c r="AJ76" s="13">
-        <v>160075</v>
+        <v>201920</v>
       </c>
       <c r="AK76" s="13">
-        <v>201920</v>
+        <v>165692</v>
       </c>
       <c r="AL76" s="13">
-        <v>165692</v>
+        <v>177888</v>
       </c>
       <c r="AM76" s="13">
-        <v>177888</v>
-      </c>
-      <c r="AN76" s="13">
         <v>220722</v>
       </c>
-      <c r="AO76" s="13" t="s">
-        <v>58</v>
+      <c r="AN76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO76" s="13">
+        <v>188599</v>
       </c>
       <c r="AP76" s="13">
-        <v>188599</v>
-      </c>
-      <c r="AQ76" s="13">
         <v>172944</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
+      <c r="AQ76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR76" s="13">
+        <v>9834</v>
       </c>
       <c r="AS76" s="13">
-        <v>9834</v>
+        <v>234394</v>
       </c>
       <c r="AT76" s="13">
-        <v>234394</v>
-      </c>
-      <c r="AU76" s="13">
         <v>324370</v>
       </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV76" s="13">
+        <v>203576</v>
       </c>
       <c r="AW76" s="13">
-        <v>203576</v>
+        <v>187886</v>
       </c>
       <c r="AX76" s="13">
-        <v>187886</v>
+        <v>275781</v>
       </c>
       <c r="AY76" s="13">
-        <v>275781</v>
+        <v>204766</v>
       </c>
       <c r="AZ76" s="13">
-        <v>204766</v>
+        <v>382637</v>
       </c>
       <c r="BA76" s="13">
-        <v>382637</v>
+        <v>273475</v>
       </c>
       <c r="BB76" s="13">
-        <v>273475</v>
+        <v>325755</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>60</v>
       </c>
@@ -9344,101 +9379,101 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11">
+      <c r="W77" s="11">
         <v>102344</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="X77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>136202</v>
       </c>
       <c r="Z77" s="11">
-        <v>136202</v>
+        <v>387546</v>
       </c>
       <c r="AA77" s="11">
-        <v>387546</v>
+        <v>861876</v>
       </c>
       <c r="AB77" s="11">
-        <v>861876</v>
+        <v>220466</v>
       </c>
       <c r="AC77" s="11">
-        <v>220466</v>
+        <v>232780</v>
       </c>
       <c r="AD77" s="11">
-        <v>232780</v>
+        <v>206291</v>
       </c>
       <c r="AE77" s="11">
-        <v>206291</v>
+        <v>307923</v>
       </c>
       <c r="AF77" s="11">
-        <v>307923</v>
+        <v>305797</v>
       </c>
       <c r="AG77" s="11">
-        <v>305797</v>
-      </c>
-      <c r="AH77" s="11">
         <v>295234</v>
       </c>
+      <c r="AH77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ77" s="11" t="s">
-        <v>58</v>
+      <c r="AJ77" s="11">
+        <v>230691</v>
       </c>
       <c r="AK77" s="11">
-        <v>230691</v>
+        <v>590278</v>
       </c>
       <c r="AL77" s="11">
-        <v>590278</v>
+        <v>246785</v>
       </c>
       <c r="AM77" s="11">
-        <v>246785</v>
-      </c>
-      <c r="AN77" s="11">
         <v>244337</v>
       </c>
-      <c r="AO77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP77" s="11">
+      <c r="AN77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO77" s="11">
         <v>952868</v>
       </c>
+      <c r="AP77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="11">
+      <c r="AR77" s="11">
         <v>419177</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU77" s="11">
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT77" s="11">
         <v>314225</v>
       </c>
-      <c r="AV77" s="11" t="s">
-        <v>58</v>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>453111</v>
       </c>
       <c r="AW77" s="11">
-        <v>453111</v>
+        <v>177007</v>
       </c>
       <c r="AX77" s="11">
-        <v>177007</v>
-      </c>
-      <c r="AY77" s="11">
         <v>278867</v>
       </c>
-      <c r="AZ77" s="11" t="s">
-        <v>58</v>
+      <c r="AY77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ77" s="11">
+        <v>401794</v>
       </c>
       <c r="BA77" s="11">
-        <v>401794</v>
+        <v>317770</v>
       </c>
       <c r="BB77" s="11">
-        <v>317770</v>
+        <v>320846</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA398D8-2F43-47E9-A77A-B12C1E235F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530979F-3D87-46A7-9EBD-615D4882711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -760,12 +760,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -820,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -989,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1480,113 +1480,113 @@
       <c r="S11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>58</v>
+      <c r="T11" s="11">
+        <v>572825</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1670355</v>
       </c>
       <c r="V11" s="11">
-        <v>572825</v>
+        <v>1325693</v>
       </c>
       <c r="W11" s="11">
-        <v>1670355</v>
+        <v>1529312</v>
       </c>
       <c r="X11" s="11">
-        <v>1325693</v>
+        <v>1216536</v>
       </c>
       <c r="Y11" s="11">
-        <v>1529312</v>
+        <v>1335177</v>
       </c>
       <c r="Z11" s="11">
-        <v>1216536</v>
+        <v>1252610</v>
       </c>
       <c r="AA11" s="11">
-        <v>1335177</v>
+        <v>1592244</v>
       </c>
       <c r="AB11" s="11">
-        <v>1252610</v>
+        <v>1835508</v>
       </c>
       <c r="AC11" s="11">
-        <v>1592244</v>
+        <v>1287997</v>
       </c>
       <c r="AD11" s="11">
-        <v>1835508</v>
+        <v>1852460</v>
       </c>
       <c r="AE11" s="11">
-        <v>1287997</v>
+        <v>1052952</v>
       </c>
       <c r="AF11" s="11">
-        <v>1852460</v>
+        <v>99864</v>
       </c>
       <c r="AG11" s="11">
-        <v>1052952</v>
+        <v>1446848</v>
       </c>
       <c r="AH11" s="11">
-        <v>99864</v>
+        <v>2080512</v>
       </c>
       <c r="AI11" s="11">
-        <v>1446848</v>
+        <v>947237</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2080512</v>
+        <v>594708</v>
       </c>
       <c r="AK11" s="11">
-        <v>947237</v>
+        <v>1030971</v>
       </c>
       <c r="AL11" s="11">
-        <v>594708</v>
+        <v>1539501</v>
       </c>
       <c r="AM11" s="11">
-        <v>1030971</v>
+        <v>854766</v>
       </c>
       <c r="AN11" s="11">
-        <v>1539501</v>
+        <v>1287124</v>
       </c>
       <c r="AO11" s="11">
-        <v>854766</v>
+        <v>995899</v>
       </c>
       <c r="AP11" s="11">
-        <v>1287124</v>
+        <v>1049813</v>
       </c>
       <c r="AQ11" s="11">
-        <v>995899</v>
+        <v>355815</v>
       </c>
       <c r="AR11" s="11">
-        <v>1049813</v>
+        <v>977321</v>
       </c>
       <c r="AS11" s="11">
-        <v>355815</v>
+        <v>2088784</v>
       </c>
       <c r="AT11" s="11">
-        <v>977321</v>
+        <v>2131586</v>
       </c>
       <c r="AU11" s="11">
-        <v>2088784</v>
+        <v>1475050</v>
       </c>
       <c r="AV11" s="11">
-        <v>2131586</v>
+        <v>1284063</v>
       </c>
       <c r="AW11" s="11">
-        <v>1475050</v>
+        <v>1874107</v>
       </c>
       <c r="AX11" s="11">
-        <v>1284063</v>
+        <v>892649</v>
       </c>
       <c r="AY11" s="11">
-        <v>1874107</v>
+        <v>1570042</v>
       </c>
       <c r="AZ11" s="11">
-        <v>892649</v>
+        <v>1727414</v>
       </c>
       <c r="BA11" s="11">
-        <v>1570042</v>
+        <v>1550341</v>
       </c>
       <c r="BB11" s="11">
-        <v>1727414</v>
+        <v>1816453</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1639,113 +1639,113 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>2186283</v>
+      </c>
+      <c r="U12" s="13">
+        <v>3813277</v>
       </c>
       <c r="V12" s="13">
-        <v>2186283</v>
+        <v>776689</v>
       </c>
       <c r="W12" s="13">
-        <v>3813277</v>
+        <v>3355766</v>
       </c>
       <c r="X12" s="13">
-        <v>776689</v>
+        <v>2780267</v>
       </c>
       <c r="Y12" s="13">
-        <v>3355766</v>
+        <v>3055221</v>
       </c>
       <c r="Z12" s="13">
-        <v>2780267</v>
+        <v>3195329</v>
       </c>
       <c r="AA12" s="13">
-        <v>3055221</v>
+        <v>3297602</v>
       </c>
       <c r="AB12" s="13">
-        <v>3195329</v>
+        <v>4346169</v>
       </c>
       <c r="AC12" s="13">
-        <v>3297602</v>
+        <v>2883923</v>
       </c>
       <c r="AD12" s="13">
-        <v>4346169</v>
+        <v>4543763</v>
       </c>
       <c r="AE12" s="13">
-        <v>2883923</v>
+        <v>2641514</v>
       </c>
       <c r="AF12" s="13">
-        <v>4543763</v>
+        <v>1634310</v>
       </c>
       <c r="AG12" s="13">
-        <v>2641514</v>
+        <v>2391353</v>
       </c>
       <c r="AH12" s="13">
-        <v>1634310</v>
+        <v>1960167</v>
       </c>
       <c r="AI12" s="13">
-        <v>2391353</v>
+        <v>2973768</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1960167</v>
+        <v>3528060</v>
       </c>
       <c r="AK12" s="13">
-        <v>2973768</v>
+        <v>3425974</v>
       </c>
       <c r="AL12" s="13">
-        <v>3528060</v>
+        <v>2757778</v>
       </c>
       <c r="AM12" s="13">
-        <v>3425974</v>
+        <v>2485617</v>
       </c>
       <c r="AN12" s="13">
-        <v>2757778</v>
+        <v>2969134</v>
       </c>
       <c r="AO12" s="13">
-        <v>2485617</v>
+        <v>2540486</v>
       </c>
       <c r="AP12" s="13">
-        <v>2969134</v>
+        <v>3162952</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2540486</v>
+        <v>2618191</v>
       </c>
       <c r="AR12" s="13">
-        <v>3162952</v>
+        <v>1928006</v>
       </c>
       <c r="AS12" s="13">
-        <v>2618191</v>
+        <v>3794614</v>
       </c>
       <c r="AT12" s="13">
-        <v>1928006</v>
+        <v>3914006</v>
       </c>
       <c r="AU12" s="13">
-        <v>3794614</v>
+        <v>3669007</v>
       </c>
       <c r="AV12" s="13">
-        <v>3914006</v>
+        <v>3583799</v>
       </c>
       <c r="AW12" s="13">
-        <v>3669007</v>
+        <v>3436273</v>
       </c>
       <c r="AX12" s="13">
-        <v>3583799</v>
+        <v>2961610</v>
       </c>
       <c r="AY12" s="13">
-        <v>3436273</v>
+        <v>3366519</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2961610</v>
+        <v>3618865</v>
       </c>
       <c r="BA12" s="13">
-        <v>3366519</v>
+        <v>3698547</v>
       </c>
       <c r="BB12" s="13">
-        <v>3618865</v>
+        <v>4245449</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1798,113 +1798,113 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>421040</v>
+      </c>
+      <c r="U13" s="11">
+        <v>338935</v>
       </c>
       <c r="V13" s="11">
-        <v>421040</v>
+        <v>354951</v>
       </c>
       <c r="W13" s="11">
-        <v>338935</v>
+        <v>838313</v>
       </c>
       <c r="X13" s="11">
-        <v>354951</v>
+        <v>844613</v>
       </c>
       <c r="Y13" s="11">
-        <v>838313</v>
+        <v>475662</v>
       </c>
       <c r="Z13" s="11">
-        <v>844613</v>
+        <v>1043827</v>
       </c>
       <c r="AA13" s="11">
-        <v>475662</v>
+        <v>865436</v>
       </c>
       <c r="AB13" s="11">
-        <v>1043827</v>
+        <v>820140</v>
       </c>
       <c r="AC13" s="11">
-        <v>865436</v>
+        <v>780906</v>
       </c>
       <c r="AD13" s="11">
-        <v>820140</v>
+        <v>1449256</v>
       </c>
       <c r="AE13" s="11">
-        <v>780906</v>
+        <v>344491</v>
       </c>
       <c r="AF13" s="11">
-        <v>1449256</v>
+        <v>302700</v>
       </c>
       <c r="AG13" s="11">
-        <v>344491</v>
+        <v>576123</v>
       </c>
       <c r="AH13" s="11">
-        <v>302700</v>
+        <v>554882</v>
       </c>
       <c r="AI13" s="11">
-        <v>576123</v>
+        <v>812592</v>
       </c>
       <c r="AJ13" s="11">
-        <v>554882</v>
+        <v>568832</v>
       </c>
       <c r="AK13" s="11">
-        <v>812592</v>
+        <v>676145</v>
       </c>
       <c r="AL13" s="11">
-        <v>568832</v>
+        <v>341164</v>
       </c>
       <c r="AM13" s="11">
-        <v>676145</v>
+        <v>713382</v>
       </c>
       <c r="AN13" s="11">
-        <v>341164</v>
+        <v>877199</v>
       </c>
       <c r="AO13" s="11">
-        <v>713382</v>
+        <v>864518</v>
       </c>
       <c r="AP13" s="11">
-        <v>877199</v>
+        <v>673365</v>
       </c>
       <c r="AQ13" s="11">
-        <v>864518</v>
+        <v>923051</v>
       </c>
       <c r="AR13" s="11">
-        <v>673365</v>
+        <v>439173</v>
       </c>
       <c r="AS13" s="11">
-        <v>923051</v>
+        <v>477046</v>
       </c>
       <c r="AT13" s="11">
-        <v>439173</v>
+        <v>568460</v>
       </c>
       <c r="AU13" s="11">
-        <v>477046</v>
+        <v>1019233</v>
       </c>
       <c r="AV13" s="11">
-        <v>568460</v>
+        <v>868951</v>
       </c>
       <c r="AW13" s="11">
-        <v>1019233</v>
+        <v>580397</v>
       </c>
       <c r="AX13" s="11">
-        <v>868951</v>
+        <v>592818</v>
       </c>
       <c r="AY13" s="11">
-        <v>580397</v>
+        <v>824890</v>
       </c>
       <c r="AZ13" s="11">
-        <v>592818</v>
+        <v>1080234</v>
       </c>
       <c r="BA13" s="11">
-        <v>824890</v>
+        <v>963219</v>
       </c>
       <c r="BB13" s="11">
-        <v>1080234</v>
+        <v>794921</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1956,112 +1956,112 @@
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <v>0</v>
+        <v>3180148</v>
       </c>
       <c r="U14" s="15">
-        <v>0</v>
+        <v>5822567</v>
       </c>
       <c r="V14" s="15">
-        <v>3180148</v>
+        <v>2457333</v>
       </c>
       <c r="W14" s="15">
-        <v>5822567</v>
+        <v>5723391</v>
       </c>
       <c r="X14" s="15">
-        <v>2457333</v>
+        <v>4841416</v>
       </c>
       <c r="Y14" s="15">
-        <v>5723391</v>
+        <v>4866060</v>
       </c>
       <c r="Z14" s="15">
-        <v>4841416</v>
+        <v>5491766</v>
       </c>
       <c r="AA14" s="15">
-        <v>4866060</v>
+        <v>5755282</v>
       </c>
       <c r="AB14" s="15">
-        <v>5491766</v>
+        <v>7001817</v>
       </c>
       <c r="AC14" s="15">
-        <v>5755282</v>
+        <v>4952826</v>
       </c>
       <c r="AD14" s="15">
-        <v>7001817</v>
+        <v>7845479</v>
       </c>
       <c r="AE14" s="15">
-        <v>4952826</v>
+        <v>4038957</v>
       </c>
       <c r="AF14" s="15">
-        <v>7845479</v>
+        <v>2036874</v>
       </c>
       <c r="AG14" s="15">
-        <v>4038957</v>
+        <v>4414324</v>
       </c>
       <c r="AH14" s="15">
-        <v>2036874</v>
+        <v>4595561</v>
       </c>
       <c r="AI14" s="15">
-        <v>4414324</v>
+        <v>4733597</v>
       </c>
       <c r="AJ14" s="15">
-        <v>4595561</v>
+        <v>4691600</v>
       </c>
       <c r="AK14" s="15">
-        <v>4733597</v>
+        <v>5133090</v>
       </c>
       <c r="AL14" s="15">
-        <v>4691600</v>
+        <v>4638443</v>
       </c>
       <c r="AM14" s="15">
-        <v>5133090</v>
+        <v>4053765</v>
       </c>
       <c r="AN14" s="15">
-        <v>4638443</v>
+        <v>5133457</v>
       </c>
       <c r="AO14" s="15">
-        <v>4053765</v>
+        <v>4400903</v>
       </c>
       <c r="AP14" s="15">
-        <v>5133457</v>
+        <v>4886130</v>
       </c>
       <c r="AQ14" s="15">
-        <v>4400903</v>
+        <v>3897057</v>
       </c>
       <c r="AR14" s="15">
-        <v>4886130</v>
+        <v>3344500</v>
       </c>
       <c r="AS14" s="15">
-        <v>3897057</v>
+        <v>6360444</v>
       </c>
       <c r="AT14" s="15">
-        <v>3344500</v>
+        <v>6614052</v>
       </c>
       <c r="AU14" s="15">
-        <v>6360444</v>
+        <v>6163290</v>
       </c>
       <c r="AV14" s="15">
-        <v>6614052</v>
+        <v>5736813</v>
       </c>
       <c r="AW14" s="15">
-        <v>6163290</v>
+        <v>5890777</v>
       </c>
       <c r="AX14" s="15">
-        <v>5736813</v>
+        <v>4447077</v>
       </c>
       <c r="AY14" s="15">
-        <v>5890777</v>
+        <v>5761451</v>
       </c>
       <c r="AZ14" s="15">
-        <v>4447077</v>
+        <v>6426513</v>
       </c>
       <c r="BA14" s="15">
-        <v>5761451</v>
+        <v>6212107</v>
       </c>
       <c r="BB14" s="15">
-        <v>6426513</v>
+        <v>6856823</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2171,113 +2171,113 @@
       <c r="S16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>58</v>
+      <c r="T16" s="11">
+        <v>1860</v>
+      </c>
+      <c r="U16" s="11">
+        <v>14760</v>
       </c>
       <c r="V16" s="11">
-        <v>1860</v>
+        <v>40272</v>
       </c>
       <c r="W16" s="11">
-        <v>14760</v>
+        <v>30360</v>
       </c>
       <c r="X16" s="11">
-        <v>40272</v>
+        <v>17004</v>
       </c>
       <c r="Y16" s="11">
-        <v>30360</v>
+        <v>29712</v>
       </c>
       <c r="Z16" s="11">
-        <v>17004</v>
+        <v>22037</v>
       </c>
       <c r="AA16" s="11">
-        <v>29712</v>
+        <v>59264</v>
       </c>
       <c r="AB16" s="11">
-        <v>22037</v>
+        <v>37755</v>
       </c>
       <c r="AC16" s="11">
-        <v>59264</v>
+        <v>20332</v>
       </c>
       <c r="AD16" s="11">
-        <v>37755</v>
+        <v>23272</v>
       </c>
       <c r="AE16" s="11">
-        <v>20332</v>
+        <v>24784</v>
       </c>
       <c r="AF16" s="11">
-        <v>23272</v>
+        <v>7296</v>
       </c>
       <c r="AG16" s="11">
-        <v>24784</v>
+        <v>18120</v>
       </c>
       <c r="AH16" s="11">
-        <v>7296</v>
+        <v>84312</v>
       </c>
       <c r="AI16" s="11">
-        <v>18120</v>
+        <v>4296</v>
       </c>
       <c r="AJ16" s="11">
-        <v>84312</v>
+        <v>9732</v>
       </c>
       <c r="AK16" s="11">
-        <v>4296</v>
-      </c>
-      <c r="AL16" s="11">
+        <v>31524</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>89967</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>7441</v>
+      </c>
+      <c r="AO16" s="11">
+        <v>38500</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ16" s="11">
+        <v>69784</v>
+      </c>
+      <c r="AR16" s="11">
+        <v>1044</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>76776</v>
+      </c>
+      <c r="AU16" s="11">
         <v>9732</v>
       </c>
-      <c r="AM16" s="11">
-        <v>31524</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="11">
-        <v>89967</v>
-      </c>
-      <c r="AP16" s="11">
-        <v>7441</v>
-      </c>
-      <c r="AQ16" s="11">
-        <v>38500</v>
-      </c>
-      <c r="AR16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="11">
-        <v>69784</v>
-      </c>
-      <c r="AT16" s="11">
-        <v>1044</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>0</v>
-      </c>
       <c r="AV16" s="11">
-        <v>76776</v>
+        <v>23924</v>
       </c>
       <c r="AW16" s="11">
-        <v>9732</v>
+        <v>7848</v>
       </c>
       <c r="AX16" s="11">
-        <v>23924</v>
+        <v>50850</v>
       </c>
       <c r="AY16" s="11">
-        <v>7848</v>
+        <v>54240</v>
       </c>
       <c r="AZ16" s="11">
-        <v>50850</v>
+        <v>62336</v>
       </c>
       <c r="BA16" s="11">
-        <v>54240</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="11">
-        <v>62336</v>
+        <v>29168</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2330,113 +2330,113 @@
       <c r="S17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="T17" s="13">
+        <v>9512</v>
+      </c>
+      <c r="U17" s="13">
+        <v>3420</v>
       </c>
       <c r="V17" s="13">
-        <v>9512</v>
+        <v>46668</v>
       </c>
       <c r="W17" s="13">
-        <v>3420</v>
+        <v>38040</v>
       </c>
       <c r="X17" s="13">
-        <v>46668</v>
+        <v>17832</v>
       </c>
       <c r="Y17" s="13">
-        <v>38040</v>
+        <v>41992</v>
       </c>
       <c r="Z17" s="13">
-        <v>17832</v>
+        <v>25514</v>
       </c>
       <c r="AA17" s="13">
-        <v>41992</v>
+        <v>69006</v>
       </c>
       <c r="AB17" s="13">
-        <v>25514</v>
+        <v>57796</v>
       </c>
       <c r="AC17" s="13">
-        <v>69006</v>
+        <v>23710</v>
       </c>
       <c r="AD17" s="13">
-        <v>57796</v>
+        <v>22606</v>
       </c>
       <c r="AE17" s="13">
-        <v>23710</v>
+        <v>63876</v>
       </c>
       <c r="AF17" s="13">
-        <v>22606</v>
+        <v>8460</v>
       </c>
       <c r="AG17" s="13">
-        <v>63876</v>
+        <v>56280</v>
       </c>
       <c r="AH17" s="13">
-        <v>8460</v>
+        <v>75936</v>
       </c>
       <c r="AI17" s="13">
-        <v>56280</v>
+        <v>6156</v>
       </c>
       <c r="AJ17" s="13">
-        <v>75936</v>
+        <v>29676</v>
       </c>
       <c r="AK17" s="13">
-        <v>6156</v>
-      </c>
-      <c r="AL17" s="13">
-        <v>29676</v>
+        <v>17112</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM17" s="13">
-        <v>17112</v>
-      </c>
-      <c r="AN17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="13">
         <v>51469</v>
       </c>
-      <c r="AP17" s="13">
+      <c r="AN17" s="13">
         <v>19463</v>
       </c>
-      <c r="AQ17" s="13" t="s">
-        <v>58</v>
+      <c r="AO17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>159940</v>
       </c>
       <c r="AR17" s="13">
-        <v>62036</v>
+        <v>4128</v>
       </c>
       <c r="AS17" s="13">
-        <v>159940</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="13">
-        <v>4128</v>
+        <v>57384</v>
       </c>
       <c r="AU17" s="13">
-        <v>0</v>
+        <v>7116</v>
       </c>
       <c r="AV17" s="13">
-        <v>57384</v>
+        <v>13188</v>
       </c>
       <c r="AW17" s="13">
-        <v>7116</v>
+        <v>26352</v>
       </c>
       <c r="AX17" s="13">
-        <v>13188</v>
+        <v>55026</v>
       </c>
       <c r="AY17" s="13">
-        <v>26352</v>
+        <v>48648</v>
       </c>
       <c r="AZ17" s="13">
-        <v>55026</v>
+        <v>52604</v>
       </c>
       <c r="BA17" s="13">
-        <v>48648</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="13">
-        <v>52604</v>
+        <v>18888</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
@@ -2489,113 +2489,113 @@
       <c r="S18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>58</v>
+      <c r="T18" s="11">
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <v>3840</v>
       </c>
       <c r="V18" s="11">
         <v>0</v>
       </c>
       <c r="W18" s="11">
-        <v>3840</v>
+        <v>14919</v>
       </c>
       <c r="X18" s="11">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="Y18" s="11">
-        <v>14919</v>
+        <v>2143</v>
       </c>
       <c r="Z18" s="11">
-        <v>1076</v>
+        <v>6010</v>
       </c>
       <c r="AA18" s="11">
-        <v>2143</v>
+        <v>9524</v>
       </c>
       <c r="AB18" s="11">
-        <v>6010</v>
+        <v>19521</v>
       </c>
       <c r="AC18" s="11">
-        <v>9524</v>
+        <v>5667</v>
       </c>
       <c r="AD18" s="11">
-        <v>19521</v>
+        <v>4830</v>
       </c>
       <c r="AE18" s="11">
-        <v>5667</v>
+        <v>11120</v>
       </c>
       <c r="AF18" s="11">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="11">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AI18" s="11">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AJ18" s="11">
-        <v>22619</v>
+        <v>5365</v>
       </c>
       <c r="AK18" s="11">
-        <v>144</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>5365</v>
+        <v>3311</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM18" s="11">
-        <v>3311</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18" s="11">
         <v>4201</v>
       </c>
+      <c r="AN18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>58</v>
+        <v>74139</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>0</v>
       </c>
       <c r="AR18" s="11">
-        <v>12103</v>
+        <v>3768</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
       </c>
       <c r="AT18" s="11">
-        <v>3768</v>
+        <v>9000</v>
       </c>
       <c r="AU18" s="11">
-        <v>0</v>
+        <v>28356</v>
       </c>
       <c r="AV18" s="11">
-        <v>9000</v>
+        <v>9168</v>
       </c>
       <c r="AW18" s="11">
-        <v>28356</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="11">
-        <v>9168</v>
+        <v>9144</v>
       </c>
       <c r="AY18" s="11">
-        <v>0</v>
+        <v>9060</v>
       </c>
       <c r="AZ18" s="11">
-        <v>9144</v>
+        <v>18632</v>
       </c>
       <c r="BA18" s="11">
-        <v>9060</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>18632</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>63</v>
       </c>
@@ -2647,112 +2647,112 @@
         <v>0</v>
       </c>
       <c r="T19" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="U19" s="15">
-        <v>0</v>
+        <v>22020</v>
       </c>
       <c r="V19" s="15">
-        <v>11372</v>
+        <v>86940</v>
       </c>
       <c r="W19" s="15">
-        <v>22020</v>
+        <v>83319</v>
       </c>
       <c r="X19" s="15">
-        <v>86940</v>
+        <v>35912</v>
       </c>
       <c r="Y19" s="15">
-        <v>83319</v>
+        <v>73847</v>
       </c>
       <c r="Z19" s="15">
-        <v>35912</v>
+        <v>53561</v>
       </c>
       <c r="AA19" s="15">
-        <v>73847</v>
+        <v>137794</v>
       </c>
       <c r="AB19" s="15">
-        <v>53561</v>
+        <v>115072</v>
       </c>
       <c r="AC19" s="15">
-        <v>137794</v>
+        <v>49709</v>
       </c>
       <c r="AD19" s="15">
-        <v>115072</v>
+        <v>50708</v>
       </c>
       <c r="AE19" s="15">
-        <v>49709</v>
+        <v>99780</v>
       </c>
       <c r="AF19" s="15">
-        <v>50708</v>
+        <v>15756</v>
       </c>
       <c r="AG19" s="15">
-        <v>99780</v>
+        <v>74400</v>
       </c>
       <c r="AH19" s="15">
-        <v>15756</v>
+        <v>182867</v>
       </c>
       <c r="AI19" s="15">
-        <v>74400</v>
+        <v>10596</v>
       </c>
       <c r="AJ19" s="15">
-        <v>182867</v>
+        <v>44773</v>
       </c>
       <c r="AK19" s="15">
-        <v>10596</v>
+        <v>51947</v>
       </c>
       <c r="AL19" s="15">
-        <v>44773</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="15">
-        <v>51947</v>
+        <v>145637</v>
       </c>
       <c r="AN19" s="15">
-        <v>0</v>
+        <v>26904</v>
       </c>
       <c r="AO19" s="15">
-        <v>145637</v>
+        <v>38500</v>
       </c>
       <c r="AP19" s="15">
-        <v>26904</v>
+        <v>74139</v>
       </c>
       <c r="AQ19" s="15">
-        <v>38500</v>
+        <v>229724</v>
       </c>
       <c r="AR19" s="15">
-        <v>74139</v>
+        <v>8940</v>
       </c>
       <c r="AS19" s="15">
-        <v>229724</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="15">
-        <v>8940</v>
+        <v>143160</v>
       </c>
       <c r="AU19" s="15">
-        <v>0</v>
+        <v>45204</v>
       </c>
       <c r="AV19" s="15">
-        <v>143160</v>
+        <v>46280</v>
       </c>
       <c r="AW19" s="15">
-        <v>45204</v>
+        <v>34200</v>
       </c>
       <c r="AX19" s="15">
-        <v>46280</v>
+        <v>115020</v>
       </c>
       <c r="AY19" s="15">
-        <v>34200</v>
+        <v>111948</v>
       </c>
       <c r="AZ19" s="15">
-        <v>115020</v>
+        <v>133572</v>
       </c>
       <c r="BA19" s="15">
-        <v>111948</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="15">
-        <v>133572</v>
+        <v>48056</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
@@ -2860,11 +2860,11 @@
       <c r="S21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>58</v>
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0</v>
       </c>
       <c r="V21" s="19">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -3018,112 +3018,112 @@
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="U22" s="15">
-        <v>0</v>
+        <v>5844587</v>
       </c>
       <c r="V22" s="15">
-        <v>3191520</v>
+        <v>2544273</v>
       </c>
       <c r="W22" s="15">
-        <v>5844587</v>
+        <v>5806710</v>
       </c>
       <c r="X22" s="15">
-        <v>2544273</v>
+        <v>4877328</v>
       </c>
       <c r="Y22" s="15">
-        <v>5806710</v>
+        <v>4939907</v>
       </c>
       <c r="Z22" s="15">
-        <v>4877328</v>
+        <v>5545327</v>
       </c>
       <c r="AA22" s="15">
-        <v>4939907</v>
+        <v>5893076</v>
       </c>
       <c r="AB22" s="15">
-        <v>5545327</v>
+        <v>7116889</v>
       </c>
       <c r="AC22" s="15">
-        <v>5893076</v>
+        <v>5002535</v>
       </c>
       <c r="AD22" s="15">
-        <v>7116889</v>
+        <v>7896187</v>
       </c>
       <c r="AE22" s="15">
-        <v>5002535</v>
+        <v>4138737</v>
       </c>
       <c r="AF22" s="15">
-        <v>7896187</v>
+        <v>2052630</v>
       </c>
       <c r="AG22" s="15">
-        <v>4138737</v>
+        <v>4488724</v>
       </c>
       <c r="AH22" s="15">
-        <v>2052630</v>
+        <v>4778428</v>
       </c>
       <c r="AI22" s="15">
-        <v>4488724</v>
+        <v>4744193</v>
       </c>
       <c r="AJ22" s="15">
-        <v>4778428</v>
+        <v>4736373</v>
       </c>
       <c r="AK22" s="15">
-        <v>4744193</v>
+        <v>5185037</v>
       </c>
       <c r="AL22" s="15">
-        <v>4736373</v>
+        <v>4638443</v>
       </c>
       <c r="AM22" s="15">
-        <v>5185037</v>
+        <v>4199402</v>
       </c>
       <c r="AN22" s="15">
-        <v>4638443</v>
+        <v>5160361</v>
       </c>
       <c r="AO22" s="15">
-        <v>4199402</v>
+        <v>4439403</v>
       </c>
       <c r="AP22" s="15">
-        <v>5160361</v>
+        <v>4960269</v>
       </c>
       <c r="AQ22" s="15">
-        <v>4439403</v>
+        <v>4126781</v>
       </c>
       <c r="AR22" s="15">
-        <v>4960269</v>
+        <v>3353440</v>
       </c>
       <c r="AS22" s="15">
-        <v>4126781</v>
+        <v>6360444</v>
       </c>
       <c r="AT22" s="15">
-        <v>3353440</v>
+        <v>6757212</v>
       </c>
       <c r="AU22" s="15">
-        <v>6360444</v>
+        <v>6208494</v>
       </c>
       <c r="AV22" s="15">
-        <v>6757212</v>
+        <v>5783093</v>
       </c>
       <c r="AW22" s="15">
-        <v>6208494</v>
+        <v>5924977</v>
       </c>
       <c r="AX22" s="15">
-        <v>5783093</v>
+        <v>4562097</v>
       </c>
       <c r="AY22" s="15">
-        <v>5924977</v>
+        <v>5873399</v>
       </c>
       <c r="AZ22" s="15">
-        <v>4562097</v>
+        <v>6560085</v>
       </c>
       <c r="BA22" s="15">
-        <v>5873399</v>
+        <v>6212107</v>
       </c>
       <c r="BB22" s="15">
-        <v>6560085</v>
+        <v>6904879</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3178,7 +3178,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3233,7 +3233,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3288,7 +3288,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3500,7 +3500,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
@@ -3610,113 +3610,113 @@
       <c r="S29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>58</v>
+      <c r="T29" s="11">
+        <v>727155</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1758207</v>
       </c>
       <c r="V29" s="11">
-        <v>727155</v>
+        <v>1428328</v>
       </c>
       <c r="W29" s="11">
-        <v>1758207</v>
+        <v>1347200</v>
       </c>
       <c r="X29" s="11">
-        <v>1428328</v>
+        <v>1194794</v>
       </c>
       <c r="Y29" s="11">
-        <v>1347200</v>
+        <v>1212186</v>
       </c>
       <c r="Z29" s="11">
-        <v>1194794</v>
+        <v>1505135</v>
       </c>
       <c r="AA29" s="11">
-        <v>1212186</v>
+        <v>1275979</v>
       </c>
       <c r="AB29" s="11">
-        <v>1505135</v>
+        <v>808366</v>
       </c>
       <c r="AC29" s="11">
-        <v>1275979</v>
+        <v>1354994</v>
       </c>
       <c r="AD29" s="11">
-        <v>808366</v>
+        <v>1657995</v>
       </c>
       <c r="AE29" s="11">
-        <v>1354994</v>
+        <v>820801</v>
       </c>
       <c r="AF29" s="11">
-        <v>1657995</v>
+        <v>794112</v>
       </c>
       <c r="AG29" s="11">
-        <v>820801</v>
+        <v>1357659</v>
       </c>
       <c r="AH29" s="11">
-        <v>794112</v>
+        <v>1241976</v>
       </c>
       <c r="AI29" s="11">
-        <v>1357659</v>
+        <v>905633</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1241976</v>
+        <v>949622</v>
       </c>
       <c r="AK29" s="11">
-        <v>905633</v>
+        <v>752521</v>
       </c>
       <c r="AL29" s="11">
-        <v>949622</v>
+        <v>1502793</v>
       </c>
       <c r="AM29" s="11">
-        <v>752521</v>
+        <v>1217963</v>
       </c>
       <c r="AN29" s="11">
-        <v>1502793</v>
+        <v>1151102</v>
       </c>
       <c r="AO29" s="11">
-        <v>1217963</v>
+        <v>876643</v>
       </c>
       <c r="AP29" s="11">
-        <v>1151102</v>
+        <v>1478014</v>
       </c>
       <c r="AQ29" s="11">
-        <v>876643</v>
+        <v>1063891</v>
       </c>
       <c r="AR29" s="11">
-        <v>1478014</v>
+        <v>858394</v>
       </c>
       <c r="AS29" s="11">
-        <v>1063891</v>
+        <v>1373302</v>
       </c>
       <c r="AT29" s="11">
-        <v>858394</v>
+        <v>1538347</v>
       </c>
       <c r="AU29" s="11">
-        <v>1373302</v>
+        <v>914425</v>
       </c>
       <c r="AV29" s="11">
-        <v>1538347</v>
+        <v>1080451</v>
       </c>
       <c r="AW29" s="11">
-        <v>914425</v>
+        <v>1243693</v>
       </c>
       <c r="AX29" s="11">
-        <v>1080451</v>
+        <v>1048105</v>
       </c>
       <c r="AY29" s="11">
-        <v>1243693</v>
+        <v>1427268</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1048105</v>
+        <v>1508550</v>
       </c>
       <c r="BA29" s="11">
-        <v>1427268</v>
+        <v>1100051</v>
       </c>
       <c r="BB29" s="11">
-        <v>1508550</v>
+        <v>1773172</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
@@ -3769,113 +3769,113 @@
       <c r="S30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="T30" s="13">
+        <v>1320729</v>
+      </c>
+      <c r="U30" s="13">
+        <v>2580766</v>
       </c>
       <c r="V30" s="13">
-        <v>1320729</v>
+        <v>3783148</v>
       </c>
       <c r="W30" s="13">
-        <v>2580766</v>
+        <v>4173866</v>
       </c>
       <c r="X30" s="13">
-        <v>3783148</v>
+        <v>3130742</v>
       </c>
       <c r="Y30" s="13">
-        <v>4173866</v>
+        <v>3023239</v>
       </c>
       <c r="Z30" s="13">
-        <v>3130742</v>
+        <v>3779960</v>
       </c>
       <c r="AA30" s="13">
-        <v>3023239</v>
+        <v>2779130</v>
       </c>
       <c r="AB30" s="13">
-        <v>3779960</v>
+        <v>1564164</v>
       </c>
       <c r="AC30" s="13">
-        <v>2779130</v>
+        <v>3044748</v>
       </c>
       <c r="AD30" s="13">
-        <v>1564164</v>
+        <v>4107914</v>
       </c>
       <c r="AE30" s="13">
-        <v>3044748</v>
+        <v>2394796</v>
       </c>
       <c r="AF30" s="13">
-        <v>4107914</v>
+        <v>1566309</v>
       </c>
       <c r="AG30" s="13">
-        <v>2394796</v>
+        <v>2515494</v>
       </c>
       <c r="AH30" s="13">
-        <v>1566309</v>
+        <v>2682261</v>
       </c>
       <c r="AI30" s="13">
-        <v>2515494</v>
+        <v>3193511</v>
       </c>
       <c r="AJ30" s="13">
-        <v>2682261</v>
+        <v>3698752</v>
       </c>
       <c r="AK30" s="13">
-        <v>3193511</v>
+        <v>4100440</v>
       </c>
       <c r="AL30" s="13">
-        <v>3698752</v>
+        <v>1870160</v>
       </c>
       <c r="AM30" s="13">
-        <v>4100440</v>
+        <v>2479481</v>
       </c>
       <c r="AN30" s="13">
-        <v>1870160</v>
+        <v>2914177</v>
       </c>
       <c r="AO30" s="13">
-        <v>2479481</v>
+        <v>3038566</v>
       </c>
       <c r="AP30" s="13">
-        <v>2914177</v>
+        <v>3595991</v>
       </c>
       <c r="AQ30" s="13">
-        <v>3038566</v>
+        <v>3609528</v>
       </c>
       <c r="AR30" s="13">
-        <v>3595991</v>
+        <v>1989681</v>
       </c>
       <c r="AS30" s="13">
-        <v>3609528</v>
+        <v>3496200</v>
       </c>
       <c r="AT30" s="13">
-        <v>1989681</v>
+        <v>4200541</v>
       </c>
       <c r="AU30" s="13">
-        <v>3496200</v>
+        <v>2815617</v>
       </c>
       <c r="AV30" s="13">
-        <v>4200541</v>
+        <v>3081726</v>
       </c>
       <c r="AW30" s="13">
-        <v>2815617</v>
+        <v>2968577</v>
       </c>
       <c r="AX30" s="13">
-        <v>3081726</v>
+        <v>2765128</v>
       </c>
       <c r="AY30" s="13">
-        <v>2968577</v>
+        <v>3309430</v>
       </c>
       <c r="AZ30" s="13">
-        <v>2765128</v>
+        <v>3495912</v>
       </c>
       <c r="BA30" s="13">
-        <v>3309430</v>
+        <v>3162058</v>
       </c>
       <c r="BB30" s="13">
-        <v>3495912</v>
+        <v>3290502</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
@@ -3928,113 +3928,113 @@
       <c r="S31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>58</v>
+      <c r="T31" s="11">
+        <v>130340</v>
+      </c>
+      <c r="U31" s="11">
+        <v>323957</v>
       </c>
       <c r="V31" s="11">
-        <v>130340</v>
+        <v>908037</v>
       </c>
       <c r="W31" s="11">
-        <v>323957</v>
+        <v>693492</v>
       </c>
       <c r="X31" s="11">
-        <v>908037</v>
+        <v>545746</v>
       </c>
       <c r="Y31" s="11">
-        <v>693492</v>
+        <v>715714</v>
       </c>
       <c r="Z31" s="11">
-        <v>545746</v>
+        <v>671640</v>
       </c>
       <c r="AA31" s="11">
-        <v>715714</v>
+        <v>585828</v>
       </c>
       <c r="AB31" s="11">
-        <v>671640</v>
+        <v>305848</v>
       </c>
       <c r="AC31" s="11">
-        <v>585828</v>
+        <v>1092631</v>
       </c>
       <c r="AD31" s="11">
-        <v>305848</v>
+        <v>1560939</v>
       </c>
       <c r="AE31" s="11">
-        <v>1092631</v>
+        <v>550735</v>
       </c>
       <c r="AF31" s="11">
-        <v>1560939</v>
+        <v>256651</v>
       </c>
       <c r="AG31" s="11">
-        <v>550735</v>
+        <v>852995</v>
       </c>
       <c r="AH31" s="11">
-        <v>256651</v>
+        <v>841409</v>
       </c>
       <c r="AI31" s="11">
-        <v>852995</v>
+        <v>728770</v>
       </c>
       <c r="AJ31" s="11">
-        <v>841409</v>
+        <v>513533</v>
       </c>
       <c r="AK31" s="11">
-        <v>728770</v>
+        <v>668065</v>
       </c>
       <c r="AL31" s="11">
-        <v>513533</v>
+        <v>1301462</v>
       </c>
       <c r="AM31" s="11">
-        <v>668065</v>
+        <v>779020</v>
       </c>
       <c r="AN31" s="11">
-        <v>1301462</v>
+        <v>851136</v>
       </c>
       <c r="AO31" s="11">
-        <v>779020</v>
+        <v>561149</v>
       </c>
       <c r="AP31" s="11">
-        <v>851136</v>
+        <v>1152560</v>
       </c>
       <c r="AQ31" s="11">
-        <v>561149</v>
+        <v>574133</v>
       </c>
       <c r="AR31" s="11">
-        <v>1152560</v>
+        <v>660344</v>
       </c>
       <c r="AS31" s="11">
-        <v>574133</v>
+        <v>1140687</v>
       </c>
       <c r="AT31" s="11">
-        <v>660344</v>
+        <v>1249883</v>
       </c>
       <c r="AU31" s="11">
-        <v>1140687</v>
+        <v>1343740</v>
       </c>
       <c r="AV31" s="11">
-        <v>1249883</v>
+        <v>1123452</v>
       </c>
       <c r="AW31" s="11">
-        <v>1343740</v>
+        <v>1408978</v>
       </c>
       <c r="AX31" s="11">
-        <v>1123452</v>
+        <v>893959</v>
       </c>
       <c r="AY31" s="11">
-        <v>1408978</v>
+        <v>1763718</v>
       </c>
       <c r="AZ31" s="11">
-        <v>893959</v>
+        <v>1493027</v>
       </c>
       <c r="BA31" s="11">
-        <v>1763718</v>
+        <v>1226078</v>
       </c>
       <c r="BB31" s="11">
-        <v>1493027</v>
+        <v>1103063</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>69</v>
       </c>
@@ -4086,112 +4086,112 @@
         <v>0</v>
       </c>
       <c r="T32" s="15">
-        <v>0</v>
+        <v>2178224</v>
       </c>
       <c r="U32" s="15">
-        <v>0</v>
+        <v>4662930</v>
       </c>
       <c r="V32" s="15">
-        <v>2178224</v>
+        <v>6119513</v>
       </c>
       <c r="W32" s="15">
-        <v>4662930</v>
+        <v>6214558</v>
       </c>
       <c r="X32" s="15">
-        <v>6119513</v>
+        <v>4871282</v>
       </c>
       <c r="Y32" s="15">
-        <v>6214558</v>
+        <v>4951139</v>
       </c>
       <c r="Z32" s="15">
-        <v>4871282</v>
+        <v>5956735</v>
       </c>
       <c r="AA32" s="15">
-        <v>4951139</v>
+        <v>4640937</v>
       </c>
       <c r="AB32" s="15">
-        <v>5956735</v>
+        <v>2678378</v>
       </c>
       <c r="AC32" s="15">
-        <v>4640937</v>
+        <v>5492373</v>
       </c>
       <c r="AD32" s="15">
-        <v>2678378</v>
+        <v>7326848</v>
       </c>
       <c r="AE32" s="15">
-        <v>5492373</v>
+        <v>3766332</v>
       </c>
       <c r="AF32" s="15">
-        <v>7326848</v>
+        <v>2617072</v>
       </c>
       <c r="AG32" s="15">
-        <v>3766332</v>
+        <v>4726148</v>
       </c>
       <c r="AH32" s="15">
-        <v>2617072</v>
+        <v>4765646</v>
       </c>
       <c r="AI32" s="15">
-        <v>4726148</v>
+        <v>4827914</v>
       </c>
       <c r="AJ32" s="15">
-        <v>4765646</v>
+        <v>5161907</v>
       </c>
       <c r="AK32" s="15">
-        <v>4827914</v>
+        <v>5521026</v>
       </c>
       <c r="AL32" s="15">
-        <v>5161907</v>
+        <v>4674415</v>
       </c>
       <c r="AM32" s="15">
-        <v>5521026</v>
+        <v>4476464</v>
       </c>
       <c r="AN32" s="15">
-        <v>4674415</v>
+        <v>4916415</v>
       </c>
       <c r="AO32" s="15">
-        <v>4476464</v>
+        <v>4476358</v>
       </c>
       <c r="AP32" s="15">
-        <v>4916415</v>
+        <v>6226565</v>
       </c>
       <c r="AQ32" s="15">
-        <v>4476358</v>
+        <v>5247552</v>
       </c>
       <c r="AR32" s="15">
-        <v>6226565</v>
+        <v>3508419</v>
       </c>
       <c r="AS32" s="15">
-        <v>5247552</v>
+        <v>6010189</v>
       </c>
       <c r="AT32" s="15">
-        <v>3508419</v>
+        <v>6988771</v>
       </c>
       <c r="AU32" s="15">
-        <v>6010189</v>
+        <v>5073782</v>
       </c>
       <c r="AV32" s="15">
-        <v>6988771</v>
+        <v>5285629</v>
       </c>
       <c r="AW32" s="15">
-        <v>5073782</v>
+        <v>5621248</v>
       </c>
       <c r="AX32" s="15">
-        <v>5285629</v>
+        <v>4707192</v>
       </c>
       <c r="AY32" s="15">
-        <v>5621248</v>
+        <v>6500416</v>
       </c>
       <c r="AZ32" s="15">
-        <v>4707192</v>
+        <v>6497489</v>
       </c>
       <c r="BA32" s="15">
-        <v>6500416</v>
+        <v>5488187</v>
       </c>
       <c r="BB32" s="15">
-        <v>6497489</v>
+        <v>6166737</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>70</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4301,113 +4301,113 @@
       <c r="S34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>58</v>
+      <c r="T34" s="11">
+        <v>1860</v>
+      </c>
+      <c r="U34" s="11">
+        <v>14760</v>
       </c>
       <c r="V34" s="11">
-        <v>1860</v>
+        <v>40272</v>
       </c>
       <c r="W34" s="11">
-        <v>14760</v>
+        <v>30360</v>
       </c>
       <c r="X34" s="11">
-        <v>40272</v>
+        <v>17004</v>
       </c>
       <c r="Y34" s="11">
-        <v>30360</v>
+        <v>29712</v>
       </c>
       <c r="Z34" s="11">
-        <v>17004</v>
+        <v>22037</v>
       </c>
       <c r="AA34" s="11">
-        <v>29712</v>
+        <v>59264</v>
       </c>
       <c r="AB34" s="11">
-        <v>22037</v>
+        <v>37755</v>
       </c>
       <c r="AC34" s="11">
-        <v>59264</v>
+        <v>20332</v>
       </c>
       <c r="AD34" s="11">
-        <v>37755</v>
+        <v>23272</v>
       </c>
       <c r="AE34" s="11">
-        <v>20332</v>
+        <v>24784</v>
       </c>
       <c r="AF34" s="11">
-        <v>23272</v>
+        <v>7296</v>
       </c>
       <c r="AG34" s="11">
-        <v>24784</v>
+        <v>18120</v>
       </c>
       <c r="AH34" s="11">
-        <v>7296</v>
+        <v>84312</v>
       </c>
       <c r="AI34" s="11">
-        <v>18120</v>
+        <v>4296</v>
       </c>
       <c r="AJ34" s="11">
-        <v>84312</v>
+        <v>9732</v>
       </c>
       <c r="AK34" s="11">
-        <v>4296</v>
-      </c>
-      <c r="AL34" s="11">
+        <v>31524</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>89967</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>7441</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>38500</v>
+      </c>
+      <c r="AP34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>69784</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>1044</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>76776</v>
+      </c>
+      <c r="AU34" s="11">
         <v>9732</v>
       </c>
-      <c r="AM34" s="11">
-        <v>31524</v>
-      </c>
-      <c r="AN34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>89967</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>7441</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>38500</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>69784</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>1044</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>0</v>
-      </c>
       <c r="AV34" s="11">
-        <v>76776</v>
+        <v>23924</v>
       </c>
       <c r="AW34" s="11">
-        <v>9732</v>
+        <v>7848</v>
       </c>
       <c r="AX34" s="11">
-        <v>23924</v>
+        <v>50850</v>
       </c>
       <c r="AY34" s="11">
-        <v>7848</v>
+        <v>54240</v>
       </c>
       <c r="AZ34" s="11">
-        <v>50850</v>
+        <v>62336</v>
       </c>
       <c r="BA34" s="11">
-        <v>54240</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="11">
-        <v>62336</v>
+        <v>29168</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4460,113 +4460,113 @@
       <c r="S35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>58</v>
+      <c r="T35" s="13">
+        <v>9512</v>
+      </c>
+      <c r="U35" s="13">
+        <v>3420</v>
       </c>
       <c r="V35" s="13">
-        <v>9512</v>
+        <v>46668</v>
       </c>
       <c r="W35" s="13">
-        <v>3420</v>
+        <v>38040</v>
       </c>
       <c r="X35" s="13">
-        <v>46668</v>
+        <v>17832</v>
       </c>
       <c r="Y35" s="13">
-        <v>38040</v>
+        <v>41992</v>
       </c>
       <c r="Z35" s="13">
-        <v>17832</v>
+        <v>25514</v>
       </c>
       <c r="AA35" s="13">
-        <v>41992</v>
+        <v>69006</v>
       </c>
       <c r="AB35" s="13">
-        <v>25514</v>
+        <v>57796</v>
       </c>
       <c r="AC35" s="13">
-        <v>69006</v>
+        <v>23710</v>
       </c>
       <c r="AD35" s="13">
-        <v>57796</v>
+        <v>22606</v>
       </c>
       <c r="AE35" s="13">
-        <v>23710</v>
+        <v>63876</v>
       </c>
       <c r="AF35" s="13">
-        <v>22606</v>
+        <v>8460</v>
       </c>
       <c r="AG35" s="13">
-        <v>63876</v>
+        <v>56280</v>
       </c>
       <c r="AH35" s="13">
-        <v>8460</v>
+        <v>75936</v>
       </c>
       <c r="AI35" s="13">
-        <v>56280</v>
+        <v>6156</v>
       </c>
       <c r="AJ35" s="13">
-        <v>75936</v>
+        <v>29676</v>
       </c>
       <c r="AK35" s="13">
-        <v>6156</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>29676</v>
+        <v>17112</v>
+      </c>
+      <c r="AL35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM35" s="13">
-        <v>17112</v>
-      </c>
-      <c r="AN35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO35" s="13">
         <v>51469</v>
       </c>
-      <c r="AP35" s="13">
+      <c r="AN35" s="13">
         <v>19463</v>
       </c>
-      <c r="AQ35" s="13" t="s">
-        <v>58</v>
+      <c r="AO35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>159940</v>
       </c>
       <c r="AR35" s="13">
-        <v>62036</v>
+        <v>4128</v>
       </c>
       <c r="AS35" s="13">
-        <v>159940</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="13">
-        <v>4128</v>
+        <v>57384</v>
       </c>
       <c r="AU35" s="13">
-        <v>0</v>
+        <v>7116</v>
       </c>
       <c r="AV35" s="13">
-        <v>57384</v>
+        <v>13188</v>
       </c>
       <c r="AW35" s="13">
-        <v>7116</v>
+        <v>26352</v>
       </c>
       <c r="AX35" s="13">
-        <v>13188</v>
+        <v>55026</v>
       </c>
       <c r="AY35" s="13">
-        <v>26352</v>
+        <v>48648</v>
       </c>
       <c r="AZ35" s="13">
-        <v>55026</v>
+        <v>52604</v>
       </c>
       <c r="BA35" s="13">
-        <v>48648</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="13">
-        <v>52604</v>
+        <v>18888</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4619,113 +4619,113 @@
       <c r="S36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>58</v>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>3840</v>
       </c>
       <c r="V36" s="11">
         <v>0</v>
       </c>
       <c r="W36" s="11">
-        <v>3840</v>
+        <v>14919</v>
       </c>
       <c r="X36" s="11">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="Y36" s="11">
-        <v>14919</v>
+        <v>2143</v>
       </c>
       <c r="Z36" s="11">
-        <v>1076</v>
+        <v>6010</v>
       </c>
       <c r="AA36" s="11">
-        <v>2143</v>
+        <v>9524</v>
       </c>
       <c r="AB36" s="11">
-        <v>6010</v>
+        <v>19521</v>
       </c>
       <c r="AC36" s="11">
-        <v>9524</v>
+        <v>5667</v>
       </c>
       <c r="AD36" s="11">
-        <v>19521</v>
+        <v>4830</v>
       </c>
       <c r="AE36" s="11">
-        <v>5667</v>
+        <v>11120</v>
       </c>
       <c r="AF36" s="11">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="11">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="11">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AI36" s="11">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AJ36" s="11">
-        <v>22619</v>
+        <v>5365</v>
       </c>
       <c r="AK36" s="11">
-        <v>144</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>5365</v>
+        <v>3311</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM36" s="11">
-        <v>3311</v>
-      </c>
-      <c r="AN36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO36" s="11">
         <v>4201</v>
       </c>
+      <c r="AN36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="11" t="s">
-        <v>58</v>
+        <v>74139</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>0</v>
       </c>
       <c r="AR36" s="11">
-        <v>12103</v>
+        <v>3768</v>
       </c>
       <c r="AS36" s="11">
         <v>0</v>
       </c>
       <c r="AT36" s="11">
-        <v>3768</v>
+        <v>9000</v>
       </c>
       <c r="AU36" s="11">
-        <v>0</v>
+        <v>11508</v>
       </c>
       <c r="AV36" s="11">
-        <v>9000</v>
+        <v>26016</v>
       </c>
       <c r="AW36" s="11">
-        <v>11508</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="11">
-        <v>26016</v>
+        <v>9144</v>
       </c>
       <c r="AY36" s="11">
-        <v>0</v>
+        <v>9060</v>
       </c>
       <c r="AZ36" s="11">
-        <v>9144</v>
+        <v>18632</v>
       </c>
       <c r="BA36" s="11">
-        <v>9060</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="11">
-        <v>18632</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>71</v>
       </c>
@@ -4777,112 +4777,112 @@
         <v>0</v>
       </c>
       <c r="T37" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="U37" s="15">
-        <v>0</v>
+        <v>22020</v>
       </c>
       <c r="V37" s="15">
-        <v>11372</v>
+        <v>86940</v>
       </c>
       <c r="W37" s="15">
-        <v>22020</v>
+        <v>83319</v>
       </c>
       <c r="X37" s="15">
-        <v>86940</v>
+        <v>35912</v>
       </c>
       <c r="Y37" s="15">
-        <v>83319</v>
+        <v>73847</v>
       </c>
       <c r="Z37" s="15">
-        <v>35912</v>
+        <v>53561</v>
       </c>
       <c r="AA37" s="15">
-        <v>73847</v>
+        <v>137794</v>
       </c>
       <c r="AB37" s="15">
-        <v>53561</v>
+        <v>115072</v>
       </c>
       <c r="AC37" s="15">
-        <v>137794</v>
+        <v>49709</v>
       </c>
       <c r="AD37" s="15">
-        <v>115072</v>
+        <v>50708</v>
       </c>
       <c r="AE37" s="15">
-        <v>49709</v>
+        <v>99780</v>
       </c>
       <c r="AF37" s="15">
-        <v>50708</v>
+        <v>15756</v>
       </c>
       <c r="AG37" s="15">
-        <v>99780</v>
+        <v>74400</v>
       </c>
       <c r="AH37" s="15">
-        <v>15756</v>
+        <v>182867</v>
       </c>
       <c r="AI37" s="15">
-        <v>74400</v>
+        <v>10596</v>
       </c>
       <c r="AJ37" s="15">
-        <v>182867</v>
+        <v>44773</v>
       </c>
       <c r="AK37" s="15">
-        <v>10596</v>
+        <v>51947</v>
       </c>
       <c r="AL37" s="15">
-        <v>44773</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="15">
-        <v>51947</v>
+        <v>145637</v>
       </c>
       <c r="AN37" s="15">
-        <v>0</v>
+        <v>26904</v>
       </c>
       <c r="AO37" s="15">
-        <v>145637</v>
+        <v>38500</v>
       </c>
       <c r="AP37" s="15">
-        <v>26904</v>
+        <v>74139</v>
       </c>
       <c r="AQ37" s="15">
-        <v>38500</v>
+        <v>229724</v>
       </c>
       <c r="AR37" s="15">
-        <v>74139</v>
+        <v>8940</v>
       </c>
       <c r="AS37" s="15">
-        <v>229724</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="15">
-        <v>8940</v>
+        <v>143160</v>
       </c>
       <c r="AU37" s="15">
-        <v>0</v>
+        <v>28356</v>
       </c>
       <c r="AV37" s="15">
-        <v>143160</v>
+        <v>63128</v>
       </c>
       <c r="AW37" s="15">
-        <v>28356</v>
+        <v>34200</v>
       </c>
       <c r="AX37" s="15">
-        <v>63128</v>
+        <v>115020</v>
       </c>
       <c r="AY37" s="15">
-        <v>34200</v>
+        <v>111948</v>
       </c>
       <c r="AZ37" s="15">
-        <v>115020</v>
+        <v>133572</v>
       </c>
       <c r="BA37" s="15">
-        <v>111948</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="15">
-        <v>133572</v>
+        <v>48056</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>64</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
@@ -4990,11 +4990,11 @@
       <c r="S39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>58</v>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <v>0</v>
       </c>
       <c r="V39" s="19">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>72</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="BA40" s="17"/>
       <c r="BB40" s="17"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>73</v>
       </c>
@@ -5204,11 +5204,11 @@
       <c r="S41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T41" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="U41" s="19" t="s">
-        <v>58</v>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0</v>
       </c>
       <c r="V41" s="19">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>66</v>
       </c>
@@ -5362,112 +5362,112 @@
         <v>0</v>
       </c>
       <c r="T42" s="15">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="U42" s="15">
-        <v>0</v>
+        <v>4684950</v>
       </c>
       <c r="V42" s="15">
-        <v>2189596</v>
+        <v>6206453</v>
       </c>
       <c r="W42" s="15">
-        <v>4684950</v>
+        <v>6297877</v>
       </c>
       <c r="X42" s="15">
-        <v>6206453</v>
+        <v>4907194</v>
       </c>
       <c r="Y42" s="15">
-        <v>6297877</v>
+        <v>5024986</v>
       </c>
       <c r="Z42" s="15">
-        <v>4907194</v>
+        <v>6010296</v>
       </c>
       <c r="AA42" s="15">
-        <v>5024986</v>
+        <v>4778731</v>
       </c>
       <c r="AB42" s="15">
-        <v>6010296</v>
+        <v>2793450</v>
       </c>
       <c r="AC42" s="15">
-        <v>4778731</v>
+        <v>5542082</v>
       </c>
       <c r="AD42" s="15">
-        <v>2793450</v>
+        <v>7377556</v>
       </c>
       <c r="AE42" s="15">
-        <v>5542082</v>
+        <v>3866112</v>
       </c>
       <c r="AF42" s="15">
-        <v>7377556</v>
+        <v>2632828</v>
       </c>
       <c r="AG42" s="15">
-        <v>3866112</v>
+        <v>4800548</v>
       </c>
       <c r="AH42" s="15">
-        <v>2632828</v>
+        <v>4948513</v>
       </c>
       <c r="AI42" s="15">
-        <v>4800548</v>
+        <v>4838510</v>
       </c>
       <c r="AJ42" s="15">
-        <v>4948513</v>
+        <v>5206680</v>
       </c>
       <c r="AK42" s="15">
-        <v>4838510</v>
+        <v>5572973</v>
       </c>
       <c r="AL42" s="15">
-        <v>5206680</v>
+        <v>4674415</v>
       </c>
       <c r="AM42" s="15">
-        <v>5572973</v>
+        <v>4622101</v>
       </c>
       <c r="AN42" s="15">
-        <v>4674415</v>
+        <v>4943319</v>
       </c>
       <c r="AO42" s="15">
-        <v>4622101</v>
+        <v>4514858</v>
       </c>
       <c r="AP42" s="15">
-        <v>4943319</v>
+        <v>6300704</v>
       </c>
       <c r="AQ42" s="15">
-        <v>4514858</v>
+        <v>5477276</v>
       </c>
       <c r="AR42" s="15">
-        <v>6300704</v>
+        <v>3517359</v>
       </c>
       <c r="AS42" s="15">
-        <v>5477276</v>
+        <v>6010189</v>
       </c>
       <c r="AT42" s="15">
-        <v>3517359</v>
+        <v>7131931</v>
       </c>
       <c r="AU42" s="15">
-        <v>6010189</v>
+        <v>5102138</v>
       </c>
       <c r="AV42" s="15">
-        <v>7131931</v>
+        <v>5348757</v>
       </c>
       <c r="AW42" s="15">
-        <v>5102138</v>
+        <v>5655448</v>
       </c>
       <c r="AX42" s="15">
-        <v>5348757</v>
+        <v>4822212</v>
       </c>
       <c r="AY42" s="15">
-        <v>5655448</v>
+        <v>6612364</v>
       </c>
       <c r="AZ42" s="15">
-        <v>4822212</v>
+        <v>6631061</v>
       </c>
       <c r="BA42" s="15">
-        <v>6612364</v>
+        <v>5488187</v>
       </c>
       <c r="BB42" s="15">
-        <v>6631061</v>
+        <v>6214793</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5522,7 +5522,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5577,7 +5577,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5632,7 +5632,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>74</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5844,7 +5844,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>75</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -5954,113 +5954,113 @@
       <c r="S49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U49" s="11" t="s">
-        <v>58</v>
+      <c r="T49" s="11">
+        <v>107356</v>
+      </c>
+      <c r="U49" s="11">
+        <v>264463</v>
       </c>
       <c r="V49" s="11">
-        <v>107356</v>
+        <v>312989</v>
       </c>
       <c r="W49" s="11">
-        <v>264463</v>
+        <v>311214</v>
       </c>
       <c r="X49" s="11">
-        <v>312989</v>
+        <v>284377</v>
       </c>
       <c r="Y49" s="11">
-        <v>311214</v>
+        <v>262582</v>
       </c>
       <c r="Z49" s="11">
-        <v>284377</v>
+        <v>291013</v>
       </c>
       <c r="AA49" s="11">
-        <v>262582</v>
+        <v>303673</v>
       </c>
       <c r="AB49" s="11">
-        <v>291013</v>
+        <v>204875</v>
       </c>
       <c r="AC49" s="11">
-        <v>303673</v>
+        <v>310919</v>
       </c>
       <c r="AD49" s="11">
-        <v>204875</v>
+        <v>435566</v>
       </c>
       <c r="AE49" s="11">
-        <v>310919</v>
+        <v>322153</v>
       </c>
       <c r="AF49" s="11">
-        <v>435566</v>
+        <v>237020</v>
       </c>
       <c r="AG49" s="11">
-        <v>322153</v>
+        <v>443682</v>
       </c>
       <c r="AH49" s="11">
-        <v>237020</v>
+        <v>379317</v>
       </c>
       <c r="AI49" s="11">
-        <v>443682</v>
+        <v>361340</v>
       </c>
       <c r="AJ49" s="11">
-        <v>379317</v>
+        <v>292867</v>
       </c>
       <c r="AK49" s="11">
-        <v>361340</v>
+        <v>211220</v>
       </c>
       <c r="AL49" s="11">
-        <v>292867</v>
+        <v>409790</v>
       </c>
       <c r="AM49" s="11">
-        <v>211220</v>
+        <v>380457</v>
       </c>
       <c r="AN49" s="11">
-        <v>409790</v>
+        <v>332376</v>
       </c>
       <c r="AO49" s="11">
-        <v>380457</v>
+        <v>296503</v>
       </c>
       <c r="AP49" s="11">
-        <v>332376</v>
+        <v>531290</v>
       </c>
       <c r="AQ49" s="11">
-        <v>296503</v>
+        <v>255696</v>
       </c>
       <c r="AR49" s="11">
-        <v>531290</v>
+        <v>241291</v>
       </c>
       <c r="AS49" s="11">
-        <v>255696</v>
+        <v>438589</v>
       </c>
       <c r="AT49" s="11">
-        <v>241291</v>
+        <v>494639</v>
       </c>
       <c r="AU49" s="11">
-        <v>438589</v>
+        <v>329574</v>
       </c>
       <c r="AV49" s="11">
-        <v>494639</v>
+        <v>346258</v>
       </c>
       <c r="AW49" s="11">
-        <v>329574</v>
+        <v>421735</v>
       </c>
       <c r="AX49" s="11">
-        <v>346258</v>
+        <v>355816</v>
       </c>
       <c r="AY49" s="11">
-        <v>421735</v>
+        <v>432481</v>
       </c>
       <c r="AZ49" s="11">
-        <v>355816</v>
+        <v>477529</v>
       </c>
       <c r="BA49" s="11">
-        <v>432481</v>
+        <v>473084</v>
       </c>
       <c r="BB49" s="11">
-        <v>477529</v>
+        <v>703851</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6113,113 +6113,113 @@
       <c r="S50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="T50" s="13">
+        <v>165283</v>
+      </c>
+      <c r="U50" s="13">
+        <v>396066</v>
       </c>
       <c r="V50" s="13">
-        <v>165283</v>
+        <v>393106</v>
       </c>
       <c r="W50" s="13">
-        <v>396066</v>
+        <v>592602</v>
       </c>
       <c r="X50" s="13">
-        <v>393106</v>
+        <v>514433</v>
       </c>
       <c r="Y50" s="13">
-        <v>592602</v>
+        <v>553392</v>
       </c>
       <c r="Z50" s="13">
-        <v>514433</v>
+        <v>593051</v>
       </c>
       <c r="AA50" s="13">
-        <v>553392</v>
+        <v>596707</v>
       </c>
       <c r="AB50" s="13">
-        <v>593051</v>
+        <v>507198</v>
       </c>
       <c r="AC50" s="13">
-        <v>596707</v>
+        <v>618102</v>
       </c>
       <c r="AD50" s="13">
-        <v>507198</v>
+        <v>908940</v>
       </c>
       <c r="AE50" s="13">
-        <v>618102</v>
+        <v>746452</v>
       </c>
       <c r="AF50" s="13">
-        <v>908940</v>
+        <v>346417</v>
       </c>
       <c r="AG50" s="13">
-        <v>746452</v>
+        <v>589789</v>
       </c>
       <c r="AH50" s="13">
-        <v>346417</v>
+        <v>605399</v>
       </c>
       <c r="AI50" s="13">
-        <v>589789</v>
+        <v>768772</v>
       </c>
       <c r="AJ50" s="13">
-        <v>605399</v>
+        <v>791113</v>
       </c>
       <c r="AK50" s="13">
-        <v>768772</v>
+        <v>978070</v>
       </c>
       <c r="AL50" s="13">
-        <v>791113</v>
+        <v>520867</v>
       </c>
       <c r="AM50" s="13">
-        <v>978070</v>
+        <v>721711</v>
       </c>
       <c r="AN50" s="13">
-        <v>520867</v>
+        <v>701817</v>
       </c>
       <c r="AO50" s="13">
-        <v>721711</v>
+        <v>778548</v>
       </c>
       <c r="AP50" s="13">
-        <v>701817</v>
+        <v>978172</v>
       </c>
       <c r="AQ50" s="13">
-        <v>778548</v>
+        <v>888182</v>
       </c>
       <c r="AR50" s="13">
-        <v>978172</v>
+        <v>491503</v>
       </c>
       <c r="AS50" s="13">
-        <v>888182</v>
+        <v>975476</v>
       </c>
       <c r="AT50" s="13">
-        <v>491503</v>
+        <v>1253144</v>
       </c>
       <c r="AU50" s="13">
-        <v>975476</v>
+        <v>933931</v>
       </c>
       <c r="AV50" s="13">
-        <v>1253144</v>
+        <v>1027166</v>
       </c>
       <c r="AW50" s="13">
-        <v>933931</v>
+        <v>1177383</v>
       </c>
       <c r="AX50" s="13">
-        <v>1027166</v>
+        <v>894249</v>
       </c>
       <c r="AY50" s="13">
-        <v>1177383</v>
+        <v>1217495</v>
       </c>
       <c r="AZ50" s="13">
-        <v>894249</v>
+        <v>1278709</v>
       </c>
       <c r="BA50" s="13">
-        <v>1217495</v>
+        <v>1290144</v>
       </c>
       <c r="BB50" s="13">
-        <v>1278709</v>
+        <v>1240363</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
@@ -6272,113 +6272,113 @@
       <c r="S51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U51" s="11" t="s">
-        <v>58</v>
+      <c r="T51" s="11">
+        <v>27600</v>
+      </c>
+      <c r="U51" s="11">
+        <v>139228</v>
       </c>
       <c r="V51" s="11">
-        <v>27600</v>
+        <v>151990</v>
       </c>
       <c r="W51" s="11">
-        <v>139228</v>
+        <v>165748</v>
       </c>
       <c r="X51" s="11">
-        <v>151990</v>
+        <v>176972</v>
       </c>
       <c r="Y51" s="11">
-        <v>165748</v>
+        <v>227532</v>
       </c>
       <c r="Z51" s="11">
-        <v>176972</v>
+        <v>217613</v>
       </c>
       <c r="AA51" s="11">
-        <v>227532</v>
+        <v>223101</v>
       </c>
       <c r="AB51" s="11">
-        <v>217613</v>
+        <v>137180</v>
       </c>
       <c r="AC51" s="11">
-        <v>223101</v>
+        <v>306629</v>
       </c>
       <c r="AD51" s="11">
-        <v>137180</v>
+        <v>457113</v>
       </c>
       <c r="AE51" s="11">
-        <v>306629</v>
+        <v>251125</v>
       </c>
       <c r="AF51" s="11">
-        <v>457113</v>
+        <v>102359</v>
       </c>
       <c r="AG51" s="11">
-        <v>251125</v>
+        <v>350389</v>
       </c>
       <c r="AH51" s="11">
-        <v>102359</v>
+        <v>281941</v>
       </c>
       <c r="AI51" s="11">
-        <v>350389</v>
+        <v>353573</v>
       </c>
       <c r="AJ51" s="11">
-        <v>281941</v>
+        <v>192767</v>
       </c>
       <c r="AK51" s="11">
-        <v>353573</v>
+        <v>233404</v>
       </c>
       <c r="AL51" s="11">
-        <v>192767</v>
+        <v>439739</v>
       </c>
       <c r="AM51" s="11">
-        <v>233404</v>
+        <v>455549</v>
       </c>
       <c r="AN51" s="11">
-        <v>439739</v>
+        <v>429007</v>
       </c>
       <c r="AO51" s="11">
-        <v>455549</v>
+        <v>387230</v>
       </c>
       <c r="AP51" s="11">
-        <v>429007</v>
+        <v>601535</v>
       </c>
       <c r="AQ51" s="11">
-        <v>387230</v>
+        <v>380655</v>
       </c>
       <c r="AR51" s="11">
-        <v>601535</v>
+        <v>295706</v>
       </c>
       <c r="AS51" s="11">
-        <v>380655</v>
+        <v>677102</v>
       </c>
       <c r="AT51" s="11">
-        <v>295706</v>
+        <v>713538</v>
       </c>
       <c r="AU51" s="11">
-        <v>677102</v>
+        <v>767728</v>
       </c>
       <c r="AV51" s="11">
-        <v>713538</v>
+        <v>608822</v>
       </c>
       <c r="AW51" s="11">
-        <v>767728</v>
+        <v>995123</v>
       </c>
       <c r="AX51" s="11">
-        <v>608822</v>
+        <v>495959</v>
       </c>
       <c r="AY51" s="11">
-        <v>995123</v>
+        <v>1065343</v>
       </c>
       <c r="AZ51" s="11">
-        <v>495959</v>
+        <v>980075</v>
       </c>
       <c r="BA51" s="11">
-        <v>1065343</v>
+        <v>869999</v>
       </c>
       <c r="BB51" s="11">
-        <v>980075</v>
+        <v>751267</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
@@ -6430,112 +6430,112 @@
         <v>0</v>
       </c>
       <c r="T52" s="15">
-        <v>0</v>
+        <v>300239</v>
       </c>
       <c r="U52" s="15">
-        <v>0</v>
+        <v>799757</v>
       </c>
       <c r="V52" s="15">
-        <v>300239</v>
+        <v>858085</v>
       </c>
       <c r="W52" s="15">
-        <v>799757</v>
+        <v>1069564</v>
       </c>
       <c r="X52" s="15">
-        <v>858085</v>
+        <v>975782</v>
       </c>
       <c r="Y52" s="15">
-        <v>1069564</v>
+        <v>1043506</v>
       </c>
       <c r="Z52" s="15">
-        <v>975782</v>
+        <v>1101677</v>
       </c>
       <c r="AA52" s="15">
-        <v>1043506</v>
+        <v>1123481</v>
       </c>
       <c r="AB52" s="15">
-        <v>1101677</v>
+        <v>849253</v>
       </c>
       <c r="AC52" s="15">
-        <v>1123481</v>
+        <v>1235650</v>
       </c>
       <c r="AD52" s="15">
-        <v>849253</v>
+        <v>1801619</v>
       </c>
       <c r="AE52" s="15">
-        <v>1235650</v>
+        <v>1319730</v>
       </c>
       <c r="AF52" s="15">
-        <v>1801619</v>
+        <v>685796</v>
       </c>
       <c r="AG52" s="15">
-        <v>1319730</v>
+        <v>1383860</v>
       </c>
       <c r="AH52" s="15">
-        <v>685796</v>
+        <v>1266657</v>
       </c>
       <c r="AI52" s="15">
-        <v>1383860</v>
+        <v>1483685</v>
       </c>
       <c r="AJ52" s="15">
-        <v>1266657</v>
+        <v>1276747</v>
       </c>
       <c r="AK52" s="15">
-        <v>1483685</v>
+        <v>1422694</v>
       </c>
       <c r="AL52" s="15">
-        <v>1276747</v>
+        <v>1370396</v>
       </c>
       <c r="AM52" s="15">
-        <v>1422694</v>
+        <v>1557717</v>
       </c>
       <c r="AN52" s="15">
-        <v>1370396</v>
+        <v>1463200</v>
       </c>
       <c r="AO52" s="15">
-        <v>1557717</v>
+        <v>1462281</v>
       </c>
       <c r="AP52" s="15">
-        <v>1463200</v>
+        <v>2110997</v>
       </c>
       <c r="AQ52" s="15">
-        <v>1462281</v>
+        <v>1524533</v>
       </c>
       <c r="AR52" s="15">
-        <v>2110997</v>
+        <v>1028500</v>
       </c>
       <c r="AS52" s="15">
-        <v>1524533</v>
+        <v>2091167</v>
       </c>
       <c r="AT52" s="15">
-        <v>1028500</v>
+        <v>2461321</v>
       </c>
       <c r="AU52" s="15">
-        <v>2091167</v>
+        <v>2031233</v>
       </c>
       <c r="AV52" s="15">
-        <v>2461321</v>
+        <v>1982246</v>
       </c>
       <c r="AW52" s="15">
-        <v>2031233</v>
+        <v>2594241</v>
       </c>
       <c r="AX52" s="15">
-        <v>1982246</v>
+        <v>1746024</v>
       </c>
       <c r="AY52" s="15">
-        <v>2594241</v>
+        <v>2715319</v>
       </c>
       <c r="AZ52" s="15">
-        <v>1746024</v>
+        <v>2736313</v>
       </c>
       <c r="BA52" s="15">
-        <v>2715319</v>
+        <v>2633227</v>
       </c>
       <c r="BB52" s="15">
-        <v>2736313</v>
+        <v>2695481</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>77</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -6645,113 +6645,113 @@
       <c r="S54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U54" s="11" t="s">
-        <v>58</v>
+      <c r="T54" s="11">
+        <v>237</v>
+      </c>
+      <c r="U54" s="11">
+        <v>1638</v>
       </c>
       <c r="V54" s="11">
-        <v>237</v>
+        <v>5599</v>
       </c>
       <c r="W54" s="11">
-        <v>1638</v>
+        <v>4439</v>
       </c>
       <c r="X54" s="11">
-        <v>5599</v>
+        <v>6119</v>
       </c>
       <c r="Y54" s="11">
-        <v>4439</v>
+        <v>4642</v>
       </c>
       <c r="Z54" s="11">
-        <v>6119</v>
+        <v>4957</v>
       </c>
       <c r="AA54" s="11">
-        <v>4642</v>
+        <v>10652</v>
       </c>
       <c r="AB54" s="11">
-        <v>4957</v>
+        <v>9420</v>
       </c>
       <c r="AC54" s="11">
-        <v>10652</v>
+        <v>3843</v>
       </c>
       <c r="AD54" s="11">
-        <v>9420</v>
+        <v>3960</v>
       </c>
       <c r="AE54" s="11">
-        <v>3843</v>
+        <v>4454</v>
       </c>
       <c r="AF54" s="11">
-        <v>3960</v>
+        <v>1918</v>
       </c>
       <c r="AG54" s="11">
-        <v>4454</v>
+        <v>3638</v>
       </c>
       <c r="AH54" s="11">
-        <v>1918</v>
+        <v>16914</v>
       </c>
       <c r="AI54" s="11">
-        <v>3638</v>
+        <v>860</v>
       </c>
       <c r="AJ54" s="11">
-        <v>16914</v>
+        <v>1581</v>
       </c>
       <c r="AK54" s="11">
-        <v>860</v>
+        <v>7462</v>
       </c>
       <c r="AL54" s="11">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="11">
-        <v>7462</v>
+        <v>18160</v>
       </c>
       <c r="AN54" s="11">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="AO54" s="11">
-        <v>18160</v>
+        <v>11790</v>
       </c>
       <c r="AP54" s="11">
-        <v>1674</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="11">
-        <v>11790</v>
+        <v>16265</v>
       </c>
       <c r="AR54" s="11">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AS54" s="11">
-        <v>16265</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="11">
-        <v>214</v>
+        <v>20170</v>
       </c>
       <c r="AU54" s="11">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="AV54" s="11">
-        <v>20170</v>
+        <v>12940</v>
       </c>
       <c r="AW54" s="11">
-        <v>1752</v>
+        <v>1938</v>
       </c>
       <c r="AX54" s="11">
-        <v>12940</v>
+        <v>20092</v>
       </c>
       <c r="AY54" s="11">
-        <v>1938</v>
+        <v>17842</v>
       </c>
       <c r="AZ54" s="11">
-        <v>20092</v>
+        <v>20757</v>
       </c>
       <c r="BA54" s="11">
-        <v>17842</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>20757</v>
+        <v>11424</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -6804,113 +6804,113 @@
       <c r="S55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="T55" s="13">
+        <v>611</v>
+      </c>
+      <c r="U55" s="13">
+        <v>363</v>
       </c>
       <c r="V55" s="13">
-        <v>611</v>
+        <v>7629</v>
       </c>
       <c r="W55" s="13">
-        <v>363</v>
+        <v>5786</v>
       </c>
       <c r="X55" s="13">
-        <v>7629</v>
+        <v>2560</v>
       </c>
       <c r="Y55" s="13">
-        <v>5786</v>
+        <v>7795</v>
       </c>
       <c r="Z55" s="13">
-        <v>2560</v>
+        <v>4849</v>
       </c>
       <c r="AA55" s="13">
-        <v>7795</v>
+        <v>10837</v>
       </c>
       <c r="AB55" s="13">
-        <v>4849</v>
+        <v>9206</v>
       </c>
       <c r="AC55" s="13">
-        <v>10837</v>
+        <v>4070</v>
       </c>
       <c r="AD55" s="13">
-        <v>9206</v>
+        <v>4422</v>
       </c>
       <c r="AE55" s="13">
-        <v>4070</v>
+        <v>10885</v>
       </c>
       <c r="AF55" s="13">
-        <v>4422</v>
+        <v>1501</v>
       </c>
       <c r="AG55" s="13">
-        <v>10885</v>
+        <v>9009</v>
       </c>
       <c r="AH55" s="13">
-        <v>1501</v>
+        <v>15333</v>
       </c>
       <c r="AI55" s="13">
-        <v>9009</v>
+        <v>1020</v>
       </c>
       <c r="AJ55" s="13">
-        <v>15333</v>
+        <v>5279</v>
       </c>
       <c r="AK55" s="13">
-        <v>1020</v>
+        <v>3777</v>
       </c>
       <c r="AL55" s="13">
-        <v>5279</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="13">
-        <v>3777</v>
+        <v>9707</v>
       </c>
       <c r="AN55" s="13">
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="AO55" s="13">
-        <v>9707</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="13">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="13">
-        <v>0</v>
+        <v>37489</v>
       </c>
       <c r="AR55" s="13">
-        <v>14700</v>
+        <v>1339</v>
       </c>
       <c r="AS55" s="13">
-        <v>37489</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="13">
-        <v>1339</v>
+        <v>11682</v>
       </c>
       <c r="AU55" s="13">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="AV55" s="13">
-        <v>11682</v>
+        <v>3637</v>
       </c>
       <c r="AW55" s="13">
-        <v>1337</v>
+        <v>5396</v>
       </c>
       <c r="AX55" s="13">
-        <v>3637</v>
+        <v>21055</v>
       </c>
       <c r="AY55" s="13">
-        <v>5396</v>
+        <v>13304</v>
       </c>
       <c r="AZ55" s="13">
-        <v>21055</v>
+        <v>17136</v>
       </c>
       <c r="BA55" s="13">
-        <v>13304</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="13">
-        <v>17136</v>
+        <v>8282</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -6963,113 +6963,113 @@
       <c r="S56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U56" s="11" t="s">
-        <v>58</v>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>393</v>
       </c>
       <c r="V56" s="11">
         <v>0</v>
       </c>
       <c r="W56" s="11">
-        <v>393</v>
+        <v>2032</v>
       </c>
       <c r="X56" s="11">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="Y56" s="11">
-        <v>2032</v>
+        <v>1847</v>
       </c>
       <c r="Z56" s="11">
-        <v>417</v>
+        <v>1325</v>
       </c>
       <c r="AA56" s="11">
-        <v>1847</v>
+        <v>2217</v>
       </c>
       <c r="AB56" s="11">
-        <v>1325</v>
+        <v>4027</v>
       </c>
       <c r="AC56" s="11">
-        <v>2217</v>
+        <v>1745</v>
       </c>
       <c r="AD56" s="11">
-        <v>4027</v>
+        <v>1477</v>
       </c>
       <c r="AE56" s="11">
-        <v>1745</v>
+        <v>3283</v>
       </c>
       <c r="AF56" s="11">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="11">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="11">
-        <v>0</v>
+        <v>5218</v>
       </c>
       <c r="AI56" s="11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ56" s="11">
-        <v>5218</v>
+        <v>1324</v>
       </c>
       <c r="AK56" s="11">
-        <v>85</v>
+        <v>809</v>
       </c>
       <c r="AL56" s="11">
-        <v>1324</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="11">
-        <v>809</v>
+        <v>4003</v>
       </c>
       <c r="AN56" s="11">
         <v>0</v>
       </c>
       <c r="AO56" s="11">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="11">
-        <v>0</v>
+        <v>23364</v>
       </c>
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
       <c r="AR56" s="11">
-        <v>8664</v>
+        <v>1184</v>
       </c>
       <c r="AS56" s="11">
         <v>0</v>
       </c>
       <c r="AT56" s="11">
-        <v>1184</v>
+        <v>4078</v>
       </c>
       <c r="AU56" s="11">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="AV56" s="11">
-        <v>4078</v>
+        <v>7255</v>
       </c>
       <c r="AW56" s="11">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="11">
-        <v>7255</v>
+        <v>3674</v>
       </c>
       <c r="AY56" s="11">
-        <v>0</v>
+        <v>2879</v>
       </c>
       <c r="AZ56" s="11">
-        <v>3674</v>
+        <v>5978</v>
       </c>
       <c r="BA56" s="11">
-        <v>2879</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="11">
-        <v>5978</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>71</v>
       </c>
@@ -7121,112 +7121,112 @@
         <v>0</v>
       </c>
       <c r="T57" s="15">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="U57" s="15">
-        <v>0</v>
+        <v>2394</v>
       </c>
       <c r="V57" s="15">
-        <v>848</v>
+        <v>13228</v>
       </c>
       <c r="W57" s="15">
-        <v>2394</v>
+        <v>12257</v>
       </c>
       <c r="X57" s="15">
-        <v>13228</v>
+        <v>9096</v>
       </c>
       <c r="Y57" s="15">
-        <v>12257</v>
+        <v>14284</v>
       </c>
       <c r="Z57" s="15">
-        <v>9096</v>
+        <v>11131</v>
       </c>
       <c r="AA57" s="15">
-        <v>14284</v>
+        <v>23706</v>
       </c>
       <c r="AB57" s="15">
-        <v>11131</v>
+        <v>22653</v>
       </c>
       <c r="AC57" s="15">
-        <v>23706</v>
+        <v>9658</v>
       </c>
       <c r="AD57" s="15">
-        <v>22653</v>
+        <v>9859</v>
       </c>
       <c r="AE57" s="15">
-        <v>9658</v>
+        <v>18622</v>
       </c>
       <c r="AF57" s="15">
-        <v>9859</v>
+        <v>3419</v>
       </c>
       <c r="AG57" s="15">
-        <v>18622</v>
+        <v>12647</v>
       </c>
       <c r="AH57" s="15">
-        <v>3419</v>
+        <v>37465</v>
       </c>
       <c r="AI57" s="15">
-        <v>12647</v>
+        <v>1965</v>
       </c>
       <c r="AJ57" s="15">
-        <v>37465</v>
+        <v>8184</v>
       </c>
       <c r="AK57" s="15">
-        <v>1965</v>
+        <v>12048</v>
       </c>
       <c r="AL57" s="15">
-        <v>8184</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="15">
-        <v>12048</v>
+        <v>31870</v>
       </c>
       <c r="AN57" s="15">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="AO57" s="15">
-        <v>31870</v>
+        <v>11790</v>
       </c>
       <c r="AP57" s="15">
-        <v>5040</v>
+        <v>23364</v>
       </c>
       <c r="AQ57" s="15">
-        <v>11790</v>
+        <v>53754</v>
       </c>
       <c r="AR57" s="15">
-        <v>23364</v>
+        <v>2737</v>
       </c>
       <c r="AS57" s="15">
-        <v>53754</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="15">
-        <v>2737</v>
+        <v>35930</v>
       </c>
       <c r="AU57" s="15">
-        <v>0</v>
+        <v>5126</v>
       </c>
       <c r="AV57" s="15">
-        <v>35930</v>
+        <v>23832</v>
       </c>
       <c r="AW57" s="15">
-        <v>5126</v>
+        <v>7334</v>
       </c>
       <c r="AX57" s="15">
-        <v>23832</v>
+        <v>44821</v>
       </c>
       <c r="AY57" s="15">
-        <v>7334</v>
+        <v>34025</v>
       </c>
       <c r="AZ57" s="15">
-        <v>44821</v>
+        <v>43871</v>
       </c>
       <c r="BA57" s="15">
-        <v>34025</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="15">
-        <v>43871</v>
+        <v>19706</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>78</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="BA58" s="17"/>
       <c r="BB58" s="17"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>65</v>
       </c>
@@ -7336,11 +7336,11 @@
       <c r="S59" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T59" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="U59" s="19" t="s">
-        <v>58</v>
+      <c r="T59" s="19">
+        <v>0</v>
+      </c>
+      <c r="U59" s="19">
+        <v>0</v>
       </c>
       <c r="V59" s="19">
         <v>0</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>79</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>73</v>
       </c>
@@ -7552,11 +7552,11 @@
       <c r="S61" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T61" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="U61" s="19" t="s">
-        <v>58</v>
+      <c r="T61" s="19">
+        <v>0</v>
+      </c>
+      <c r="U61" s="19">
+        <v>0</v>
       </c>
       <c r="V61" s="19">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>80</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>81</v>
       </c>
@@ -7768,11 +7768,11 @@
       <c r="S63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U63" s="11" t="s">
-        <v>58</v>
+      <c r="T63" s="11">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <v>0</v>
       </c>
       <c r="V63" s="11">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>66</v>
       </c>
@@ -7926,112 +7926,112 @@
         <v>0</v>
       </c>
       <c r="T64" s="15">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="U64" s="15">
-        <v>0</v>
+        <v>802151</v>
       </c>
       <c r="V64" s="15">
-        <v>301087</v>
+        <v>871313</v>
       </c>
       <c r="W64" s="15">
-        <v>802151</v>
+        <v>1081821</v>
       </c>
       <c r="X64" s="15">
-        <v>871313</v>
+        <v>984878</v>
       </c>
       <c r="Y64" s="15">
-        <v>1081821</v>
+        <v>1057790</v>
       </c>
       <c r="Z64" s="15">
-        <v>984878</v>
+        <v>1112808</v>
       </c>
       <c r="AA64" s="15">
-        <v>1057790</v>
+        <v>1147187</v>
       </c>
       <c r="AB64" s="15">
-        <v>1112808</v>
+        <v>871906</v>
       </c>
       <c r="AC64" s="15">
-        <v>1147187</v>
+        <v>1245308</v>
       </c>
       <c r="AD64" s="15">
-        <v>871906</v>
+        <v>1811478</v>
       </c>
       <c r="AE64" s="15">
-        <v>1245308</v>
+        <v>1338352</v>
       </c>
       <c r="AF64" s="15">
-        <v>1811478</v>
+        <v>689215</v>
       </c>
       <c r="AG64" s="15">
-        <v>1338352</v>
+        <v>1396507</v>
       </c>
       <c r="AH64" s="15">
-        <v>689215</v>
+        <v>1304122</v>
       </c>
       <c r="AI64" s="15">
-        <v>1396507</v>
+        <v>1485650</v>
       </c>
       <c r="AJ64" s="15">
-        <v>1304122</v>
+        <v>1284931</v>
       </c>
       <c r="AK64" s="15">
-        <v>1485650</v>
+        <v>1434742</v>
       </c>
       <c r="AL64" s="15">
-        <v>1284931</v>
+        <v>1370396</v>
       </c>
       <c r="AM64" s="15">
-        <v>1434742</v>
+        <v>1589587</v>
       </c>
       <c r="AN64" s="15">
-        <v>1370396</v>
+        <v>1468240</v>
       </c>
       <c r="AO64" s="15">
-        <v>1589587</v>
+        <v>1474071</v>
       </c>
       <c r="AP64" s="15">
-        <v>1468240</v>
+        <v>2134361</v>
       </c>
       <c r="AQ64" s="15">
-        <v>1474071</v>
+        <v>1578287</v>
       </c>
       <c r="AR64" s="15">
-        <v>2134361</v>
+        <v>1031237</v>
       </c>
       <c r="AS64" s="15">
-        <v>1578287</v>
+        <v>2091167</v>
       </c>
       <c r="AT64" s="15">
-        <v>1031237</v>
+        <v>2497251</v>
       </c>
       <c r="AU64" s="15">
-        <v>2091167</v>
+        <v>2036359</v>
       </c>
       <c r="AV64" s="15">
-        <v>2497251</v>
+        <v>2006078</v>
       </c>
       <c r="AW64" s="15">
-        <v>2036359</v>
+        <v>2601575</v>
       </c>
       <c r="AX64" s="15">
-        <v>2006078</v>
+        <v>1790845</v>
       </c>
       <c r="AY64" s="15">
-        <v>2601575</v>
+        <v>2749344</v>
       </c>
       <c r="AZ64" s="15">
-        <v>1790845</v>
+        <v>2780184</v>
       </c>
       <c r="BA64" s="15">
-        <v>2749344</v>
+        <v>2633227</v>
       </c>
       <c r="BB64" s="15">
-        <v>2780184</v>
+        <v>2715187</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8086,7 +8086,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8141,7 +8141,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8196,7 +8196,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8408,7 +8408,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
@@ -8518,113 +8518,113 @@
       <c r="S71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U71" s="11" t="s">
-        <v>58</v>
+      <c r="T71" s="11">
+        <v>147638</v>
+      </c>
+      <c r="U71" s="11">
+        <v>150416</v>
       </c>
       <c r="V71" s="11">
-        <v>147638</v>
+        <v>219130</v>
       </c>
       <c r="W71" s="11">
-        <v>150416</v>
+        <v>231008</v>
       </c>
       <c r="X71" s="11">
-        <v>219130</v>
+        <v>238013</v>
       </c>
       <c r="Y71" s="11">
-        <v>231008</v>
+        <v>216619</v>
       </c>
       <c r="Z71" s="11">
-        <v>238013</v>
+        <v>193347</v>
       </c>
       <c r="AA71" s="11">
-        <v>216619</v>
+        <v>237992</v>
       </c>
       <c r="AB71" s="11">
-        <v>193347</v>
+        <v>253443</v>
       </c>
       <c r="AC71" s="11">
-        <v>237992</v>
+        <v>229462</v>
       </c>
       <c r="AD71" s="11">
-        <v>253443</v>
+        <v>262706</v>
       </c>
       <c r="AE71" s="11">
-        <v>229462</v>
+        <v>392486</v>
       </c>
       <c r="AF71" s="11">
-        <v>262706</v>
+        <v>298472</v>
       </c>
       <c r="AG71" s="11">
-        <v>392486</v>
+        <v>326799</v>
       </c>
       <c r="AH71" s="11">
-        <v>298472</v>
+        <v>305414</v>
       </c>
       <c r="AI71" s="11">
-        <v>326799</v>
+        <v>398992</v>
       </c>
       <c r="AJ71" s="11">
-        <v>305414</v>
+        <v>308404</v>
       </c>
       <c r="AK71" s="11">
-        <v>398992</v>
+        <v>280683</v>
       </c>
       <c r="AL71" s="11">
-        <v>308404</v>
+        <v>272686</v>
       </c>
       <c r="AM71" s="11">
-        <v>280683</v>
+        <v>312372</v>
       </c>
       <c r="AN71" s="11">
-        <v>272686</v>
+        <v>288746</v>
       </c>
       <c r="AO71" s="11">
-        <v>312372</v>
+        <v>338225</v>
       </c>
       <c r="AP71" s="11">
-        <v>288746</v>
+        <v>359462</v>
       </c>
       <c r="AQ71" s="11">
-        <v>338225</v>
+        <v>240340</v>
       </c>
       <c r="AR71" s="11">
-        <v>359462</v>
+        <v>281096</v>
       </c>
       <c r="AS71" s="11">
-        <v>240340</v>
+        <v>319368</v>
       </c>
       <c r="AT71" s="11">
-        <v>281096</v>
+        <v>321539</v>
       </c>
       <c r="AU71" s="11">
-        <v>319368</v>
+        <v>360417</v>
       </c>
       <c r="AV71" s="11">
-        <v>321539</v>
+        <v>320475</v>
       </c>
       <c r="AW71" s="11">
-        <v>360417</v>
+        <v>339099</v>
       </c>
       <c r="AX71" s="11">
-        <v>320475</v>
+        <v>339485</v>
       </c>
       <c r="AY71" s="11">
-        <v>339099</v>
+        <v>303013</v>
       </c>
       <c r="AZ71" s="11">
-        <v>339485</v>
+        <v>316548</v>
       </c>
       <c r="BA71" s="11">
-        <v>303013</v>
+        <v>430056</v>
       </c>
       <c r="BB71" s="11">
-        <v>316548</v>
+        <v>396945</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>59</v>
       </c>
@@ -8677,113 +8677,113 @@
       <c r="S72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="T72" s="13">
+        <v>125145</v>
+      </c>
+      <c r="U72" s="13">
+        <v>153468</v>
       </c>
       <c r="V72" s="13">
-        <v>125145</v>
+        <v>103910</v>
       </c>
       <c r="W72" s="13">
-        <v>153468</v>
+        <v>141979</v>
       </c>
       <c r="X72" s="13">
-        <v>103910</v>
+        <v>164317</v>
       </c>
       <c r="Y72" s="13">
-        <v>141979</v>
+        <v>183046</v>
       </c>
       <c r="Z72" s="13">
-        <v>164317</v>
+        <v>156893</v>
       </c>
       <c r="AA72" s="13">
-        <v>183046</v>
+        <v>214710</v>
       </c>
       <c r="AB72" s="13">
-        <v>156893</v>
+        <v>324261</v>
       </c>
       <c r="AC72" s="13">
-        <v>214710</v>
+        <v>203006</v>
       </c>
       <c r="AD72" s="13">
-        <v>324261</v>
+        <v>221266</v>
       </c>
       <c r="AE72" s="13">
-        <v>203006</v>
+        <v>311698</v>
       </c>
       <c r="AF72" s="13">
-        <v>221266</v>
+        <v>221168</v>
       </c>
       <c r="AG72" s="13">
-        <v>311698</v>
+        <v>234463</v>
       </c>
       <c r="AH72" s="13">
-        <v>221168</v>
+        <v>225705</v>
       </c>
       <c r="AI72" s="13">
-        <v>234463</v>
+        <v>240729</v>
       </c>
       <c r="AJ72" s="13">
-        <v>225705</v>
+        <v>213886</v>
       </c>
       <c r="AK72" s="13">
-        <v>240729</v>
+        <v>238528</v>
       </c>
       <c r="AL72" s="13">
-        <v>213886</v>
+        <v>278515</v>
       </c>
       <c r="AM72" s="13">
-        <v>238528</v>
+        <v>291073</v>
       </c>
       <c r="AN72" s="13">
-        <v>278515</v>
+        <v>240829</v>
       </c>
       <c r="AO72" s="13">
-        <v>291073</v>
+        <v>256222</v>
       </c>
       <c r="AP72" s="13">
-        <v>240829</v>
+        <v>272017</v>
       </c>
       <c r="AQ72" s="13">
-        <v>256222</v>
+        <v>246066</v>
       </c>
       <c r="AR72" s="13">
-        <v>272017</v>
+        <v>247026</v>
       </c>
       <c r="AS72" s="13">
-        <v>246066</v>
+        <v>279010</v>
       </c>
       <c r="AT72" s="13">
-        <v>247026</v>
+        <v>298329</v>
       </c>
       <c r="AU72" s="13">
-        <v>279010</v>
+        <v>331697</v>
       </c>
       <c r="AV72" s="13">
-        <v>298329</v>
+        <v>333309</v>
       </c>
       <c r="AW72" s="13">
-        <v>331697</v>
+        <v>396615</v>
       </c>
       <c r="AX72" s="13">
-        <v>333309</v>
+        <v>323402</v>
       </c>
       <c r="AY72" s="13">
-        <v>396615</v>
+        <v>367887</v>
       </c>
       <c r="AZ72" s="13">
-        <v>323402</v>
+        <v>365773</v>
       </c>
       <c r="BA72" s="13">
-        <v>367887</v>
+        <v>408008</v>
       </c>
       <c r="BB72" s="13">
-        <v>365773</v>
+        <v>376953</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
@@ -8836,113 +8836,113 @@
       <c r="S73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U73" s="11" t="s">
-        <v>58</v>
+      <c r="T73" s="11">
+        <v>211754</v>
+      </c>
+      <c r="U73" s="11">
+        <v>429773</v>
       </c>
       <c r="V73" s="11">
-        <v>211754</v>
+        <v>167383</v>
       </c>
       <c r="W73" s="11">
-        <v>429773</v>
+        <v>239005</v>
       </c>
       <c r="X73" s="11">
-        <v>167383</v>
+        <v>324275</v>
       </c>
       <c r="Y73" s="11">
-        <v>239005</v>
+        <v>317909</v>
       </c>
       <c r="Z73" s="11">
-        <v>324275</v>
+        <v>324002</v>
       </c>
       <c r="AA73" s="11">
-        <v>317909</v>
+        <v>380830</v>
       </c>
       <c r="AB73" s="11">
-        <v>324002</v>
+        <v>448523</v>
       </c>
       <c r="AC73" s="11">
-        <v>380830</v>
+        <v>280634</v>
       </c>
       <c r="AD73" s="11">
-        <v>448523</v>
+        <v>292845</v>
       </c>
       <c r="AE73" s="11">
-        <v>280634</v>
+        <v>455982</v>
       </c>
       <c r="AF73" s="11">
-        <v>292845</v>
+        <v>398826</v>
       </c>
       <c r="AG73" s="11">
-        <v>455982</v>
+        <v>410775</v>
       </c>
       <c r="AH73" s="11">
-        <v>398826</v>
+        <v>335082</v>
       </c>
       <c r="AI73" s="11">
-        <v>410775</v>
+        <v>485164</v>
       </c>
       <c r="AJ73" s="11">
-        <v>335082</v>
+        <v>375374</v>
       </c>
       <c r="AK73" s="11">
-        <v>485164</v>
+        <v>349373</v>
       </c>
       <c r="AL73" s="11">
-        <v>375374</v>
+        <v>337881</v>
       </c>
       <c r="AM73" s="11">
-        <v>349373</v>
+        <v>584772</v>
       </c>
       <c r="AN73" s="11">
-        <v>337881</v>
+        <v>504040</v>
       </c>
       <c r="AO73" s="11">
-        <v>584772</v>
+        <v>690066</v>
       </c>
       <c r="AP73" s="11">
-        <v>504040</v>
+        <v>521912</v>
       </c>
       <c r="AQ73" s="11">
-        <v>690066</v>
+        <v>663008</v>
       </c>
       <c r="AR73" s="11">
-        <v>521912</v>
+        <v>447806</v>
       </c>
       <c r="AS73" s="11">
-        <v>663008</v>
+        <v>593591</v>
       </c>
       <c r="AT73" s="11">
-        <v>447806</v>
+        <v>570884</v>
       </c>
       <c r="AU73" s="11">
-        <v>593591</v>
+        <v>571337</v>
       </c>
       <c r="AV73" s="11">
-        <v>570884</v>
+        <v>541921</v>
       </c>
       <c r="AW73" s="11">
-        <v>571337</v>
+        <v>706273</v>
       </c>
       <c r="AX73" s="11">
-        <v>541921</v>
+        <v>554789</v>
       </c>
       <c r="AY73" s="11">
-        <v>706273</v>
+        <v>604033</v>
       </c>
       <c r="AZ73" s="11">
-        <v>554789</v>
+        <v>656435</v>
       </c>
       <c r="BA73" s="11">
-        <v>604033</v>
+        <v>709579</v>
       </c>
       <c r="BB73" s="11">
-        <v>656435</v>
+        <v>681074</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>85</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
@@ -9052,113 +9052,113 @@
       <c r="S75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U75" s="11" t="s">
-        <v>58</v>
+      <c r="T75" s="11">
+        <v>127419</v>
+      </c>
+      <c r="U75" s="11">
+        <v>110976</v>
       </c>
       <c r="V75" s="11">
-        <v>127419</v>
+        <v>139030</v>
       </c>
       <c r="W75" s="11">
-        <v>110976</v>
+        <v>146212</v>
       </c>
       <c r="X75" s="11">
-        <v>139030</v>
+        <v>359857</v>
       </c>
       <c r="Y75" s="11">
-        <v>146212</v>
+        <v>156233</v>
       </c>
       <c r="Z75" s="11">
-        <v>359857</v>
+        <v>224940</v>
       </c>
       <c r="AA75" s="11">
-        <v>156233</v>
+        <v>179738</v>
       </c>
       <c r="AB75" s="11">
-        <v>224940</v>
+        <v>249503</v>
       </c>
       <c r="AC75" s="11">
-        <v>179738</v>
+        <v>189012</v>
       </c>
       <c r="AD75" s="11">
-        <v>249503</v>
+        <v>170162</v>
       </c>
       <c r="AE75" s="11">
-        <v>189012</v>
+        <v>179713</v>
       </c>
       <c r="AF75" s="11">
-        <v>170162</v>
+        <v>262884</v>
       </c>
       <c r="AG75" s="11">
-        <v>179713</v>
+        <v>200773</v>
       </c>
       <c r="AH75" s="11">
-        <v>262884</v>
+        <v>200612</v>
       </c>
       <c r="AI75" s="11">
-        <v>200773</v>
+        <v>200186</v>
       </c>
       <c r="AJ75" s="11">
-        <v>200612</v>
+        <v>162454</v>
       </c>
       <c r="AK75" s="11">
-        <v>200186</v>
-      </c>
-      <c r="AL75" s="11">
-        <v>162454</v>
+        <v>236709</v>
+      </c>
+      <c r="AL75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM75" s="11">
-        <v>236709</v>
-      </c>
-      <c r="AN75" s="11" t="s">
-        <v>58</v>
+        <v>201852</v>
+      </c>
+      <c r="AN75" s="11">
+        <v>224970</v>
       </c>
       <c r="AO75" s="11">
-        <v>201852</v>
-      </c>
-      <c r="AP75" s="11">
-        <v>224970</v>
+        <v>306234</v>
+      </c>
+      <c r="AP75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ75" s="11">
-        <v>306234</v>
+        <v>233076</v>
       </c>
       <c r="AR75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="11">
-        <v>233076</v>
+        <v>204981</v>
+      </c>
+      <c r="AS75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT75" s="11">
-        <v>204981</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>58</v>
+        <v>262712</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>180025</v>
       </c>
       <c r="AV75" s="11">
-        <v>262712</v>
+        <v>540879</v>
       </c>
       <c r="AW75" s="11">
-        <v>180025</v>
+        <v>246942</v>
       </c>
       <c r="AX75" s="11">
-        <v>540879</v>
+        <v>395123</v>
       </c>
       <c r="AY75" s="11">
-        <v>246942</v>
+        <v>328945</v>
       </c>
       <c r="AZ75" s="11">
-        <v>395123</v>
-      </c>
-      <c r="BA75" s="11">
-        <v>328945</v>
+        <v>332986</v>
+      </c>
+      <c r="BA75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB75" s="11">
-        <v>332986</v>
+        <v>391662</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>59</v>
       </c>
@@ -9211,113 +9211,113 @@
       <c r="S76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U76" s="13" t="s">
-        <v>58</v>
+      <c r="T76" s="13">
+        <v>64235</v>
+      </c>
+      <c r="U76" s="13">
+        <v>106140</v>
       </c>
       <c r="V76" s="13">
-        <v>64235</v>
+        <v>163474</v>
       </c>
       <c r="W76" s="13">
-        <v>106140</v>
+        <v>152103</v>
       </c>
       <c r="X76" s="13">
-        <v>163474</v>
+        <v>143562</v>
       </c>
       <c r="Y76" s="13">
-        <v>152103</v>
+        <v>185631</v>
       </c>
       <c r="Z76" s="13">
-        <v>143562</v>
+        <v>190053</v>
       </c>
       <c r="AA76" s="13">
-        <v>185631</v>
+        <v>157044</v>
       </c>
       <c r="AB76" s="13">
-        <v>190053</v>
+        <v>159284</v>
       </c>
       <c r="AC76" s="13">
-        <v>157044</v>
+        <v>171658</v>
       </c>
       <c r="AD76" s="13">
-        <v>159284</v>
+        <v>195612</v>
       </c>
       <c r="AE76" s="13">
-        <v>171658</v>
+        <v>170408</v>
       </c>
       <c r="AF76" s="13">
-        <v>195612</v>
+        <v>177423</v>
       </c>
       <c r="AG76" s="13">
-        <v>170408</v>
+        <v>160075</v>
       </c>
       <c r="AH76" s="13">
-        <v>177423</v>
+        <v>201920</v>
       </c>
       <c r="AI76" s="13">
-        <v>160075</v>
+        <v>165692</v>
       </c>
       <c r="AJ76" s="13">
-        <v>201920</v>
+        <v>177888</v>
       </c>
       <c r="AK76" s="13">
-        <v>165692</v>
-      </c>
-      <c r="AL76" s="13">
-        <v>177888</v>
+        <v>220722</v>
+      </c>
+      <c r="AL76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM76" s="13">
-        <v>220722</v>
-      </c>
-      <c r="AN76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO76" s="13">
         <v>188599</v>
       </c>
-      <c r="AP76" s="13">
+      <c r="AN76" s="13">
         <v>172944</v>
       </c>
-      <c r="AQ76" s="13" t="s">
-        <v>58</v>
+      <c r="AO76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ76" s="13">
+        <v>234394</v>
       </c>
       <c r="AR76" s="13">
-        <v>9834</v>
-      </c>
-      <c r="AS76" s="13">
-        <v>234394</v>
+        <v>324370</v>
+      </c>
+      <c r="AS76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT76" s="13">
-        <v>324370</v>
-      </c>
-      <c r="AU76" s="13" t="s">
-        <v>58</v>
+        <v>203576</v>
+      </c>
+      <c r="AU76" s="13">
+        <v>187886</v>
       </c>
       <c r="AV76" s="13">
-        <v>203576</v>
+        <v>275781</v>
       </c>
       <c r="AW76" s="13">
-        <v>187886</v>
+        <v>204766</v>
       </c>
       <c r="AX76" s="13">
-        <v>275781</v>
+        <v>382637</v>
       </c>
       <c r="AY76" s="13">
-        <v>204766</v>
+        <v>273475</v>
       </c>
       <c r="AZ76" s="13">
-        <v>382637</v>
-      </c>
-      <c r="BA76" s="13">
-        <v>273475</v>
+        <v>325755</v>
+      </c>
+      <c r="BA76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB76" s="13">
-        <v>325755</v>
+        <v>438479</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>60</v>
       </c>
@@ -9373,107 +9373,107 @@
       <c r="T77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="11" t="s">
-        <v>58</v>
+      <c r="U77" s="11">
+        <v>102344</v>
       </c>
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W77" s="11">
-        <v>102344</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+        <v>136202</v>
+      </c>
+      <c r="X77" s="11">
+        <v>387546</v>
       </c>
       <c r="Y77" s="11">
-        <v>136202</v>
+        <v>861876</v>
       </c>
       <c r="Z77" s="11">
-        <v>387546</v>
+        <v>220466</v>
       </c>
       <c r="AA77" s="11">
-        <v>861876</v>
+        <v>232780</v>
       </c>
       <c r="AB77" s="11">
-        <v>220466</v>
+        <v>206291</v>
       </c>
       <c r="AC77" s="11">
-        <v>232780</v>
+        <v>307923</v>
       </c>
       <c r="AD77" s="11">
-        <v>206291</v>
+        <v>305797</v>
       </c>
       <c r="AE77" s="11">
-        <v>307923</v>
-      </c>
-      <c r="AF77" s="11">
-        <v>305797</v>
-      </c>
-      <c r="AG77" s="11">
         <v>295234</v>
       </c>
-      <c r="AH77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI77" s="11" t="s">
-        <v>58</v>
+      <c r="AF77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH77" s="11">
+        <v>230691</v>
+      </c>
+      <c r="AI77" s="11">
+        <v>590278</v>
       </c>
       <c r="AJ77" s="11">
-        <v>230691</v>
+        <v>246785</v>
       </c>
       <c r="AK77" s="11">
-        <v>590278</v>
-      </c>
-      <c r="AL77" s="11">
-        <v>246785</v>
+        <v>244337</v>
+      </c>
+      <c r="AL77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM77" s="11">
-        <v>244337</v>
+        <v>952868</v>
       </c>
       <c r="AN77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO77" s="11">
-        <v>952868</v>
-      </c>
-      <c r="AP77" s="11" t="s">
-        <v>58</v>
+      <c r="AO77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP77" s="11">
+        <v>315138</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AR77" s="11">
-        <v>419177</v>
+        <v>314225</v>
       </c>
       <c r="AS77" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT77" s="11">
-        <v>314225</v>
-      </c>
-      <c r="AU77" s="11" t="s">
-        <v>58</v>
+        <v>453111</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>177007</v>
       </c>
       <c r="AV77" s="11">
-        <v>453111</v>
-      </c>
-      <c r="AW77" s="11">
-        <v>177007</v>
+        <v>278867</v>
+      </c>
+      <c r="AW77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX77" s="11">
-        <v>278867</v>
-      </c>
-      <c r="AY77" s="11" t="s">
-        <v>58</v>
+        <v>401794</v>
+      </c>
+      <c r="AY77" s="11">
+        <v>317770</v>
       </c>
       <c r="AZ77" s="11">
-        <v>401794</v>
-      </c>
-      <c r="BA77" s="11">
-        <v>317770</v>
-      </c>
-      <c r="BB77" s="11">
         <v>320846</v>
+      </c>
+      <c r="BA77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB77" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="86">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3318,116 +3318,116 @@
       <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>58</v>
+      <c r="R11" s="13" t="n">
+        <v>572825</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>572825</v>
+        <v>1670355</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>1670355</v>
+        <v>1325693</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>1325693</v>
+        <v>1529312</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1529312</v>
+        <v>1216536</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>1216536</v>
+        <v>1335177</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>1335177</v>
+        <v>1252610</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>1252610</v>
+        <v>1592244</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>1592244</v>
+        <v>1835508</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>1835508</v>
+        <v>1287997</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>1287997</v>
+        <v>1852460</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>1852460</v>
+        <v>1052952</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>1052952</v>
+        <v>99864</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>99864</v>
+        <v>1446848</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1446848</v>
+        <v>2080512</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>2080512</v>
+        <v>947237</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>947237</v>
+        <v>594708</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>594708</v>
+        <v>1030971</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>1030971</v>
+        <v>1539501</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>1539501</v>
+        <v>854766</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>854766</v>
+        <v>1287124</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>1287124</v>
+        <v>995899</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>995899</v>
+        <v>1049813</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>1049813</v>
+        <v>355815</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>355815</v>
+        <v>977321</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>977321</v>
+        <v>2088784</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>2088784</v>
+        <v>2131586</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>2131586</v>
+        <v>1475050</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>1475050</v>
+        <v>1284063</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>1284063</v>
+        <v>1874107</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>1874107</v>
+        <v>892649</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>892649</v>
+        <v>1570042</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>1570042</v>
+        <v>1727414</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>1727414</v>
+        <v>1550341</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>1550341</v>
+        <v>1816453</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>1816453</v>
+        <v>1106497</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>1106497</v>
+        <v>1227640</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,116 +3477,116 @@
       <c r="Q12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>58</v>
+      <c r="R12" s="16" t="n">
+        <v>2186283</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>2186283</v>
+        <v>3813277</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>3813277</v>
+        <v>776689</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>776689</v>
+        <v>3355766</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>3355766</v>
+        <v>2780267</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>2780267</v>
+        <v>3055221</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>3055221</v>
+        <v>3195329</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>3195329</v>
+        <v>3297602</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>3297602</v>
+        <v>4346169</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>4346169</v>
+        <v>2883923</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>2883923</v>
+        <v>4543763</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>4543763</v>
+        <v>2641514</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>2641514</v>
+        <v>1634310</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>1634310</v>
+        <v>2391353</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>2391353</v>
+        <v>1960167</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>1960167</v>
+        <v>2973768</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>2973768</v>
+        <v>3528060</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>3528060</v>
+        <v>3425974</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>3425974</v>
+        <v>2757778</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>2757778</v>
+        <v>2485617</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>2485617</v>
+        <v>2969134</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>2969134</v>
+        <v>2540486</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>2540486</v>
+        <v>3162952</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>3162952</v>
+        <v>2618191</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>2618191</v>
+        <v>1928006</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1928006</v>
+        <v>3794614</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3794614</v>
+        <v>3914006</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>3914006</v>
+        <v>3669007</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>3669007</v>
+        <v>3583799</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>3583799</v>
+        <v>3436273</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>3436273</v>
+        <v>2961610</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>2961610</v>
+        <v>3366519</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>3366519</v>
+        <v>3618865</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>3618865</v>
+        <v>3698547</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>3698547</v>
+        <v>4245449</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>4245449</v>
+        <v>2501456</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>2501456</v>
+        <v>1494064</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,116 +3636,116 @@
       <c r="Q13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>58</v>
+      <c r="R13" s="13" t="n">
+        <v>421040</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>421040</v>
+        <v>338935</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>338935</v>
+        <v>354951</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>354951</v>
+        <v>838313</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>838313</v>
+        <v>844613</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>844613</v>
+        <v>475662</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>475662</v>
+        <v>1043827</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>1043827</v>
+        <v>865436</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>865436</v>
+        <v>820140</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>820140</v>
+        <v>780906</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>780906</v>
+        <v>1449256</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1449256</v>
+        <v>344491</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>344491</v>
+        <v>302700</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>576123</v>
+        <v>554882</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>554882</v>
+        <v>812592</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>812592</v>
+        <v>568832</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>568832</v>
+        <v>676145</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>676145</v>
+        <v>341164</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>341164</v>
+        <v>713382</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>713382</v>
+        <v>877199</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>864518</v>
+        <v>673365</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>673365</v>
+        <v>923051</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>923051</v>
+        <v>439173</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>439173</v>
+        <v>477046</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>477046</v>
+        <v>568460</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>568460</v>
+        <v>1019233</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>1019233</v>
+        <v>868951</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>868951</v>
+        <v>580397</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>580397</v>
+        <v>592818</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>592818</v>
+        <v>824890</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>824890</v>
+        <v>1080234</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>1080234</v>
+        <v>963219</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>963219</v>
+        <v>794921</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>794921</v>
+        <v>552265</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>552265</v>
+        <v>389175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,115 +3794,115 @@
         <v>0</v>
       </c>
       <c r="R14" s="18" t="n">
-        <v>0</v>
+        <v>3180148</v>
       </c>
       <c r="S14" s="18" t="n">
-        <v>3180148</v>
+        <v>5822567</v>
       </c>
       <c r="T14" s="18" t="n">
-        <v>5822567</v>
+        <v>2457333</v>
       </c>
       <c r="U14" s="18" t="n">
-        <v>2457333</v>
+        <v>5723391</v>
       </c>
       <c r="V14" s="18" t="n">
-        <v>5723391</v>
+        <v>4841416</v>
       </c>
       <c r="W14" s="18" t="n">
-        <v>4841416</v>
+        <v>4866060</v>
       </c>
       <c r="X14" s="18" t="n">
-        <v>4866060</v>
+        <v>5491766</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>5491766</v>
+        <v>5755282</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>5755282</v>
+        <v>7001817</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>7001817</v>
+        <v>4952826</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>4952826</v>
+        <v>7845479</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>7845479</v>
+        <v>4038957</v>
       </c>
       <c r="AD14" s="18" t="n">
-        <v>4038957</v>
+        <v>2036874</v>
       </c>
       <c r="AE14" s="18" t="n">
-        <v>2036874</v>
+        <v>4414324</v>
       </c>
       <c r="AF14" s="18" t="n">
-        <v>4414324</v>
+        <v>4595561</v>
       </c>
       <c r="AG14" s="18" t="n">
-        <v>4595561</v>
+        <v>4733597</v>
       </c>
       <c r="AH14" s="18" t="n">
-        <v>4733597</v>
+        <v>4691600</v>
       </c>
       <c r="AI14" s="18" t="n">
-        <v>4691600</v>
+        <v>5133090</v>
       </c>
       <c r="AJ14" s="18" t="n">
-        <v>5133090</v>
+        <v>4638443</v>
       </c>
       <c r="AK14" s="18" t="n">
-        <v>4638443</v>
+        <v>4053765</v>
       </c>
       <c r="AL14" s="18" t="n">
-        <v>4053765</v>
+        <v>5133457</v>
       </c>
       <c r="AM14" s="18" t="n">
-        <v>5133457</v>
+        <v>4400903</v>
       </c>
       <c r="AN14" s="18" t="n">
-        <v>4400903</v>
+        <v>4886130</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>4886130</v>
+        <v>3897057</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>3897057</v>
+        <v>3344500</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>3344500</v>
+        <v>6360444</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>6360444</v>
+        <v>6614052</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>6614052</v>
+        <v>6163290</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>6163290</v>
+        <v>5736813</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>5736813</v>
+        <v>5890777</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>5890777</v>
+        <v>4447077</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>4447077</v>
+        <v>5761451</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>5761451</v>
+        <v>6426513</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>6426513</v>
+        <v>6212107</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>6212107</v>
+        <v>6856823</v>
       </c>
       <c r="BA14" s="18" t="n">
-        <v>6856823</v>
+        <v>4160218</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>4160218</v>
+        <v>3110879</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,116 +4009,116 @@
       <c r="Q16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>58</v>
+      <c r="R16" s="13" t="n">
+        <v>1860</v>
       </c>
       <c r="S16" s="13" t="n">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="T16" s="13" t="n">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="U16" s="13" t="n">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="V16" s="13" t="n">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="W16" s="13" t="n">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="X16" s="13" t="n">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="Y16" s="13" t="n">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="Z16" s="13" t="n">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="AA16" s="13" t="n">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="AB16" s="13" t="n">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="AC16" s="13" t="n">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="AD16" s="13" t="n">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="AE16" s="13" t="n">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AF16" s="13" t="n">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AG16" s="13" t="n">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AH16" s="13" t="n">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AI16" s="13" t="n">
+        <v>31524</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>89967</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>7441</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>38500</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>69784</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>76776</v>
+      </c>
+      <c r="AS16" s="13" t="n">
         <v>9732</v>
       </c>
-      <c r="AJ16" s="13" t="n">
-        <v>31524</v>
-      </c>
-      <c r="AK16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="13" t="n">
-        <v>89967</v>
-      </c>
-      <c r="AM16" s="13" t="n">
-        <v>7441</v>
-      </c>
-      <c r="AN16" s="13" t="n">
-        <v>38500</v>
-      </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="13" t="n">
-        <v>69784</v>
-      </c>
-      <c r="AQ16" s="13" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AR16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="13" t="n">
-        <v>76776</v>
-      </c>
       <c r="AT16" s="13" t="n">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AU16" s="13" t="n">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AV16" s="13" t="n">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="AW16" s="13" t="n">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="AX16" s="13" t="n">
-        <v>54240</v>
+        <v>62336</v>
       </c>
       <c r="AY16" s="13" t="n">
-        <v>62336</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="13" t="n">
-        <v>0</v>
+        <v>29168</v>
       </c>
       <c r="BA16" s="13" t="n">
-        <v>29168</v>
+        <v>57688</v>
       </c>
       <c r="BB16" s="13" t="n">
-        <v>57688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,116 +4168,116 @@
       <c r="Q17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="16" t="s">
-        <v>58</v>
+      <c r="R17" s="16" t="n">
+        <v>9512</v>
       </c>
       <c r="S17" s="16" t="n">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="T17" s="16" t="n">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="U17" s="16" t="n">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="V17" s="16" t="n">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="W17" s="16" t="n">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="X17" s="16" t="n">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="Y17" s="16" t="n">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="Z17" s="16" t="n">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="AA17" s="16" t="n">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="AE17" s="16" t="n">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AG17" s="16" t="n">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AI17" s="16" t="n">
-        <v>29676</v>
-      </c>
-      <c r="AJ17" s="16" t="n">
         <v>17112</v>
       </c>
-      <c r="AK17" s="16" t="s">
-        <v>58</v>
+      <c r="AJ17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="16" t="n">
+        <v>51469</v>
       </c>
       <c r="AL17" s="16" t="n">
-        <v>51469</v>
-      </c>
-      <c r="AM17" s="16" t="n">
         <v>19463</v>
       </c>
+      <c r="AM17" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="16" t="s">
-        <v>58</v>
+      <c r="AO17" s="16" t="n">
+        <v>159940</v>
       </c>
       <c r="AP17" s="16" t="n">
-        <v>159940</v>
+        <v>4128</v>
       </c>
       <c r="AQ17" s="16" t="n">
-        <v>4128</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="16" t="n">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AS17" s="16" t="n">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AT17" s="16" t="n">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AU17" s="16" t="n">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AV17" s="16" t="n">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="AW17" s="16" t="n">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="AX17" s="16" t="n">
-        <v>48648</v>
+        <v>52604</v>
       </c>
       <c r="AY17" s="16" t="n">
-        <v>52604</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="16" t="n">
-        <v>0</v>
+        <v>18888</v>
       </c>
       <c r="BA17" s="16" t="n">
-        <v>18888</v>
+        <v>21496</v>
       </c>
       <c r="BB17" s="16" t="n">
-        <v>21496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,107 +4327,107 @@
       <c r="Q18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>58</v>
+      <c r="R18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S18" s="13" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="T18" s="13" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="U18" s="13" t="n">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="V18" s="13" t="n">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="W18" s="13" t="n">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="X18" s="13" t="n">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="Y18" s="13" t="n">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="Z18" s="13" t="n">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="AA18" s="13" t="n">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="AB18" s="13" t="n">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="AC18" s="13" t="n">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="AD18" s="13" t="n">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="13" t="n">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AG18" s="13" t="n">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AH18" s="13" t="n">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AI18" s="13" t="n">
-        <v>5365</v>
-      </c>
-      <c r="AJ18" s="13" t="n">
         <v>3311</v>
       </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>4201</v>
       </c>
       <c r="AL18" s="13" t="n">
-        <v>4201</v>
-      </c>
-      <c r="AM18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>74139</v>
       </c>
       <c r="AO18" s="13" t="n">
-        <v>74139</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="13" t="n">
-        <v>0</v>
+        <v>3768</v>
       </c>
       <c r="AQ18" s="13" t="n">
-        <v>3768</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="13" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AS18" s="13" t="n">
-        <v>9000</v>
+        <v>28356</v>
       </c>
       <c r="AT18" s="13" t="n">
-        <v>28356</v>
+        <v>9168</v>
       </c>
       <c r="AU18" s="13" t="n">
-        <v>9168</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13" t="n">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="AW18" s="13" t="n">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="AX18" s="13" t="n">
-        <v>9060</v>
+        <v>18632</v>
       </c>
       <c r="AY18" s="13" t="n">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="13" t="n">
         <v>0</v>
@@ -4485,115 +4485,115 @@
         <v>0</v>
       </c>
       <c r="R19" s="18" t="n">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="S19" s="18" t="n">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="T19" s="18" t="n">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="U19" s="18" t="n">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="V19" s="18" t="n">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="W19" s="18" t="n">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AJ19" s="18" t="n">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="18" t="n">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AL19" s="18" t="n">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>143160</v>
+        <v>45204</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>45204</v>
+        <v>46280</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>46280</v>
+        <v>34200</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>111948</v>
+        <v>133572</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>133572</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="18" t="n">
-        <v>0</v>
+        <v>48056</v>
       </c>
       <c r="BA19" s="18" t="n">
-        <v>48056</v>
+        <v>79184</v>
       </c>
       <c r="BB19" s="18" t="n">
-        <v>79184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,8 +4698,8 @@
       <c r="Q21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R21" s="22" t="s">
-        <v>58</v>
+      <c r="R21" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="S21" s="22" t="n">
         <v>0</v>
@@ -4856,115 +4856,115 @@
         <v>0</v>
       </c>
       <c r="R22" s="18" t="n">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="S22" s="18" t="n">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="T22" s="18" t="n">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="U22" s="18" t="n">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="V22" s="18" t="n">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="W22" s="18" t="n">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="X22" s="18" t="n">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="AA22" s="18" t="n">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="AB22" s="18" t="n">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="AC22" s="18" t="n">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="AD22" s="18" t="n">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="AE22" s="18" t="n">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AF22" s="18" t="n">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AG22" s="18" t="n">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AH22" s="18" t="n">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AJ22" s="18" t="n">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AK22" s="18" t="n">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AL22" s="18" t="n">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AM22" s="18" t="n">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AN22" s="18" t="n">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AO22" s="18" t="n">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AP22" s="18" t="n">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AQ22" s="18" t="n">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AR22" s="18" t="n">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AS22" s="18" t="n">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AT22" s="18" t="n">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AV22" s="18" t="n">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="AW22" s="18" t="n">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="AX22" s="18" t="n">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
       <c r="AY22" s="18" t="n">
-        <v>6560085</v>
+        <v>6212107</v>
       </c>
       <c r="AZ22" s="18" t="n">
-        <v>6212107</v>
+        <v>6904879</v>
       </c>
       <c r="BA22" s="18" t="n">
-        <v>6904879</v>
+        <v>4239402</v>
       </c>
       <c r="BB22" s="18" t="n">
-        <v>4239402</v>
+        <v>3110879</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,116 +5448,116 @@
       <c r="Q29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R29" s="13" t="s">
-        <v>58</v>
+      <c r="R29" s="13" t="n">
+        <v>727155</v>
       </c>
       <c r="S29" s="13" t="n">
-        <v>727155</v>
+        <v>1758207</v>
       </c>
       <c r="T29" s="13" t="n">
-        <v>1758207</v>
+        <v>1428328</v>
       </c>
       <c r="U29" s="13" t="n">
-        <v>1428328</v>
+        <v>1347200</v>
       </c>
       <c r="V29" s="13" t="n">
-        <v>1347200</v>
+        <v>1194794</v>
       </c>
       <c r="W29" s="13" t="n">
-        <v>1194794</v>
+        <v>1212186</v>
       </c>
       <c r="X29" s="13" t="n">
-        <v>1212186</v>
+        <v>1505135</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>1505135</v>
+        <v>1275979</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>1275979</v>
+        <v>808366</v>
       </c>
       <c r="AA29" s="13" t="n">
-        <v>808366</v>
+        <v>1354994</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>1354994</v>
+        <v>1657995</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>1657995</v>
+        <v>820801</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>820801</v>
+        <v>794112</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>794112</v>
+        <v>1357659</v>
       </c>
       <c r="AF29" s="13" t="n">
-        <v>1357659</v>
+        <v>1241976</v>
       </c>
       <c r="AG29" s="13" t="n">
-        <v>1241976</v>
+        <v>905633</v>
       </c>
       <c r="AH29" s="13" t="n">
-        <v>905633</v>
+        <v>949622</v>
       </c>
       <c r="AI29" s="13" t="n">
-        <v>949622</v>
+        <v>752521</v>
       </c>
       <c r="AJ29" s="13" t="n">
-        <v>752521</v>
+        <v>1502793</v>
       </c>
       <c r="AK29" s="13" t="n">
-        <v>1502793</v>
+        <v>1217963</v>
       </c>
       <c r="AL29" s="13" t="n">
-        <v>1217963</v>
+        <v>1151102</v>
       </c>
       <c r="AM29" s="13" t="n">
-        <v>1151102</v>
+        <v>876643</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>876643</v>
+        <v>1478014</v>
       </c>
       <c r="AO29" s="13" t="n">
-        <v>1478014</v>
+        <v>1063891</v>
       </c>
       <c r="AP29" s="13" t="n">
-        <v>1063891</v>
+        <v>858394</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>858394</v>
+        <v>1373302</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>1373302</v>
+        <v>1538347</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>1538347</v>
+        <v>914425</v>
       </c>
       <c r="AT29" s="13" t="n">
-        <v>914425</v>
+        <v>1080451</v>
       </c>
       <c r="AU29" s="13" t="n">
-        <v>1080451</v>
+        <v>1243693</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>1243693</v>
+        <v>1048105</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>1048105</v>
+        <v>1427268</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>1427268</v>
+        <v>1508550</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>1508550</v>
+        <v>1100051</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>1100051</v>
+        <v>1773172</v>
       </c>
       <c r="BA29" s="13" t="n">
-        <v>1773172</v>
+        <v>1525691</v>
       </c>
       <c r="BB29" s="13" t="n">
-        <v>1525691</v>
+        <v>1070652</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,116 +5607,116 @@
       <c r="Q30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R30" s="16" t="s">
-        <v>58</v>
+      <c r="R30" s="16" t="n">
+        <v>1320729</v>
       </c>
       <c r="S30" s="16" t="n">
-        <v>1320729</v>
+        <v>2580766</v>
       </c>
       <c r="T30" s="16" t="n">
-        <v>2580766</v>
+        <v>3783148</v>
       </c>
       <c r="U30" s="16" t="n">
-        <v>3783148</v>
+        <v>4173866</v>
       </c>
       <c r="V30" s="16" t="n">
-        <v>4173866</v>
+        <v>3130742</v>
       </c>
       <c r="W30" s="16" t="n">
-        <v>3130742</v>
+        <v>3023239</v>
       </c>
       <c r="X30" s="16" t="n">
-        <v>3023239</v>
+        <v>3779960</v>
       </c>
       <c r="Y30" s="16" t="n">
-        <v>3779960</v>
+        <v>2779130</v>
       </c>
       <c r="Z30" s="16" t="n">
-        <v>2779130</v>
+        <v>1564164</v>
       </c>
       <c r="AA30" s="16" t="n">
-        <v>1564164</v>
+        <v>3044748</v>
       </c>
       <c r="AB30" s="16" t="n">
-        <v>3044748</v>
+        <v>4107914</v>
       </c>
       <c r="AC30" s="16" t="n">
-        <v>4107914</v>
+        <v>2394796</v>
       </c>
       <c r="AD30" s="16" t="n">
-        <v>2394796</v>
+        <v>1566309</v>
       </c>
       <c r="AE30" s="16" t="n">
-        <v>1566309</v>
+        <v>2515494</v>
       </c>
       <c r="AF30" s="16" t="n">
-        <v>2515494</v>
+        <v>2682261</v>
       </c>
       <c r="AG30" s="16" t="n">
-        <v>2682261</v>
+        <v>3193511</v>
       </c>
       <c r="AH30" s="16" t="n">
-        <v>3193511</v>
+        <v>3698752</v>
       </c>
       <c r="AI30" s="16" t="n">
-        <v>3698752</v>
+        <v>4100440</v>
       </c>
       <c r="AJ30" s="16" t="n">
-        <v>4100440</v>
+        <v>1870160</v>
       </c>
       <c r="AK30" s="16" t="n">
-        <v>1870160</v>
+        <v>2479481</v>
       </c>
       <c r="AL30" s="16" t="n">
-        <v>2479481</v>
+        <v>2914177</v>
       </c>
       <c r="AM30" s="16" t="n">
-        <v>2914177</v>
+        <v>3038566</v>
       </c>
       <c r="AN30" s="16" t="n">
-        <v>3038566</v>
+        <v>3595991</v>
       </c>
       <c r="AO30" s="16" t="n">
-        <v>3595991</v>
+        <v>3609528</v>
       </c>
       <c r="AP30" s="16" t="n">
-        <v>3609528</v>
+        <v>1989681</v>
       </c>
       <c r="AQ30" s="16" t="n">
-        <v>1989681</v>
+        <v>3496200</v>
       </c>
       <c r="AR30" s="16" t="n">
-        <v>3496200</v>
+        <v>4200541</v>
       </c>
       <c r="AS30" s="16" t="n">
-        <v>4200541</v>
+        <v>2815617</v>
       </c>
       <c r="AT30" s="16" t="n">
-        <v>2815617</v>
+        <v>3081726</v>
       </c>
       <c r="AU30" s="16" t="n">
-        <v>3081726</v>
+        <v>2968577</v>
       </c>
       <c r="AV30" s="16" t="n">
-        <v>2968577</v>
+        <v>2765128</v>
       </c>
       <c r="AW30" s="16" t="n">
-        <v>2765128</v>
+        <v>3309430</v>
       </c>
       <c r="AX30" s="16" t="n">
-        <v>3309430</v>
+        <v>3495912</v>
       </c>
       <c r="AY30" s="16" t="n">
-        <v>3495912</v>
+        <v>3162058</v>
       </c>
       <c r="AZ30" s="16" t="n">
-        <v>3162058</v>
+        <v>3290502</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>3290502</v>
+        <v>2728327</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>2728327</v>
+        <v>1456757</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,116 +5766,116 @@
       <c r="Q31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R31" s="13" t="s">
-        <v>58</v>
+      <c r="R31" s="13" t="n">
+        <v>130340</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>130340</v>
+        <v>323957</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>323957</v>
+        <v>908037</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>908037</v>
+        <v>693492</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>693492</v>
+        <v>545746</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>545746</v>
+        <v>715714</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>715714</v>
+        <v>671640</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>671640</v>
+        <v>585828</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>585828</v>
+        <v>305848</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>305848</v>
+        <v>1092631</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>1092631</v>
+        <v>1560939</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>1560939</v>
+        <v>550735</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>550735</v>
+        <v>256651</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>852995</v>
+        <v>841409</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>841409</v>
+        <v>728770</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>728770</v>
+        <v>513533</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>513533</v>
+        <v>668065</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>668065</v>
+        <v>1301462</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>1301462</v>
+        <v>779020</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>779020</v>
+        <v>851136</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>561149</v>
+        <v>1152560</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>1152560</v>
+        <v>574133</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>574133</v>
+        <v>660344</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>660344</v>
+        <v>1140687</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>1140687</v>
+        <v>1249883</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>1249883</v>
+        <v>1343740</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>1343740</v>
+        <v>1123452</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>1123452</v>
+        <v>1408978</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>1408978</v>
+        <v>893959</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>893959</v>
+        <v>1763718</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>1763718</v>
+        <v>1493027</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>1493027</v>
+        <v>1226078</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>1226078</v>
+        <v>1103063</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>1103063</v>
+        <v>897149</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>897149</v>
+        <v>483239</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5924,115 +5924,115 @@
         <v>0</v>
       </c>
       <c r="R32" s="18" t="n">
-        <v>0</v>
+        <v>2178224</v>
       </c>
       <c r="S32" s="18" t="n">
-        <v>2178224</v>
+        <v>4662930</v>
       </c>
       <c r="T32" s="18" t="n">
-        <v>4662930</v>
+        <v>6119513</v>
       </c>
       <c r="U32" s="18" t="n">
-        <v>6119513</v>
+        <v>6214558</v>
       </c>
       <c r="V32" s="18" t="n">
-        <v>6214558</v>
+        <v>4871282</v>
       </c>
       <c r="W32" s="18" t="n">
-        <v>4871282</v>
+        <v>4951139</v>
       </c>
       <c r="X32" s="18" t="n">
-        <v>4951139</v>
+        <v>5956735</v>
       </c>
       <c r="Y32" s="18" t="n">
-        <v>5956735</v>
+        <v>4640937</v>
       </c>
       <c r="Z32" s="18" t="n">
-        <v>4640937</v>
+        <v>2678378</v>
       </c>
       <c r="AA32" s="18" t="n">
-        <v>2678378</v>
+        <v>5492373</v>
       </c>
       <c r="AB32" s="18" t="n">
-        <v>5492373</v>
+        <v>7326848</v>
       </c>
       <c r="AC32" s="18" t="n">
-        <v>7326848</v>
+        <v>3766332</v>
       </c>
       <c r="AD32" s="18" t="n">
-        <v>3766332</v>
+        <v>2617072</v>
       </c>
       <c r="AE32" s="18" t="n">
-        <v>2617072</v>
+        <v>4726148</v>
       </c>
       <c r="AF32" s="18" t="n">
-        <v>4726148</v>
+        <v>4765646</v>
       </c>
       <c r="AG32" s="18" t="n">
-        <v>4765646</v>
+        <v>4827914</v>
       </c>
       <c r="AH32" s="18" t="n">
-        <v>4827914</v>
+        <v>5161907</v>
       </c>
       <c r="AI32" s="18" t="n">
-        <v>5161907</v>
+        <v>5521026</v>
       </c>
       <c r="AJ32" s="18" t="n">
-        <v>5521026</v>
+        <v>4674415</v>
       </c>
       <c r="AK32" s="18" t="n">
-        <v>4674415</v>
+        <v>4476464</v>
       </c>
       <c r="AL32" s="18" t="n">
-        <v>4476464</v>
+        <v>4916415</v>
       </c>
       <c r="AM32" s="18" t="n">
-        <v>4916415</v>
+        <v>4476358</v>
       </c>
       <c r="AN32" s="18" t="n">
-        <v>4476358</v>
+        <v>6226565</v>
       </c>
       <c r="AO32" s="18" t="n">
-        <v>6226565</v>
+        <v>5247552</v>
       </c>
       <c r="AP32" s="18" t="n">
-        <v>5247552</v>
+        <v>3508419</v>
       </c>
       <c r="AQ32" s="18" t="n">
-        <v>3508419</v>
+        <v>6010189</v>
       </c>
       <c r="AR32" s="18" t="n">
-        <v>6010189</v>
+        <v>6988771</v>
       </c>
       <c r="AS32" s="18" t="n">
-        <v>6988771</v>
+        <v>5073782</v>
       </c>
       <c r="AT32" s="18" t="n">
-        <v>5073782</v>
+        <v>5285629</v>
       </c>
       <c r="AU32" s="18" t="n">
-        <v>5285629</v>
+        <v>5621248</v>
       </c>
       <c r="AV32" s="18" t="n">
-        <v>5621248</v>
+        <v>4707192</v>
       </c>
       <c r="AW32" s="18" t="n">
-        <v>4707192</v>
+        <v>6500416</v>
       </c>
       <c r="AX32" s="18" t="n">
-        <v>6500416</v>
+        <v>6497489</v>
       </c>
       <c r="AY32" s="18" t="n">
-        <v>6497489</v>
+        <v>5488187</v>
       </c>
       <c r="AZ32" s="18" t="n">
-        <v>5488187</v>
+        <v>6166737</v>
       </c>
       <c r="BA32" s="18" t="n">
-        <v>6166737</v>
+        <v>5151167</v>
       </c>
       <c r="BB32" s="18" t="n">
-        <v>5151167</v>
+        <v>3010648</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,116 +6139,116 @@
       <c r="Q34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="13" t="s">
-        <v>58</v>
+      <c r="R34" s="13" t="n">
+        <v>1860</v>
       </c>
       <c r="S34" s="13" t="n">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="T34" s="13" t="n">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="U34" s="13" t="n">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="V34" s="13" t="n">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="W34" s="13" t="n">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="X34" s="13" t="n">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="Y34" s="13" t="n">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="AB34" s="13" t="n">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="AC34" s="13" t="n">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="AD34" s="13" t="n">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="AE34" s="13" t="n">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AF34" s="13" t="n">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AG34" s="13" t="n">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AH34" s="13" t="n">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AI34" s="13" t="n">
+        <v>31524</v>
+      </c>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="13" t="n">
+        <v>89967</v>
+      </c>
+      <c r="AL34" s="13" t="n">
+        <v>7441</v>
+      </c>
+      <c r="AM34" s="13" t="n">
+        <v>38500</v>
+      </c>
+      <c r="AN34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO34" s="13" t="n">
+        <v>69784</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="13" t="n">
+        <v>76776</v>
+      </c>
+      <c r="AS34" s="13" t="n">
         <v>9732</v>
       </c>
-      <c r="AJ34" s="13" t="n">
-        <v>31524</v>
-      </c>
-      <c r="AK34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34" s="13" t="n">
-        <v>89967</v>
-      </c>
-      <c r="AM34" s="13" t="n">
-        <v>7441</v>
-      </c>
-      <c r="AN34" s="13" t="n">
-        <v>38500</v>
-      </c>
-      <c r="AO34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP34" s="13" t="n">
-        <v>69784</v>
-      </c>
-      <c r="AQ34" s="13" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AR34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="13" t="n">
-        <v>76776</v>
-      </c>
       <c r="AT34" s="13" t="n">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>54240</v>
+        <v>62336</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>62336</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>0</v>
+        <v>29168</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>29168</v>
+        <v>57688</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>57688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,116 +6298,116 @@
       <c r="Q35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="16" t="s">
-        <v>58</v>
+      <c r="R35" s="16" t="n">
+        <v>9512</v>
       </c>
       <c r="S35" s="16" t="n">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="T35" s="16" t="n">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="U35" s="16" t="n">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="V35" s="16" t="n">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="W35" s="16" t="n">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="X35" s="16" t="n">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="Y35" s="16" t="n">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="Z35" s="16" t="n">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>29676</v>
-      </c>
-      <c r="AJ35" s="16" t="n">
         <v>17112</v>
       </c>
-      <c r="AK35" s="16" t="s">
-        <v>58</v>
+      <c r="AJ35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" s="16" t="n">
+        <v>51469</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>51469</v>
-      </c>
-      <c r="AM35" s="16" t="n">
         <v>19463</v>
       </c>
+      <c r="AM35" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO35" s="16" t="s">
-        <v>58</v>
+      <c r="AO35" s="16" t="n">
+        <v>159940</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>159940</v>
+        <v>4128</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>4128</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>48648</v>
+        <v>52604</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>52604</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>0</v>
+        <v>18888</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>18888</v>
+        <v>21496</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>21496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,107 +6457,107 @@
       <c r="Q36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R36" s="13" t="s">
-        <v>58</v>
+      <c r="R36" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S36" s="13" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="T36" s="13" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="U36" s="13" t="n">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="W36" s="13" t="n">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="X36" s="13" t="n">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="Y36" s="13" t="n">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>5365</v>
-      </c>
-      <c r="AJ36" s="13" t="n">
         <v>3311</v>
       </c>
-      <c r="AK36" s="13" t="s">
-        <v>58</v>
+      <c r="AJ36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK36" s="13" t="n">
+        <v>4201</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>4201</v>
-      </c>
-      <c r="AM36" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN36" s="13" t="n">
+        <v>74139</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>74139</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>0</v>
+        <v>3768</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>3768</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>9000</v>
+        <v>11508</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>11508</v>
+        <v>26016</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>26016</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>9060</v>
+        <v>18632</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="13" t="n">
         <v>0</v>
@@ -6615,115 +6615,115 @@
         <v>0</v>
       </c>
       <c r="R37" s="18" t="n">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="S37" s="18" t="n">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="T37" s="18" t="n">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="U37" s="18" t="n">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="V37" s="18" t="n">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="W37" s="18" t="n">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="X37" s="18" t="n">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="Y37" s="18" t="n">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="Z37" s="18" t="n">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="AB37" s="18" t="n">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="AC37" s="18" t="n">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="AD37" s="18" t="n">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="AE37" s="18" t="n">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AF37" s="18" t="n">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AG37" s="18" t="n">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AH37" s="18" t="n">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AJ37" s="18" t="n">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="18" t="n">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AL37" s="18" t="n">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AM37" s="18" t="n">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AN37" s="18" t="n">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AQ37" s="18" t="n">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>143160</v>
+        <v>28356</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>28356</v>
+        <v>63128</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>63128</v>
+        <v>34200</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>111948</v>
+        <v>133572</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>133572</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="18" t="n">
-        <v>0</v>
+        <v>48056</v>
       </c>
       <c r="BA37" s="18" t="n">
-        <v>48056</v>
+        <v>79184</v>
       </c>
       <c r="BB37" s="18" t="n">
-        <v>79184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,8 +6828,8 @@
       <c r="Q39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="22" t="s">
-        <v>58</v>
+      <c r="R39" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="S39" s="22" t="n">
         <v>0</v>
@@ -7042,8 +7042,8 @@
       <c r="Q41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R41" s="22" t="s">
-        <v>58</v>
+      <c r="R41" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="S41" s="22" t="n">
         <v>0</v>
@@ -7200,115 +7200,115 @@
         <v>0</v>
       </c>
       <c r="R42" s="18" t="n">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="S42" s="18" t="n">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="T42" s="18" t="n">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="U42" s="18" t="n">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="V42" s="18" t="n">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="W42" s="18" t="n">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="X42" s="18" t="n">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="Y42" s="18" t="n">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="Z42" s="18" t="n">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="AA42" s="18" t="n">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="AB42" s="18" t="n">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="AC42" s="18" t="n">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="AD42" s="18" t="n">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="AE42" s="18" t="n">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AF42" s="18" t="n">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AG42" s="18" t="n">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AK42" s="18" t="n">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AL42" s="18" t="n">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AM42" s="18" t="n">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AQ42" s="18" t="n">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="AX42" s="18" t="n">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>6631061</v>
+        <v>5488187</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>5488187</v>
+        <v>6214793</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>6214793</v>
+        <v>5230351</v>
       </c>
       <c r="BB42" s="18" t="n">
-        <v>5230351</v>
+        <v>3010648</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7792,116 +7792,116 @@
       <c r="Q49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R49" s="13" t="s">
-        <v>58</v>
+      <c r="R49" s="13" t="n">
+        <v>107356</v>
       </c>
       <c r="S49" s="13" t="n">
-        <v>107356</v>
+        <v>264463</v>
       </c>
       <c r="T49" s="13" t="n">
-        <v>264463</v>
+        <v>312989</v>
       </c>
       <c r="U49" s="13" t="n">
-        <v>312989</v>
+        <v>311214</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>311214</v>
+        <v>284377</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>284377</v>
+        <v>262582</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>262582</v>
+        <v>291013</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>291013</v>
+        <v>303673</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>303673</v>
+        <v>204875</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>204875</v>
+        <v>310919</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>310919</v>
+        <v>435566</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>435566</v>
+        <v>322153</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>322153</v>
+        <v>237020</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>237020</v>
+        <v>443682</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>443682</v>
+        <v>379317</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>379317</v>
+        <v>361340</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>361340</v>
+        <v>292867</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>292867</v>
+        <v>211220</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>211220</v>
+        <v>409790</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>409790</v>
+        <v>380457</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>380457</v>
+        <v>332376</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>332376</v>
+        <v>296503</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>296503</v>
+        <v>531290</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>531290</v>
+        <v>255696</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>255696</v>
+        <v>241291</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>241291</v>
+        <v>438589</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>438589</v>
+        <v>494639</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>494639</v>
+        <v>329574</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>329574</v>
+        <v>346258</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>346258</v>
+        <v>421735</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>421735</v>
+        <v>355816</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>355816</v>
+        <v>432481</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>432481</v>
+        <v>477529</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>477529</v>
+        <v>473084</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>473084</v>
+        <v>703851</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>703851</v>
+        <v>611299</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>611299</v>
+        <v>506450</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7951,116 +7951,116 @@
       <c r="Q50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R50" s="16" t="s">
-        <v>58</v>
+      <c r="R50" s="16" t="n">
+        <v>165283</v>
       </c>
       <c r="S50" s="16" t="n">
-        <v>165283</v>
+        <v>396066</v>
       </c>
       <c r="T50" s="16" t="n">
-        <v>396066</v>
+        <v>393106</v>
       </c>
       <c r="U50" s="16" t="n">
-        <v>393106</v>
+        <v>592602</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>592602</v>
+        <v>514433</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>514433</v>
+        <v>553392</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>553392</v>
+        <v>593051</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>593051</v>
+        <v>596707</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>596707</v>
+        <v>507198</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>507198</v>
+        <v>618102</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>618102</v>
+        <v>908940</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>908940</v>
+        <v>746452</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>746452</v>
+        <v>346417</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>346417</v>
+        <v>589789</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>589789</v>
+        <v>605399</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>605399</v>
+        <v>768772</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>768772</v>
+        <v>791113</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>791113</v>
+        <v>978070</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>978070</v>
+        <v>520867</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>520867</v>
+        <v>721711</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>721711</v>
+        <v>701817</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>701817</v>
+        <v>778548</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>778548</v>
+        <v>978172</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>978172</v>
+        <v>888182</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>888182</v>
+        <v>491503</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>491503</v>
+        <v>975476</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>975476</v>
+        <v>1253144</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>1253144</v>
+        <v>933931</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>933931</v>
+        <v>1027166</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>1027166</v>
+        <v>1177383</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>1177383</v>
+        <v>894249</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>894249</v>
+        <v>1217495</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>1217495</v>
+        <v>1278709</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>1278709</v>
+        <v>1290144</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>1290144</v>
+        <v>1240363</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>1240363</v>
+        <v>1085359</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>1085359</v>
+        <v>579998</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,116 +8110,116 @@
       <c r="Q51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="13" t="s">
-        <v>58</v>
+      <c r="R51" s="13" t="n">
+        <v>27600</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>27600</v>
+        <v>139228</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>139228</v>
+        <v>151990</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>151990</v>
+        <v>165748</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>165748</v>
+        <v>176972</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>176972</v>
+        <v>227532</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>227532</v>
+        <v>217613</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>217613</v>
+        <v>223101</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>223101</v>
+        <v>137180</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>137180</v>
+        <v>306629</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>306629</v>
+        <v>457113</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>457113</v>
+        <v>251125</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>251125</v>
+        <v>102359</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>350389</v>
+        <v>281941</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>281941</v>
+        <v>353573</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>353573</v>
+        <v>192767</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>192767</v>
+        <v>233404</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>233404</v>
+        <v>439739</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>439739</v>
+        <v>455549</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>455549</v>
+        <v>429007</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>387230</v>
+        <v>601535</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>601535</v>
+        <v>380655</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>380655</v>
+        <v>295706</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>295706</v>
+        <v>677102</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>677102</v>
+        <v>713538</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>713538</v>
+        <v>767728</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>767728</v>
+        <v>608822</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>608822</v>
+        <v>995123</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>995123</v>
+        <v>495959</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>495959</v>
+        <v>1065343</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>1065343</v>
+        <v>980075</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>980075</v>
+        <v>869999</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>869999</v>
+        <v>751267</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>751267</v>
+        <v>626799</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>626799</v>
+        <v>389232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,115 +8268,115 @@
         <v>0</v>
       </c>
       <c r="R52" s="18" t="n">
-        <v>0</v>
+        <v>300239</v>
       </c>
       <c r="S52" s="18" t="n">
-        <v>300239</v>
+        <v>799757</v>
       </c>
       <c r="T52" s="18" t="n">
-        <v>799757</v>
+        <v>858085</v>
       </c>
       <c r="U52" s="18" t="n">
-        <v>858085</v>
+        <v>1069564</v>
       </c>
       <c r="V52" s="18" t="n">
-        <v>1069564</v>
+        <v>975782</v>
       </c>
       <c r="W52" s="18" t="n">
-        <v>975782</v>
+        <v>1043506</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>1043506</v>
+        <v>1101677</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>1101677</v>
+        <v>1123481</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>1123481</v>
+        <v>849253</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>849253</v>
+        <v>1235650</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>1235650</v>
+        <v>1801619</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>1801619</v>
+        <v>1319730</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>1319730</v>
+        <v>685796</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>685796</v>
+        <v>1383860</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>1383860</v>
+        <v>1266657</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>1266657</v>
+        <v>1483685</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>1483685</v>
+        <v>1276747</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>1276747</v>
+        <v>1422694</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>1422694</v>
+        <v>1370396</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>1370396</v>
+        <v>1557717</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>1557717</v>
+        <v>1463200</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>1463200</v>
+        <v>1462281</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>1462281</v>
+        <v>2110997</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>2110997</v>
+        <v>1524533</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>1524533</v>
+        <v>1028500</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>1028500</v>
+        <v>2091167</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>2091167</v>
+        <v>2461321</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>2461321</v>
+        <v>2031233</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>2031233</v>
+        <v>1982246</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>1982246</v>
+        <v>2594241</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>2594241</v>
+        <v>1746024</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>1746024</v>
+        <v>2715319</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>2715319</v>
+        <v>2736313</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>2736313</v>
+        <v>2633227</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>2633227</v>
+        <v>2695481</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>2695481</v>
+        <v>2323457</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>2323457</v>
+        <v>1475680</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,116 +8483,116 @@
       <c r="Q54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R54" s="13" t="s">
-        <v>58</v>
+      <c r="R54" s="13" t="n">
+        <v>237</v>
       </c>
       <c r="S54" s="13" t="n">
-        <v>237</v>
+        <v>1638</v>
       </c>
       <c r="T54" s="13" t="n">
-        <v>1638</v>
+        <v>5599</v>
       </c>
       <c r="U54" s="13" t="n">
-        <v>5599</v>
+        <v>4439</v>
       </c>
       <c r="V54" s="13" t="n">
-        <v>4439</v>
+        <v>6119</v>
       </c>
       <c r="W54" s="13" t="n">
-        <v>6119</v>
+        <v>4642</v>
       </c>
       <c r="X54" s="13" t="n">
-        <v>4642</v>
+        <v>4957</v>
       </c>
       <c r="Y54" s="13" t="n">
-        <v>4957</v>
+        <v>10652</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>10652</v>
+        <v>9420</v>
       </c>
       <c r="AA54" s="13" t="n">
-        <v>9420</v>
+        <v>3843</v>
       </c>
       <c r="AB54" s="13" t="n">
-        <v>3843</v>
+        <v>3960</v>
       </c>
       <c r="AC54" s="13" t="n">
-        <v>3960</v>
+        <v>4454</v>
       </c>
       <c r="AD54" s="13" t="n">
-        <v>4454</v>
+        <v>1918</v>
       </c>
       <c r="AE54" s="13" t="n">
-        <v>1918</v>
+        <v>3638</v>
       </c>
       <c r="AF54" s="13" t="n">
-        <v>3638</v>
+        <v>16914</v>
       </c>
       <c r="AG54" s="13" t="n">
-        <v>16914</v>
+        <v>860</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>860</v>
+        <v>1581</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>1581</v>
+        <v>7462</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>7462</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>0</v>
+        <v>18160</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>18160</v>
+        <v>1674</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>1674</v>
+        <v>11790</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>11790</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>0</v>
+        <v>16265</v>
       </c>
       <c r="AP54" s="13" t="n">
-        <v>16265</v>
+        <v>214</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>0</v>
+        <v>20170</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>20170</v>
+        <v>1752</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>1752</v>
+        <v>12940</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>12940</v>
+        <v>1938</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>1938</v>
+        <v>20092</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>20092</v>
+        <v>17842</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>17842</v>
+        <v>20757</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>20757</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>0</v>
+        <v>11424</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>11424</v>
+        <v>22536</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>22536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,116 +8642,116 @@
       <c r="Q55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="16" t="s">
-        <v>58</v>
+      <c r="R55" s="16" t="n">
+        <v>611</v>
       </c>
       <c r="S55" s="16" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="T55" s="16" t="n">
-        <v>363</v>
+        <v>7629</v>
       </c>
       <c r="U55" s="16" t="n">
-        <v>7629</v>
+        <v>5786</v>
       </c>
       <c r="V55" s="16" t="n">
-        <v>5786</v>
+        <v>2560</v>
       </c>
       <c r="W55" s="16" t="n">
-        <v>2560</v>
+        <v>7795</v>
       </c>
       <c r="X55" s="16" t="n">
-        <v>7795</v>
+        <v>4849</v>
       </c>
       <c r="Y55" s="16" t="n">
-        <v>4849</v>
+        <v>10837</v>
       </c>
       <c r="Z55" s="16" t="n">
-        <v>10837</v>
+        <v>9206</v>
       </c>
       <c r="AA55" s="16" t="n">
-        <v>9206</v>
+        <v>4070</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>4070</v>
+        <v>4422</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>4422</v>
+        <v>10885</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>10885</v>
+        <v>1501</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>1501</v>
+        <v>9009</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>9009</v>
+        <v>15333</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>15333</v>
+        <v>1020</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>1020</v>
+        <v>5279</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>5279</v>
+        <v>3777</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>3777</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>0</v>
+        <v>9707</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>9707</v>
+        <v>3366</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>0</v>
+        <v>37489</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>37489</v>
+        <v>1339</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>0</v>
+        <v>11682</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>11682</v>
+        <v>1337</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>1337</v>
+        <v>3637</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>3637</v>
+        <v>5396</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>5396</v>
+        <v>21055</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>21055</v>
+        <v>13304</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>13304</v>
+        <v>17136</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>17136</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>0</v>
+        <v>8282</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>8282</v>
+        <v>14272</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>14272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8801,107 +8801,107 @@
       <c r="Q56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R56" s="13" t="s">
-        <v>58</v>
+      <c r="R56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S56" s="13" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="T56" s="13" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="U56" s="13" t="n">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="V56" s="13" t="n">
-        <v>2032</v>
+        <v>417</v>
       </c>
       <c r="W56" s="13" t="n">
-        <v>417</v>
+        <v>1847</v>
       </c>
       <c r="X56" s="13" t="n">
-        <v>1847</v>
+        <v>1325</v>
       </c>
       <c r="Y56" s="13" t="n">
-        <v>1325</v>
+        <v>2217</v>
       </c>
       <c r="Z56" s="13" t="n">
-        <v>2217</v>
+        <v>4027</v>
       </c>
       <c r="AA56" s="13" t="n">
-        <v>4027</v>
+        <v>1745</v>
       </c>
       <c r="AB56" s="13" t="n">
-        <v>1745</v>
+        <v>1477</v>
       </c>
       <c r="AC56" s="13" t="n">
-        <v>1477</v>
+        <v>3283</v>
       </c>
       <c r="AD56" s="13" t="n">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="13" t="n">
-        <v>0</v>
+        <v>5218</v>
       </c>
       <c r="AG56" s="13" t="n">
-        <v>5218</v>
+        <v>85</v>
       </c>
       <c r="AH56" s="13" t="n">
-        <v>85</v>
+        <v>1324</v>
       </c>
       <c r="AI56" s="13" t="n">
-        <v>1324</v>
+        <v>809</v>
       </c>
       <c r="AJ56" s="13" t="n">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="13" t="n">
-        <v>0</v>
+        <v>4003</v>
       </c>
       <c r="AL56" s="13" t="n">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>0</v>
+        <v>23364</v>
       </c>
       <c r="AO56" s="13" t="n">
-        <v>23364</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="13" t="n">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>0</v>
+        <v>4078</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>4078</v>
+        <v>2037</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>2037</v>
+        <v>7255</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>7255</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>0</v>
+        <v>3674</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>3674</v>
+        <v>2879</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>2879</v>
+        <v>5978</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>5978</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="13" t="n">
         <v>0</v>
@@ -8959,115 +8959,115 @@
         <v>0</v>
       </c>
       <c r="R57" s="18" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="S57" s="18" t="n">
-        <v>848</v>
+        <v>2394</v>
       </c>
       <c r="T57" s="18" t="n">
-        <v>2394</v>
+        <v>13228</v>
       </c>
       <c r="U57" s="18" t="n">
-        <v>13228</v>
+        <v>12257</v>
       </c>
       <c r="V57" s="18" t="n">
-        <v>12257</v>
+        <v>9096</v>
       </c>
       <c r="W57" s="18" t="n">
-        <v>9096</v>
+        <v>14284</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>14284</v>
+        <v>11131</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>11131</v>
+        <v>23706</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>23706</v>
+        <v>22653</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>22653</v>
+        <v>9658</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>9658</v>
+        <v>9859</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>9859</v>
+        <v>18622</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>18622</v>
+        <v>3419</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>3419</v>
+        <v>12647</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>12647</v>
+        <v>37465</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>37465</v>
+        <v>1965</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>1965</v>
+        <v>8184</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>8184</v>
+        <v>12048</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>12048</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>0</v>
+        <v>31870</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>31870</v>
+        <v>5040</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>5040</v>
+        <v>11790</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>11790</v>
+        <v>23364</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>23364</v>
+        <v>53754</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>53754</v>
+        <v>2737</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>0</v>
+        <v>35930</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>35930</v>
+        <v>5126</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>5126</v>
+        <v>23832</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>23832</v>
+        <v>7334</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>7334</v>
+        <v>44821</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>44821</v>
+        <v>34025</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>34025</v>
+        <v>43871</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>43871</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>0</v>
+        <v>19706</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>19706</v>
+        <v>36808</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>36808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9174,8 +9174,8 @@
       <c r="Q59" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R59" s="22" t="s">
-        <v>58</v>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S59" s="23" t="n">
         <v>0</v>
@@ -9390,8 +9390,8 @@
       <c r="Q61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R61" s="22" t="s">
-        <v>58</v>
+      <c r="R61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S61" s="23" t="n">
         <v>0</v>
@@ -9606,8 +9606,8 @@
       <c r="Q63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R63" s="13" t="s">
-        <v>58</v>
+      <c r="R63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S63" s="13" t="n">
         <v>0</v>
@@ -9764,115 +9764,115 @@
         <v>0</v>
       </c>
       <c r="R64" s="18" t="n">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="S64" s="18" t="n">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="T64" s="18" t="n">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>2780184</v>
+        <v>2633227</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>2633227</v>
+        <v>2715187</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>2715187</v>
+        <v>2360265</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>2360265</v>
+        <v>1475680</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,116 +10356,116 @@
       <c r="Q71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R71" s="13" t="s">
-        <v>58</v>
+      <c r="R71" s="13" t="n">
+        <v>147638</v>
       </c>
       <c r="S71" s="13" t="n">
-        <v>147638</v>
+        <v>150416</v>
       </c>
       <c r="T71" s="13" t="n">
-        <v>150416</v>
+        <v>219130</v>
       </c>
       <c r="U71" s="13" t="n">
-        <v>219130</v>
+        <v>231008</v>
       </c>
       <c r="V71" s="13" t="n">
-        <v>231008</v>
+        <v>238013</v>
       </c>
       <c r="W71" s="13" t="n">
-        <v>238013</v>
+        <v>216619</v>
       </c>
       <c r="X71" s="13" t="n">
-        <v>216619</v>
+        <v>193347</v>
       </c>
       <c r="Y71" s="13" t="n">
-        <v>193347</v>
+        <v>237992</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>237992</v>
+        <v>253443</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>253443</v>
+        <v>229462</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>229462</v>
+        <v>262706</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>262706</v>
+        <v>392486</v>
       </c>
       <c r="AD71" s="13" t="n">
-        <v>392486</v>
+        <v>298472</v>
       </c>
       <c r="AE71" s="13" t="n">
-        <v>298472</v>
+        <v>326799</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>326799</v>
+        <v>305414</v>
       </c>
       <c r="AG71" s="13" t="n">
-        <v>305414</v>
+        <v>398992</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>398992</v>
+        <v>308404</v>
       </c>
       <c r="AI71" s="13" t="n">
-        <v>308404</v>
+        <v>280683</v>
       </c>
       <c r="AJ71" s="13" t="n">
-        <v>280683</v>
+        <v>272686</v>
       </c>
       <c r="AK71" s="13" t="n">
-        <v>272686</v>
+        <v>312372</v>
       </c>
       <c r="AL71" s="13" t="n">
-        <v>312372</v>
+        <v>288746</v>
       </c>
       <c r="AM71" s="13" t="n">
-        <v>288746</v>
+        <v>338225</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>338225</v>
+        <v>359462</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>359462</v>
+        <v>240340</v>
       </c>
       <c r="AP71" s="13" t="n">
-        <v>240340</v>
+        <v>281096</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>281096</v>
+        <v>319368</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>319368</v>
+        <v>321539</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>321539</v>
+        <v>360417</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>360417</v>
+        <v>320475</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>320475</v>
+        <v>339099</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>339099</v>
+        <v>339485</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>339485</v>
+        <v>303013</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>303013</v>
+        <v>316548</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>316548</v>
+        <v>430056</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>430056</v>
+        <v>396945</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>396945</v>
+        <v>400670</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>400670</v>
+        <v>473030</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10515,116 +10515,116 @@
       <c r="Q72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R72" s="16" t="s">
-        <v>58</v>
+      <c r="R72" s="16" t="n">
+        <v>125145</v>
       </c>
       <c r="S72" s="16" t="n">
-        <v>125145</v>
+        <v>153468</v>
       </c>
       <c r="T72" s="16" t="n">
-        <v>153468</v>
+        <v>103910</v>
       </c>
       <c r="U72" s="16" t="n">
-        <v>103910</v>
+        <v>141979</v>
       </c>
       <c r="V72" s="16" t="n">
-        <v>141979</v>
+        <v>164317</v>
       </c>
       <c r="W72" s="16" t="n">
-        <v>164317</v>
+        <v>183046</v>
       </c>
       <c r="X72" s="16" t="n">
-        <v>183046</v>
+        <v>156893</v>
       </c>
       <c r="Y72" s="16" t="n">
-        <v>156893</v>
+        <v>214710</v>
       </c>
       <c r="Z72" s="16" t="n">
-        <v>214710</v>
+        <v>324261</v>
       </c>
       <c r="AA72" s="16" t="n">
-        <v>324261</v>
+        <v>203006</v>
       </c>
       <c r="AB72" s="16" t="n">
-        <v>203006</v>
+        <v>221266</v>
       </c>
       <c r="AC72" s="16" t="n">
-        <v>221266</v>
+        <v>311698</v>
       </c>
       <c r="AD72" s="16" t="n">
-        <v>311698</v>
+        <v>221168</v>
       </c>
       <c r="AE72" s="16" t="n">
-        <v>221168</v>
+        <v>234463</v>
       </c>
       <c r="AF72" s="16" t="n">
-        <v>234463</v>
+        <v>225705</v>
       </c>
       <c r="AG72" s="16" t="n">
-        <v>225705</v>
+        <v>240729</v>
       </c>
       <c r="AH72" s="16" t="n">
-        <v>240729</v>
+        <v>213886</v>
       </c>
       <c r="AI72" s="16" t="n">
-        <v>213886</v>
+        <v>238528</v>
       </c>
       <c r="AJ72" s="16" t="n">
-        <v>238528</v>
+        <v>278515</v>
       </c>
       <c r="AK72" s="16" t="n">
-        <v>278515</v>
+        <v>291073</v>
       </c>
       <c r="AL72" s="16" t="n">
-        <v>291073</v>
+        <v>240829</v>
       </c>
       <c r="AM72" s="16" t="n">
-        <v>240829</v>
+        <v>256222</v>
       </c>
       <c r="AN72" s="16" t="n">
-        <v>256222</v>
+        <v>272017</v>
       </c>
       <c r="AO72" s="16" t="n">
-        <v>272017</v>
+        <v>246066</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>246066</v>
+        <v>247026</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>247026</v>
+        <v>279010</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>279010</v>
+        <v>298329</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>298329</v>
+        <v>331697</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>331697</v>
+        <v>333309</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>333309</v>
+        <v>396615</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>396615</v>
+        <v>323402</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>323402</v>
+        <v>367887</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>367887</v>
+        <v>365773</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>365773</v>
+        <v>408008</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>408008</v>
+        <v>376953</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>376953</v>
+        <v>397811</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>397811</v>
+        <v>398143</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,116 +10674,116 @@
       <c r="Q73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R73" s="13" t="s">
-        <v>58</v>
+      <c r="R73" s="13" t="n">
+        <v>211754</v>
       </c>
       <c r="S73" s="13" t="n">
-        <v>211754</v>
+        <v>429773</v>
       </c>
       <c r="T73" s="13" t="n">
-        <v>429773</v>
+        <v>167383</v>
       </c>
       <c r="U73" s="13" t="n">
-        <v>167383</v>
+        <v>239005</v>
       </c>
       <c r="V73" s="13" t="n">
-        <v>239005</v>
+        <v>324275</v>
       </c>
       <c r="W73" s="13" t="n">
-        <v>324275</v>
+        <v>317909</v>
       </c>
       <c r="X73" s="13" t="n">
-        <v>317909</v>
+        <v>324002</v>
       </c>
       <c r="Y73" s="13" t="n">
-        <v>324002</v>
+        <v>380830</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>380830</v>
+        <v>448523</v>
       </c>
       <c r="AA73" s="13" t="n">
-        <v>448523</v>
+        <v>280634</v>
       </c>
       <c r="AB73" s="13" t="n">
-        <v>280634</v>
+        <v>292845</v>
       </c>
       <c r="AC73" s="13" t="n">
-        <v>292845</v>
+        <v>455982</v>
       </c>
       <c r="AD73" s="13" t="n">
-        <v>455982</v>
+        <v>398826</v>
       </c>
       <c r="AE73" s="13" t="n">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AF73" s="13" t="n">
-        <v>410775</v>
+        <v>335082</v>
       </c>
       <c r="AG73" s="13" t="n">
-        <v>335082</v>
+        <v>485164</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>485164</v>
+        <v>375374</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>375374</v>
+        <v>349373</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>349373</v>
+        <v>337881</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>337881</v>
+        <v>584772</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>584772</v>
+        <v>504040</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AN73" s="13" t="n">
-        <v>690066</v>
+        <v>521912</v>
       </c>
       <c r="AO73" s="13" t="n">
-        <v>521912</v>
+        <v>663008</v>
       </c>
       <c r="AP73" s="13" t="n">
-        <v>663008</v>
+        <v>447806</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>447806</v>
+        <v>593591</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>593591</v>
+        <v>570884</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>570884</v>
+        <v>571337</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>571337</v>
+        <v>541921</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>541921</v>
+        <v>706273</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>706273</v>
+        <v>554789</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>554789</v>
+        <v>604033</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>604033</v>
+        <v>656435</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>656435</v>
+        <v>709579</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>709579</v>
+        <v>681074</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>681074</v>
+        <v>698657</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>698657</v>
+        <v>805465</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10890,116 +10890,116 @@
       <c r="Q75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="13" t="s">
-        <v>58</v>
+      <c r="R75" s="13" t="n">
+        <v>127419</v>
       </c>
       <c r="S75" s="13" t="n">
-        <v>127419</v>
+        <v>110976</v>
       </c>
       <c r="T75" s="13" t="n">
-        <v>110976</v>
+        <v>139030</v>
       </c>
       <c r="U75" s="13" t="n">
-        <v>139030</v>
+        <v>146212</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>146212</v>
+        <v>359857</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>359857</v>
+        <v>156233</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>156233</v>
+        <v>224940</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>224940</v>
+        <v>179738</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>179738</v>
+        <v>249503</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>249503</v>
+        <v>189012</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>189012</v>
+        <v>170162</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>170162</v>
+        <v>179713</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>179713</v>
+        <v>262884</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>262884</v>
+        <v>200773</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>200773</v>
+        <v>200612</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>200612</v>
+        <v>200186</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>200186</v>
+        <v>162454</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>162454</v>
-      </c>
-      <c r="AJ75" s="13" t="n">
         <v>236709</v>
       </c>
-      <c r="AK75" s="13" t="s">
-        <v>58</v>
+      <c r="AJ75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK75" s="13" t="n">
+        <v>201852</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>201852</v>
+        <v>224970</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>224970</v>
-      </c>
-      <c r="AN75" s="13" t="n">
         <v>306234</v>
       </c>
-      <c r="AO75" s="13" t="s">
-        <v>58</v>
+      <c r="AN75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO75" s="13" t="n">
+        <v>233076</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>233076</v>
-      </c>
-      <c r="AQ75" s="13" t="n">
         <v>204981</v>
       </c>
-      <c r="AR75" s="13" t="s">
-        <v>58</v>
+      <c r="AQ75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR75" s="13" t="n">
+        <v>262712</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>262712</v>
+        <v>180025</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>180025</v>
+        <v>540879</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>540879</v>
+        <v>246942</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>246942</v>
+        <v>395123</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>395123</v>
+        <v>328945</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>328945</v>
-      </c>
-      <c r="AY75" s="13" t="n">
         <v>332986</v>
       </c>
-      <c r="AZ75" s="13" t="s">
-        <v>58</v>
+      <c r="AY75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ75" s="13" t="n">
+        <v>391662</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>391662</v>
-      </c>
-      <c r="BB75" s="13" t="n">
         <v>390653</v>
+      </c>
+      <c r="BB75" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,116 +11049,116 @@
       <c r="Q76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R76" s="16" t="s">
-        <v>58</v>
+      <c r="R76" s="16" t="n">
+        <v>64235</v>
       </c>
       <c r="S76" s="16" t="n">
-        <v>64235</v>
+        <v>106140</v>
       </c>
       <c r="T76" s="16" t="n">
-        <v>106140</v>
+        <v>163474</v>
       </c>
       <c r="U76" s="16" t="n">
-        <v>163474</v>
+        <v>152103</v>
       </c>
       <c r="V76" s="16" t="n">
-        <v>152103</v>
+        <v>143562</v>
       </c>
       <c r="W76" s="16" t="n">
-        <v>143562</v>
+        <v>185631</v>
       </c>
       <c r="X76" s="16" t="n">
-        <v>185631</v>
+        <v>190053</v>
       </c>
       <c r="Y76" s="16" t="n">
-        <v>190053</v>
+        <v>157044</v>
       </c>
       <c r="Z76" s="16" t="n">
-        <v>157044</v>
+        <v>159284</v>
       </c>
       <c r="AA76" s="16" t="n">
-        <v>159284</v>
+        <v>171658</v>
       </c>
       <c r="AB76" s="16" t="n">
-        <v>171658</v>
+        <v>195612</v>
       </c>
       <c r="AC76" s="16" t="n">
-        <v>195612</v>
+        <v>170408</v>
       </c>
       <c r="AD76" s="16" t="n">
-        <v>170408</v>
+        <v>177423</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>177423</v>
+        <v>160075</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>160075</v>
+        <v>201920</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>201920</v>
+        <v>165692</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>165692</v>
+        <v>177888</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>177888</v>
-      </c>
-      <c r="AJ76" s="16" t="n">
         <v>220722</v>
       </c>
-      <c r="AK76" s="16" t="s">
-        <v>58</v>
+      <c r="AJ76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK76" s="16" t="n">
+        <v>188599</v>
       </c>
       <c r="AL76" s="16" t="n">
-        <v>188599</v>
-      </c>
-      <c r="AM76" s="16" t="n">
         <v>172944</v>
       </c>
+      <c r="AM76" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO76" s="16" t="s">
-        <v>58</v>
+      <c r="AO76" s="16" t="n">
+        <v>234394</v>
       </c>
       <c r="AP76" s="16" t="n">
-        <v>234394</v>
-      </c>
-      <c r="AQ76" s="16" t="n">
         <v>324370</v>
       </c>
-      <c r="AR76" s="16" t="s">
-        <v>58</v>
+      <c r="AQ76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR76" s="16" t="n">
+        <v>203576</v>
       </c>
       <c r="AS76" s="16" t="n">
-        <v>203576</v>
+        <v>187886</v>
       </c>
       <c r="AT76" s="16" t="n">
-        <v>187886</v>
+        <v>275781</v>
       </c>
       <c r="AU76" s="16" t="n">
-        <v>275781</v>
+        <v>204766</v>
       </c>
       <c r="AV76" s="16" t="n">
-        <v>204766</v>
+        <v>382637</v>
       </c>
       <c r="AW76" s="16" t="n">
-        <v>382637</v>
+        <v>273475</v>
       </c>
       <c r="AX76" s="16" t="n">
-        <v>273475</v>
-      </c>
-      <c r="AY76" s="16" t="n">
         <v>325755</v>
       </c>
-      <c r="AZ76" s="16" t="s">
-        <v>58</v>
+      <c r="AY76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ76" s="16" t="n">
+        <v>438479</v>
       </c>
       <c r="BA76" s="16" t="n">
-        <v>438479</v>
-      </c>
-      <c r="BB76" s="16" t="n">
         <v>663937</v>
+      </c>
+      <c r="BB76" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11211,104 +11211,104 @@
       <c r="R77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T77" s="13" t="n">
+      <c r="S77" s="13" t="n">
         <v>102344</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="T77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" s="13" t="n">
+        <v>136202</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>136202</v>
+        <v>387546</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>387546</v>
+        <v>861876</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>861876</v>
+        <v>220466</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>220466</v>
+        <v>232780</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>232780</v>
+        <v>206291</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>206291</v>
+        <v>307923</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>307923</v>
+        <v>305797</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>305797</v>
-      </c>
-      <c r="AD77" s="13" t="n">
         <v>295234</v>
       </c>
+      <c r="AD77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF77" s="13" t="s">
-        <v>58</v>
+      <c r="AF77" s="13" t="n">
+        <v>230691</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>230691</v>
+        <v>590278</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>590278</v>
+        <v>246785</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>246785</v>
-      </c>
-      <c r="AJ77" s="13" t="n">
         <v>244337</v>
       </c>
-      <c r="AK77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL77" s="13" t="n">
+      <c r="AJ77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK77" s="13" t="n">
         <v>952868</v>
       </c>
+      <c r="AL77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO77" s="13" t="n">
+      <c r="AN77" s="13" t="n">
         <v>315138</v>
       </c>
-      <c r="AP77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ77" s="13" t="n">
+      <c r="AO77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP77" s="13" t="n">
         <v>314225</v>
       </c>
-      <c r="AR77" s="13" t="s">
-        <v>58</v>
+      <c r="AQ77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR77" s="13" t="n">
+        <v>453111</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>453111</v>
+        <v>177007</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>177007</v>
-      </c>
-      <c r="AU77" s="13" t="n">
         <v>278867</v>
       </c>
-      <c r="AV77" s="13" t="s">
-        <v>58</v>
+      <c r="AU77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="13" t="n">
+        <v>401794</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>401794</v>
+        <v>317770</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>317770</v>
-      </c>
-      <c r="AY77" s="13" t="n">
         <v>320846</v>
+      </c>
+      <c r="AY77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ77" s="13" t="s">
         <v>58</v>

--- a/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5616D7B-817F-4D49-81C5-DFAFA7E9A965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E4FAE-59F3-4E03-B69A-8514EFB12551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1398/02</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1398/03</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/04</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1402/04</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/05</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1598,14 +1598,14 @@
       <c r="AK12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL12" s="9" t="s">
-        <v>58</v>
+      <c r="AL12" s="9">
+        <v>1928006</v>
       </c>
       <c r="AM12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN12" s="9">
-        <v>1928006</v>
+      <c r="AN12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO12" s="9" t="s">
         <v>58</v>
@@ -1685,128 +1685,128 @@
       <c r="M13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>58</v>
+      <c r="N13" s="13">
+        <v>2186283</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3813277</v>
       </c>
       <c r="P13" s="13">
-        <v>2186283</v>
+        <v>776689</v>
       </c>
       <c r="Q13" s="13">
-        <v>3813277</v>
+        <v>3355766</v>
       </c>
       <c r="R13" s="13">
-        <v>776689</v>
+        <v>2780267</v>
       </c>
       <c r="S13" s="13">
-        <v>3355766</v>
+        <v>3055221</v>
       </c>
       <c r="T13" s="13">
-        <v>2780267</v>
+        <v>3195329</v>
       </c>
       <c r="U13" s="13">
-        <v>3055221</v>
+        <v>3297602</v>
       </c>
       <c r="V13" s="13">
-        <v>3195329</v>
+        <v>4346169</v>
       </c>
       <c r="W13" s="13">
-        <v>3297602</v>
+        <v>2883923</v>
       </c>
       <c r="X13" s="13">
-        <v>4346169</v>
+        <v>4543763</v>
       </c>
       <c r="Y13" s="13">
-        <v>2883923</v>
+        <v>2641514</v>
       </c>
       <c r="Z13" s="13">
-        <v>4543763</v>
+        <v>1634310</v>
       </c>
       <c r="AA13" s="13">
-        <v>2641514</v>
+        <v>2391353</v>
       </c>
       <c r="AB13" s="13">
-        <v>1634310</v>
+        <v>1960167</v>
       </c>
       <c r="AC13" s="13">
-        <v>2391353</v>
+        <v>2973768</v>
       </c>
       <c r="AD13" s="13">
-        <v>1960167</v>
+        <v>3528060</v>
       </c>
       <c r="AE13" s="13">
-        <v>2973768</v>
+        <v>3425974</v>
       </c>
       <c r="AF13" s="13">
-        <v>3528060</v>
+        <v>2757778</v>
       </c>
       <c r="AG13" s="13">
-        <v>3425974</v>
+        <v>2485617</v>
       </c>
       <c r="AH13" s="13">
-        <v>2757778</v>
+        <v>2969134</v>
       </c>
       <c r="AI13" s="13">
-        <v>2485617</v>
+        <v>2540486</v>
       </c>
       <c r="AJ13" s="13">
-        <v>2969134</v>
+        <v>3162952</v>
       </c>
       <c r="AK13" s="13">
-        <v>2540486</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>3162952</v>
+        <v>2618191</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM13" s="13">
-        <v>2618191</v>
-      </c>
-      <c r="AN13" s="13" t="s">
-        <v>58</v>
+        <v>3794614</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>3914006</v>
       </c>
       <c r="AO13" s="13">
-        <v>3794614</v>
+        <v>3669007</v>
       </c>
       <c r="AP13" s="13">
-        <v>3914006</v>
+        <v>3583799</v>
       </c>
       <c r="AQ13" s="13">
-        <v>3669007</v>
+        <v>3436273</v>
       </c>
       <c r="AR13" s="13">
-        <v>3583799</v>
+        <v>2961610</v>
       </c>
       <c r="AS13" s="13">
-        <v>3436273</v>
+        <v>3366519</v>
       </c>
       <c r="AT13" s="13">
-        <v>2961610</v>
+        <v>3618865</v>
       </c>
       <c r="AU13" s="13">
-        <v>3366519</v>
+        <v>3698547</v>
       </c>
       <c r="AV13" s="13">
-        <v>3618865</v>
+        <v>4245449</v>
       </c>
       <c r="AW13" s="13">
-        <v>3698547</v>
+        <v>2501456</v>
       </c>
       <c r="AX13" s="13">
-        <v>4245449</v>
+        <v>1494064</v>
       </c>
       <c r="AY13" s="13">
-        <v>2501456</v>
+        <v>3911530</v>
       </c>
       <c r="AZ13" s="13">
-        <v>1494064</v>
+        <v>3450063</v>
       </c>
       <c r="BA13" s="13">
-        <v>3911530</v>
+        <v>2763877</v>
       </c>
       <c r="BB13" s="13">
-        <v>3450063</v>
+        <v>3721328</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1916,14 +1916,14 @@
       <c r="AK14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="9" t="s">
-        <v>58</v>
+      <c r="AL14" s="9">
+        <v>439173</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="9">
-        <v>439173</v>
+      <c r="AN14" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO14" s="9" t="s">
         <v>58</v>
@@ -2003,128 +2003,128 @@
       <c r="M15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>58</v>
+      <c r="N15" s="13">
+        <v>421040</v>
+      </c>
+      <c r="O15" s="13">
+        <v>338935</v>
       </c>
       <c r="P15" s="13">
-        <v>421040</v>
+        <v>354951</v>
       </c>
       <c r="Q15" s="13">
-        <v>338935</v>
+        <v>838313</v>
       </c>
       <c r="R15" s="13">
-        <v>354951</v>
+        <v>844613</v>
       </c>
       <c r="S15" s="13">
-        <v>838313</v>
+        <v>475662</v>
       </c>
       <c r="T15" s="13">
-        <v>844613</v>
+        <v>1043827</v>
       </c>
       <c r="U15" s="13">
-        <v>475662</v>
+        <v>865436</v>
       </c>
       <c r="V15" s="13">
-        <v>1043827</v>
+        <v>820140</v>
       </c>
       <c r="W15" s="13">
-        <v>865436</v>
+        <v>780906</v>
       </c>
       <c r="X15" s="13">
-        <v>820140</v>
+        <v>1449256</v>
       </c>
       <c r="Y15" s="13">
-        <v>780906</v>
+        <v>344491</v>
       </c>
       <c r="Z15" s="13">
-        <v>1449256</v>
+        <v>302700</v>
       </c>
       <c r="AA15" s="13">
-        <v>344491</v>
+        <v>576123</v>
       </c>
       <c r="AB15" s="13">
-        <v>302700</v>
+        <v>554882</v>
       </c>
       <c r="AC15" s="13">
-        <v>576123</v>
+        <v>812592</v>
       </c>
       <c r="AD15" s="13">
-        <v>554882</v>
+        <v>568832</v>
       </c>
       <c r="AE15" s="13">
-        <v>812592</v>
+        <v>676145</v>
       </c>
       <c r="AF15" s="13">
-        <v>568832</v>
+        <v>341164</v>
       </c>
       <c r="AG15" s="13">
-        <v>676145</v>
+        <v>713382</v>
       </c>
       <c r="AH15" s="13">
-        <v>341164</v>
+        <v>877199</v>
       </c>
       <c r="AI15" s="13">
-        <v>713382</v>
+        <v>864518</v>
       </c>
       <c r="AJ15" s="13">
-        <v>877199</v>
+        <v>673365</v>
       </c>
       <c r="AK15" s="13">
-        <v>864518</v>
-      </c>
-      <c r="AL15" s="13">
-        <v>673365</v>
+        <v>923051</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM15" s="13">
-        <v>923051</v>
-      </c>
-      <c r="AN15" s="13" t="s">
-        <v>58</v>
+        <v>477046</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>568460</v>
       </c>
       <c r="AO15" s="13">
-        <v>477046</v>
+        <v>1019233</v>
       </c>
       <c r="AP15" s="13">
-        <v>568460</v>
+        <v>868951</v>
       </c>
       <c r="AQ15" s="13">
-        <v>1019233</v>
+        <v>580397</v>
       </c>
       <c r="AR15" s="13">
-        <v>868951</v>
+        <v>592818</v>
       </c>
       <c r="AS15" s="13">
-        <v>580397</v>
+        <v>824890</v>
       </c>
       <c r="AT15" s="13">
-        <v>592818</v>
+        <v>1080234</v>
       </c>
       <c r="AU15" s="13">
-        <v>824890</v>
+        <v>963219</v>
       </c>
       <c r="AV15" s="13">
-        <v>1080234</v>
+        <v>794921</v>
       </c>
       <c r="AW15" s="13">
-        <v>963219</v>
+        <v>552265</v>
       </c>
       <c r="AX15" s="13">
-        <v>794921</v>
+        <v>389175</v>
       </c>
       <c r="AY15" s="13">
-        <v>552265</v>
+        <v>1031901</v>
       </c>
       <c r="AZ15" s="13">
-        <v>389175</v>
+        <v>1691826</v>
       </c>
       <c r="BA15" s="13">
-        <v>1031901</v>
+        <v>237728</v>
       </c>
       <c r="BB15" s="13">
-        <v>1691826</v>
+        <v>677524</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2234,14 +2234,14 @@
       <c r="AK16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL16" s="9" t="s">
-        <v>58</v>
+      <c r="AL16" s="9">
+        <v>977321</v>
       </c>
       <c r="AM16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN16" s="9">
-        <v>977321</v>
+      <c r="AN16" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO16" s="9" t="s">
         <v>58</v>
@@ -2321,128 +2321,128 @@
       <c r="M17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>58</v>
+      <c r="N17" s="13">
+        <v>572825</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1670355</v>
       </c>
       <c r="P17" s="13">
-        <v>572825</v>
+        <v>1325693</v>
       </c>
       <c r="Q17" s="13">
-        <v>1670355</v>
+        <v>1529312</v>
       </c>
       <c r="R17" s="13">
-        <v>1325693</v>
+        <v>1216536</v>
       </c>
       <c r="S17" s="13">
-        <v>1529312</v>
+        <v>1335177</v>
       </c>
       <c r="T17" s="13">
-        <v>1216536</v>
+        <v>1252610</v>
       </c>
       <c r="U17" s="13">
-        <v>1335177</v>
+        <v>1592244</v>
       </c>
       <c r="V17" s="13">
-        <v>1252610</v>
+        <v>1835508</v>
       </c>
       <c r="W17" s="13">
-        <v>1592244</v>
+        <v>1287997</v>
       </c>
       <c r="X17" s="13">
-        <v>1835508</v>
+        <v>1852460</v>
       </c>
       <c r="Y17" s="13">
-        <v>1287997</v>
+        <v>1052952</v>
       </c>
       <c r="Z17" s="13">
-        <v>1852460</v>
+        <v>99864</v>
       </c>
       <c r="AA17" s="13">
-        <v>1052952</v>
+        <v>1446848</v>
       </c>
       <c r="AB17" s="13">
-        <v>99864</v>
+        <v>2080512</v>
       </c>
       <c r="AC17" s="13">
-        <v>1446848</v>
+        <v>947237</v>
       </c>
       <c r="AD17" s="13">
-        <v>2080512</v>
+        <v>594708</v>
       </c>
       <c r="AE17" s="13">
-        <v>947237</v>
+        <v>1030971</v>
       </c>
       <c r="AF17" s="13">
-        <v>594708</v>
+        <v>1539501</v>
       </c>
       <c r="AG17" s="13">
-        <v>1030971</v>
+        <v>854766</v>
       </c>
       <c r="AH17" s="13">
-        <v>1539501</v>
+        <v>1287124</v>
       </c>
       <c r="AI17" s="13">
-        <v>854766</v>
+        <v>995899</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1287124</v>
+        <v>1049813</v>
       </c>
       <c r="AK17" s="13">
-        <v>995899</v>
-      </c>
-      <c r="AL17" s="13">
-        <v>1049813</v>
+        <v>355815</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM17" s="13">
-        <v>355815</v>
-      </c>
-      <c r="AN17" s="13" t="s">
-        <v>58</v>
+        <v>2088784</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>2131586</v>
       </c>
       <c r="AO17" s="13">
-        <v>2088784</v>
+        <v>1475050</v>
       </c>
       <c r="AP17" s="13">
-        <v>2131586</v>
+        <v>1284063</v>
       </c>
       <c r="AQ17" s="13">
-        <v>1475050</v>
+        <v>1874107</v>
       </c>
       <c r="AR17" s="13">
-        <v>1284063</v>
+        <v>892649</v>
       </c>
       <c r="AS17" s="13">
-        <v>1874107</v>
+        <v>1570042</v>
       </c>
       <c r="AT17" s="13">
-        <v>892649</v>
+        <v>1727414</v>
       </c>
       <c r="AU17" s="13">
-        <v>1570042</v>
+        <v>1550341</v>
       </c>
       <c r="AV17" s="13">
-        <v>1727414</v>
+        <v>1816453</v>
       </c>
       <c r="AW17" s="13">
-        <v>1550341</v>
+        <v>1106497</v>
       </c>
       <c r="AX17" s="13">
-        <v>1816453</v>
+        <v>1227640</v>
       </c>
       <c r="AY17" s="13">
-        <v>1106497</v>
+        <v>1904672</v>
       </c>
       <c r="AZ17" s="13">
-        <v>1227640</v>
+        <v>1499033</v>
       </c>
       <c r="BA17" s="13">
-        <v>1904672</v>
+        <v>1706709</v>
       </c>
       <c r="BB17" s="13">
-        <v>1499033</v>
+        <v>1746731</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2479,127 +2479,127 @@
         <v>0</v>
       </c>
       <c r="N18" s="15">
-        <v>0</v>
+        <v>3180148</v>
       </c>
       <c r="O18" s="15">
-        <v>0</v>
+        <v>5822567</v>
       </c>
       <c r="P18" s="15">
-        <v>3180148</v>
+        <v>2457333</v>
       </c>
       <c r="Q18" s="15">
-        <v>5822567</v>
+        <v>5723391</v>
       </c>
       <c r="R18" s="15">
-        <v>2457333</v>
+        <v>4841416</v>
       </c>
       <c r="S18" s="15">
-        <v>5723391</v>
+        <v>4866060</v>
       </c>
       <c r="T18" s="15">
-        <v>4841416</v>
+        <v>5491766</v>
       </c>
       <c r="U18" s="15">
-        <v>4866060</v>
+        <v>5755282</v>
       </c>
       <c r="V18" s="15">
-        <v>5491766</v>
+        <v>7001817</v>
       </c>
       <c r="W18" s="15">
-        <v>5755282</v>
+        <v>4952826</v>
       </c>
       <c r="X18" s="15">
-        <v>7001817</v>
+        <v>7845479</v>
       </c>
       <c r="Y18" s="15">
-        <v>4952826</v>
+        <v>4038957</v>
       </c>
       <c r="Z18" s="15">
-        <v>7845479</v>
+        <v>2036874</v>
       </c>
       <c r="AA18" s="15">
-        <v>4038957</v>
+        <v>4414324</v>
       </c>
       <c r="AB18" s="15">
-        <v>2036874</v>
+        <v>4595561</v>
       </c>
       <c r="AC18" s="15">
-        <v>4414324</v>
+        <v>4733597</v>
       </c>
       <c r="AD18" s="15">
-        <v>4595561</v>
+        <v>4691600</v>
       </c>
       <c r="AE18" s="15">
-        <v>4733597</v>
+        <v>5133090</v>
       </c>
       <c r="AF18" s="15">
-        <v>4691600</v>
+        <v>4638443</v>
       </c>
       <c r="AG18" s="15">
-        <v>5133090</v>
+        <v>4053765</v>
       </c>
       <c r="AH18" s="15">
-        <v>4638443</v>
+        <v>5133457</v>
       </c>
       <c r="AI18" s="15">
-        <v>4053765</v>
+        <v>4400903</v>
       </c>
       <c r="AJ18" s="15">
-        <v>5133457</v>
+        <v>4886130</v>
       </c>
       <c r="AK18" s="15">
-        <v>4400903</v>
+        <v>3897057</v>
       </c>
       <c r="AL18" s="15">
-        <v>4886130</v>
+        <v>3344500</v>
       </c>
       <c r="AM18" s="15">
-        <v>3897057</v>
+        <v>6360444</v>
       </c>
       <c r="AN18" s="15">
-        <v>3344500</v>
+        <v>6614052</v>
       </c>
       <c r="AO18" s="15">
-        <v>6360444</v>
+        <v>6163290</v>
       </c>
       <c r="AP18" s="15">
-        <v>6614052</v>
+        <v>5736813</v>
       </c>
       <c r="AQ18" s="15">
-        <v>6163290</v>
+        <v>5890777</v>
       </c>
       <c r="AR18" s="15">
-        <v>5736813</v>
+        <v>4447077</v>
       </c>
       <c r="AS18" s="15">
-        <v>5890777</v>
+        <v>5761451</v>
       </c>
       <c r="AT18" s="15">
-        <v>4447077</v>
+        <v>6426513</v>
       </c>
       <c r="AU18" s="15">
-        <v>5761451</v>
+        <v>6212107</v>
       </c>
       <c r="AV18" s="15">
-        <v>6426513</v>
+        <v>6856823</v>
       </c>
       <c r="AW18" s="15">
-        <v>6212107</v>
+        <v>4160218</v>
       </c>
       <c r="AX18" s="15">
-        <v>6856823</v>
+        <v>3110879</v>
       </c>
       <c r="AY18" s="15">
-        <v>4160218</v>
+        <v>6848103</v>
       </c>
       <c r="AZ18" s="15">
-        <v>3110879</v>
+        <v>6640922</v>
       </c>
       <c r="BA18" s="15">
-        <v>6848103</v>
+        <v>4708314</v>
       </c>
       <c r="BB18" s="15">
-        <v>6640922</v>
+        <v>6145583</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2766,14 +2766,14 @@
       <c r="AK20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL20" s="9" t="s">
-        <v>58</v>
+      <c r="AL20" s="9">
+        <v>4128</v>
       </c>
       <c r="AM20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="9">
-        <v>4128</v>
+      <c r="AN20" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>58</v>
@@ -2853,128 +2853,128 @@
       <c r="M21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>58</v>
+      <c r="N21" s="13">
+        <v>9512</v>
+      </c>
+      <c r="O21" s="13">
+        <v>3420</v>
       </c>
       <c r="P21" s="13">
-        <v>9512</v>
+        <v>46668</v>
       </c>
       <c r="Q21" s="13">
-        <v>3420</v>
+        <v>38040</v>
       </c>
       <c r="R21" s="13">
-        <v>46668</v>
+        <v>17832</v>
       </c>
       <c r="S21" s="13">
-        <v>38040</v>
+        <v>41992</v>
       </c>
       <c r="T21" s="13">
-        <v>17832</v>
+        <v>25514</v>
       </c>
       <c r="U21" s="13">
-        <v>41992</v>
+        <v>69006</v>
       </c>
       <c r="V21" s="13">
-        <v>25514</v>
+        <v>57796</v>
       </c>
       <c r="W21" s="13">
-        <v>69006</v>
+        <v>23710</v>
       </c>
       <c r="X21" s="13">
-        <v>57796</v>
+        <v>22606</v>
       </c>
       <c r="Y21" s="13">
-        <v>23710</v>
+        <v>63876</v>
       </c>
       <c r="Z21" s="13">
-        <v>22606</v>
+        <v>8460</v>
       </c>
       <c r="AA21" s="13">
-        <v>63876</v>
+        <v>56280</v>
       </c>
       <c r="AB21" s="13">
-        <v>8460</v>
+        <v>75936</v>
       </c>
       <c r="AC21" s="13">
-        <v>56280</v>
+        <v>6156</v>
       </c>
       <c r="AD21" s="13">
-        <v>75936</v>
+        <v>29676</v>
       </c>
       <c r="AE21" s="13">
-        <v>6156</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>29676</v>
+        <v>17112</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG21" s="13">
-        <v>17112</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI21" s="13">
         <v>51469</v>
       </c>
-      <c r="AJ21" s="13">
+      <c r="AH21" s="13">
         <v>19463</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>159940</v>
       </c>
       <c r="AL21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM21" s="13">
-        <v>159940</v>
-      </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>57384</v>
       </c>
       <c r="AO21" s="13">
-        <v>0</v>
+        <v>7116</v>
       </c>
       <c r="AP21" s="13">
-        <v>57384</v>
+        <v>13188</v>
       </c>
       <c r="AQ21" s="13">
-        <v>7116</v>
+        <v>26352</v>
       </c>
       <c r="AR21" s="13">
-        <v>13188</v>
+        <v>55026</v>
       </c>
       <c r="AS21" s="13">
-        <v>26352</v>
+        <v>48648</v>
       </c>
       <c r="AT21" s="13">
-        <v>55026</v>
+        <v>52604</v>
       </c>
       <c r="AU21" s="13">
-        <v>48648</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="13">
-        <v>52604</v>
+        <v>18888</v>
       </c>
       <c r="AW21" s="13">
-        <v>0</v>
+        <v>21496</v>
       </c>
       <c r="AX21" s="13">
-        <v>18888</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="13">
-        <v>21496</v>
+        <v>13584</v>
       </c>
       <c r="AZ21" s="13">
-        <v>0</v>
+        <v>79536</v>
       </c>
       <c r="BA21" s="13">
-        <v>13584</v>
+        <v>100822</v>
       </c>
       <c r="BB21" s="13">
-        <v>79536</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3084,14 +3084,14 @@
       <c r="AK22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL22" s="9" t="s">
-        <v>58</v>
+      <c r="AL22" s="9">
+        <v>3768</v>
       </c>
       <c r="AM22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="9">
-        <v>3768</v>
+      <c r="AN22" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO22" s="9" t="s">
         <v>58</v>
@@ -3171,110 +3171,110 @@
       <c r="M23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>58</v>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>3840</v>
       </c>
       <c r="P23" s="13">
         <v>0</v>
       </c>
       <c r="Q23" s="13">
-        <v>3840</v>
+        <v>14919</v>
       </c>
       <c r="R23" s="13">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="S23" s="13">
-        <v>14919</v>
+        <v>2143</v>
       </c>
       <c r="T23" s="13">
-        <v>1076</v>
+        <v>6010</v>
       </c>
       <c r="U23" s="13">
-        <v>2143</v>
+        <v>9524</v>
       </c>
       <c r="V23" s="13">
-        <v>6010</v>
+        <v>19521</v>
       </c>
       <c r="W23" s="13">
-        <v>9524</v>
+        <v>5667</v>
       </c>
       <c r="X23" s="13">
-        <v>19521</v>
+        <v>4830</v>
       </c>
       <c r="Y23" s="13">
-        <v>5667</v>
+        <v>11120</v>
       </c>
       <c r="Z23" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="13">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="13">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AC23" s="13">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AD23" s="13">
-        <v>22619</v>
+        <v>5365</v>
       </c>
       <c r="AE23" s="13">
-        <v>144</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>5365</v>
+        <v>3311</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG23" s="13">
-        <v>3311</v>
-      </c>
-      <c r="AH23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI23" s="13">
         <v>4201</v>
       </c>
+      <c r="AH23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL23" s="13">
         <v>74139</v>
       </c>
+      <c r="AK23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM23" s="13">
         <v>0</v>
       </c>
-      <c r="AN23" s="13" t="s">
-        <v>58</v>
+      <c r="AN23" s="13">
+        <v>9000</v>
       </c>
       <c r="AO23" s="13">
-        <v>0</v>
+        <v>28356</v>
       </c>
       <c r="AP23" s="13">
-        <v>9000</v>
+        <v>9168</v>
       </c>
       <c r="AQ23" s="13">
-        <v>28356</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="13">
-        <v>9168</v>
+        <v>9144</v>
       </c>
       <c r="AS23" s="13">
-        <v>0</v>
+        <v>9060</v>
       </c>
       <c r="AT23" s="13">
-        <v>9144</v>
+        <v>18632</v>
       </c>
       <c r="AU23" s="13">
-        <v>9060</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="13">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="13">
         <v>0</v>
@@ -3283,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="AY23" s="13">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AZ23" s="13">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="BA23" s="13">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="13">
-        <v>2880</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3402,14 +3402,14 @@
       <c r="AK24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL24" s="9" t="s">
-        <v>58</v>
+      <c r="AL24" s="9">
+        <v>1044</v>
       </c>
       <c r="AM24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN24" s="9">
-        <v>1044</v>
+      <c r="AN24" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO24" s="9" t="s">
         <v>58</v>
@@ -3489,128 +3489,128 @@
       <c r="M25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>58</v>
+      <c r="N25" s="13">
+        <v>1860</v>
+      </c>
+      <c r="O25" s="13">
+        <v>14760</v>
       </c>
       <c r="P25" s="13">
-        <v>1860</v>
+        <v>40272</v>
       </c>
       <c r="Q25" s="13">
-        <v>14760</v>
+        <v>30360</v>
       </c>
       <c r="R25" s="13">
-        <v>40272</v>
+        <v>17004</v>
       </c>
       <c r="S25" s="13">
-        <v>30360</v>
+        <v>29712</v>
       </c>
       <c r="T25" s="13">
-        <v>17004</v>
+        <v>22037</v>
       </c>
       <c r="U25" s="13">
-        <v>29712</v>
+        <v>59264</v>
       </c>
       <c r="V25" s="13">
-        <v>22037</v>
+        <v>37755</v>
       </c>
       <c r="W25" s="13">
-        <v>59264</v>
+        <v>20332</v>
       </c>
       <c r="X25" s="13">
-        <v>37755</v>
+        <v>23272</v>
       </c>
       <c r="Y25" s="13">
-        <v>20332</v>
+        <v>24784</v>
       </c>
       <c r="Z25" s="13">
-        <v>23272</v>
+        <v>7296</v>
       </c>
       <c r="AA25" s="13">
-        <v>24784</v>
+        <v>18120</v>
       </c>
       <c r="AB25" s="13">
-        <v>7296</v>
+        <v>84312</v>
       </c>
       <c r="AC25" s="13">
-        <v>18120</v>
+        <v>4296</v>
       </c>
       <c r="AD25" s="13">
-        <v>84312</v>
+        <v>9732</v>
       </c>
       <c r="AE25" s="13">
-        <v>4296</v>
-      </c>
-      <c r="AF25" s="13">
+        <v>31524</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>89967</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>7441</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>38500</v>
+      </c>
+      <c r="AJ25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>69784</v>
+      </c>
+      <c r="AL25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>76776</v>
+      </c>
+      <c r="AO25" s="13">
         <v>9732</v>
       </c>
-      <c r="AG25" s="13">
-        <v>31524</v>
-      </c>
-      <c r="AH25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>89967</v>
-      </c>
-      <c r="AJ25" s="13">
-        <v>7441</v>
-      </c>
-      <c r="AK25" s="13">
-        <v>38500</v>
-      </c>
-      <c r="AL25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>69784</v>
-      </c>
-      <c r="AN25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO25" s="13">
-        <v>0</v>
-      </c>
       <c r="AP25" s="13">
-        <v>76776</v>
+        <v>23924</v>
       </c>
       <c r="AQ25" s="13">
-        <v>9732</v>
+        <v>7848</v>
       </c>
       <c r="AR25" s="13">
-        <v>23924</v>
+        <v>50850</v>
       </c>
       <c r="AS25" s="13">
-        <v>7848</v>
+        <v>54240</v>
       </c>
       <c r="AT25" s="13">
-        <v>50850</v>
+        <v>62336</v>
       </c>
       <c r="AU25" s="13">
-        <v>54240</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="13">
-        <v>62336</v>
+        <v>29168</v>
       </c>
       <c r="AW25" s="13">
-        <v>0</v>
+        <v>57688</v>
       </c>
       <c r="AX25" s="13">
-        <v>29168</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="13">
-        <v>57688</v>
+        <v>9000</v>
       </c>
       <c r="AZ25" s="13">
-        <v>0</v>
+        <v>132637</v>
       </c>
       <c r="BA25" s="13">
-        <v>9000</v>
+        <v>59012</v>
       </c>
       <c r="BB25" s="13">
-        <v>132637</v>
+        <v>86090</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3647,127 +3647,127 @@
         <v>0</v>
       </c>
       <c r="N26" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="O26" s="15">
-        <v>0</v>
+        <v>22020</v>
       </c>
       <c r="P26" s="15">
-        <v>11372</v>
+        <v>86940</v>
       </c>
       <c r="Q26" s="15">
-        <v>22020</v>
+        <v>83319</v>
       </c>
       <c r="R26" s="15">
-        <v>86940</v>
+        <v>35912</v>
       </c>
       <c r="S26" s="15">
-        <v>83319</v>
+        <v>73847</v>
       </c>
       <c r="T26" s="15">
-        <v>35912</v>
+        <v>53561</v>
       </c>
       <c r="U26" s="15">
-        <v>73847</v>
+        <v>137794</v>
       </c>
       <c r="V26" s="15">
-        <v>53561</v>
+        <v>115072</v>
       </c>
       <c r="W26" s="15">
-        <v>137794</v>
+        <v>49709</v>
       </c>
       <c r="X26" s="15">
-        <v>115072</v>
+        <v>50708</v>
       </c>
       <c r="Y26" s="15">
-        <v>49709</v>
+        <v>99780</v>
       </c>
       <c r="Z26" s="15">
-        <v>50708</v>
+        <v>15756</v>
       </c>
       <c r="AA26" s="15">
-        <v>99780</v>
+        <v>74400</v>
       </c>
       <c r="AB26" s="15">
-        <v>15756</v>
+        <v>182867</v>
       </c>
       <c r="AC26" s="15">
-        <v>74400</v>
+        <v>10596</v>
       </c>
       <c r="AD26" s="15">
-        <v>182867</v>
+        <v>44773</v>
       </c>
       <c r="AE26" s="15">
-        <v>10596</v>
+        <v>51947</v>
       </c>
       <c r="AF26" s="15">
-        <v>44773</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="15">
-        <v>51947</v>
+        <v>145637</v>
       </c>
       <c r="AH26" s="15">
-        <v>0</v>
+        <v>26904</v>
       </c>
       <c r="AI26" s="15">
-        <v>145637</v>
+        <v>38500</v>
       </c>
       <c r="AJ26" s="15">
-        <v>26904</v>
+        <v>74139</v>
       </c>
       <c r="AK26" s="15">
-        <v>38500</v>
+        <v>229724</v>
       </c>
       <c r="AL26" s="15">
-        <v>74139</v>
+        <v>8940</v>
       </c>
       <c r="AM26" s="15">
-        <v>229724</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="15">
-        <v>8940</v>
+        <v>143160</v>
       </c>
       <c r="AO26" s="15">
-        <v>0</v>
+        <v>45204</v>
       </c>
       <c r="AP26" s="15">
-        <v>143160</v>
+        <v>46280</v>
       </c>
       <c r="AQ26" s="15">
-        <v>45204</v>
+        <v>34200</v>
       </c>
       <c r="AR26" s="15">
-        <v>46280</v>
+        <v>115020</v>
       </c>
       <c r="AS26" s="15">
-        <v>34200</v>
+        <v>111948</v>
       </c>
       <c r="AT26" s="15">
-        <v>115020</v>
+        <v>133572</v>
       </c>
       <c r="AU26" s="15">
-        <v>111948</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="15">
-        <v>133572</v>
+        <v>48056</v>
       </c>
       <c r="AW26" s="15">
-        <v>0</v>
+        <v>79184</v>
       </c>
       <c r="AX26" s="15">
-        <v>48056</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="15">
-        <v>79184</v>
+        <v>24024</v>
       </c>
       <c r="AZ26" s="15">
-        <v>0</v>
+        <v>215053</v>
       </c>
       <c r="BA26" s="15">
-        <v>24024</v>
+        <v>159834</v>
       </c>
       <c r="BB26" s="15">
-        <v>215053</v>
+        <v>189890</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4018,127 +4018,127 @@
         <v>0</v>
       </c>
       <c r="N29" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="O29" s="19">
-        <v>0</v>
+        <v>5844587</v>
       </c>
       <c r="P29" s="19">
-        <v>3191520</v>
+        <v>2544273</v>
       </c>
       <c r="Q29" s="19">
-        <v>5844587</v>
+        <v>5806710</v>
       </c>
       <c r="R29" s="19">
-        <v>2544273</v>
+        <v>4877328</v>
       </c>
       <c r="S29" s="19">
-        <v>5806710</v>
+        <v>4939907</v>
       </c>
       <c r="T29" s="19">
-        <v>4877328</v>
+        <v>5545327</v>
       </c>
       <c r="U29" s="19">
-        <v>4939907</v>
+        <v>5893076</v>
       </c>
       <c r="V29" s="19">
-        <v>5545327</v>
+        <v>7116889</v>
       </c>
       <c r="W29" s="19">
-        <v>5893076</v>
+        <v>5002535</v>
       </c>
       <c r="X29" s="19">
-        <v>7116889</v>
+        <v>7896187</v>
       </c>
       <c r="Y29" s="19">
-        <v>5002535</v>
+        <v>4138737</v>
       </c>
       <c r="Z29" s="19">
-        <v>7896187</v>
+        <v>2052630</v>
       </c>
       <c r="AA29" s="19">
-        <v>4138737</v>
+        <v>4488724</v>
       </c>
       <c r="AB29" s="19">
-        <v>2052630</v>
+        <v>4778428</v>
       </c>
       <c r="AC29" s="19">
-        <v>4488724</v>
+        <v>4744193</v>
       </c>
       <c r="AD29" s="19">
-        <v>4778428</v>
+        <v>4736373</v>
       </c>
       <c r="AE29" s="19">
-        <v>4744193</v>
+        <v>5185037</v>
       </c>
       <c r="AF29" s="19">
-        <v>4736373</v>
+        <v>4638443</v>
       </c>
       <c r="AG29" s="19">
-        <v>5185037</v>
+        <v>4199402</v>
       </c>
       <c r="AH29" s="19">
-        <v>4638443</v>
+        <v>5160361</v>
       </c>
       <c r="AI29" s="19">
-        <v>4199402</v>
+        <v>4439403</v>
       </c>
       <c r="AJ29" s="19">
-        <v>5160361</v>
+        <v>4960269</v>
       </c>
       <c r="AK29" s="19">
-        <v>4439403</v>
+        <v>4126781</v>
       </c>
       <c r="AL29" s="19">
-        <v>4960269</v>
+        <v>3353440</v>
       </c>
       <c r="AM29" s="19">
-        <v>4126781</v>
+        <v>6360444</v>
       </c>
       <c r="AN29" s="19">
-        <v>3353440</v>
+        <v>6757212</v>
       </c>
       <c r="AO29" s="19">
-        <v>6360444</v>
+        <v>6208494</v>
       </c>
       <c r="AP29" s="19">
-        <v>6757212</v>
+        <v>5783093</v>
       </c>
       <c r="AQ29" s="19">
-        <v>6208494</v>
+        <v>5924977</v>
       </c>
       <c r="AR29" s="19">
-        <v>5783093</v>
+        <v>4562097</v>
       </c>
       <c r="AS29" s="19">
-        <v>5924977</v>
+        <v>5873399</v>
       </c>
       <c r="AT29" s="19">
-        <v>4562097</v>
+        <v>6560085</v>
       </c>
       <c r="AU29" s="19">
-        <v>5873399</v>
+        <v>6212107</v>
       </c>
       <c r="AV29" s="19">
-        <v>6560085</v>
+        <v>6904879</v>
       </c>
       <c r="AW29" s="19">
-        <v>6212107</v>
+        <v>4239402</v>
       </c>
       <c r="AX29" s="19">
-        <v>6904879</v>
+        <v>3110879</v>
       </c>
       <c r="AY29" s="19">
-        <v>4239402</v>
+        <v>6872127</v>
       </c>
       <c r="AZ29" s="19">
-        <v>3110879</v>
+        <v>6855975</v>
       </c>
       <c r="BA29" s="19">
-        <v>6872127</v>
+        <v>4868148</v>
       </c>
       <c r="BB29" s="19">
-        <v>6855975</v>
+        <v>6335473</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4737,14 +4737,14 @@
       <c r="AK37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL37" s="9" t="s">
-        <v>58</v>
+      <c r="AL37" s="9">
+        <v>1989681</v>
       </c>
       <c r="AM37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN37" s="9">
-        <v>1989681</v>
+      <c r="AN37" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO37" s="9" t="s">
         <v>58</v>
@@ -4824,128 +4824,128 @@
       <c r="M38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>58</v>
+      <c r="N38" s="13">
+        <v>1320729</v>
+      </c>
+      <c r="O38" s="13">
+        <v>2580766</v>
       </c>
       <c r="P38" s="13">
-        <v>1320729</v>
+        <v>3783148</v>
       </c>
       <c r="Q38" s="13">
-        <v>2580766</v>
+        <v>4173866</v>
       </c>
       <c r="R38" s="13">
-        <v>3783148</v>
+        <v>3130742</v>
       </c>
       <c r="S38" s="13">
-        <v>4173866</v>
+        <v>3023239</v>
       </c>
       <c r="T38" s="13">
-        <v>3130742</v>
+        <v>3779960</v>
       </c>
       <c r="U38" s="13">
-        <v>3023239</v>
+        <v>2779130</v>
       </c>
       <c r="V38" s="13">
-        <v>3779960</v>
+        <v>1564164</v>
       </c>
       <c r="W38" s="13">
-        <v>2779130</v>
+        <v>3044748</v>
       </c>
       <c r="X38" s="13">
-        <v>1564164</v>
+        <v>4107914</v>
       </c>
       <c r="Y38" s="13">
-        <v>3044748</v>
+        <v>2394796</v>
       </c>
       <c r="Z38" s="13">
-        <v>4107914</v>
+        <v>1566309</v>
       </c>
       <c r="AA38" s="13">
-        <v>2394796</v>
+        <v>2515494</v>
       </c>
       <c r="AB38" s="13">
-        <v>1566309</v>
+        <v>2682261</v>
       </c>
       <c r="AC38" s="13">
-        <v>2515494</v>
+        <v>3193511</v>
       </c>
       <c r="AD38" s="13">
-        <v>2682261</v>
+        <v>3698752</v>
       </c>
       <c r="AE38" s="13">
-        <v>3193511</v>
+        <v>4100440</v>
       </c>
       <c r="AF38" s="13">
-        <v>3698752</v>
+        <v>1870160</v>
       </c>
       <c r="AG38" s="13">
-        <v>4100440</v>
+        <v>2479481</v>
       </c>
       <c r="AH38" s="13">
-        <v>1870160</v>
+        <v>2914177</v>
       </c>
       <c r="AI38" s="13">
-        <v>2479481</v>
+        <v>3038566</v>
       </c>
       <c r="AJ38" s="13">
-        <v>2914177</v>
+        <v>3595991</v>
       </c>
       <c r="AK38" s="13">
-        <v>3038566</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>3595991</v>
+        <v>3609528</v>
+      </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM38" s="13">
-        <v>3609528</v>
-      </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
+        <v>3496200</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>4200541</v>
       </c>
       <c r="AO38" s="13">
-        <v>3496200</v>
+        <v>2815617</v>
       </c>
       <c r="AP38" s="13">
-        <v>4200541</v>
+        <v>3081726</v>
       </c>
       <c r="AQ38" s="13">
-        <v>2815617</v>
+        <v>2968577</v>
       </c>
       <c r="AR38" s="13">
-        <v>3081726</v>
+        <v>2765128</v>
       </c>
       <c r="AS38" s="13">
-        <v>2968577</v>
+        <v>3309430</v>
       </c>
       <c r="AT38" s="13">
-        <v>2765128</v>
+        <v>3495912</v>
       </c>
       <c r="AU38" s="13">
-        <v>3309430</v>
+        <v>3162058</v>
       </c>
       <c r="AV38" s="13">
-        <v>3495912</v>
+        <v>3290502</v>
       </c>
       <c r="AW38" s="13">
-        <v>3162058</v>
+        <v>2728327</v>
       </c>
       <c r="AX38" s="13">
-        <v>3290502</v>
+        <v>1456757</v>
       </c>
       <c r="AY38" s="13">
-        <v>2728327</v>
+        <v>3698111</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1456757</v>
+        <v>4195582</v>
       </c>
       <c r="BA38" s="13">
-        <v>3698111</v>
+        <v>2690664</v>
       </c>
       <c r="BB38" s="13">
-        <v>4195582</v>
+        <v>3440574</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5055,14 +5055,14 @@
       <c r="AK39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="9" t="s">
-        <v>58</v>
+      <c r="AL39" s="9">
+        <v>660344</v>
       </c>
       <c r="AM39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="9">
-        <v>660344</v>
+      <c r="AN39" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO39" s="9" t="s">
         <v>58</v>
@@ -5142,128 +5142,128 @@
       <c r="M40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>58</v>
+      <c r="N40" s="13">
+        <v>130340</v>
+      </c>
+      <c r="O40" s="13">
+        <v>323957</v>
       </c>
       <c r="P40" s="13">
-        <v>130340</v>
+        <v>908037</v>
       </c>
       <c r="Q40" s="13">
-        <v>323957</v>
+        <v>693492</v>
       </c>
       <c r="R40" s="13">
-        <v>908037</v>
+        <v>545746</v>
       </c>
       <c r="S40" s="13">
-        <v>693492</v>
+        <v>715714</v>
       </c>
       <c r="T40" s="13">
-        <v>545746</v>
+        <v>671640</v>
       </c>
       <c r="U40" s="13">
-        <v>715714</v>
+        <v>585828</v>
       </c>
       <c r="V40" s="13">
-        <v>671640</v>
+        <v>305848</v>
       </c>
       <c r="W40" s="13">
-        <v>585828</v>
+        <v>1092631</v>
       </c>
       <c r="X40" s="13">
-        <v>305848</v>
+        <v>1560939</v>
       </c>
       <c r="Y40" s="13">
-        <v>1092631</v>
+        <v>550735</v>
       </c>
       <c r="Z40" s="13">
-        <v>1560939</v>
+        <v>256651</v>
       </c>
       <c r="AA40" s="13">
-        <v>550735</v>
+        <v>852995</v>
       </c>
       <c r="AB40" s="13">
-        <v>256651</v>
+        <v>841409</v>
       </c>
       <c r="AC40" s="13">
-        <v>852995</v>
+        <v>728770</v>
       </c>
       <c r="AD40" s="13">
-        <v>841409</v>
+        <v>513533</v>
       </c>
       <c r="AE40" s="13">
-        <v>728770</v>
+        <v>668065</v>
       </c>
       <c r="AF40" s="13">
-        <v>513533</v>
+        <v>1301462</v>
       </c>
       <c r="AG40" s="13">
-        <v>668065</v>
+        <v>779020</v>
       </c>
       <c r="AH40" s="13">
-        <v>1301462</v>
+        <v>851136</v>
       </c>
       <c r="AI40" s="13">
-        <v>779020</v>
+        <v>561149</v>
       </c>
       <c r="AJ40" s="13">
-        <v>851136</v>
+        <v>1152560</v>
       </c>
       <c r="AK40" s="13">
-        <v>561149</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>1152560</v>
+        <v>574133</v>
+      </c>
+      <c r="AL40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM40" s="13">
-        <v>574133</v>
-      </c>
-      <c r="AN40" s="13" t="s">
-        <v>58</v>
+        <v>1140687</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>1249883</v>
       </c>
       <c r="AO40" s="13">
-        <v>1140687</v>
+        <v>1343740</v>
       </c>
       <c r="AP40" s="13">
-        <v>1249883</v>
+        <v>1123452</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1343740</v>
+        <v>1408978</v>
       </c>
       <c r="AR40" s="13">
-        <v>1123452</v>
+        <v>893959</v>
       </c>
       <c r="AS40" s="13">
-        <v>1408978</v>
+        <v>1763718</v>
       </c>
       <c r="AT40" s="13">
-        <v>893959</v>
+        <v>1493027</v>
       </c>
       <c r="AU40" s="13">
-        <v>1763718</v>
+        <v>1226078</v>
       </c>
       <c r="AV40" s="13">
-        <v>1493027</v>
+        <v>1103063</v>
       </c>
       <c r="AW40" s="13">
-        <v>1226078</v>
+        <v>897149</v>
       </c>
       <c r="AX40" s="13">
-        <v>1103063</v>
+        <v>483239</v>
       </c>
       <c r="AY40" s="13">
-        <v>897149</v>
+        <v>1066962</v>
       </c>
       <c r="AZ40" s="13">
-        <v>483239</v>
+        <v>1180029</v>
       </c>
       <c r="BA40" s="13">
-        <v>1066962</v>
+        <v>638468</v>
       </c>
       <c r="BB40" s="13">
-        <v>1180029</v>
+        <v>600597</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5373,14 +5373,14 @@
       <c r="AK41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL41" s="9" t="s">
-        <v>58</v>
+      <c r="AL41" s="9">
+        <v>858394</v>
       </c>
       <c r="AM41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN41" s="9">
-        <v>858394</v>
+      <c r="AN41" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO41" s="9" t="s">
         <v>58</v>
@@ -5460,128 +5460,128 @@
       <c r="M42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>58</v>
+      <c r="N42" s="13">
+        <v>727155</v>
+      </c>
+      <c r="O42" s="13">
+        <v>1758207</v>
       </c>
       <c r="P42" s="13">
-        <v>727155</v>
+        <v>1428328</v>
       </c>
       <c r="Q42" s="13">
-        <v>1758207</v>
+        <v>1347200</v>
       </c>
       <c r="R42" s="13">
-        <v>1428328</v>
+        <v>1194794</v>
       </c>
       <c r="S42" s="13">
-        <v>1347200</v>
+        <v>1212186</v>
       </c>
       <c r="T42" s="13">
-        <v>1194794</v>
+        <v>1505135</v>
       </c>
       <c r="U42" s="13">
-        <v>1212186</v>
+        <v>1275979</v>
       </c>
       <c r="V42" s="13">
-        <v>1505135</v>
+        <v>808366</v>
       </c>
       <c r="W42" s="13">
-        <v>1275979</v>
+        <v>1354994</v>
       </c>
       <c r="X42" s="13">
-        <v>808366</v>
+        <v>1657995</v>
       </c>
       <c r="Y42" s="13">
-        <v>1354994</v>
+        <v>820801</v>
       </c>
       <c r="Z42" s="13">
-        <v>1657995</v>
+        <v>794112</v>
       </c>
       <c r="AA42" s="13">
-        <v>820801</v>
+        <v>1357659</v>
       </c>
       <c r="AB42" s="13">
-        <v>794112</v>
+        <v>1241976</v>
       </c>
       <c r="AC42" s="13">
-        <v>1357659</v>
+        <v>905633</v>
       </c>
       <c r="AD42" s="13">
-        <v>1241976</v>
+        <v>949622</v>
       </c>
       <c r="AE42" s="13">
-        <v>905633</v>
+        <v>752521</v>
       </c>
       <c r="AF42" s="13">
-        <v>949622</v>
+        <v>1502793</v>
       </c>
       <c r="AG42" s="13">
-        <v>752521</v>
+        <v>1217963</v>
       </c>
       <c r="AH42" s="13">
-        <v>1502793</v>
+        <v>1151102</v>
       </c>
       <c r="AI42" s="13">
-        <v>1217963</v>
+        <v>876643</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1151102</v>
+        <v>1478014</v>
       </c>
       <c r="AK42" s="13">
-        <v>876643</v>
-      </c>
-      <c r="AL42" s="13">
-        <v>1478014</v>
+        <v>1063891</v>
+      </c>
+      <c r="AL42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM42" s="13">
-        <v>1063891</v>
-      </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
+        <v>1373302</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>1538347</v>
       </c>
       <c r="AO42" s="13">
-        <v>1373302</v>
+        <v>914425</v>
       </c>
       <c r="AP42" s="13">
-        <v>1538347</v>
+        <v>1080451</v>
       </c>
       <c r="AQ42" s="13">
-        <v>914425</v>
+        <v>1243693</v>
       </c>
       <c r="AR42" s="13">
-        <v>1080451</v>
+        <v>1048105</v>
       </c>
       <c r="AS42" s="13">
-        <v>1243693</v>
+        <v>1427268</v>
       </c>
       <c r="AT42" s="13">
-        <v>1048105</v>
+        <v>1508550</v>
       </c>
       <c r="AU42" s="13">
-        <v>1427268</v>
+        <v>1100051</v>
       </c>
       <c r="AV42" s="13">
-        <v>1508550</v>
+        <v>1773172</v>
       </c>
       <c r="AW42" s="13">
-        <v>1100051</v>
+        <v>1525691</v>
       </c>
       <c r="AX42" s="13">
-        <v>1773172</v>
+        <v>1070652</v>
       </c>
       <c r="AY42" s="13">
-        <v>1525691</v>
+        <v>1848416</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1070652</v>
+        <v>1562506</v>
       </c>
       <c r="BA42" s="13">
-        <v>1848416</v>
+        <v>1967049</v>
       </c>
       <c r="BB42" s="13">
-        <v>1562506</v>
+        <v>1288536</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5618,127 +5618,127 @@
         <v>0</v>
       </c>
       <c r="N43" s="15">
-        <v>0</v>
+        <v>2178224</v>
       </c>
       <c r="O43" s="15">
-        <v>0</v>
+        <v>4662930</v>
       </c>
       <c r="P43" s="15">
-        <v>2178224</v>
+        <v>6119513</v>
       </c>
       <c r="Q43" s="15">
-        <v>4662930</v>
+        <v>6214558</v>
       </c>
       <c r="R43" s="15">
-        <v>6119513</v>
+        <v>4871282</v>
       </c>
       <c r="S43" s="15">
-        <v>6214558</v>
+        <v>4951139</v>
       </c>
       <c r="T43" s="15">
-        <v>4871282</v>
+        <v>5956735</v>
       </c>
       <c r="U43" s="15">
-        <v>4951139</v>
+        <v>4640937</v>
       </c>
       <c r="V43" s="15">
-        <v>5956735</v>
+        <v>2678378</v>
       </c>
       <c r="W43" s="15">
-        <v>4640937</v>
+        <v>5492373</v>
       </c>
       <c r="X43" s="15">
-        <v>2678378</v>
+        <v>7326848</v>
       </c>
       <c r="Y43" s="15">
-        <v>5492373</v>
+        <v>3766332</v>
       </c>
       <c r="Z43" s="15">
-        <v>7326848</v>
+        <v>2617072</v>
       </c>
       <c r="AA43" s="15">
-        <v>3766332</v>
+        <v>4726148</v>
       </c>
       <c r="AB43" s="15">
-        <v>2617072</v>
+        <v>4765646</v>
       </c>
       <c r="AC43" s="15">
-        <v>4726148</v>
+        <v>4827914</v>
       </c>
       <c r="AD43" s="15">
-        <v>4765646</v>
+        <v>5161907</v>
       </c>
       <c r="AE43" s="15">
-        <v>4827914</v>
+        <v>5521026</v>
       </c>
       <c r="AF43" s="15">
-        <v>5161907</v>
+        <v>4674415</v>
       </c>
       <c r="AG43" s="15">
-        <v>5521026</v>
+        <v>4476464</v>
       </c>
       <c r="AH43" s="15">
-        <v>4674415</v>
+        <v>4916415</v>
       </c>
       <c r="AI43" s="15">
-        <v>4476464</v>
+        <v>4476358</v>
       </c>
       <c r="AJ43" s="15">
-        <v>4916415</v>
+        <v>6226565</v>
       </c>
       <c r="AK43" s="15">
-        <v>4476358</v>
+        <v>5247552</v>
       </c>
       <c r="AL43" s="15">
-        <v>6226565</v>
+        <v>3508419</v>
       </c>
       <c r="AM43" s="15">
-        <v>5247552</v>
+        <v>6010189</v>
       </c>
       <c r="AN43" s="15">
-        <v>3508419</v>
+        <v>6988771</v>
       </c>
       <c r="AO43" s="15">
-        <v>6010189</v>
+        <v>5073782</v>
       </c>
       <c r="AP43" s="15">
-        <v>6988771</v>
+        <v>5285629</v>
       </c>
       <c r="AQ43" s="15">
-        <v>5073782</v>
+        <v>5621248</v>
       </c>
       <c r="AR43" s="15">
-        <v>5285629</v>
+        <v>4707192</v>
       </c>
       <c r="AS43" s="15">
-        <v>5621248</v>
+        <v>6500416</v>
       </c>
       <c r="AT43" s="15">
-        <v>4707192</v>
+        <v>6497489</v>
       </c>
       <c r="AU43" s="15">
-        <v>6500416</v>
+        <v>5488187</v>
       </c>
       <c r="AV43" s="15">
-        <v>6497489</v>
+        <v>6166737</v>
       </c>
       <c r="AW43" s="15">
-        <v>5488187</v>
+        <v>5151167</v>
       </c>
       <c r="AX43" s="15">
-        <v>6166737</v>
+        <v>3010648</v>
       </c>
       <c r="AY43" s="15">
-        <v>5151167</v>
+        <v>6613489</v>
       </c>
       <c r="AZ43" s="15">
-        <v>3010648</v>
+        <v>6938117</v>
       </c>
       <c r="BA43" s="15">
-        <v>6613489</v>
+        <v>5296181</v>
       </c>
       <c r="BB43" s="15">
-        <v>6938117</v>
+        <v>5329707</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5905,14 +5905,14 @@
       <c r="AK45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL45" s="9" t="s">
-        <v>58</v>
+      <c r="AL45" s="9">
+        <v>4128</v>
       </c>
       <c r="AM45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="9">
-        <v>4128</v>
+      <c r="AN45" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO45" s="9" t="s">
         <v>58</v>
@@ -5992,128 +5992,128 @@
       <c r="M46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>58</v>
+      <c r="N46" s="13">
+        <v>9512</v>
+      </c>
+      <c r="O46" s="13">
+        <v>3420</v>
       </c>
       <c r="P46" s="13">
-        <v>9512</v>
+        <v>46668</v>
       </c>
       <c r="Q46" s="13">
-        <v>3420</v>
+        <v>38040</v>
       </c>
       <c r="R46" s="13">
-        <v>46668</v>
+        <v>17832</v>
       </c>
       <c r="S46" s="13">
-        <v>38040</v>
+        <v>41992</v>
       </c>
       <c r="T46" s="13">
-        <v>17832</v>
+        <v>25514</v>
       </c>
       <c r="U46" s="13">
-        <v>41992</v>
+        <v>69006</v>
       </c>
       <c r="V46" s="13">
-        <v>25514</v>
+        <v>57796</v>
       </c>
       <c r="W46" s="13">
-        <v>69006</v>
+        <v>23710</v>
       </c>
       <c r="X46" s="13">
-        <v>57796</v>
+        <v>22606</v>
       </c>
       <c r="Y46" s="13">
-        <v>23710</v>
+        <v>63876</v>
       </c>
       <c r="Z46" s="13">
-        <v>22606</v>
+        <v>8460</v>
       </c>
       <c r="AA46" s="13">
-        <v>63876</v>
+        <v>56280</v>
       </c>
       <c r="AB46" s="13">
-        <v>8460</v>
+        <v>75936</v>
       </c>
       <c r="AC46" s="13">
-        <v>56280</v>
+        <v>6156</v>
       </c>
       <c r="AD46" s="13">
-        <v>75936</v>
+        <v>29676</v>
       </c>
       <c r="AE46" s="13">
-        <v>6156</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>29676</v>
+        <v>17112</v>
+      </c>
+      <c r="AF46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG46" s="13">
-        <v>17112</v>
-      </c>
-      <c r="AH46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI46" s="13">
         <v>51469</v>
       </c>
-      <c r="AJ46" s="13">
+      <c r="AH46" s="13">
         <v>19463</v>
       </c>
-      <c r="AK46" s="13" t="s">
-        <v>58</v>
+      <c r="AI46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK46" s="13">
+        <v>159940</v>
       </c>
       <c r="AL46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM46" s="13">
-        <v>159940</v>
-      </c>
-      <c r="AN46" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="13">
+        <v>57384</v>
       </c>
       <c r="AO46" s="13">
-        <v>0</v>
+        <v>7116</v>
       </c>
       <c r="AP46" s="13">
-        <v>57384</v>
+        <v>13188</v>
       </c>
       <c r="AQ46" s="13">
-        <v>7116</v>
+        <v>26352</v>
       </c>
       <c r="AR46" s="13">
-        <v>13188</v>
+        <v>55026</v>
       </c>
       <c r="AS46" s="13">
-        <v>26352</v>
+        <v>48648</v>
       </c>
       <c r="AT46" s="13">
-        <v>55026</v>
+        <v>52604</v>
       </c>
       <c r="AU46" s="13">
-        <v>48648</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="13">
-        <v>52604</v>
+        <v>18888</v>
       </c>
       <c r="AW46" s="13">
-        <v>0</v>
+        <v>21496</v>
       </c>
       <c r="AX46" s="13">
-        <v>18888</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="13">
-        <v>21496</v>
+        <v>13584</v>
       </c>
       <c r="AZ46" s="13">
-        <v>0</v>
+        <v>79536</v>
       </c>
       <c r="BA46" s="13">
-        <v>13584</v>
+        <v>100822</v>
       </c>
       <c r="BB46" s="13">
-        <v>79536</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6223,14 +6223,14 @@
       <c r="AK47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL47" s="9" t="s">
-        <v>58</v>
+      <c r="AL47" s="9">
+        <v>3768</v>
       </c>
       <c r="AM47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN47" s="9">
-        <v>3768</v>
+      <c r="AN47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO47" s="9" t="s">
         <v>58</v>
@@ -6310,110 +6310,110 @@
       <c r="M48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>58</v>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+      <c r="O48" s="13">
+        <v>3840</v>
       </c>
       <c r="P48" s="13">
         <v>0</v>
       </c>
       <c r="Q48" s="13">
-        <v>3840</v>
+        <v>14919</v>
       </c>
       <c r="R48" s="13">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="S48" s="13">
-        <v>14919</v>
+        <v>2143</v>
       </c>
       <c r="T48" s="13">
-        <v>1076</v>
+        <v>6010</v>
       </c>
       <c r="U48" s="13">
-        <v>2143</v>
+        <v>9524</v>
       </c>
       <c r="V48" s="13">
-        <v>6010</v>
+        <v>19521</v>
       </c>
       <c r="W48" s="13">
-        <v>9524</v>
+        <v>5667</v>
       </c>
       <c r="X48" s="13">
-        <v>19521</v>
+        <v>4830</v>
       </c>
       <c r="Y48" s="13">
-        <v>5667</v>
+        <v>11120</v>
       </c>
       <c r="Z48" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="13">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="13">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AC48" s="13">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AD48" s="13">
-        <v>22619</v>
+        <v>5365</v>
       </c>
       <c r="AE48" s="13">
-        <v>144</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>5365</v>
+        <v>3311</v>
+      </c>
+      <c r="AF48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG48" s="13">
-        <v>3311</v>
-      </c>
-      <c r="AH48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI48" s="13">
         <v>4201</v>
       </c>
+      <c r="AH48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL48" s="13">
         <v>74139</v>
       </c>
+      <c r="AK48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM48" s="13">
         <v>0</v>
       </c>
-      <c r="AN48" s="13" t="s">
-        <v>58</v>
+      <c r="AN48" s="13">
+        <v>9000</v>
       </c>
       <c r="AO48" s="13">
-        <v>0</v>
+        <v>11508</v>
       </c>
       <c r="AP48" s="13">
-        <v>9000</v>
+        <v>26016</v>
       </c>
       <c r="AQ48" s="13">
-        <v>11508</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="13">
-        <v>26016</v>
+        <v>9144</v>
       </c>
       <c r="AS48" s="13">
-        <v>0</v>
+        <v>9060</v>
       </c>
       <c r="AT48" s="13">
-        <v>9144</v>
+        <v>18632</v>
       </c>
       <c r="AU48" s="13">
-        <v>9060</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="13">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="13">
         <v>0</v>
@@ -6422,16 +6422,16 @@
         <v>0</v>
       </c>
       <c r="AY48" s="13">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AZ48" s="13">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="BA48" s="13">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>2880</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6541,14 +6541,14 @@
       <c r="AK49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL49" s="9" t="s">
-        <v>58</v>
+      <c r="AL49" s="9">
+        <v>1044</v>
       </c>
       <c r="AM49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN49" s="9">
-        <v>1044</v>
+      <c r="AN49" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AO49" s="9" t="s">
         <v>58</v>
@@ -6628,128 +6628,128 @@
       <c r="M50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>58</v>
+      <c r="N50" s="13">
+        <v>1860</v>
+      </c>
+      <c r="O50" s="13">
+        <v>14760</v>
       </c>
       <c r="P50" s="13">
-        <v>1860</v>
+        <v>40272</v>
       </c>
       <c r="Q50" s="13">
-        <v>14760</v>
+        <v>30360</v>
       </c>
       <c r="R50" s="13">
-        <v>40272</v>
+        <v>17004</v>
       </c>
       <c r="S50" s="13">
-        <v>30360</v>
+        <v>29712</v>
       </c>
       <c r="T50" s="13">
-        <v>17004</v>
+        <v>22037</v>
       </c>
       <c r="U50" s="13">
-        <v>29712</v>
+        <v>59264</v>
       </c>
       <c r="V50" s="13">
-        <v>22037</v>
+        <v>37755</v>
       </c>
       <c r="W50" s="13">
-        <v>59264</v>
+        <v>20332</v>
       </c>
       <c r="X50" s="13">
-        <v>37755</v>
+        <v>23272</v>
       </c>
       <c r="Y50" s="13">
-        <v>20332</v>
+        <v>24784</v>
       </c>
       <c r="Z50" s="13">
-        <v>23272</v>
+        <v>7296</v>
       </c>
       <c r="AA50" s="13">
-        <v>24784</v>
+        <v>18120</v>
       </c>
       <c r="AB50" s="13">
-        <v>7296</v>
+        <v>84312</v>
       </c>
       <c r="AC50" s="13">
-        <v>18120</v>
+        <v>4296</v>
       </c>
       <c r="AD50" s="13">
-        <v>84312</v>
+        <v>9732</v>
       </c>
       <c r="AE50" s="13">
-        <v>4296</v>
-      </c>
-      <c r="AF50" s="13">
+        <v>31524</v>
+      </c>
+      <c r="AF50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>89967</v>
+      </c>
+      <c r="AH50" s="13">
+        <v>7441</v>
+      </c>
+      <c r="AI50" s="13">
+        <v>38500</v>
+      </c>
+      <c r="AJ50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK50" s="13">
+        <v>69784</v>
+      </c>
+      <c r="AL50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="13">
+        <v>76776</v>
+      </c>
+      <c r="AO50" s="13">
         <v>9732</v>
       </c>
-      <c r="AG50" s="13">
-        <v>31524</v>
-      </c>
-      <c r="AH50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI50" s="13">
-        <v>89967</v>
-      </c>
-      <c r="AJ50" s="13">
-        <v>7441</v>
-      </c>
-      <c r="AK50" s="13">
-        <v>38500</v>
-      </c>
-      <c r="AL50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM50" s="13">
-        <v>69784</v>
-      </c>
-      <c r="AN50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO50" s="13">
-        <v>0</v>
-      </c>
       <c r="AP50" s="13">
-        <v>76776</v>
+        <v>23924</v>
       </c>
       <c r="AQ50" s="13">
-        <v>9732</v>
+        <v>7848</v>
       </c>
       <c r="AR50" s="13">
-        <v>23924</v>
+        <v>50850</v>
       </c>
       <c r="AS50" s="13">
-        <v>7848</v>
+        <v>54240</v>
       </c>
       <c r="AT50" s="13">
-        <v>50850</v>
+        <v>62336</v>
       </c>
       <c r="AU50" s="13">
-        <v>54240</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="13">
-        <v>62336</v>
+        <v>29168</v>
       </c>
       <c r="AW50" s="13">
-        <v>0</v>
+        <v>57688</v>
       </c>
       <c r="AX50" s="13">
-        <v>29168</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="13">
-        <v>57688</v>
+        <v>9000</v>
       </c>
       <c r="AZ50" s="13">
-        <v>0</v>
+        <v>132637</v>
       </c>
       <c r="BA50" s="13">
-        <v>9000</v>
+        <v>59012</v>
       </c>
       <c r="BB50" s="13">
-        <v>132637</v>
+        <v>86090</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6786,127 +6786,127 @@
         <v>0</v>
       </c>
       <c r="N51" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="O51" s="15">
-        <v>0</v>
+        <v>22020</v>
       </c>
       <c r="P51" s="15">
-        <v>11372</v>
+        <v>86940</v>
       </c>
       <c r="Q51" s="15">
-        <v>22020</v>
+        <v>83319</v>
       </c>
       <c r="R51" s="15">
-        <v>86940</v>
+        <v>35912</v>
       </c>
       <c r="S51" s="15">
-        <v>83319</v>
+        <v>73847</v>
       </c>
       <c r="T51" s="15">
-        <v>35912</v>
+        <v>53561</v>
       </c>
       <c r="U51" s="15">
-        <v>73847</v>
+        <v>137794</v>
       </c>
       <c r="V51" s="15">
-        <v>53561</v>
+        <v>115072</v>
       </c>
       <c r="W51" s="15">
-        <v>137794</v>
+        <v>49709</v>
       </c>
       <c r="X51" s="15">
-        <v>115072</v>
+        <v>50708</v>
       </c>
       <c r="Y51" s="15">
-        <v>49709</v>
+        <v>99780</v>
       </c>
       <c r="Z51" s="15">
-        <v>50708</v>
+        <v>15756</v>
       </c>
       <c r="AA51" s="15">
-        <v>99780</v>
+        <v>74400</v>
       </c>
       <c r="AB51" s="15">
-        <v>15756</v>
+        <v>182867</v>
       </c>
       <c r="AC51" s="15">
-        <v>74400</v>
+        <v>10596</v>
       </c>
       <c r="AD51" s="15">
-        <v>182867</v>
+        <v>44773</v>
       </c>
       <c r="AE51" s="15">
-        <v>10596</v>
+        <v>51947</v>
       </c>
       <c r="AF51" s="15">
-        <v>44773</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="15">
-        <v>51947</v>
+        <v>145637</v>
       </c>
       <c r="AH51" s="15">
-        <v>0</v>
+        <v>26904</v>
       </c>
       <c r="AI51" s="15">
-        <v>145637</v>
+        <v>38500</v>
       </c>
       <c r="AJ51" s="15">
-        <v>26904</v>
+        <v>74139</v>
       </c>
       <c r="AK51" s="15">
-        <v>38500</v>
+        <v>229724</v>
       </c>
       <c r="AL51" s="15">
-        <v>74139</v>
+        <v>8940</v>
       </c>
       <c r="AM51" s="15">
-        <v>229724</v>
+        <v>0</v>
       </c>
       <c r="AN51" s="15">
-        <v>8940</v>
+        <v>143160</v>
       </c>
       <c r="AO51" s="15">
-        <v>0</v>
+        <v>28356</v>
       </c>
       <c r="AP51" s="15">
-        <v>143160</v>
+        <v>63128</v>
       </c>
       <c r="AQ51" s="15">
-        <v>28356</v>
+        <v>34200</v>
       </c>
       <c r="AR51" s="15">
-        <v>63128</v>
+        <v>115020</v>
       </c>
       <c r="AS51" s="15">
-        <v>34200</v>
+        <v>111948</v>
       </c>
       <c r="AT51" s="15">
-        <v>115020</v>
+        <v>133572</v>
       </c>
       <c r="AU51" s="15">
-        <v>111948</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="15">
-        <v>133572</v>
+        <v>48056</v>
       </c>
       <c r="AW51" s="15">
-        <v>0</v>
+        <v>79184</v>
       </c>
       <c r="AX51" s="15">
-        <v>48056</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="15">
-        <v>79184</v>
+        <v>24024</v>
       </c>
       <c r="AZ51" s="15">
-        <v>0</v>
+        <v>215053</v>
       </c>
       <c r="BA51" s="15">
-        <v>24024</v>
+        <v>159834</v>
       </c>
       <c r="BB51" s="15">
-        <v>215053</v>
+        <v>189890</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7371,127 +7371,127 @@
         <v>0</v>
       </c>
       <c r="N56" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="O56" s="19">
-        <v>0</v>
+        <v>4684950</v>
       </c>
       <c r="P56" s="19">
-        <v>2189596</v>
+        <v>6206453</v>
       </c>
       <c r="Q56" s="19">
-        <v>4684950</v>
+        <v>6297877</v>
       </c>
       <c r="R56" s="19">
-        <v>6206453</v>
+        <v>4907194</v>
       </c>
       <c r="S56" s="19">
-        <v>6297877</v>
+        <v>5024986</v>
       </c>
       <c r="T56" s="19">
-        <v>4907194</v>
+        <v>6010296</v>
       </c>
       <c r="U56" s="19">
-        <v>5024986</v>
+        <v>4778731</v>
       </c>
       <c r="V56" s="19">
-        <v>6010296</v>
+        <v>2793450</v>
       </c>
       <c r="W56" s="19">
-        <v>4778731</v>
+        <v>5542082</v>
       </c>
       <c r="X56" s="19">
-        <v>2793450</v>
+        <v>7377556</v>
       </c>
       <c r="Y56" s="19">
-        <v>5542082</v>
+        <v>3866112</v>
       </c>
       <c r="Z56" s="19">
-        <v>7377556</v>
+        <v>2632828</v>
       </c>
       <c r="AA56" s="19">
-        <v>3866112</v>
+        <v>4800548</v>
       </c>
       <c r="AB56" s="19">
-        <v>2632828</v>
+        <v>4948513</v>
       </c>
       <c r="AC56" s="19">
-        <v>4800548</v>
+        <v>4838510</v>
       </c>
       <c r="AD56" s="19">
-        <v>4948513</v>
+        <v>5206680</v>
       </c>
       <c r="AE56" s="19">
-        <v>4838510</v>
+        <v>5572973</v>
       </c>
       <c r="AF56" s="19">
-        <v>5206680</v>
+        <v>4674415</v>
       </c>
       <c r="AG56" s="19">
-        <v>5572973</v>
+        <v>4622101</v>
       </c>
       <c r="AH56" s="19">
-        <v>4674415</v>
+        <v>4943319</v>
       </c>
       <c r="AI56" s="19">
-        <v>4622101</v>
+        <v>4514858</v>
       </c>
       <c r="AJ56" s="19">
-        <v>4943319</v>
+        <v>6300704</v>
       </c>
       <c r="AK56" s="19">
-        <v>4514858</v>
+        <v>5477276</v>
       </c>
       <c r="AL56" s="19">
-        <v>6300704</v>
+        <v>3517359</v>
       </c>
       <c r="AM56" s="19">
-        <v>5477276</v>
+        <v>6010189</v>
       </c>
       <c r="AN56" s="19">
-        <v>3517359</v>
+        <v>7131931</v>
       </c>
       <c r="AO56" s="19">
-        <v>6010189</v>
+        <v>5102138</v>
       </c>
       <c r="AP56" s="19">
-        <v>7131931</v>
+        <v>5348757</v>
       </c>
       <c r="AQ56" s="19">
-        <v>5102138</v>
+        <v>5655448</v>
       </c>
       <c r="AR56" s="19">
-        <v>5348757</v>
+        <v>4822212</v>
       </c>
       <c r="AS56" s="19">
-        <v>5655448</v>
+        <v>6612364</v>
       </c>
       <c r="AT56" s="19">
-        <v>4822212</v>
+        <v>6631061</v>
       </c>
       <c r="AU56" s="19">
-        <v>6612364</v>
+        <v>5488187</v>
       </c>
       <c r="AV56" s="19">
-        <v>6631061</v>
+        <v>6214793</v>
       </c>
       <c r="AW56" s="19">
-        <v>5488187</v>
+        <v>5230351</v>
       </c>
       <c r="AX56" s="19">
-        <v>6214793</v>
+        <v>3010648</v>
       </c>
       <c r="AY56" s="19">
-        <v>5230351</v>
+        <v>6637513</v>
       </c>
       <c r="AZ56" s="19">
-        <v>3010648</v>
+        <v>7153170</v>
       </c>
       <c r="BA56" s="19">
-        <v>6637513</v>
+        <v>5456015</v>
       </c>
       <c r="BB56" s="19">
-        <v>7153170</v>
+        <v>5519597</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8018,128 +8018,128 @@
       <c r="M64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>58</v>
+      <c r="N64" s="9">
+        <v>165283</v>
+      </c>
+      <c r="O64" s="9">
+        <v>396066</v>
       </c>
       <c r="P64" s="9">
-        <v>165283</v>
+        <v>393106</v>
       </c>
       <c r="Q64" s="9">
-        <v>396066</v>
+        <v>592602</v>
       </c>
       <c r="R64" s="9">
-        <v>393106</v>
+        <v>514433</v>
       </c>
       <c r="S64" s="9">
-        <v>592602</v>
+        <v>553392</v>
       </c>
       <c r="T64" s="9">
-        <v>514433</v>
+        <v>593051</v>
       </c>
       <c r="U64" s="9">
-        <v>553392</v>
+        <v>596707</v>
       </c>
       <c r="V64" s="9">
-        <v>593051</v>
+        <v>507198</v>
       </c>
       <c r="W64" s="9">
-        <v>596707</v>
+        <v>618102</v>
       </c>
       <c r="X64" s="9">
-        <v>507198</v>
+        <v>908940</v>
       </c>
       <c r="Y64" s="9">
-        <v>618102</v>
+        <v>746452</v>
       </c>
       <c r="Z64" s="9">
-        <v>908940</v>
+        <v>346417</v>
       </c>
       <c r="AA64" s="9">
-        <v>746452</v>
+        <v>589789</v>
       </c>
       <c r="AB64" s="9">
-        <v>346417</v>
+        <v>605399</v>
       </c>
       <c r="AC64" s="9">
-        <v>589789</v>
+        <v>768772</v>
       </c>
       <c r="AD64" s="9">
-        <v>605399</v>
+        <v>791113</v>
       </c>
       <c r="AE64" s="9">
-        <v>768772</v>
+        <v>978070</v>
       </c>
       <c r="AF64" s="9">
-        <v>791113</v>
+        <v>520867</v>
       </c>
       <c r="AG64" s="9">
-        <v>978070</v>
+        <v>721711</v>
       </c>
       <c r="AH64" s="9">
-        <v>520867</v>
+        <v>701817</v>
       </c>
       <c r="AI64" s="9">
-        <v>721711</v>
+        <v>778548</v>
       </c>
       <c r="AJ64" s="9">
-        <v>701817</v>
+        <v>978172</v>
       </c>
       <c r="AK64" s="9">
-        <v>778548</v>
+        <v>888182</v>
       </c>
       <c r="AL64" s="9">
-        <v>978172</v>
+        <v>491503</v>
       </c>
       <c r="AM64" s="9">
-        <v>888182</v>
+        <v>975476</v>
       </c>
       <c r="AN64" s="9">
-        <v>491503</v>
+        <v>1253144</v>
       </c>
       <c r="AO64" s="9">
-        <v>975476</v>
+        <v>933931</v>
       </c>
       <c r="AP64" s="9">
-        <v>1253144</v>
+        <v>1027166</v>
       </c>
       <c r="AQ64" s="9">
-        <v>933931</v>
+        <v>1177383</v>
       </c>
       <c r="AR64" s="9">
-        <v>1027166</v>
+        <v>894249</v>
       </c>
       <c r="AS64" s="9">
-        <v>1177383</v>
+        <v>1217495</v>
       </c>
       <c r="AT64" s="9">
-        <v>894249</v>
+        <v>1278709</v>
       </c>
       <c r="AU64" s="9">
-        <v>1217495</v>
+        <v>1290144</v>
       </c>
       <c r="AV64" s="9">
-        <v>1278709</v>
+        <v>1240363</v>
       </c>
       <c r="AW64" s="9">
-        <v>1290144</v>
+        <v>1053367</v>
       </c>
       <c r="AX64" s="9">
-        <v>1240363</v>
+        <v>579998</v>
       </c>
       <c r="AY64" s="9">
-        <v>1053367</v>
+        <v>1526126</v>
       </c>
       <c r="AZ64" s="9">
-        <v>579998</v>
+        <v>1703062</v>
       </c>
       <c r="BA64" s="9">
-        <v>1526126</v>
+        <v>1284912</v>
       </c>
       <c r="BB64" s="9">
-        <v>1703062</v>
+        <v>1504923</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8177,128 +8177,128 @@
       <c r="M65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O65" s="13" t="s">
-        <v>58</v>
+      <c r="N65" s="13">
+        <v>27600</v>
+      </c>
+      <c r="O65" s="13">
+        <v>139228</v>
       </c>
       <c r="P65" s="13">
-        <v>27600</v>
+        <v>151990</v>
       </c>
       <c r="Q65" s="13">
-        <v>139228</v>
+        <v>165748</v>
       </c>
       <c r="R65" s="13">
-        <v>151990</v>
+        <v>176972</v>
       </c>
       <c r="S65" s="13">
-        <v>165748</v>
+        <v>227532</v>
       </c>
       <c r="T65" s="13">
-        <v>176972</v>
+        <v>217613</v>
       </c>
       <c r="U65" s="13">
-        <v>227532</v>
+        <v>223101</v>
       </c>
       <c r="V65" s="13">
-        <v>217613</v>
+        <v>137180</v>
       </c>
       <c r="W65" s="13">
-        <v>223101</v>
+        <v>306629</v>
       </c>
       <c r="X65" s="13">
-        <v>137180</v>
+        <v>457113</v>
       </c>
       <c r="Y65" s="13">
-        <v>306629</v>
+        <v>251125</v>
       </c>
       <c r="Z65" s="13">
-        <v>457113</v>
+        <v>102359</v>
       </c>
       <c r="AA65" s="13">
-        <v>251125</v>
+        <v>350389</v>
       </c>
       <c r="AB65" s="13">
-        <v>102359</v>
+        <v>281941</v>
       </c>
       <c r="AC65" s="13">
-        <v>350389</v>
+        <v>353573</v>
       </c>
       <c r="AD65" s="13">
-        <v>281941</v>
+        <v>192767</v>
       </c>
       <c r="AE65" s="13">
-        <v>353573</v>
+        <v>233404</v>
       </c>
       <c r="AF65" s="13">
-        <v>192767</v>
+        <v>439739</v>
       </c>
       <c r="AG65" s="13">
-        <v>233404</v>
+        <v>455549</v>
       </c>
       <c r="AH65" s="13">
-        <v>439739</v>
+        <v>429007</v>
       </c>
       <c r="AI65" s="13">
-        <v>455549</v>
+        <v>387230</v>
       </c>
       <c r="AJ65" s="13">
-        <v>429007</v>
+        <v>601535</v>
       </c>
       <c r="AK65" s="13">
-        <v>387230</v>
+        <v>380655</v>
       </c>
       <c r="AL65" s="13">
-        <v>601535</v>
+        <v>295706</v>
       </c>
       <c r="AM65" s="13">
-        <v>380655</v>
+        <v>677102</v>
       </c>
       <c r="AN65" s="13">
-        <v>295706</v>
+        <v>713538</v>
       </c>
       <c r="AO65" s="13">
-        <v>677102</v>
+        <v>767728</v>
       </c>
       <c r="AP65" s="13">
-        <v>713538</v>
+        <v>608822</v>
       </c>
       <c r="AQ65" s="13">
-        <v>767728</v>
+        <v>995123</v>
       </c>
       <c r="AR65" s="13">
-        <v>608822</v>
+        <v>495959</v>
       </c>
       <c r="AS65" s="13">
-        <v>995123</v>
+        <v>1065343</v>
       </c>
       <c r="AT65" s="13">
-        <v>495959</v>
+        <v>980075</v>
       </c>
       <c r="AU65" s="13">
-        <v>1065343</v>
+        <v>869999</v>
       </c>
       <c r="AV65" s="13">
-        <v>980075</v>
+        <v>751267</v>
       </c>
       <c r="AW65" s="13">
-        <v>869999</v>
+        <v>626799</v>
       </c>
       <c r="AX65" s="13">
-        <v>751267</v>
+        <v>389232</v>
       </c>
       <c r="AY65" s="13">
-        <v>626799</v>
+        <v>961606</v>
       </c>
       <c r="AZ65" s="13">
-        <v>389232</v>
+        <v>618777</v>
       </c>
       <c r="BA65" s="13">
-        <v>961606</v>
+        <v>626831</v>
       </c>
       <c r="BB65" s="13">
-        <v>618777</v>
+        <v>579359</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8336,128 +8336,128 @@
       <c r="M66" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>58</v>
+      <c r="N66" s="9">
+        <v>107356</v>
+      </c>
+      <c r="O66" s="9">
+        <v>264463</v>
       </c>
       <c r="P66" s="9">
-        <v>107356</v>
+        <v>312989</v>
       </c>
       <c r="Q66" s="9">
-        <v>264463</v>
+        <v>311214</v>
       </c>
       <c r="R66" s="9">
-        <v>312989</v>
+        <v>284377</v>
       </c>
       <c r="S66" s="9">
-        <v>311214</v>
+        <v>262582</v>
       </c>
       <c r="T66" s="9">
-        <v>284377</v>
+        <v>291013</v>
       </c>
       <c r="U66" s="9">
-        <v>262582</v>
+        <v>303673</v>
       </c>
       <c r="V66" s="9">
-        <v>291013</v>
+        <v>204875</v>
       </c>
       <c r="W66" s="9">
-        <v>303673</v>
+        <v>310919</v>
       </c>
       <c r="X66" s="9">
-        <v>204875</v>
+        <v>435566</v>
       </c>
       <c r="Y66" s="9">
-        <v>310919</v>
+        <v>322153</v>
       </c>
       <c r="Z66" s="9">
-        <v>435566</v>
+        <v>237020</v>
       </c>
       <c r="AA66" s="9">
-        <v>322153</v>
+        <v>443682</v>
       </c>
       <c r="AB66" s="9">
-        <v>237020</v>
+        <v>379317</v>
       </c>
       <c r="AC66" s="9">
-        <v>443682</v>
+        <v>361340</v>
       </c>
       <c r="AD66" s="9">
-        <v>379317</v>
+        <v>292867</v>
       </c>
       <c r="AE66" s="9">
-        <v>361340</v>
+        <v>211220</v>
       </c>
       <c r="AF66" s="9">
-        <v>292867</v>
+        <v>409790</v>
       </c>
       <c r="AG66" s="9">
-        <v>211220</v>
+        <v>380457</v>
       </c>
       <c r="AH66" s="9">
-        <v>409790</v>
+        <v>332376</v>
       </c>
       <c r="AI66" s="9">
-        <v>380457</v>
+        <v>296503</v>
       </c>
       <c r="AJ66" s="9">
-        <v>332376</v>
+        <v>531290</v>
       </c>
       <c r="AK66" s="9">
-        <v>296503</v>
+        <v>255696</v>
       </c>
       <c r="AL66" s="9">
-        <v>531290</v>
+        <v>241291</v>
       </c>
       <c r="AM66" s="9">
-        <v>255696</v>
+        <v>438589</v>
       </c>
       <c r="AN66" s="9">
-        <v>241291</v>
+        <v>494639</v>
       </c>
       <c r="AO66" s="9">
-        <v>438589</v>
+        <v>329574</v>
       </c>
       <c r="AP66" s="9">
-        <v>494639</v>
+        <v>346258</v>
       </c>
       <c r="AQ66" s="9">
-        <v>329574</v>
+        <v>421735</v>
       </c>
       <c r="AR66" s="9">
-        <v>346258</v>
+        <v>355816</v>
       </c>
       <c r="AS66" s="9">
-        <v>421735</v>
+        <v>432481</v>
       </c>
       <c r="AT66" s="9">
-        <v>355816</v>
+        <v>477529</v>
       </c>
       <c r="AU66" s="9">
-        <v>432481</v>
+        <v>473084</v>
       </c>
       <c r="AV66" s="9">
-        <v>477529</v>
+        <v>703851</v>
       </c>
       <c r="AW66" s="9">
-        <v>473084</v>
+        <v>611299</v>
       </c>
       <c r="AX66" s="9">
-        <v>703851</v>
+        <v>506450</v>
       </c>
       <c r="AY66" s="9">
-        <v>611299</v>
+        <v>948306</v>
       </c>
       <c r="AZ66" s="9">
-        <v>506450</v>
+        <v>1318990</v>
       </c>
       <c r="BA66" s="9">
-        <v>948306</v>
+        <v>1161671</v>
       </c>
       <c r="BB66" s="9">
-        <v>1318990</v>
+        <v>774297</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8494,127 +8494,127 @@
         <v>0</v>
       </c>
       <c r="N67" s="19">
-        <v>0</v>
+        <v>300239</v>
       </c>
       <c r="O67" s="19">
-        <v>0</v>
+        <v>799757</v>
       </c>
       <c r="P67" s="19">
-        <v>300239</v>
+        <v>858085</v>
       </c>
       <c r="Q67" s="19">
-        <v>799757</v>
+        <v>1069564</v>
       </c>
       <c r="R67" s="19">
-        <v>858085</v>
+        <v>975782</v>
       </c>
       <c r="S67" s="19">
-        <v>1069564</v>
+        <v>1043506</v>
       </c>
       <c r="T67" s="19">
-        <v>975782</v>
+        <v>1101677</v>
       </c>
       <c r="U67" s="19">
-        <v>1043506</v>
+        <v>1123481</v>
       </c>
       <c r="V67" s="19">
-        <v>1101677</v>
+        <v>849253</v>
       </c>
       <c r="W67" s="19">
-        <v>1123481</v>
+        <v>1235650</v>
       </c>
       <c r="X67" s="19">
-        <v>849253</v>
+        <v>1801619</v>
       </c>
       <c r="Y67" s="19">
-        <v>1235650</v>
+        <v>1319730</v>
       </c>
       <c r="Z67" s="19">
-        <v>1801619</v>
+        <v>685796</v>
       </c>
       <c r="AA67" s="19">
-        <v>1319730</v>
+        <v>1383860</v>
       </c>
       <c r="AB67" s="19">
-        <v>685796</v>
+        <v>1266657</v>
       </c>
       <c r="AC67" s="19">
-        <v>1383860</v>
+        <v>1483685</v>
       </c>
       <c r="AD67" s="19">
-        <v>1266657</v>
+        <v>1276747</v>
       </c>
       <c r="AE67" s="19">
-        <v>1483685</v>
+        <v>1422694</v>
       </c>
       <c r="AF67" s="19">
-        <v>1276747</v>
+        <v>1370396</v>
       </c>
       <c r="AG67" s="19">
-        <v>1422694</v>
+        <v>1557717</v>
       </c>
       <c r="AH67" s="19">
-        <v>1370396</v>
+        <v>1463200</v>
       </c>
       <c r="AI67" s="19">
-        <v>1557717</v>
+        <v>1462281</v>
       </c>
       <c r="AJ67" s="19">
-        <v>1463200</v>
+        <v>2110997</v>
       </c>
       <c r="AK67" s="19">
-        <v>1462281</v>
+        <v>1524533</v>
       </c>
       <c r="AL67" s="19">
-        <v>2110997</v>
+        <v>1028500</v>
       </c>
       <c r="AM67" s="19">
-        <v>1524533</v>
+        <v>2091167</v>
       </c>
       <c r="AN67" s="19">
-        <v>1028500</v>
+        <v>2461321</v>
       </c>
       <c r="AO67" s="19">
-        <v>2091167</v>
+        <v>2031233</v>
       </c>
       <c r="AP67" s="19">
-        <v>2461321</v>
+        <v>1982246</v>
       </c>
       <c r="AQ67" s="19">
-        <v>2031233</v>
+        <v>2594241</v>
       </c>
       <c r="AR67" s="19">
-        <v>1982246</v>
+        <v>1746024</v>
       </c>
       <c r="AS67" s="19">
-        <v>2594241</v>
+        <v>2715319</v>
       </c>
       <c r="AT67" s="19">
-        <v>1746024</v>
+        <v>2736313</v>
       </c>
       <c r="AU67" s="19">
-        <v>2715319</v>
+        <v>2633227</v>
       </c>
       <c r="AV67" s="19">
-        <v>2736313</v>
+        <v>2695481</v>
       </c>
       <c r="AW67" s="19">
-        <v>2633227</v>
+        <v>2291465</v>
       </c>
       <c r="AX67" s="19">
-        <v>2695481</v>
+        <v>1475680</v>
       </c>
       <c r="AY67" s="19">
-        <v>2291465</v>
+        <v>3436038</v>
       </c>
       <c r="AZ67" s="19">
-        <v>1475680</v>
+        <v>3640829</v>
       </c>
       <c r="BA67" s="19">
-        <v>3436038</v>
+        <v>3073414</v>
       </c>
       <c r="BB67" s="19">
-        <v>3640829</v>
+        <v>2858579</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8709,128 +8709,128 @@
       <c r="M69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N69" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>58</v>
+      <c r="N69" s="9">
+        <v>611</v>
+      </c>
+      <c r="O69" s="9">
+        <v>363</v>
       </c>
       <c r="P69" s="9">
-        <v>611</v>
+        <v>7629</v>
       </c>
       <c r="Q69" s="9">
-        <v>363</v>
+        <v>5786</v>
       </c>
       <c r="R69" s="9">
-        <v>7629</v>
+        <v>2560</v>
       </c>
       <c r="S69" s="9">
-        <v>5786</v>
+        <v>7795</v>
       </c>
       <c r="T69" s="9">
-        <v>2560</v>
+        <v>4849</v>
       </c>
       <c r="U69" s="9">
-        <v>7795</v>
+        <v>10837</v>
       </c>
       <c r="V69" s="9">
-        <v>4849</v>
+        <v>9206</v>
       </c>
       <c r="W69" s="9">
-        <v>10837</v>
+        <v>4070</v>
       </c>
       <c r="X69" s="9">
-        <v>9206</v>
+        <v>4422</v>
       </c>
       <c r="Y69" s="9">
-        <v>4070</v>
+        <v>10885</v>
       </c>
       <c r="Z69" s="9">
-        <v>4422</v>
+        <v>1501</v>
       </c>
       <c r="AA69" s="9">
-        <v>10885</v>
+        <v>9009</v>
       </c>
       <c r="AB69" s="9">
-        <v>1501</v>
+        <v>15333</v>
       </c>
       <c r="AC69" s="9">
-        <v>9009</v>
+        <v>1020</v>
       </c>
       <c r="AD69" s="9">
-        <v>15333</v>
+        <v>5279</v>
       </c>
       <c r="AE69" s="9">
-        <v>1020</v>
+        <v>3777</v>
       </c>
       <c r="AF69" s="9">
-        <v>5279</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="9">
-        <v>3777</v>
+        <v>9707</v>
       </c>
       <c r="AH69" s="9">
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="AI69" s="9">
-        <v>9707</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="9">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="9">
-        <v>0</v>
+        <v>37489</v>
       </c>
       <c r="AL69" s="9">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="AM69" s="9">
-        <v>37489</v>
+        <v>0</v>
       </c>
       <c r="AN69" s="9">
-        <v>1339</v>
+        <v>11682</v>
       </c>
       <c r="AO69" s="9">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="AP69" s="9">
-        <v>11682</v>
+        <v>3637</v>
       </c>
       <c r="AQ69" s="9">
-        <v>1337</v>
+        <v>5396</v>
       </c>
       <c r="AR69" s="9">
-        <v>3637</v>
+        <v>21055</v>
       </c>
       <c r="AS69" s="9">
-        <v>5396</v>
+        <v>13304</v>
       </c>
       <c r="AT69" s="9">
-        <v>21055</v>
+        <v>17136</v>
       </c>
       <c r="AU69" s="9">
-        <v>13304</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="9">
-        <v>17136</v>
+        <v>8282</v>
       </c>
       <c r="AW69" s="9">
-        <v>0</v>
+        <v>14272</v>
       </c>
       <c r="AX69" s="9">
-        <v>8282</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="9">
-        <v>14272</v>
+        <v>5239</v>
       </c>
       <c r="AZ69" s="9">
-        <v>0</v>
+        <v>44418</v>
       </c>
       <c r="BA69" s="9">
-        <v>5239</v>
+        <v>57979</v>
       </c>
       <c r="BB69" s="9">
-        <v>44418</v>
+        <v>42432</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8868,110 +8868,110 @@
       <c r="M70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O70" s="13" t="s">
-        <v>58</v>
+      <c r="N70" s="13">
+        <v>0</v>
+      </c>
+      <c r="O70" s="13">
+        <v>393</v>
       </c>
       <c r="P70" s="13">
         <v>0</v>
       </c>
       <c r="Q70" s="13">
-        <v>393</v>
+        <v>2032</v>
       </c>
       <c r="R70" s="13">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="S70" s="13">
-        <v>2032</v>
+        <v>1847</v>
       </c>
       <c r="T70" s="13">
-        <v>417</v>
+        <v>1325</v>
       </c>
       <c r="U70" s="13">
-        <v>1847</v>
+        <v>2217</v>
       </c>
       <c r="V70" s="13">
-        <v>1325</v>
+        <v>4027</v>
       </c>
       <c r="W70" s="13">
-        <v>2217</v>
+        <v>1745</v>
       </c>
       <c r="X70" s="13">
-        <v>4027</v>
+        <v>1477</v>
       </c>
       <c r="Y70" s="13">
-        <v>1745</v>
+        <v>3283</v>
       </c>
       <c r="Z70" s="13">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="13">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="13">
-        <v>0</v>
+        <v>5218</v>
       </c>
       <c r="AC70" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AD70" s="13">
-        <v>5218</v>
+        <v>1324</v>
       </c>
       <c r="AE70" s="13">
-        <v>85</v>
+        <v>809</v>
       </c>
       <c r="AF70" s="13">
-        <v>1324</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="13">
-        <v>809</v>
+        <v>4003</v>
       </c>
       <c r="AH70" s="13">
         <v>0</v>
       </c>
       <c r="AI70" s="13">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="AJ70" s="13">
-        <v>0</v>
+        <v>23364</v>
       </c>
       <c r="AK70" s="13">
         <v>0</v>
       </c>
       <c r="AL70" s="13">
-        <v>23364</v>
+        <v>1184</v>
       </c>
       <c r="AM70" s="13">
         <v>0</v>
       </c>
       <c r="AN70" s="13">
-        <v>1184</v>
+        <v>4078</v>
       </c>
       <c r="AO70" s="13">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="AP70" s="13">
-        <v>4078</v>
+        <v>7255</v>
       </c>
       <c r="AQ70" s="13">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="13">
-        <v>7255</v>
+        <v>3674</v>
       </c>
       <c r="AS70" s="13">
-        <v>0</v>
+        <v>2879</v>
       </c>
       <c r="AT70" s="13">
-        <v>3674</v>
+        <v>5978</v>
       </c>
       <c r="AU70" s="13">
-        <v>2879</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="13">
-        <v>5978</v>
+        <v>0</v>
       </c>
       <c r="AW70" s="13">
         <v>0</v>
@@ -8980,16 +8980,16 @@
         <v>0</v>
       </c>
       <c r="AY70" s="13">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="AZ70" s="13">
-        <v>0</v>
+        <v>2111</v>
       </c>
       <c r="BA70" s="13">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="13">
-        <v>2111</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9027,128 +9027,128 @@
       <c r="M71" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N71" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>58</v>
+      <c r="N71" s="9">
+        <v>237</v>
+      </c>
+      <c r="O71" s="9">
+        <v>1638</v>
       </c>
       <c r="P71" s="9">
-        <v>237</v>
+        <v>5599</v>
       </c>
       <c r="Q71" s="9">
-        <v>1638</v>
+        <v>4439</v>
       </c>
       <c r="R71" s="9">
-        <v>5599</v>
+        <v>6119</v>
       </c>
       <c r="S71" s="9">
-        <v>4439</v>
+        <v>4642</v>
       </c>
       <c r="T71" s="9">
-        <v>6119</v>
+        <v>4957</v>
       </c>
       <c r="U71" s="9">
-        <v>4642</v>
+        <v>10652</v>
       </c>
       <c r="V71" s="9">
-        <v>4957</v>
+        <v>9420</v>
       </c>
       <c r="W71" s="9">
-        <v>10652</v>
+        <v>3843</v>
       </c>
       <c r="X71" s="9">
-        <v>9420</v>
+        <v>3960</v>
       </c>
       <c r="Y71" s="9">
-        <v>3843</v>
+        <v>4454</v>
       </c>
       <c r="Z71" s="9">
-        <v>3960</v>
+        <v>1918</v>
       </c>
       <c r="AA71" s="9">
-        <v>4454</v>
+        <v>3638</v>
       </c>
       <c r="AB71" s="9">
-        <v>1918</v>
+        <v>16914</v>
       </c>
       <c r="AC71" s="9">
-        <v>3638</v>
+        <v>860</v>
       </c>
       <c r="AD71" s="9">
-        <v>16914</v>
+        <v>1581</v>
       </c>
       <c r="AE71" s="9">
-        <v>860</v>
+        <v>7462</v>
       </c>
       <c r="AF71" s="9">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="9">
-        <v>7462</v>
+        <v>18160</v>
       </c>
       <c r="AH71" s="9">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="AI71" s="9">
-        <v>18160</v>
+        <v>11790</v>
       </c>
       <c r="AJ71" s="9">
-        <v>1674</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="9">
-        <v>11790</v>
+        <v>16265</v>
       </c>
       <c r="AL71" s="9">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AM71" s="9">
-        <v>16265</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="9">
-        <v>214</v>
+        <v>20170</v>
       </c>
       <c r="AO71" s="9">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="AP71" s="9">
-        <v>20170</v>
+        <v>12940</v>
       </c>
       <c r="AQ71" s="9">
-        <v>1752</v>
+        <v>1938</v>
       </c>
       <c r="AR71" s="9">
-        <v>12940</v>
+        <v>20092</v>
       </c>
       <c r="AS71" s="9">
-        <v>1938</v>
+        <v>17842</v>
       </c>
       <c r="AT71" s="9">
-        <v>20092</v>
+        <v>20757</v>
       </c>
       <c r="AU71" s="9">
-        <v>17842</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="9">
-        <v>20757</v>
+        <v>11424</v>
       </c>
       <c r="AW71" s="9">
-        <v>0</v>
+        <v>22536</v>
       </c>
       <c r="AX71" s="9">
-        <v>11424</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="9">
-        <v>22536</v>
+        <v>5008</v>
       </c>
       <c r="AZ71" s="9">
-        <v>0</v>
+        <v>68900</v>
       </c>
       <c r="BA71" s="9">
-        <v>5008</v>
+        <v>34827</v>
       </c>
       <c r="BB71" s="9">
-        <v>68900</v>
+        <v>74510</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9185,127 +9185,127 @@
         <v>0</v>
       </c>
       <c r="N72" s="19">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="O72" s="19">
-        <v>0</v>
+        <v>2394</v>
       </c>
       <c r="P72" s="19">
-        <v>848</v>
+        <v>13228</v>
       </c>
       <c r="Q72" s="19">
-        <v>2394</v>
+        <v>12257</v>
       </c>
       <c r="R72" s="19">
-        <v>13228</v>
+        <v>9096</v>
       </c>
       <c r="S72" s="19">
-        <v>12257</v>
+        <v>14284</v>
       </c>
       <c r="T72" s="19">
-        <v>9096</v>
+        <v>11131</v>
       </c>
       <c r="U72" s="19">
-        <v>14284</v>
+        <v>23706</v>
       </c>
       <c r="V72" s="19">
-        <v>11131</v>
+        <v>22653</v>
       </c>
       <c r="W72" s="19">
-        <v>23706</v>
+        <v>9658</v>
       </c>
       <c r="X72" s="19">
-        <v>22653</v>
+        <v>9859</v>
       </c>
       <c r="Y72" s="19">
-        <v>9658</v>
+        <v>18622</v>
       </c>
       <c r="Z72" s="19">
-        <v>9859</v>
+        <v>3419</v>
       </c>
       <c r="AA72" s="19">
-        <v>18622</v>
+        <v>12647</v>
       </c>
       <c r="AB72" s="19">
-        <v>3419</v>
+        <v>37465</v>
       </c>
       <c r="AC72" s="19">
-        <v>12647</v>
+        <v>1965</v>
       </c>
       <c r="AD72" s="19">
-        <v>37465</v>
+        <v>8184</v>
       </c>
       <c r="AE72" s="19">
-        <v>1965</v>
+        <v>12048</v>
       </c>
       <c r="AF72" s="19">
-        <v>8184</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="19">
-        <v>12048</v>
+        <v>31870</v>
       </c>
       <c r="AH72" s="19">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="AI72" s="19">
-        <v>31870</v>
+        <v>11790</v>
       </c>
       <c r="AJ72" s="19">
-        <v>5040</v>
+        <v>23364</v>
       </c>
       <c r="AK72" s="19">
-        <v>11790</v>
+        <v>53754</v>
       </c>
       <c r="AL72" s="19">
-        <v>23364</v>
+        <v>2737</v>
       </c>
       <c r="AM72" s="19">
-        <v>53754</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="19">
-        <v>2737</v>
+        <v>35930</v>
       </c>
       <c r="AO72" s="19">
-        <v>0</v>
+        <v>5126</v>
       </c>
       <c r="AP72" s="19">
-        <v>35930</v>
+        <v>23832</v>
       </c>
       <c r="AQ72" s="19">
-        <v>5126</v>
+        <v>7334</v>
       </c>
       <c r="AR72" s="19">
-        <v>23832</v>
+        <v>44821</v>
       </c>
       <c r="AS72" s="19">
-        <v>7334</v>
+        <v>34025</v>
       </c>
       <c r="AT72" s="19">
-        <v>44821</v>
+        <v>43871</v>
       </c>
       <c r="AU72" s="19">
-        <v>34025</v>
+        <v>0</v>
       </c>
       <c r="AV72" s="19">
-        <v>43871</v>
+        <v>19706</v>
       </c>
       <c r="AW72" s="19">
-        <v>0</v>
+        <v>36808</v>
       </c>
       <c r="AX72" s="19">
-        <v>19706</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="19">
-        <v>36808</v>
+        <v>11350</v>
       </c>
       <c r="AZ72" s="19">
-        <v>0</v>
+        <v>115429</v>
       </c>
       <c r="BA72" s="19">
-        <v>11350</v>
+        <v>92806</v>
       </c>
       <c r="BB72" s="19">
-        <v>115429</v>
+        <v>118669</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -10042,11 +10042,11 @@
       <c r="M80" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N80" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>58</v>
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+      <c r="O80" s="9">
+        <v>0</v>
       </c>
       <c r="P80" s="9">
         <v>0</v>
@@ -10357,127 +10357,127 @@
         <v>0</v>
       </c>
       <c r="N82" s="15">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="O82" s="15">
-        <v>0</v>
+        <v>802151</v>
       </c>
       <c r="P82" s="15">
-        <v>301087</v>
+        <v>871313</v>
       </c>
       <c r="Q82" s="15">
-        <v>802151</v>
+        <v>1081821</v>
       </c>
       <c r="R82" s="15">
-        <v>871313</v>
+        <v>984878</v>
       </c>
       <c r="S82" s="15">
-        <v>1081821</v>
+        <v>1057790</v>
       </c>
       <c r="T82" s="15">
-        <v>984878</v>
+        <v>1112808</v>
       </c>
       <c r="U82" s="15">
-        <v>1057790</v>
+        <v>1147187</v>
       </c>
       <c r="V82" s="15">
-        <v>1112808</v>
+        <v>871906</v>
       </c>
       <c r="W82" s="15">
-        <v>1147187</v>
+        <v>1245308</v>
       </c>
       <c r="X82" s="15">
-        <v>871906</v>
+        <v>1811478</v>
       </c>
       <c r="Y82" s="15">
-        <v>1245308</v>
+        <v>1338352</v>
       </c>
       <c r="Z82" s="15">
-        <v>1811478</v>
+        <v>689215</v>
       </c>
       <c r="AA82" s="15">
-        <v>1338352</v>
+        <v>1396507</v>
       </c>
       <c r="AB82" s="15">
-        <v>689215</v>
+        <v>1304122</v>
       </c>
       <c r="AC82" s="15">
-        <v>1396507</v>
+        <v>1485650</v>
       </c>
       <c r="AD82" s="15">
-        <v>1304122</v>
+        <v>1284931</v>
       </c>
       <c r="AE82" s="15">
-        <v>1485650</v>
+        <v>1434742</v>
       </c>
       <c r="AF82" s="15">
-        <v>1284931</v>
+        <v>1370396</v>
       </c>
       <c r="AG82" s="15">
-        <v>1434742</v>
+        <v>1589587</v>
       </c>
       <c r="AH82" s="15">
-        <v>1370396</v>
+        <v>1468240</v>
       </c>
       <c r="AI82" s="15">
-        <v>1589587</v>
+        <v>1474071</v>
       </c>
       <c r="AJ82" s="15">
-        <v>1468240</v>
+        <v>2134361</v>
       </c>
       <c r="AK82" s="15">
-        <v>1474071</v>
+        <v>1578287</v>
       </c>
       <c r="AL82" s="15">
-        <v>2134361</v>
+        <v>1031237</v>
       </c>
       <c r="AM82" s="15">
-        <v>1578287</v>
+        <v>2091167</v>
       </c>
       <c r="AN82" s="15">
-        <v>1031237</v>
+        <v>2497251</v>
       </c>
       <c r="AO82" s="15">
-        <v>2091167</v>
+        <v>2036359</v>
       </c>
       <c r="AP82" s="15">
-        <v>2497251</v>
+        <v>2006078</v>
       </c>
       <c r="AQ82" s="15">
-        <v>2036359</v>
+        <v>2601575</v>
       </c>
       <c r="AR82" s="15">
-        <v>2006078</v>
+        <v>1790845</v>
       </c>
       <c r="AS82" s="15">
-        <v>2601575</v>
+        <v>2749344</v>
       </c>
       <c r="AT82" s="15">
-        <v>1790845</v>
+        <v>2780184</v>
       </c>
       <c r="AU82" s="15">
-        <v>2749344</v>
+        <v>2633227</v>
       </c>
       <c r="AV82" s="15">
-        <v>2780184</v>
+        <v>2715187</v>
       </c>
       <c r="AW82" s="15">
-        <v>2633227</v>
+        <v>2328273</v>
       </c>
       <c r="AX82" s="15">
-        <v>2715187</v>
+        <v>1475680</v>
       </c>
       <c r="AY82" s="15">
-        <v>2328273</v>
+        <v>3447388</v>
       </c>
       <c r="AZ82" s="15">
-        <v>1475680</v>
+        <v>3756258</v>
       </c>
       <c r="BA82" s="15">
-        <v>3447388</v>
+        <v>3166220</v>
       </c>
       <c r="BB82" s="15">
-        <v>3756258</v>
+        <v>2977248</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11004,128 +11004,128 @@
       <c r="M90" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N90" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>58</v>
+      <c r="N90" s="9">
+        <v>125145</v>
+      </c>
+      <c r="O90" s="9">
+        <v>153468</v>
       </c>
       <c r="P90" s="9">
-        <v>125145</v>
+        <v>103910</v>
       </c>
       <c r="Q90" s="9">
-        <v>153468</v>
+        <v>141979</v>
       </c>
       <c r="R90" s="9">
-        <v>103910</v>
+        <v>164317</v>
       </c>
       <c r="S90" s="9">
-        <v>141979</v>
+        <v>183046</v>
       </c>
       <c r="T90" s="9">
-        <v>164317</v>
+        <v>156893</v>
       </c>
       <c r="U90" s="9">
-        <v>183046</v>
+        <v>214710</v>
       </c>
       <c r="V90" s="9">
-        <v>156893</v>
+        <v>324261</v>
       </c>
       <c r="W90" s="9">
-        <v>214710</v>
+        <v>203006</v>
       </c>
       <c r="X90" s="9">
-        <v>324261</v>
+        <v>221266</v>
       </c>
       <c r="Y90" s="9">
-        <v>203006</v>
+        <v>311698</v>
       </c>
       <c r="Z90" s="9">
-        <v>221266</v>
+        <v>221168</v>
       </c>
       <c r="AA90" s="9">
-        <v>311698</v>
+        <v>234463</v>
       </c>
       <c r="AB90" s="9">
-        <v>221168</v>
+        <v>225705</v>
       </c>
       <c r="AC90" s="9">
-        <v>234463</v>
+        <v>240729</v>
       </c>
       <c r="AD90" s="9">
-        <v>225705</v>
+        <v>213886</v>
       </c>
       <c r="AE90" s="9">
-        <v>240729</v>
+        <v>238528</v>
       </c>
       <c r="AF90" s="9">
-        <v>213886</v>
+        <v>278515</v>
       </c>
       <c r="AG90" s="9">
-        <v>238528</v>
+        <v>291073</v>
       </c>
       <c r="AH90" s="9">
-        <v>278515</v>
+        <v>240829</v>
       </c>
       <c r="AI90" s="9">
-        <v>291073</v>
+        <v>256222</v>
       </c>
       <c r="AJ90" s="9">
-        <v>240829</v>
+        <v>272017</v>
       </c>
       <c r="AK90" s="9">
-        <v>256222</v>
+        <v>246066</v>
       </c>
       <c r="AL90" s="9">
-        <v>272017</v>
+        <v>247026</v>
       </c>
       <c r="AM90" s="9">
-        <v>246066</v>
+        <v>279010</v>
       </c>
       <c r="AN90" s="9">
-        <v>247026</v>
+        <v>298329</v>
       </c>
       <c r="AO90" s="9">
-        <v>279010</v>
+        <v>331697</v>
       </c>
       <c r="AP90" s="9">
-        <v>298329</v>
+        <v>333309</v>
       </c>
       <c r="AQ90" s="9">
-        <v>331697</v>
+        <v>396615</v>
       </c>
       <c r="AR90" s="9">
-        <v>333309</v>
+        <v>323402</v>
       </c>
       <c r="AS90" s="9">
-        <v>396615</v>
+        <v>367887</v>
       </c>
       <c r="AT90" s="9">
-        <v>323402</v>
+        <v>365773</v>
       </c>
       <c r="AU90" s="9">
-        <v>367887</v>
+        <v>408008</v>
       </c>
       <c r="AV90" s="9">
-        <v>365773</v>
+        <v>376953</v>
       </c>
       <c r="AW90" s="9">
-        <v>408008</v>
+        <v>386085</v>
       </c>
       <c r="AX90" s="9">
-        <v>376953</v>
+        <v>398143</v>
       </c>
       <c r="AY90" s="9">
-        <v>386085</v>
+        <v>412677</v>
       </c>
       <c r="AZ90" s="9">
-        <v>398143</v>
+        <v>405918</v>
       </c>
       <c r="BA90" s="9">
-        <v>412677</v>
+        <v>477545</v>
       </c>
       <c r="BB90" s="9">
-        <v>405918</v>
+        <v>437405</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11163,128 +11163,128 @@
       <c r="M91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O91" s="13" t="s">
-        <v>58</v>
+      <c r="N91" s="13">
+        <v>211754</v>
+      </c>
+      <c r="O91" s="13">
+        <v>429773</v>
       </c>
       <c r="P91" s="13">
-        <v>211754</v>
+        <v>167383</v>
       </c>
       <c r="Q91" s="13">
-        <v>429773</v>
+        <v>239005</v>
       </c>
       <c r="R91" s="13">
-        <v>167383</v>
+        <v>324275</v>
       </c>
       <c r="S91" s="13">
-        <v>239005</v>
+        <v>317909</v>
       </c>
       <c r="T91" s="13">
-        <v>324275</v>
+        <v>324002</v>
       </c>
       <c r="U91" s="13">
-        <v>317909</v>
+        <v>380830</v>
       </c>
       <c r="V91" s="13">
-        <v>324002</v>
+        <v>448523</v>
       </c>
       <c r="W91" s="13">
-        <v>380830</v>
+        <v>280634</v>
       </c>
       <c r="X91" s="13">
-        <v>448523</v>
+        <v>292845</v>
       </c>
       <c r="Y91" s="13">
-        <v>280634</v>
+        <v>455982</v>
       </c>
       <c r="Z91" s="13">
-        <v>292845</v>
+        <v>398826</v>
       </c>
       <c r="AA91" s="13">
-        <v>455982</v>
+        <v>410775</v>
       </c>
       <c r="AB91" s="13">
-        <v>398826</v>
+        <v>335082</v>
       </c>
       <c r="AC91" s="13">
-        <v>410775</v>
+        <v>485164</v>
       </c>
       <c r="AD91" s="13">
-        <v>335082</v>
+        <v>375374</v>
       </c>
       <c r="AE91" s="13">
-        <v>485164</v>
+        <v>349373</v>
       </c>
       <c r="AF91" s="13">
-        <v>375374</v>
+        <v>337881</v>
       </c>
       <c r="AG91" s="13">
-        <v>349373</v>
+        <v>584772</v>
       </c>
       <c r="AH91" s="13">
-        <v>337881</v>
+        <v>504040</v>
       </c>
       <c r="AI91" s="13">
-        <v>584772</v>
+        <v>690066</v>
       </c>
       <c r="AJ91" s="13">
-        <v>504040</v>
+        <v>521912</v>
       </c>
       <c r="AK91" s="13">
-        <v>690066</v>
+        <v>663008</v>
       </c>
       <c r="AL91" s="13">
-        <v>521912</v>
+        <v>447806</v>
       </c>
       <c r="AM91" s="13">
-        <v>663008</v>
+        <v>593591</v>
       </c>
       <c r="AN91" s="13">
-        <v>447806</v>
+        <v>570884</v>
       </c>
       <c r="AO91" s="13">
-        <v>593591</v>
+        <v>571337</v>
       </c>
       <c r="AP91" s="13">
-        <v>570884</v>
+        <v>541921</v>
       </c>
       <c r="AQ91" s="13">
-        <v>571337</v>
+        <v>706273</v>
       </c>
       <c r="AR91" s="13">
-        <v>541921</v>
+        <v>554789</v>
       </c>
       <c r="AS91" s="13">
-        <v>706273</v>
+        <v>604033</v>
       </c>
       <c r="AT91" s="13">
-        <v>554789</v>
+        <v>656435</v>
       </c>
       <c r="AU91" s="13">
-        <v>604033</v>
+        <v>709579</v>
       </c>
       <c r="AV91" s="13">
-        <v>656435</v>
+        <v>681074</v>
       </c>
       <c r="AW91" s="13">
-        <v>709579</v>
+        <v>698657</v>
       </c>
       <c r="AX91" s="13">
-        <v>681074</v>
+        <v>805465</v>
       </c>
       <c r="AY91" s="13">
-        <v>698657</v>
+        <v>901256</v>
       </c>
       <c r="AZ91" s="13">
-        <v>805465</v>
+        <v>524374</v>
       </c>
       <c r="BA91" s="13">
-        <v>901256</v>
+        <v>981774</v>
       </c>
       <c r="BB91" s="13">
-        <v>524374</v>
+        <v>964639</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11322,128 +11322,128 @@
       <c r="M92" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N92" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>58</v>
+      <c r="N92" s="9">
+        <v>147638</v>
+      </c>
+      <c r="O92" s="9">
+        <v>150416</v>
       </c>
       <c r="P92" s="9">
-        <v>147638</v>
+        <v>219130</v>
       </c>
       <c r="Q92" s="9">
-        <v>150416</v>
+        <v>231008</v>
       </c>
       <c r="R92" s="9">
-        <v>219130</v>
+        <v>238013</v>
       </c>
       <c r="S92" s="9">
-        <v>231008</v>
+        <v>216619</v>
       </c>
       <c r="T92" s="9">
-        <v>238013</v>
+        <v>193347</v>
       </c>
       <c r="U92" s="9">
-        <v>216619</v>
+        <v>237992</v>
       </c>
       <c r="V92" s="9">
-        <v>193347</v>
+        <v>253443</v>
       </c>
       <c r="W92" s="9">
-        <v>237992</v>
+        <v>229462</v>
       </c>
       <c r="X92" s="9">
-        <v>253443</v>
+        <v>262706</v>
       </c>
       <c r="Y92" s="9">
-        <v>229462</v>
+        <v>392486</v>
       </c>
       <c r="Z92" s="9">
-        <v>262706</v>
+        <v>298472</v>
       </c>
       <c r="AA92" s="9">
-        <v>392486</v>
+        <v>326799</v>
       </c>
       <c r="AB92" s="9">
-        <v>298472</v>
+        <v>305414</v>
       </c>
       <c r="AC92" s="9">
-        <v>326799</v>
+        <v>398992</v>
       </c>
       <c r="AD92" s="9">
-        <v>305414</v>
+        <v>308404</v>
       </c>
       <c r="AE92" s="9">
-        <v>398992</v>
+        <v>280683</v>
       </c>
       <c r="AF92" s="9">
-        <v>308404</v>
+        <v>272686</v>
       </c>
       <c r="AG92" s="9">
-        <v>280683</v>
+        <v>312372</v>
       </c>
       <c r="AH92" s="9">
-        <v>272686</v>
+        <v>288746</v>
       </c>
       <c r="AI92" s="9">
-        <v>312372</v>
+        <v>338225</v>
       </c>
       <c r="AJ92" s="9">
-        <v>288746</v>
+        <v>359462</v>
       </c>
       <c r="AK92" s="9">
-        <v>338225</v>
+        <v>240340</v>
       </c>
       <c r="AL92" s="9">
-        <v>359462</v>
+        <v>281096</v>
       </c>
       <c r="AM92" s="9">
-        <v>240340</v>
+        <v>319368</v>
       </c>
       <c r="AN92" s="9">
-        <v>281096</v>
+        <v>321539</v>
       </c>
       <c r="AO92" s="9">
-        <v>319368</v>
+        <v>360417</v>
       </c>
       <c r="AP92" s="9">
-        <v>321539</v>
+        <v>320475</v>
       </c>
       <c r="AQ92" s="9">
-        <v>360417</v>
+        <v>339099</v>
       </c>
       <c r="AR92" s="9">
-        <v>320475</v>
+        <v>339485</v>
       </c>
       <c r="AS92" s="9">
-        <v>339099</v>
+        <v>303013</v>
       </c>
       <c r="AT92" s="9">
-        <v>339485</v>
+        <v>316548</v>
       </c>
       <c r="AU92" s="9">
-        <v>303013</v>
+        <v>430056</v>
       </c>
       <c r="AV92" s="9">
-        <v>316548</v>
+        <v>396945</v>
       </c>
       <c r="AW92" s="9">
-        <v>430056</v>
+        <v>400670</v>
       </c>
       <c r="AX92" s="9">
-        <v>396945</v>
+        <v>473030</v>
       </c>
       <c r="AY92" s="9">
-        <v>400670</v>
+        <v>513037</v>
       </c>
       <c r="AZ92" s="9">
-        <v>473030</v>
+        <v>844150</v>
       </c>
       <c r="BA92" s="9">
-        <v>513037</v>
+        <v>590565</v>
       </c>
       <c r="BB92" s="9">
-        <v>844150</v>
+        <v>600912</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -11538,128 +11538,128 @@
       <c r="M94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>58</v>
+      <c r="N94" s="9">
+        <v>64235</v>
+      </c>
+      <c r="O94" s="9">
+        <v>106140</v>
       </c>
       <c r="P94" s="9">
-        <v>64235</v>
+        <v>163474</v>
       </c>
       <c r="Q94" s="9">
-        <v>106140</v>
+        <v>152103</v>
       </c>
       <c r="R94" s="9">
-        <v>163474</v>
+        <v>143562</v>
       </c>
       <c r="S94" s="9">
-        <v>152103</v>
+        <v>185631</v>
       </c>
       <c r="T94" s="9">
-        <v>143562</v>
+        <v>190053</v>
       </c>
       <c r="U94" s="9">
-        <v>185631</v>
+        <v>157044</v>
       </c>
       <c r="V94" s="9">
-        <v>190053</v>
+        <v>159284</v>
       </c>
       <c r="W94" s="9">
-        <v>157044</v>
+        <v>171658</v>
       </c>
       <c r="X94" s="9">
-        <v>159284</v>
+        <v>195612</v>
       </c>
       <c r="Y94" s="9">
-        <v>171658</v>
+        <v>170408</v>
       </c>
       <c r="Z94" s="9">
-        <v>195612</v>
+        <v>177423</v>
       </c>
       <c r="AA94" s="9">
-        <v>170408</v>
+        <v>160075</v>
       </c>
       <c r="AB94" s="9">
-        <v>177423</v>
+        <v>201920</v>
       </c>
       <c r="AC94" s="9">
-        <v>160075</v>
+        <v>165692</v>
       </c>
       <c r="AD94" s="9">
-        <v>201920</v>
+        <v>177888</v>
       </c>
       <c r="AE94" s="9">
-        <v>165692</v>
-      </c>
-      <c r="AF94" s="9">
-        <v>177888</v>
+        <v>220722</v>
+      </c>
+      <c r="AF94" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AG94" s="9">
-        <v>220722</v>
-      </c>
-      <c r="AH94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI94" s="9">
         <v>188599</v>
       </c>
-      <c r="AJ94" s="9">
+      <c r="AH94" s="9">
         <v>172944</v>
       </c>
-      <c r="AK94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM94" s="9">
+      <c r="AI94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK94" s="9">
         <v>234394</v>
       </c>
+      <c r="AL94" s="9">
+        <v>324370</v>
+      </c>
+      <c r="AM94" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="AN94" s="9">
-        <v>324370</v>
-      </c>
-      <c r="AO94" s="9" t="s">
-        <v>58</v>
+        <v>203576</v>
+      </c>
+      <c r="AO94" s="9">
+        <v>187886</v>
       </c>
       <c r="AP94" s="9">
-        <v>203576</v>
+        <v>275781</v>
       </c>
       <c r="AQ94" s="9">
-        <v>187886</v>
+        <v>204766</v>
       </c>
       <c r="AR94" s="9">
-        <v>275781</v>
+        <v>382637</v>
       </c>
       <c r="AS94" s="9">
-        <v>204766</v>
+        <v>273475</v>
       </c>
       <c r="AT94" s="9">
-        <v>382637</v>
-      </c>
-      <c r="AU94" s="9">
-        <v>273475</v>
+        <v>325755</v>
+      </c>
+      <c r="AU94" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AV94" s="9">
-        <v>325755</v>
-      </c>
-      <c r="AW94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX94" s="9">
         <v>438479</v>
       </c>
+      <c r="AW94" s="9">
+        <v>663937</v>
+      </c>
+      <c r="AX94" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="AY94" s="9">
-        <v>663937</v>
-      </c>
-      <c r="AZ94" s="9" t="s">
-        <v>58</v>
+        <v>385674</v>
+      </c>
+      <c r="AZ94" s="9">
+        <v>558464</v>
       </c>
       <c r="BA94" s="9">
-        <v>385674</v>
+        <v>575063</v>
       </c>
       <c r="BB94" s="9">
-        <v>558464</v>
+        <v>422613</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -11700,125 +11700,125 @@
       <c r="N95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O95" s="13" t="s">
-        <v>58</v>
+      <c r="O95" s="13">
+        <v>102344</v>
       </c>
       <c r="P95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Q95" s="13">
-        <v>102344</v>
-      </c>
-      <c r="R95" s="13" t="s">
-        <v>58</v>
+        <v>136202</v>
+      </c>
+      <c r="R95" s="13">
+        <v>387546</v>
       </c>
       <c r="S95" s="13">
-        <v>136202</v>
+        <v>861876</v>
       </c>
       <c r="T95" s="13">
-        <v>387546</v>
+        <v>220466</v>
       </c>
       <c r="U95" s="13">
-        <v>861876</v>
+        <v>232780</v>
       </c>
       <c r="V95" s="13">
-        <v>220466</v>
+        <v>206291</v>
       </c>
       <c r="W95" s="13">
-        <v>232780</v>
+        <v>307923</v>
       </c>
       <c r="X95" s="13">
-        <v>206291</v>
+        <v>305797</v>
       </c>
       <c r="Y95" s="13">
-        <v>307923</v>
-      </c>
-      <c r="Z95" s="13">
-        <v>305797</v>
-      </c>
-      <c r="AA95" s="13">
         <v>295234</v>
       </c>
-      <c r="AB95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC95" s="13" t="s">
-        <v>58</v>
+      <c r="Z95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB95" s="13">
+        <v>230691</v>
+      </c>
+      <c r="AC95" s="13">
+        <v>590278</v>
       </c>
       <c r="AD95" s="13">
-        <v>230691</v>
+        <v>246785</v>
       </c>
       <c r="AE95" s="13">
-        <v>590278</v>
-      </c>
-      <c r="AF95" s="13">
-        <v>246785</v>
+        <v>244337</v>
+      </c>
+      <c r="AF95" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG95" s="13">
-        <v>244337</v>
+        <v>952868</v>
       </c>
       <c r="AH95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="13">
-        <v>952868</v>
-      </c>
-      <c r="AJ95" s="13" t="s">
-        <v>58</v>
+      <c r="AI95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ95" s="13">
+        <v>315138</v>
       </c>
       <c r="AK95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AL95" s="13">
-        <v>315138</v>
+        <v>314225</v>
       </c>
       <c r="AM95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN95" s="13">
-        <v>314225</v>
-      </c>
-      <c r="AO95" s="13" t="s">
-        <v>58</v>
+        <v>453111</v>
+      </c>
+      <c r="AO95" s="13">
+        <v>177007</v>
       </c>
       <c r="AP95" s="13">
-        <v>453111</v>
-      </c>
-      <c r="AQ95" s="13">
-        <v>177007</v>
+        <v>278867</v>
+      </c>
+      <c r="AQ95" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR95" s="13">
-        <v>278867</v>
-      </c>
-      <c r="AS95" s="13" t="s">
-        <v>58</v>
+        <v>401794</v>
+      </c>
+      <c r="AS95" s="13">
+        <v>317770</v>
       </c>
       <c r="AT95" s="13">
-        <v>401794</v>
-      </c>
-      <c r="AU95" s="13">
-        <v>317770</v>
-      </c>
-      <c r="AV95" s="13">
         <v>320846</v>
       </c>
+      <c r="AU95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AX95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA95" s="13">
+      <c r="AY95" s="13">
         <v>765972</v>
       </c>
+      <c r="AZ95" s="13">
+        <v>732986</v>
+      </c>
+      <c r="BA95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BB95" s="13">
-        <v>732986</v>
+        <v>508539</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -11856,128 +11856,128 @@
       <c r="M96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>58</v>
+      <c r="N96" s="9">
+        <v>127419</v>
+      </c>
+      <c r="O96" s="9">
+        <v>110976</v>
       </c>
       <c r="P96" s="9">
-        <v>127419</v>
+        <v>139030</v>
       </c>
       <c r="Q96" s="9">
-        <v>110976</v>
+        <v>146212</v>
       </c>
       <c r="R96" s="9">
-        <v>139030</v>
+        <v>359857</v>
       </c>
       <c r="S96" s="9">
-        <v>146212</v>
+        <v>156233</v>
       </c>
       <c r="T96" s="9">
-        <v>359857</v>
+        <v>224940</v>
       </c>
       <c r="U96" s="9">
-        <v>156233</v>
+        <v>179738</v>
       </c>
       <c r="V96" s="9">
-        <v>224940</v>
+        <v>249503</v>
       </c>
       <c r="W96" s="9">
-        <v>179738</v>
+        <v>189012</v>
       </c>
       <c r="X96" s="9">
-        <v>249503</v>
+        <v>170162</v>
       </c>
       <c r="Y96" s="9">
-        <v>189012</v>
+        <v>179713</v>
       </c>
       <c r="Z96" s="9">
-        <v>170162</v>
+        <v>262884</v>
       </c>
       <c r="AA96" s="9">
-        <v>179713</v>
+        <v>200773</v>
       </c>
       <c r="AB96" s="9">
-        <v>262884</v>
+        <v>200612</v>
       </c>
       <c r="AC96" s="9">
-        <v>200773</v>
+        <v>200186</v>
       </c>
       <c r="AD96" s="9">
-        <v>200612</v>
+        <v>162454</v>
       </c>
       <c r="AE96" s="9">
-        <v>200186</v>
-      </c>
-      <c r="AF96" s="9">
-        <v>162454</v>
+        <v>236709</v>
+      </c>
+      <c r="AF96" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AG96" s="9">
-        <v>236709</v>
-      </c>
-      <c r="AH96" s="9" t="s">
-        <v>58</v>
+        <v>201852</v>
+      </c>
+      <c r="AH96" s="9">
+        <v>224970</v>
       </c>
       <c r="AI96" s="9">
-        <v>201852</v>
-      </c>
-      <c r="AJ96" s="9">
-        <v>224970</v>
+        <v>306234</v>
+      </c>
+      <c r="AJ96" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AK96" s="9">
-        <v>306234</v>
-      </c>
-      <c r="AL96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM96" s="9">
         <v>233076</v>
       </c>
+      <c r="AL96" s="9">
+        <v>204981</v>
+      </c>
+      <c r="AM96" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="AN96" s="9">
-        <v>204981</v>
-      </c>
-      <c r="AO96" s="9" t="s">
-        <v>58</v>
+        <v>262712</v>
+      </c>
+      <c r="AO96" s="9">
+        <v>180025</v>
       </c>
       <c r="AP96" s="9">
-        <v>262712</v>
+        <v>540879</v>
       </c>
       <c r="AQ96" s="9">
-        <v>180025</v>
+        <v>246942</v>
       </c>
       <c r="AR96" s="9">
-        <v>540879</v>
+        <v>395123</v>
       </c>
       <c r="AS96" s="9">
-        <v>246942</v>
+        <v>328945</v>
       </c>
       <c r="AT96" s="9">
-        <v>395123</v>
-      </c>
-      <c r="AU96" s="9">
-        <v>328945</v>
+        <v>332986</v>
+      </c>
+      <c r="AU96" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AV96" s="9">
-        <v>332986</v>
-      </c>
-      <c r="AW96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX96" s="9">
         <v>391662</v>
       </c>
+      <c r="AW96" s="9">
+        <v>390653</v>
+      </c>
+      <c r="AX96" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="AY96" s="9">
-        <v>390653</v>
-      </c>
-      <c r="AZ96" s="9" t="s">
-        <v>58</v>
+        <v>556444</v>
+      </c>
+      <c r="AZ96" s="9">
+        <v>519463</v>
       </c>
       <c r="BA96" s="9">
-        <v>556444</v>
+        <v>590168</v>
       </c>
       <c r="BB96" s="9">
-        <v>519463</v>
+        <v>865490</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E4FAE-59F3-4E03-B69A-8514EFB12551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BCF5C4-F0D3-4A6E-A4F2-1C5F39F240F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1398/04</t>
   </si>
   <si>
     <t>ماه 5 منتهی به 1398/05</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 5 منتهی به 1402/05</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1402/06</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1595,11 +1595,11 @@
       <c r="AJ12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12" s="9">
+      <c r="AK12" s="9">
         <v>1928006</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM12" s="9" t="s">
         <v>58</v>
@@ -1682,131 +1682,131 @@
       <c r="L13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>58</v>
+      <c r="M13" s="13">
+        <v>2186283</v>
       </c>
       <c r="N13" s="13">
-        <v>2186283</v>
+        <v>3813277</v>
       </c>
       <c r="O13" s="13">
-        <v>3813277</v>
+        <v>776689</v>
       </c>
       <c r="P13" s="13">
-        <v>776689</v>
+        <v>3355766</v>
       </c>
       <c r="Q13" s="13">
-        <v>3355766</v>
+        <v>2780267</v>
       </c>
       <c r="R13" s="13">
-        <v>2780267</v>
+        <v>3055221</v>
       </c>
       <c r="S13" s="13">
-        <v>3055221</v>
+        <v>3195329</v>
       </c>
       <c r="T13" s="13">
-        <v>3195329</v>
+        <v>3297602</v>
       </c>
       <c r="U13" s="13">
-        <v>3297602</v>
+        <v>4346169</v>
       </c>
       <c r="V13" s="13">
-        <v>4346169</v>
+        <v>2883923</v>
       </c>
       <c r="W13" s="13">
-        <v>2883923</v>
+        <v>4543763</v>
       </c>
       <c r="X13" s="13">
-        <v>4543763</v>
+        <v>2641514</v>
       </c>
       <c r="Y13" s="13">
-        <v>2641514</v>
+        <v>1634310</v>
       </c>
       <c r="Z13" s="13">
-        <v>1634310</v>
+        <v>2391353</v>
       </c>
       <c r="AA13" s="13">
-        <v>2391353</v>
+        <v>1960167</v>
       </c>
       <c r="AB13" s="13">
-        <v>1960167</v>
+        <v>2973768</v>
       </c>
       <c r="AC13" s="13">
-        <v>2973768</v>
+        <v>3528060</v>
       </c>
       <c r="AD13" s="13">
-        <v>3528060</v>
+        <v>3425974</v>
       </c>
       <c r="AE13" s="13">
-        <v>3425974</v>
+        <v>2757778</v>
       </c>
       <c r="AF13" s="13">
-        <v>2757778</v>
+        <v>2485617</v>
       </c>
       <c r="AG13" s="13">
-        <v>2485617</v>
+        <v>2969134</v>
       </c>
       <c r="AH13" s="13">
-        <v>2969134</v>
+        <v>2540486</v>
       </c>
       <c r="AI13" s="13">
-        <v>2540486</v>
+        <v>3162952</v>
       </c>
       <c r="AJ13" s="13">
-        <v>3162952</v>
-      </c>
-      <c r="AK13" s="13">
         <v>2618191</v>
       </c>
-      <c r="AL13" s="13" t="s">
-        <v>58</v>
+      <c r="AK13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>3794614</v>
       </c>
       <c r="AM13" s="13">
-        <v>3794614</v>
+        <v>3914006</v>
       </c>
       <c r="AN13" s="13">
-        <v>3914006</v>
+        <v>3669007</v>
       </c>
       <c r="AO13" s="13">
-        <v>3669007</v>
+        <v>3583799</v>
       </c>
       <c r="AP13" s="13">
-        <v>3583799</v>
+        <v>3436273</v>
       </c>
       <c r="AQ13" s="13">
-        <v>3436273</v>
+        <v>2961610</v>
       </c>
       <c r="AR13" s="13">
-        <v>2961610</v>
+        <v>3366519</v>
       </c>
       <c r="AS13" s="13">
-        <v>3366519</v>
+        <v>3618865</v>
       </c>
       <c r="AT13" s="13">
-        <v>3618865</v>
+        <v>3698547</v>
       </c>
       <c r="AU13" s="13">
-        <v>3698547</v>
+        <v>4245449</v>
       </c>
       <c r="AV13" s="13">
-        <v>4245449</v>
+        <v>2501456</v>
       </c>
       <c r="AW13" s="13">
-        <v>2501456</v>
+        <v>1494064</v>
       </c>
       <c r="AX13" s="13">
-        <v>1494064</v>
+        <v>3911530</v>
       </c>
       <c r="AY13" s="13">
-        <v>3911530</v>
+        <v>3450063</v>
       </c>
       <c r="AZ13" s="13">
-        <v>3450063</v>
+        <v>2763877</v>
       </c>
       <c r="BA13" s="13">
-        <v>2763877</v>
+        <v>3721328</v>
       </c>
       <c r="BB13" s="13">
-        <v>3721328</v>
+        <v>1759066</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1913,11 +1913,11 @@
       <c r="AJ14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="9">
+      <c r="AK14" s="9">
         <v>439173</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>58</v>
@@ -2000,131 +2000,131 @@
       <c r="L15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>58</v>
+      <c r="M15" s="13">
+        <v>421040</v>
       </c>
       <c r="N15" s="13">
-        <v>421040</v>
+        <v>338935</v>
       </c>
       <c r="O15" s="13">
-        <v>338935</v>
+        <v>354951</v>
       </c>
       <c r="P15" s="13">
-        <v>354951</v>
+        <v>838313</v>
       </c>
       <c r="Q15" s="13">
-        <v>838313</v>
+        <v>844613</v>
       </c>
       <c r="R15" s="13">
-        <v>844613</v>
+        <v>475662</v>
       </c>
       <c r="S15" s="13">
-        <v>475662</v>
+        <v>1043827</v>
       </c>
       <c r="T15" s="13">
-        <v>1043827</v>
+        <v>865436</v>
       </c>
       <c r="U15" s="13">
-        <v>865436</v>
+        <v>820140</v>
       </c>
       <c r="V15" s="13">
-        <v>820140</v>
+        <v>780906</v>
       </c>
       <c r="W15" s="13">
-        <v>780906</v>
+        <v>1449256</v>
       </c>
       <c r="X15" s="13">
-        <v>1449256</v>
+        <v>344491</v>
       </c>
       <c r="Y15" s="13">
-        <v>344491</v>
+        <v>302700</v>
       </c>
       <c r="Z15" s="13">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AA15" s="13">
-        <v>576123</v>
+        <v>554882</v>
       </c>
       <c r="AB15" s="13">
-        <v>554882</v>
+        <v>812592</v>
       </c>
       <c r="AC15" s="13">
-        <v>812592</v>
+        <v>568832</v>
       </c>
       <c r="AD15" s="13">
-        <v>568832</v>
+        <v>676145</v>
       </c>
       <c r="AE15" s="13">
-        <v>676145</v>
+        <v>341164</v>
       </c>
       <c r="AF15" s="13">
-        <v>341164</v>
+        <v>713382</v>
       </c>
       <c r="AG15" s="13">
-        <v>713382</v>
+        <v>877199</v>
       </c>
       <c r="AH15" s="13">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AI15" s="13">
-        <v>864518</v>
+        <v>673365</v>
       </c>
       <c r="AJ15" s="13">
-        <v>673365</v>
-      </c>
-      <c r="AK15" s="13">
         <v>923051</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>58</v>
+      <c r="AK15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>477046</v>
       </c>
       <c r="AM15" s="13">
-        <v>477046</v>
+        <v>568460</v>
       </c>
       <c r="AN15" s="13">
-        <v>568460</v>
+        <v>1019233</v>
       </c>
       <c r="AO15" s="13">
-        <v>1019233</v>
+        <v>868951</v>
       </c>
       <c r="AP15" s="13">
-        <v>868951</v>
+        <v>580397</v>
       </c>
       <c r="AQ15" s="13">
-        <v>580397</v>
+        <v>592818</v>
       </c>
       <c r="AR15" s="13">
-        <v>592818</v>
+        <v>824890</v>
       </c>
       <c r="AS15" s="13">
-        <v>824890</v>
+        <v>1080234</v>
       </c>
       <c r="AT15" s="13">
-        <v>1080234</v>
+        <v>963219</v>
       </c>
       <c r="AU15" s="13">
-        <v>963219</v>
+        <v>794921</v>
       </c>
       <c r="AV15" s="13">
-        <v>794921</v>
+        <v>552265</v>
       </c>
       <c r="AW15" s="13">
-        <v>552265</v>
+        <v>389175</v>
       </c>
       <c r="AX15" s="13">
-        <v>389175</v>
+        <v>1031901</v>
       </c>
       <c r="AY15" s="13">
-        <v>1031901</v>
+        <v>1691826</v>
       </c>
       <c r="AZ15" s="13">
-        <v>1691826</v>
+        <v>237728</v>
       </c>
       <c r="BA15" s="13">
-        <v>237728</v>
+        <v>677524</v>
       </c>
       <c r="BB15" s="13">
-        <v>677524</v>
+        <v>681788</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2231,11 +2231,11 @@
       <c r="AJ16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="9">
+      <c r="AK16" s="9">
         <v>977321</v>
+      </c>
+      <c r="AL16" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM16" s="9" t="s">
         <v>58</v>
@@ -2318,131 +2318,131 @@
       <c r="L17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>58</v>
+      <c r="M17" s="13">
+        <v>572825</v>
       </c>
       <c r="N17" s="13">
-        <v>572825</v>
+        <v>1670355</v>
       </c>
       <c r="O17" s="13">
-        <v>1670355</v>
+        <v>1325693</v>
       </c>
       <c r="P17" s="13">
-        <v>1325693</v>
+        <v>1529312</v>
       </c>
       <c r="Q17" s="13">
-        <v>1529312</v>
+        <v>1216536</v>
       </c>
       <c r="R17" s="13">
-        <v>1216536</v>
+        <v>1335177</v>
       </c>
       <c r="S17" s="13">
-        <v>1335177</v>
+        <v>1252610</v>
       </c>
       <c r="T17" s="13">
-        <v>1252610</v>
+        <v>1592244</v>
       </c>
       <c r="U17" s="13">
-        <v>1592244</v>
+        <v>1835508</v>
       </c>
       <c r="V17" s="13">
-        <v>1835508</v>
+        <v>1287997</v>
       </c>
       <c r="W17" s="13">
-        <v>1287997</v>
+        <v>1852460</v>
       </c>
       <c r="X17" s="13">
-        <v>1852460</v>
+        <v>1052952</v>
       </c>
       <c r="Y17" s="13">
-        <v>1052952</v>
+        <v>99864</v>
       </c>
       <c r="Z17" s="13">
-        <v>99864</v>
+        <v>1446848</v>
       </c>
       <c r="AA17" s="13">
-        <v>1446848</v>
+        <v>2080512</v>
       </c>
       <c r="AB17" s="13">
-        <v>2080512</v>
+        <v>947237</v>
       </c>
       <c r="AC17" s="13">
-        <v>947237</v>
+        <v>594708</v>
       </c>
       <c r="AD17" s="13">
-        <v>594708</v>
+        <v>1030971</v>
       </c>
       <c r="AE17" s="13">
-        <v>1030971</v>
+        <v>1539501</v>
       </c>
       <c r="AF17" s="13">
-        <v>1539501</v>
+        <v>854766</v>
       </c>
       <c r="AG17" s="13">
-        <v>854766</v>
+        <v>1287124</v>
       </c>
       <c r="AH17" s="13">
-        <v>1287124</v>
+        <v>995899</v>
       </c>
       <c r="AI17" s="13">
-        <v>995899</v>
+        <v>1049813</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1049813</v>
-      </c>
-      <c r="AK17" s="13">
         <v>355815</v>
       </c>
-      <c r="AL17" s="13" t="s">
-        <v>58</v>
+      <c r="AK17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>2088784</v>
       </c>
       <c r="AM17" s="13">
-        <v>2088784</v>
+        <v>2131586</v>
       </c>
       <c r="AN17" s="13">
-        <v>2131586</v>
+        <v>1475050</v>
       </c>
       <c r="AO17" s="13">
-        <v>1475050</v>
+        <v>1284063</v>
       </c>
       <c r="AP17" s="13">
-        <v>1284063</v>
+        <v>1874107</v>
       </c>
       <c r="AQ17" s="13">
-        <v>1874107</v>
+        <v>892649</v>
       </c>
       <c r="AR17" s="13">
-        <v>892649</v>
+        <v>1570042</v>
       </c>
       <c r="AS17" s="13">
-        <v>1570042</v>
+        <v>1727414</v>
       </c>
       <c r="AT17" s="13">
-        <v>1727414</v>
+        <v>1550341</v>
       </c>
       <c r="AU17" s="13">
-        <v>1550341</v>
+        <v>1816453</v>
       </c>
       <c r="AV17" s="13">
-        <v>1816453</v>
+        <v>1106497</v>
       </c>
       <c r="AW17" s="13">
-        <v>1106497</v>
+        <v>1227640</v>
       </c>
       <c r="AX17" s="13">
-        <v>1227640</v>
+        <v>1904672</v>
       </c>
       <c r="AY17" s="13">
-        <v>1904672</v>
+        <v>1499033</v>
       </c>
       <c r="AZ17" s="13">
-        <v>1499033</v>
+        <v>1706709</v>
       </c>
       <c r="BA17" s="13">
-        <v>1706709</v>
+        <v>1746731</v>
       </c>
       <c r="BB17" s="13">
-        <v>1746731</v>
+        <v>1551846</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2476,130 +2476,130 @@
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <v>0</v>
+        <v>3180148</v>
       </c>
       <c r="N18" s="15">
-        <v>3180148</v>
+        <v>5822567</v>
       </c>
       <c r="O18" s="15">
-        <v>5822567</v>
+        <v>2457333</v>
       </c>
       <c r="P18" s="15">
-        <v>2457333</v>
+        <v>5723391</v>
       </c>
       <c r="Q18" s="15">
-        <v>5723391</v>
+        <v>4841416</v>
       </c>
       <c r="R18" s="15">
-        <v>4841416</v>
+        <v>4866060</v>
       </c>
       <c r="S18" s="15">
-        <v>4866060</v>
+        <v>5491766</v>
       </c>
       <c r="T18" s="15">
-        <v>5491766</v>
+        <v>5755282</v>
       </c>
       <c r="U18" s="15">
-        <v>5755282</v>
+        <v>7001817</v>
       </c>
       <c r="V18" s="15">
-        <v>7001817</v>
+        <v>4952826</v>
       </c>
       <c r="W18" s="15">
-        <v>4952826</v>
+        <v>7845479</v>
       </c>
       <c r="X18" s="15">
-        <v>7845479</v>
+        <v>4038957</v>
       </c>
       <c r="Y18" s="15">
-        <v>4038957</v>
+        <v>2036874</v>
       </c>
       <c r="Z18" s="15">
-        <v>2036874</v>
+        <v>4414324</v>
       </c>
       <c r="AA18" s="15">
-        <v>4414324</v>
+        <v>4595561</v>
       </c>
       <c r="AB18" s="15">
-        <v>4595561</v>
+        <v>4733597</v>
       </c>
       <c r="AC18" s="15">
-        <v>4733597</v>
+        <v>4691600</v>
       </c>
       <c r="AD18" s="15">
-        <v>4691600</v>
+        <v>5133090</v>
       </c>
       <c r="AE18" s="15">
-        <v>5133090</v>
+        <v>4638443</v>
       </c>
       <c r="AF18" s="15">
-        <v>4638443</v>
+        <v>4053765</v>
       </c>
       <c r="AG18" s="15">
-        <v>4053765</v>
+        <v>5133457</v>
       </c>
       <c r="AH18" s="15">
-        <v>5133457</v>
+        <v>4400903</v>
       </c>
       <c r="AI18" s="15">
-        <v>4400903</v>
+        <v>4886130</v>
       </c>
       <c r="AJ18" s="15">
-        <v>4886130</v>
+        <v>3897057</v>
       </c>
       <c r="AK18" s="15">
-        <v>3897057</v>
+        <v>3344500</v>
       </c>
       <c r="AL18" s="15">
-        <v>3344500</v>
+        <v>6360444</v>
       </c>
       <c r="AM18" s="15">
-        <v>6360444</v>
+        <v>6614052</v>
       </c>
       <c r="AN18" s="15">
-        <v>6614052</v>
+        <v>6163290</v>
       </c>
       <c r="AO18" s="15">
-        <v>6163290</v>
+        <v>5736813</v>
       </c>
       <c r="AP18" s="15">
-        <v>5736813</v>
+        <v>5890777</v>
       </c>
       <c r="AQ18" s="15">
-        <v>5890777</v>
+        <v>4447077</v>
       </c>
       <c r="AR18" s="15">
-        <v>4447077</v>
+        <v>5761451</v>
       </c>
       <c r="AS18" s="15">
-        <v>5761451</v>
+        <v>6426513</v>
       </c>
       <c r="AT18" s="15">
-        <v>6426513</v>
+        <v>6212107</v>
       </c>
       <c r="AU18" s="15">
-        <v>6212107</v>
+        <v>6856823</v>
       </c>
       <c r="AV18" s="15">
-        <v>6856823</v>
+        <v>4160218</v>
       </c>
       <c r="AW18" s="15">
-        <v>4160218</v>
+        <v>3110879</v>
       </c>
       <c r="AX18" s="15">
-        <v>3110879</v>
+        <v>6848103</v>
       </c>
       <c r="AY18" s="15">
-        <v>6848103</v>
+        <v>6640922</v>
       </c>
       <c r="AZ18" s="15">
-        <v>6640922</v>
+        <v>4708314</v>
       </c>
       <c r="BA18" s="15">
-        <v>4708314</v>
+        <v>6145583</v>
       </c>
       <c r="BB18" s="15">
-        <v>6145583</v>
+        <v>3992700</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2763,11 +2763,11 @@
       <c r="AJ20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20" s="9">
+      <c r="AK20" s="9">
         <v>4128</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM20" s="9" t="s">
         <v>58</v>
@@ -2850,131 +2850,131 @@
       <c r="L21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>58</v>
+      <c r="M21" s="13">
+        <v>9512</v>
       </c>
       <c r="N21" s="13">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="O21" s="13">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="P21" s="13">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="Q21" s="13">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="R21" s="13">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="S21" s="13">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="T21" s="13">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="U21" s="13">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="V21" s="13">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="W21" s="13">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="X21" s="13">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="Y21" s="13">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="Z21" s="13">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AA21" s="13">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AB21" s="13">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AC21" s="13">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AD21" s="13">
-        <v>29676</v>
-      </c>
-      <c r="AE21" s="13">
         <v>17112</v>
       </c>
-      <c r="AF21" s="13" t="s">
-        <v>58</v>
+      <c r="AE21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>51469</v>
       </c>
       <c r="AG21" s="13">
-        <v>51469</v>
-      </c>
-      <c r="AH21" s="13">
         <v>19463</v>
       </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK21" s="13">
+      <c r="AJ21" s="13">
         <v>159940</v>
       </c>
-      <c r="AL21" s="13" t="s">
-        <v>58</v>
+      <c r="AK21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>0</v>
       </c>
       <c r="AM21" s="13">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AN21" s="13">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AO21" s="13">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AP21" s="13">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AQ21" s="13">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="AR21" s="13">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="AS21" s="13">
-        <v>48648</v>
+        <v>52604</v>
       </c>
       <c r="AT21" s="13">
-        <v>52604</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="13">
-        <v>0</v>
+        <v>18888</v>
       </c>
       <c r="AV21" s="13">
-        <v>18888</v>
+        <v>21496</v>
       </c>
       <c r="AW21" s="13">
-        <v>21496</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="13">
-        <v>0</v>
+        <v>13584</v>
       </c>
       <c r="AY21" s="13">
-        <v>13584</v>
+        <v>79536</v>
       </c>
       <c r="AZ21" s="13">
-        <v>79536</v>
+        <v>100822</v>
       </c>
       <c r="BA21" s="13">
-        <v>100822</v>
+        <v>100404</v>
       </c>
       <c r="BB21" s="13">
-        <v>100404</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3081,11 +3081,11 @@
       <c r="AJ22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22" s="9">
+      <c r="AK22" s="9">
         <v>3768</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM22" s="9" t="s">
         <v>58</v>
@@ -3168,107 +3168,107 @@
       <c r="L23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>58</v>
+      <c r="M23" s="13">
+        <v>0</v>
       </c>
       <c r="N23" s="13">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="O23" s="13">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="P23" s="13">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="Q23" s="13">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="R23" s="13">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="S23" s="13">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="T23" s="13">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="U23" s="13">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="V23" s="13">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="W23" s="13">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="X23" s="13">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="Y23" s="13">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="13">
         <v>0</v>
       </c>
       <c r="AA23" s="13">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AB23" s="13">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AC23" s="13">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AD23" s="13">
-        <v>5365</v>
-      </c>
-      <c r="AE23" s="13">
         <v>3311</v>
       </c>
-      <c r="AF23" s="13" t="s">
-        <v>58</v>
+      <c r="AE23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>4201</v>
       </c>
       <c r="AG23" s="13">
-        <v>4201</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI23" s="13">
+        <v>74139</v>
       </c>
       <c r="AJ23" s="13">
-        <v>74139</v>
-      </c>
-      <c r="AK23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL23" s="13">
+        <v>0</v>
       </c>
       <c r="AM23" s="13">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AN23" s="13">
-        <v>9000</v>
+        <v>28356</v>
       </c>
       <c r="AO23" s="13">
-        <v>28356</v>
+        <v>9168</v>
       </c>
       <c r="AP23" s="13">
-        <v>9168</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="13">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="AR23" s="13">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="AS23" s="13">
-        <v>9060</v>
+        <v>18632</v>
       </c>
       <c r="AT23" s="13">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="13">
         <v>0</v>
@@ -3280,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="AX23" s="13">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AY23" s="13">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="AZ23" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="13">
-        <v>0</v>
+        <v>3396</v>
       </c>
       <c r="BB23" s="13">
-        <v>3396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3399,11 +3399,11 @@
       <c r="AJ24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL24" s="9">
+      <c r="AK24" s="9">
         <v>1044</v>
+      </c>
+      <c r="AL24" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM24" s="9" t="s">
         <v>58</v>
@@ -3486,131 +3486,131 @@
       <c r="L25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>58</v>
+      <c r="M25" s="13">
+        <v>1860</v>
       </c>
       <c r="N25" s="13">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="O25" s="13">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="P25" s="13">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="Q25" s="13">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="R25" s="13">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="S25" s="13">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="T25" s="13">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="U25" s="13">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="V25" s="13">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="W25" s="13">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="X25" s="13">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="Y25" s="13">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="Z25" s="13">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AA25" s="13">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AB25" s="13">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AC25" s="13">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AD25" s="13">
+        <v>31524</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>89967</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>7441</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>38500</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>69784</v>
+      </c>
+      <c r="AK25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>76776</v>
+      </c>
+      <c r="AN25" s="13">
         <v>9732</v>
       </c>
-      <c r="AE25" s="13">
-        <v>31524</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>89967</v>
-      </c>
-      <c r="AH25" s="13">
-        <v>7441</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>38500</v>
-      </c>
-      <c r="AJ25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK25" s="13">
-        <v>69784</v>
-      </c>
-      <c r="AL25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>76776</v>
-      </c>
       <c r="AO25" s="13">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AP25" s="13">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AQ25" s="13">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="AR25" s="13">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="AS25" s="13">
-        <v>54240</v>
+        <v>62336</v>
       </c>
       <c r="AT25" s="13">
-        <v>62336</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="13">
-        <v>0</v>
+        <v>29168</v>
       </c>
       <c r="AV25" s="13">
-        <v>29168</v>
+        <v>57688</v>
       </c>
       <c r="AW25" s="13">
-        <v>57688</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="13">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AY25" s="13">
-        <v>9000</v>
+        <v>132637</v>
       </c>
       <c r="AZ25" s="13">
-        <v>132637</v>
+        <v>59012</v>
       </c>
       <c r="BA25" s="13">
-        <v>59012</v>
+        <v>86090</v>
       </c>
       <c r="BB25" s="13">
-        <v>86090</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3644,130 +3644,130 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="N26" s="15">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="O26" s="15">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="P26" s="15">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="Q26" s="15">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="R26" s="15">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="S26" s="15">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="T26" s="15">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="U26" s="15">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="V26" s="15">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="W26" s="15">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="X26" s="15">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="Y26" s="15">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="Z26" s="15">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AA26" s="15">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AB26" s="15">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AC26" s="15">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AD26" s="15">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AE26" s="15">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="15">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AG26" s="15">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AH26" s="15">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AI26" s="15">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AJ26" s="15">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AK26" s="15">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AL26" s="15">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="15">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AN26" s="15">
-        <v>143160</v>
+        <v>45204</v>
       </c>
       <c r="AO26" s="15">
-        <v>45204</v>
+        <v>46280</v>
       </c>
       <c r="AP26" s="15">
-        <v>46280</v>
+        <v>34200</v>
       </c>
       <c r="AQ26" s="15">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="AR26" s="15">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="AS26" s="15">
-        <v>111948</v>
+        <v>133572</v>
       </c>
       <c r="AT26" s="15">
-        <v>133572</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="15">
-        <v>0</v>
+        <v>48056</v>
       </c>
       <c r="AV26" s="15">
-        <v>48056</v>
+        <v>79184</v>
       </c>
       <c r="AW26" s="15">
-        <v>79184</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="15">
-        <v>0</v>
+        <v>24024</v>
       </c>
       <c r="AY26" s="15">
-        <v>24024</v>
+        <v>215053</v>
       </c>
       <c r="AZ26" s="15">
-        <v>215053</v>
+        <v>159834</v>
       </c>
       <c r="BA26" s="15">
-        <v>159834</v>
+        <v>189890</v>
       </c>
       <c r="BB26" s="15">
-        <v>189890</v>
+        <v>58606</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4015,130 +4015,130 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="N29" s="19">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="O29" s="19">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="P29" s="19">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="Q29" s="19">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="R29" s="19">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="S29" s="19">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="T29" s="19">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="U29" s="19">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="V29" s="19">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="W29" s="19">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="X29" s="19">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="Y29" s="19">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="Z29" s="19">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AA29" s="19">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AB29" s="19">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AC29" s="19">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AD29" s="19">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AE29" s="19">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AF29" s="19">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AG29" s="19">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AH29" s="19">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AI29" s="19">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AJ29" s="19">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AK29" s="19">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AL29" s="19">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AM29" s="19">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AN29" s="19">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AO29" s="19">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AP29" s="19">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AQ29" s="19">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="AR29" s="19">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="AS29" s="19">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
       <c r="AT29" s="19">
-        <v>6560085</v>
+        <v>6212107</v>
       </c>
       <c r="AU29" s="19">
-        <v>6212107</v>
+        <v>6904879</v>
       </c>
       <c r="AV29" s="19">
-        <v>6904879</v>
+        <v>4239402</v>
       </c>
       <c r="AW29" s="19">
-        <v>4239402</v>
+        <v>3110879</v>
       </c>
       <c r="AX29" s="19">
-        <v>3110879</v>
+        <v>6872127</v>
       </c>
       <c r="AY29" s="19">
-        <v>6872127</v>
+        <v>6855975</v>
       </c>
       <c r="AZ29" s="19">
-        <v>6855975</v>
+        <v>4868148</v>
       </c>
       <c r="BA29" s="19">
-        <v>4868148</v>
+        <v>6335473</v>
       </c>
       <c r="BB29" s="19">
-        <v>6335473</v>
+        <v>4051306</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4734,11 +4734,11 @@
       <c r="AJ37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37" s="9">
+      <c r="AK37" s="9">
         <v>1989681</v>
+      </c>
+      <c r="AL37" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM37" s="9" t="s">
         <v>58</v>
@@ -4821,131 +4821,131 @@
       <c r="L38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="13" t="s">
-        <v>58</v>
+      <c r="M38" s="13">
+        <v>1320729</v>
       </c>
       <c r="N38" s="13">
-        <v>1320729</v>
+        <v>2580766</v>
       </c>
       <c r="O38" s="13">
-        <v>2580766</v>
+        <v>3783148</v>
       </c>
       <c r="P38" s="13">
-        <v>3783148</v>
+        <v>4173866</v>
       </c>
       <c r="Q38" s="13">
-        <v>4173866</v>
+        <v>3130742</v>
       </c>
       <c r="R38" s="13">
-        <v>3130742</v>
+        <v>3023239</v>
       </c>
       <c r="S38" s="13">
-        <v>3023239</v>
+        <v>3779960</v>
       </c>
       <c r="T38" s="13">
-        <v>3779960</v>
+        <v>2779130</v>
       </c>
       <c r="U38" s="13">
-        <v>2779130</v>
+        <v>1564164</v>
       </c>
       <c r="V38" s="13">
-        <v>1564164</v>
+        <v>3044748</v>
       </c>
       <c r="W38" s="13">
-        <v>3044748</v>
+        <v>4107914</v>
       </c>
       <c r="X38" s="13">
-        <v>4107914</v>
+        <v>2394796</v>
       </c>
       <c r="Y38" s="13">
-        <v>2394796</v>
+        <v>1566309</v>
       </c>
       <c r="Z38" s="13">
-        <v>1566309</v>
+        <v>2515494</v>
       </c>
       <c r="AA38" s="13">
-        <v>2515494</v>
+        <v>2682261</v>
       </c>
       <c r="AB38" s="13">
-        <v>2682261</v>
+        <v>3193511</v>
       </c>
       <c r="AC38" s="13">
-        <v>3193511</v>
+        <v>3698752</v>
       </c>
       <c r="AD38" s="13">
-        <v>3698752</v>
+        <v>4100440</v>
       </c>
       <c r="AE38" s="13">
-        <v>4100440</v>
+        <v>1870160</v>
       </c>
       <c r="AF38" s="13">
-        <v>1870160</v>
+        <v>2479481</v>
       </c>
       <c r="AG38" s="13">
-        <v>2479481</v>
+        <v>2914177</v>
       </c>
       <c r="AH38" s="13">
-        <v>2914177</v>
+        <v>3038566</v>
       </c>
       <c r="AI38" s="13">
-        <v>3038566</v>
+        <v>3595991</v>
       </c>
       <c r="AJ38" s="13">
-        <v>3595991</v>
-      </c>
-      <c r="AK38" s="13">
         <v>3609528</v>
       </c>
-      <c r="AL38" s="13" t="s">
-        <v>58</v>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>3496200</v>
       </c>
       <c r="AM38" s="13">
-        <v>3496200</v>
+        <v>4200541</v>
       </c>
       <c r="AN38" s="13">
-        <v>4200541</v>
+        <v>2815617</v>
       </c>
       <c r="AO38" s="13">
-        <v>2815617</v>
+        <v>3081726</v>
       </c>
       <c r="AP38" s="13">
-        <v>3081726</v>
+        <v>2968577</v>
       </c>
       <c r="AQ38" s="13">
-        <v>2968577</v>
+        <v>2765128</v>
       </c>
       <c r="AR38" s="13">
-        <v>2765128</v>
+        <v>3309430</v>
       </c>
       <c r="AS38" s="13">
-        <v>3309430</v>
+        <v>3495912</v>
       </c>
       <c r="AT38" s="13">
-        <v>3495912</v>
+        <v>3162058</v>
       </c>
       <c r="AU38" s="13">
-        <v>3162058</v>
+        <v>3290502</v>
       </c>
       <c r="AV38" s="13">
-        <v>3290502</v>
+        <v>2728327</v>
       </c>
       <c r="AW38" s="13">
-        <v>2728327</v>
+        <v>1456757</v>
       </c>
       <c r="AX38" s="13">
-        <v>1456757</v>
+        <v>3698111</v>
       </c>
       <c r="AY38" s="13">
-        <v>3698111</v>
+        <v>4195582</v>
       </c>
       <c r="AZ38" s="13">
-        <v>4195582</v>
+        <v>2690664</v>
       </c>
       <c r="BA38" s="13">
-        <v>2690664</v>
+        <v>3440574</v>
       </c>
       <c r="BB38" s="13">
-        <v>3440574</v>
+        <v>2804792</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5052,11 +5052,11 @@
       <c r="AJ39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL39" s="9">
+      <c r="AK39" s="9">
         <v>660344</v>
+      </c>
+      <c r="AL39" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM39" s="9" t="s">
         <v>58</v>
@@ -5139,131 +5139,131 @@
       <c r="L40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M40" s="13" t="s">
-        <v>58</v>
+      <c r="M40" s="13">
+        <v>130340</v>
       </c>
       <c r="N40" s="13">
-        <v>130340</v>
+        <v>323957</v>
       </c>
       <c r="O40" s="13">
-        <v>323957</v>
+        <v>908037</v>
       </c>
       <c r="P40" s="13">
-        <v>908037</v>
+        <v>693492</v>
       </c>
       <c r="Q40" s="13">
-        <v>693492</v>
+        <v>545746</v>
       </c>
       <c r="R40" s="13">
-        <v>545746</v>
+        <v>715714</v>
       </c>
       <c r="S40" s="13">
-        <v>715714</v>
+        <v>671640</v>
       </c>
       <c r="T40" s="13">
-        <v>671640</v>
+        <v>585828</v>
       </c>
       <c r="U40" s="13">
-        <v>585828</v>
+        <v>305848</v>
       </c>
       <c r="V40" s="13">
-        <v>305848</v>
+        <v>1092631</v>
       </c>
       <c r="W40" s="13">
-        <v>1092631</v>
+        <v>1560939</v>
       </c>
       <c r="X40" s="13">
-        <v>1560939</v>
+        <v>550735</v>
       </c>
       <c r="Y40" s="13">
-        <v>550735</v>
+        <v>256651</v>
       </c>
       <c r="Z40" s="13">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AA40" s="13">
-        <v>852995</v>
+        <v>841409</v>
       </c>
       <c r="AB40" s="13">
-        <v>841409</v>
+        <v>728770</v>
       </c>
       <c r="AC40" s="13">
-        <v>728770</v>
+        <v>513533</v>
       </c>
       <c r="AD40" s="13">
-        <v>513533</v>
+        <v>668065</v>
       </c>
       <c r="AE40" s="13">
-        <v>668065</v>
+        <v>1301462</v>
       </c>
       <c r="AF40" s="13">
-        <v>1301462</v>
+        <v>779020</v>
       </c>
       <c r="AG40" s="13">
-        <v>779020</v>
+        <v>851136</v>
       </c>
       <c r="AH40" s="13">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AI40" s="13">
-        <v>561149</v>
+        <v>1152560</v>
       </c>
       <c r="AJ40" s="13">
-        <v>1152560</v>
-      </c>
-      <c r="AK40" s="13">
         <v>574133</v>
       </c>
-      <c r="AL40" s="13" t="s">
-        <v>58</v>
+      <c r="AK40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>1140687</v>
       </c>
       <c r="AM40" s="13">
-        <v>1140687</v>
+        <v>1249883</v>
       </c>
       <c r="AN40" s="13">
-        <v>1249883</v>
+        <v>1343740</v>
       </c>
       <c r="AO40" s="13">
-        <v>1343740</v>
+        <v>1123452</v>
       </c>
       <c r="AP40" s="13">
-        <v>1123452</v>
+        <v>1408978</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1408978</v>
+        <v>893959</v>
       </c>
       <c r="AR40" s="13">
-        <v>893959</v>
+        <v>1763718</v>
       </c>
       <c r="AS40" s="13">
-        <v>1763718</v>
+        <v>1493027</v>
       </c>
       <c r="AT40" s="13">
-        <v>1493027</v>
+        <v>1226078</v>
       </c>
       <c r="AU40" s="13">
-        <v>1226078</v>
+        <v>1103063</v>
       </c>
       <c r="AV40" s="13">
-        <v>1103063</v>
+        <v>897149</v>
       </c>
       <c r="AW40" s="13">
-        <v>897149</v>
+        <v>483239</v>
       </c>
       <c r="AX40" s="13">
-        <v>483239</v>
+        <v>1066962</v>
       </c>
       <c r="AY40" s="13">
-        <v>1066962</v>
+        <v>1180029</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1180029</v>
+        <v>638468</v>
       </c>
       <c r="BA40" s="13">
-        <v>638468</v>
+        <v>600597</v>
       </c>
       <c r="BB40" s="13">
-        <v>600597</v>
+        <v>1126425</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5370,11 +5370,11 @@
       <c r="AJ41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL41" s="9">
+      <c r="AK41" s="9">
         <v>858394</v>
+      </c>
+      <c r="AL41" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM41" s="9" t="s">
         <v>58</v>
@@ -5457,131 +5457,131 @@
       <c r="L42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>58</v>
+      <c r="M42" s="13">
+        <v>727155</v>
       </c>
       <c r="N42" s="13">
-        <v>727155</v>
+        <v>1758207</v>
       </c>
       <c r="O42" s="13">
-        <v>1758207</v>
+        <v>1428328</v>
       </c>
       <c r="P42" s="13">
-        <v>1428328</v>
+        <v>1347200</v>
       </c>
       <c r="Q42" s="13">
-        <v>1347200</v>
+        <v>1194794</v>
       </c>
       <c r="R42" s="13">
-        <v>1194794</v>
+        <v>1212186</v>
       </c>
       <c r="S42" s="13">
-        <v>1212186</v>
+        <v>1505135</v>
       </c>
       <c r="T42" s="13">
-        <v>1505135</v>
+        <v>1275979</v>
       </c>
       <c r="U42" s="13">
-        <v>1275979</v>
+        <v>808366</v>
       </c>
       <c r="V42" s="13">
-        <v>808366</v>
+        <v>1354994</v>
       </c>
       <c r="W42" s="13">
-        <v>1354994</v>
+        <v>1657995</v>
       </c>
       <c r="X42" s="13">
-        <v>1657995</v>
+        <v>820801</v>
       </c>
       <c r="Y42" s="13">
-        <v>820801</v>
+        <v>794112</v>
       </c>
       <c r="Z42" s="13">
-        <v>794112</v>
+        <v>1357659</v>
       </c>
       <c r="AA42" s="13">
-        <v>1357659</v>
+        <v>1241976</v>
       </c>
       <c r="AB42" s="13">
-        <v>1241976</v>
+        <v>905633</v>
       </c>
       <c r="AC42" s="13">
-        <v>905633</v>
+        <v>949622</v>
       </c>
       <c r="AD42" s="13">
-        <v>949622</v>
+        <v>752521</v>
       </c>
       <c r="AE42" s="13">
-        <v>752521</v>
+        <v>1502793</v>
       </c>
       <c r="AF42" s="13">
-        <v>1502793</v>
+        <v>1217963</v>
       </c>
       <c r="AG42" s="13">
-        <v>1217963</v>
+        <v>1151102</v>
       </c>
       <c r="AH42" s="13">
-        <v>1151102</v>
+        <v>876643</v>
       </c>
       <c r="AI42" s="13">
-        <v>876643</v>
+        <v>1478014</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1478014</v>
-      </c>
-      <c r="AK42" s="13">
         <v>1063891</v>
       </c>
-      <c r="AL42" s="13" t="s">
-        <v>58</v>
+      <c r="AK42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>1373302</v>
       </c>
       <c r="AM42" s="13">
-        <v>1373302</v>
+        <v>1538347</v>
       </c>
       <c r="AN42" s="13">
-        <v>1538347</v>
+        <v>914425</v>
       </c>
       <c r="AO42" s="13">
-        <v>914425</v>
+        <v>1080451</v>
       </c>
       <c r="AP42" s="13">
-        <v>1080451</v>
+        <v>1243693</v>
       </c>
       <c r="AQ42" s="13">
-        <v>1243693</v>
+        <v>1048105</v>
       </c>
       <c r="AR42" s="13">
-        <v>1048105</v>
+        <v>1427268</v>
       </c>
       <c r="AS42" s="13">
-        <v>1427268</v>
+        <v>1508550</v>
       </c>
       <c r="AT42" s="13">
-        <v>1508550</v>
+        <v>1100051</v>
       </c>
       <c r="AU42" s="13">
-        <v>1100051</v>
+        <v>1773172</v>
       </c>
       <c r="AV42" s="13">
-        <v>1773172</v>
+        <v>1525691</v>
       </c>
       <c r="AW42" s="13">
-        <v>1525691</v>
+        <v>1070652</v>
       </c>
       <c r="AX42" s="13">
-        <v>1070652</v>
+        <v>1848416</v>
       </c>
       <c r="AY42" s="13">
-        <v>1848416</v>
+        <v>1562506</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1562506</v>
+        <v>1967049</v>
       </c>
       <c r="BA42" s="13">
-        <v>1967049</v>
+        <v>1288536</v>
       </c>
       <c r="BB42" s="13">
-        <v>1288536</v>
+        <v>1724847</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5615,130 +5615,130 @@
         <v>0</v>
       </c>
       <c r="M43" s="15">
-        <v>0</v>
+        <v>2178224</v>
       </c>
       <c r="N43" s="15">
-        <v>2178224</v>
+        <v>4662930</v>
       </c>
       <c r="O43" s="15">
-        <v>4662930</v>
+        <v>6119513</v>
       </c>
       <c r="P43" s="15">
-        <v>6119513</v>
+        <v>6214558</v>
       </c>
       <c r="Q43" s="15">
-        <v>6214558</v>
+        <v>4871282</v>
       </c>
       <c r="R43" s="15">
-        <v>4871282</v>
+        <v>4951139</v>
       </c>
       <c r="S43" s="15">
-        <v>4951139</v>
+        <v>5956735</v>
       </c>
       <c r="T43" s="15">
-        <v>5956735</v>
+        <v>4640937</v>
       </c>
       <c r="U43" s="15">
-        <v>4640937</v>
+        <v>2678378</v>
       </c>
       <c r="V43" s="15">
-        <v>2678378</v>
+        <v>5492373</v>
       </c>
       <c r="W43" s="15">
-        <v>5492373</v>
+        <v>7326848</v>
       </c>
       <c r="X43" s="15">
-        <v>7326848</v>
+        <v>3766332</v>
       </c>
       <c r="Y43" s="15">
-        <v>3766332</v>
+        <v>2617072</v>
       </c>
       <c r="Z43" s="15">
-        <v>2617072</v>
+        <v>4726148</v>
       </c>
       <c r="AA43" s="15">
-        <v>4726148</v>
+        <v>4765646</v>
       </c>
       <c r="AB43" s="15">
-        <v>4765646</v>
+        <v>4827914</v>
       </c>
       <c r="AC43" s="15">
-        <v>4827914</v>
+        <v>5161907</v>
       </c>
       <c r="AD43" s="15">
-        <v>5161907</v>
+        <v>5521026</v>
       </c>
       <c r="AE43" s="15">
-        <v>5521026</v>
+        <v>4674415</v>
       </c>
       <c r="AF43" s="15">
-        <v>4674415</v>
+        <v>4476464</v>
       </c>
       <c r="AG43" s="15">
-        <v>4476464</v>
+        <v>4916415</v>
       </c>
       <c r="AH43" s="15">
-        <v>4916415</v>
+        <v>4476358</v>
       </c>
       <c r="AI43" s="15">
-        <v>4476358</v>
+        <v>6226565</v>
       </c>
       <c r="AJ43" s="15">
-        <v>6226565</v>
+        <v>5247552</v>
       </c>
       <c r="AK43" s="15">
-        <v>5247552</v>
+        <v>3508419</v>
       </c>
       <c r="AL43" s="15">
-        <v>3508419</v>
+        <v>6010189</v>
       </c>
       <c r="AM43" s="15">
-        <v>6010189</v>
+        <v>6988771</v>
       </c>
       <c r="AN43" s="15">
-        <v>6988771</v>
+        <v>5073782</v>
       </c>
       <c r="AO43" s="15">
-        <v>5073782</v>
+        <v>5285629</v>
       </c>
       <c r="AP43" s="15">
-        <v>5285629</v>
+        <v>5621248</v>
       </c>
       <c r="AQ43" s="15">
-        <v>5621248</v>
+        <v>4707192</v>
       </c>
       <c r="AR43" s="15">
-        <v>4707192</v>
+        <v>6500416</v>
       </c>
       <c r="AS43" s="15">
-        <v>6500416</v>
+        <v>6497489</v>
       </c>
       <c r="AT43" s="15">
-        <v>6497489</v>
+        <v>5488187</v>
       </c>
       <c r="AU43" s="15">
-        <v>5488187</v>
+        <v>6166737</v>
       </c>
       <c r="AV43" s="15">
-        <v>6166737</v>
+        <v>5151167</v>
       </c>
       <c r="AW43" s="15">
-        <v>5151167</v>
+        <v>3010648</v>
       </c>
       <c r="AX43" s="15">
-        <v>3010648</v>
+        <v>6613489</v>
       </c>
       <c r="AY43" s="15">
-        <v>6613489</v>
+        <v>6938117</v>
       </c>
       <c r="AZ43" s="15">
-        <v>6938117</v>
+        <v>5296181</v>
       </c>
       <c r="BA43" s="15">
-        <v>5296181</v>
+        <v>5329707</v>
       </c>
       <c r="BB43" s="15">
-        <v>5329707</v>
+        <v>5656064</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5902,11 +5902,11 @@
       <c r="AJ45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45" s="9">
+      <c r="AK45" s="9">
         <v>4128</v>
+      </c>
+      <c r="AL45" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM45" s="9" t="s">
         <v>58</v>
@@ -5989,131 +5989,131 @@
       <c r="L46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>58</v>
+      <c r="M46" s="13">
+        <v>9512</v>
       </c>
       <c r="N46" s="13">
-        <v>9512</v>
+        <v>3420</v>
       </c>
       <c r="O46" s="13">
-        <v>3420</v>
+        <v>46668</v>
       </c>
       <c r="P46" s="13">
-        <v>46668</v>
+        <v>38040</v>
       </c>
       <c r="Q46" s="13">
-        <v>38040</v>
+        <v>17832</v>
       </c>
       <c r="R46" s="13">
-        <v>17832</v>
+        <v>41992</v>
       </c>
       <c r="S46" s="13">
-        <v>41992</v>
+        <v>25514</v>
       </c>
       <c r="T46" s="13">
-        <v>25514</v>
+        <v>69006</v>
       </c>
       <c r="U46" s="13">
-        <v>69006</v>
+        <v>57796</v>
       </c>
       <c r="V46" s="13">
-        <v>57796</v>
+        <v>23710</v>
       </c>
       <c r="W46" s="13">
-        <v>23710</v>
+        <v>22606</v>
       </c>
       <c r="X46" s="13">
-        <v>22606</v>
+        <v>63876</v>
       </c>
       <c r="Y46" s="13">
-        <v>63876</v>
+        <v>8460</v>
       </c>
       <c r="Z46" s="13">
-        <v>8460</v>
+        <v>56280</v>
       </c>
       <c r="AA46" s="13">
-        <v>56280</v>
+        <v>75936</v>
       </c>
       <c r="AB46" s="13">
-        <v>75936</v>
+        <v>6156</v>
       </c>
       <c r="AC46" s="13">
-        <v>6156</v>
+        <v>29676</v>
       </c>
       <c r="AD46" s="13">
-        <v>29676</v>
-      </c>
-      <c r="AE46" s="13">
         <v>17112</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>58</v>
+      <c r="AE46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>51469</v>
       </c>
       <c r="AG46" s="13">
-        <v>51469</v>
-      </c>
-      <c r="AH46" s="13">
         <v>19463</v>
       </c>
+      <c r="AH46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK46" s="13">
+      <c r="AJ46" s="13">
         <v>159940</v>
       </c>
-      <c r="AL46" s="13" t="s">
-        <v>58</v>
+      <c r="AK46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL46" s="13">
+        <v>0</v>
       </c>
       <c r="AM46" s="13">
-        <v>0</v>
+        <v>57384</v>
       </c>
       <c r="AN46" s="13">
-        <v>57384</v>
+        <v>7116</v>
       </c>
       <c r="AO46" s="13">
-        <v>7116</v>
+        <v>13188</v>
       </c>
       <c r="AP46" s="13">
-        <v>13188</v>
+        <v>26352</v>
       </c>
       <c r="AQ46" s="13">
-        <v>26352</v>
+        <v>55026</v>
       </c>
       <c r="AR46" s="13">
-        <v>55026</v>
+        <v>48648</v>
       </c>
       <c r="AS46" s="13">
-        <v>48648</v>
+        <v>52604</v>
       </c>
       <c r="AT46" s="13">
-        <v>52604</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="13">
-        <v>0</v>
+        <v>18888</v>
       </c>
       <c r="AV46" s="13">
-        <v>18888</v>
+        <v>21496</v>
       </c>
       <c r="AW46" s="13">
-        <v>21496</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="13">
-        <v>0</v>
+        <v>13584</v>
       </c>
       <c r="AY46" s="13">
-        <v>13584</v>
+        <v>79536</v>
       </c>
       <c r="AZ46" s="13">
-        <v>79536</v>
+        <v>100822</v>
       </c>
       <c r="BA46" s="13">
-        <v>100822</v>
+        <v>100404</v>
       </c>
       <c r="BB46" s="13">
-        <v>100404</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6220,11 +6220,11 @@
       <c r="AJ47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL47" s="9">
+      <c r="AK47" s="9">
         <v>3768</v>
+      </c>
+      <c r="AL47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM47" s="9" t="s">
         <v>58</v>
@@ -6307,107 +6307,107 @@
       <c r="L48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="13" t="s">
-        <v>58</v>
+      <c r="M48" s="13">
+        <v>0</v>
       </c>
       <c r="N48" s="13">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="O48" s="13">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="P48" s="13">
-        <v>0</v>
+        <v>14919</v>
       </c>
       <c r="Q48" s="13">
-        <v>14919</v>
+        <v>1076</v>
       </c>
       <c r="R48" s="13">
-        <v>1076</v>
+        <v>2143</v>
       </c>
       <c r="S48" s="13">
-        <v>2143</v>
+        <v>6010</v>
       </c>
       <c r="T48" s="13">
-        <v>6010</v>
+        <v>9524</v>
       </c>
       <c r="U48" s="13">
-        <v>9524</v>
+        <v>19521</v>
       </c>
       <c r="V48" s="13">
-        <v>19521</v>
+        <v>5667</v>
       </c>
       <c r="W48" s="13">
-        <v>5667</v>
+        <v>4830</v>
       </c>
       <c r="X48" s="13">
-        <v>4830</v>
+        <v>11120</v>
       </c>
       <c r="Y48" s="13">
-        <v>11120</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="13">
         <v>0</v>
       </c>
       <c r="AA48" s="13">
-        <v>0</v>
+        <v>22619</v>
       </c>
       <c r="AB48" s="13">
-        <v>22619</v>
+        <v>144</v>
       </c>
       <c r="AC48" s="13">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AD48" s="13">
-        <v>5365</v>
-      </c>
-      <c r="AE48" s="13">
         <v>3311</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
+      <c r="AE48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>4201</v>
       </c>
       <c r="AG48" s="13">
-        <v>4201</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>74139</v>
       </c>
       <c r="AJ48" s="13">
-        <v>74139</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL48" s="13">
+        <v>0</v>
       </c>
       <c r="AM48" s="13">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AN48" s="13">
-        <v>9000</v>
+        <v>11508</v>
       </c>
       <c r="AO48" s="13">
-        <v>11508</v>
+        <v>26016</v>
       </c>
       <c r="AP48" s="13">
-        <v>26016</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="13">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="AR48" s="13">
-        <v>9144</v>
+        <v>9060</v>
       </c>
       <c r="AS48" s="13">
-        <v>9060</v>
+        <v>18632</v>
       </c>
       <c r="AT48" s="13">
-        <v>18632</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="13">
         <v>0</v>
@@ -6419,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AY48" s="13">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="AZ48" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="13">
-        <v>0</v>
+        <v>3396</v>
       </c>
       <c r="BB48" s="13">
-        <v>3396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6538,11 +6538,11 @@
       <c r="AJ49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL49" s="9">
+      <c r="AK49" s="9">
         <v>1044</v>
+      </c>
+      <c r="AL49" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM49" s="9" t="s">
         <v>58</v>
@@ -6625,131 +6625,131 @@
       <c r="L50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M50" s="13" t="s">
-        <v>58</v>
+      <c r="M50" s="13">
+        <v>1860</v>
       </c>
       <c r="N50" s="13">
-        <v>1860</v>
+        <v>14760</v>
       </c>
       <c r="O50" s="13">
-        <v>14760</v>
+        <v>40272</v>
       </c>
       <c r="P50" s="13">
-        <v>40272</v>
+        <v>30360</v>
       </c>
       <c r="Q50" s="13">
-        <v>30360</v>
+        <v>17004</v>
       </c>
       <c r="R50" s="13">
-        <v>17004</v>
+        <v>29712</v>
       </c>
       <c r="S50" s="13">
-        <v>29712</v>
+        <v>22037</v>
       </c>
       <c r="T50" s="13">
-        <v>22037</v>
+        <v>59264</v>
       </c>
       <c r="U50" s="13">
-        <v>59264</v>
+        <v>37755</v>
       </c>
       <c r="V50" s="13">
-        <v>37755</v>
+        <v>20332</v>
       </c>
       <c r="W50" s="13">
-        <v>20332</v>
+        <v>23272</v>
       </c>
       <c r="X50" s="13">
-        <v>23272</v>
+        <v>24784</v>
       </c>
       <c r="Y50" s="13">
-        <v>24784</v>
+        <v>7296</v>
       </c>
       <c r="Z50" s="13">
-        <v>7296</v>
+        <v>18120</v>
       </c>
       <c r="AA50" s="13">
-        <v>18120</v>
+        <v>84312</v>
       </c>
       <c r="AB50" s="13">
-        <v>84312</v>
+        <v>4296</v>
       </c>
       <c r="AC50" s="13">
-        <v>4296</v>
+        <v>9732</v>
       </c>
       <c r="AD50" s="13">
+        <v>31524</v>
+      </c>
+      <c r="AE50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF50" s="13">
+        <v>89967</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>7441</v>
+      </c>
+      <c r="AH50" s="13">
+        <v>38500</v>
+      </c>
+      <c r="AI50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ50" s="13">
+        <v>69784</v>
+      </c>
+      <c r="AK50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>76776</v>
+      </c>
+      <c r="AN50" s="13">
         <v>9732</v>
       </c>
-      <c r="AE50" s="13">
-        <v>31524</v>
-      </c>
-      <c r="AF50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="13">
-        <v>89967</v>
-      </c>
-      <c r="AH50" s="13">
-        <v>7441</v>
-      </c>
-      <c r="AI50" s="13">
-        <v>38500</v>
-      </c>
-      <c r="AJ50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK50" s="13">
-        <v>69784</v>
-      </c>
-      <c r="AL50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="13">
-        <v>76776</v>
-      </c>
       <c r="AO50" s="13">
-        <v>9732</v>
+        <v>23924</v>
       </c>
       <c r="AP50" s="13">
-        <v>23924</v>
+        <v>7848</v>
       </c>
       <c r="AQ50" s="13">
-        <v>7848</v>
+        <v>50850</v>
       </c>
       <c r="AR50" s="13">
-        <v>50850</v>
+        <v>54240</v>
       </c>
       <c r="AS50" s="13">
-        <v>54240</v>
+        <v>62336</v>
       </c>
       <c r="AT50" s="13">
-        <v>62336</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="13">
-        <v>0</v>
+        <v>29168</v>
       </c>
       <c r="AV50" s="13">
-        <v>29168</v>
+        <v>57688</v>
       </c>
       <c r="AW50" s="13">
-        <v>57688</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="13">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AY50" s="13">
-        <v>9000</v>
+        <v>132637</v>
       </c>
       <c r="AZ50" s="13">
-        <v>132637</v>
+        <v>59012</v>
       </c>
       <c r="BA50" s="13">
-        <v>59012</v>
+        <v>86090</v>
       </c>
       <c r="BB50" s="13">
-        <v>86090</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6783,130 +6783,130 @@
         <v>0</v>
       </c>
       <c r="M51" s="15">
-        <v>0</v>
+        <v>11372</v>
       </c>
       <c r="N51" s="15">
-        <v>11372</v>
+        <v>22020</v>
       </c>
       <c r="O51" s="15">
-        <v>22020</v>
+        <v>86940</v>
       </c>
       <c r="P51" s="15">
-        <v>86940</v>
+        <v>83319</v>
       </c>
       <c r="Q51" s="15">
-        <v>83319</v>
+        <v>35912</v>
       </c>
       <c r="R51" s="15">
-        <v>35912</v>
+        <v>73847</v>
       </c>
       <c r="S51" s="15">
-        <v>73847</v>
+        <v>53561</v>
       </c>
       <c r="T51" s="15">
-        <v>53561</v>
+        <v>137794</v>
       </c>
       <c r="U51" s="15">
-        <v>137794</v>
+        <v>115072</v>
       </c>
       <c r="V51" s="15">
-        <v>115072</v>
+        <v>49709</v>
       </c>
       <c r="W51" s="15">
-        <v>49709</v>
+        <v>50708</v>
       </c>
       <c r="X51" s="15">
-        <v>50708</v>
+        <v>99780</v>
       </c>
       <c r="Y51" s="15">
-        <v>99780</v>
+        <v>15756</v>
       </c>
       <c r="Z51" s="15">
-        <v>15756</v>
+        <v>74400</v>
       </c>
       <c r="AA51" s="15">
-        <v>74400</v>
+        <v>182867</v>
       </c>
       <c r="AB51" s="15">
-        <v>182867</v>
+        <v>10596</v>
       </c>
       <c r="AC51" s="15">
-        <v>10596</v>
+        <v>44773</v>
       </c>
       <c r="AD51" s="15">
-        <v>44773</v>
+        <v>51947</v>
       </c>
       <c r="AE51" s="15">
-        <v>51947</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="15">
-        <v>0</v>
+        <v>145637</v>
       </c>
       <c r="AG51" s="15">
-        <v>145637</v>
+        <v>26904</v>
       </c>
       <c r="AH51" s="15">
-        <v>26904</v>
+        <v>38500</v>
       </c>
       <c r="AI51" s="15">
-        <v>38500</v>
+        <v>74139</v>
       </c>
       <c r="AJ51" s="15">
-        <v>74139</v>
+        <v>229724</v>
       </c>
       <c r="AK51" s="15">
-        <v>229724</v>
+        <v>8940</v>
       </c>
       <c r="AL51" s="15">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="15">
-        <v>0</v>
+        <v>143160</v>
       </c>
       <c r="AN51" s="15">
-        <v>143160</v>
+        <v>28356</v>
       </c>
       <c r="AO51" s="15">
-        <v>28356</v>
+        <v>63128</v>
       </c>
       <c r="AP51" s="15">
-        <v>63128</v>
+        <v>34200</v>
       </c>
       <c r="AQ51" s="15">
-        <v>34200</v>
+        <v>115020</v>
       </c>
       <c r="AR51" s="15">
-        <v>115020</v>
+        <v>111948</v>
       </c>
       <c r="AS51" s="15">
-        <v>111948</v>
+        <v>133572</v>
       </c>
       <c r="AT51" s="15">
-        <v>133572</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="15">
-        <v>0</v>
+        <v>48056</v>
       </c>
       <c r="AV51" s="15">
-        <v>48056</v>
+        <v>79184</v>
       </c>
       <c r="AW51" s="15">
-        <v>79184</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="15">
-        <v>0</v>
+        <v>24024</v>
       </c>
       <c r="AY51" s="15">
-        <v>24024</v>
+        <v>215053</v>
       </c>
       <c r="AZ51" s="15">
-        <v>215053</v>
+        <v>159834</v>
       </c>
       <c r="BA51" s="15">
-        <v>159834</v>
+        <v>189890</v>
       </c>
       <c r="BB51" s="15">
-        <v>189890</v>
+        <v>58606</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7368,130 +7368,130 @@
         <v>0</v>
       </c>
       <c r="M56" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="N56" s="19">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="O56" s="19">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="P56" s="19">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="Q56" s="19">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="R56" s="19">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="S56" s="19">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="T56" s="19">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="U56" s="19">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="V56" s="19">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="W56" s="19">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="X56" s="19">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="Y56" s="19">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="Z56" s="19">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AA56" s="19">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AB56" s="19">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AC56" s="19">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AD56" s="19">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AE56" s="19">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AF56" s="19">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AG56" s="19">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AH56" s="19">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AI56" s="19">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AJ56" s="19">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AK56" s="19">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AL56" s="19">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AM56" s="19">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AN56" s="19">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AO56" s="19">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AP56" s="19">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AQ56" s="19">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="AR56" s="19">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="AS56" s="19">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
       <c r="AT56" s="19">
-        <v>6631061</v>
+        <v>5488187</v>
       </c>
       <c r="AU56" s="19">
-        <v>5488187</v>
+        <v>6214793</v>
       </c>
       <c r="AV56" s="19">
-        <v>6214793</v>
+        <v>5230351</v>
       </c>
       <c r="AW56" s="19">
-        <v>5230351</v>
+        <v>3010648</v>
       </c>
       <c r="AX56" s="19">
-        <v>3010648</v>
+        <v>6637513</v>
       </c>
       <c r="AY56" s="19">
-        <v>6637513</v>
+        <v>7153170</v>
       </c>
       <c r="AZ56" s="19">
-        <v>7153170</v>
+        <v>5456015</v>
       </c>
       <c r="BA56" s="19">
-        <v>5456015</v>
+        <v>5519597</v>
       </c>
       <c r="BB56" s="19">
-        <v>5519597</v>
+        <v>5714670</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8015,131 +8015,131 @@
       <c r="L64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>58</v>
+      <c r="M64" s="9">
+        <v>165283</v>
       </c>
       <c r="N64" s="9">
-        <v>165283</v>
+        <v>396066</v>
       </c>
       <c r="O64" s="9">
-        <v>396066</v>
+        <v>393106</v>
       </c>
       <c r="P64" s="9">
-        <v>393106</v>
+        <v>592602</v>
       </c>
       <c r="Q64" s="9">
-        <v>592602</v>
+        <v>514433</v>
       </c>
       <c r="R64" s="9">
-        <v>514433</v>
+        <v>553392</v>
       </c>
       <c r="S64" s="9">
-        <v>553392</v>
+        <v>593051</v>
       </c>
       <c r="T64" s="9">
-        <v>593051</v>
+        <v>596707</v>
       </c>
       <c r="U64" s="9">
-        <v>596707</v>
+        <v>507198</v>
       </c>
       <c r="V64" s="9">
-        <v>507198</v>
+        <v>618102</v>
       </c>
       <c r="W64" s="9">
-        <v>618102</v>
+        <v>908940</v>
       </c>
       <c r="X64" s="9">
-        <v>908940</v>
+        <v>746452</v>
       </c>
       <c r="Y64" s="9">
-        <v>746452</v>
+        <v>346417</v>
       </c>
       <c r="Z64" s="9">
-        <v>346417</v>
+        <v>589789</v>
       </c>
       <c r="AA64" s="9">
-        <v>589789</v>
+        <v>605399</v>
       </c>
       <c r="AB64" s="9">
-        <v>605399</v>
+        <v>768772</v>
       </c>
       <c r="AC64" s="9">
-        <v>768772</v>
+        <v>791113</v>
       </c>
       <c r="AD64" s="9">
-        <v>791113</v>
+        <v>978070</v>
       </c>
       <c r="AE64" s="9">
-        <v>978070</v>
+        <v>520867</v>
       </c>
       <c r="AF64" s="9">
-        <v>520867</v>
+        <v>721711</v>
       </c>
       <c r="AG64" s="9">
-        <v>721711</v>
+        <v>701817</v>
       </c>
       <c r="AH64" s="9">
-        <v>701817</v>
+        <v>778548</v>
       </c>
       <c r="AI64" s="9">
-        <v>778548</v>
+        <v>978172</v>
       </c>
       <c r="AJ64" s="9">
-        <v>978172</v>
+        <v>888182</v>
       </c>
       <c r="AK64" s="9">
-        <v>888182</v>
+        <v>491503</v>
       </c>
       <c r="AL64" s="9">
-        <v>491503</v>
+        <v>975476</v>
       </c>
       <c r="AM64" s="9">
-        <v>975476</v>
+        <v>1253144</v>
       </c>
       <c r="AN64" s="9">
-        <v>1253144</v>
+        <v>933931</v>
       </c>
       <c r="AO64" s="9">
-        <v>933931</v>
+        <v>1027166</v>
       </c>
       <c r="AP64" s="9">
-        <v>1027166</v>
+        <v>1177383</v>
       </c>
       <c r="AQ64" s="9">
-        <v>1177383</v>
+        <v>894249</v>
       </c>
       <c r="AR64" s="9">
-        <v>894249</v>
+        <v>1217495</v>
       </c>
       <c r="AS64" s="9">
-        <v>1217495</v>
+        <v>1278709</v>
       </c>
       <c r="AT64" s="9">
-        <v>1278709</v>
+        <v>1290144</v>
       </c>
       <c r="AU64" s="9">
-        <v>1290144</v>
+        <v>1240363</v>
       </c>
       <c r="AV64" s="9">
-        <v>1240363</v>
+        <v>1053367</v>
       </c>
       <c r="AW64" s="9">
-        <v>1053367</v>
+        <v>579998</v>
       </c>
       <c r="AX64" s="9">
-        <v>579998</v>
+        <v>1526126</v>
       </c>
       <c r="AY64" s="9">
-        <v>1526126</v>
+        <v>1703062</v>
       </c>
       <c r="AZ64" s="9">
-        <v>1703062</v>
+        <v>1284912</v>
       </c>
       <c r="BA64" s="9">
-        <v>1284912</v>
+        <v>1504923</v>
       </c>
       <c r="BB64" s="9">
-        <v>1504923</v>
+        <v>1873751</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8174,131 +8174,131 @@
       <c r="L65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M65" s="13" t="s">
-        <v>58</v>
+      <c r="M65" s="13">
+        <v>27600</v>
       </c>
       <c r="N65" s="13">
-        <v>27600</v>
+        <v>139228</v>
       </c>
       <c r="O65" s="13">
-        <v>139228</v>
+        <v>151990</v>
       </c>
       <c r="P65" s="13">
-        <v>151990</v>
+        <v>165748</v>
       </c>
       <c r="Q65" s="13">
-        <v>165748</v>
+        <v>176972</v>
       </c>
       <c r="R65" s="13">
-        <v>176972</v>
+        <v>227532</v>
       </c>
       <c r="S65" s="13">
-        <v>227532</v>
+        <v>217613</v>
       </c>
       <c r="T65" s="13">
-        <v>217613</v>
+        <v>223101</v>
       </c>
       <c r="U65" s="13">
-        <v>223101</v>
+        <v>137180</v>
       </c>
       <c r="V65" s="13">
-        <v>137180</v>
+        <v>306629</v>
       </c>
       <c r="W65" s="13">
-        <v>306629</v>
+        <v>457113</v>
       </c>
       <c r="X65" s="13">
-        <v>457113</v>
+        <v>251125</v>
       </c>
       <c r="Y65" s="13">
-        <v>251125</v>
+        <v>102359</v>
       </c>
       <c r="Z65" s="13">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AA65" s="13">
-        <v>350389</v>
+        <v>281941</v>
       </c>
       <c r="AB65" s="13">
-        <v>281941</v>
+        <v>353573</v>
       </c>
       <c r="AC65" s="13">
-        <v>353573</v>
+        <v>192767</v>
       </c>
       <c r="AD65" s="13">
-        <v>192767</v>
+        <v>233404</v>
       </c>
       <c r="AE65" s="13">
-        <v>233404</v>
+        <v>439739</v>
       </c>
       <c r="AF65" s="13">
-        <v>439739</v>
+        <v>455549</v>
       </c>
       <c r="AG65" s="13">
-        <v>455549</v>
+        <v>429007</v>
       </c>
       <c r="AH65" s="13">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AI65" s="13">
-        <v>387230</v>
+        <v>601535</v>
       </c>
       <c r="AJ65" s="13">
-        <v>601535</v>
+        <v>380655</v>
       </c>
       <c r="AK65" s="13">
-        <v>380655</v>
+        <v>295706</v>
       </c>
       <c r="AL65" s="13">
-        <v>295706</v>
+        <v>677102</v>
       </c>
       <c r="AM65" s="13">
-        <v>677102</v>
+        <v>713538</v>
       </c>
       <c r="AN65" s="13">
-        <v>713538</v>
+        <v>767728</v>
       </c>
       <c r="AO65" s="13">
-        <v>767728</v>
+        <v>608822</v>
       </c>
       <c r="AP65" s="13">
-        <v>608822</v>
+        <v>995123</v>
       </c>
       <c r="AQ65" s="13">
-        <v>995123</v>
+        <v>495959</v>
       </c>
       <c r="AR65" s="13">
-        <v>495959</v>
+        <v>1065343</v>
       </c>
       <c r="AS65" s="13">
-        <v>1065343</v>
+        <v>980075</v>
       </c>
       <c r="AT65" s="13">
-        <v>980075</v>
+        <v>869999</v>
       </c>
       <c r="AU65" s="13">
-        <v>869999</v>
+        <v>751267</v>
       </c>
       <c r="AV65" s="13">
-        <v>751267</v>
+        <v>626799</v>
       </c>
       <c r="AW65" s="13">
-        <v>626799</v>
+        <v>389232</v>
       </c>
       <c r="AX65" s="13">
-        <v>389232</v>
+        <v>961606</v>
       </c>
       <c r="AY65" s="13">
-        <v>961606</v>
+        <v>618777</v>
       </c>
       <c r="AZ65" s="13">
-        <v>618777</v>
+        <v>626831</v>
       </c>
       <c r="BA65" s="13">
-        <v>626831</v>
+        <v>579359</v>
       </c>
       <c r="BB65" s="13">
-        <v>579359</v>
+        <v>1179453</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8333,131 +8333,131 @@
       <c r="L66" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M66" s="9" t="s">
-        <v>58</v>
+      <c r="M66" s="9">
+        <v>107356</v>
       </c>
       <c r="N66" s="9">
-        <v>107356</v>
+        <v>264463</v>
       </c>
       <c r="O66" s="9">
-        <v>264463</v>
+        <v>312989</v>
       </c>
       <c r="P66" s="9">
-        <v>312989</v>
+        <v>311214</v>
       </c>
       <c r="Q66" s="9">
-        <v>311214</v>
+        <v>284377</v>
       </c>
       <c r="R66" s="9">
-        <v>284377</v>
+        <v>262582</v>
       </c>
       <c r="S66" s="9">
-        <v>262582</v>
+        <v>291013</v>
       </c>
       <c r="T66" s="9">
-        <v>291013</v>
+        <v>303673</v>
       </c>
       <c r="U66" s="9">
-        <v>303673</v>
+        <v>204875</v>
       </c>
       <c r="V66" s="9">
-        <v>204875</v>
+        <v>310919</v>
       </c>
       <c r="W66" s="9">
-        <v>310919</v>
+        <v>435566</v>
       </c>
       <c r="X66" s="9">
-        <v>435566</v>
+        <v>322153</v>
       </c>
       <c r="Y66" s="9">
-        <v>322153</v>
+        <v>237020</v>
       </c>
       <c r="Z66" s="9">
-        <v>237020</v>
+        <v>443682</v>
       </c>
       <c r="AA66" s="9">
-        <v>443682</v>
+        <v>379317</v>
       </c>
       <c r="AB66" s="9">
-        <v>379317</v>
+        <v>361340</v>
       </c>
       <c r="AC66" s="9">
-        <v>361340</v>
+        <v>292867</v>
       </c>
       <c r="AD66" s="9">
-        <v>292867</v>
+        <v>211220</v>
       </c>
       <c r="AE66" s="9">
-        <v>211220</v>
+        <v>409790</v>
       </c>
       <c r="AF66" s="9">
-        <v>409790</v>
+        <v>380457</v>
       </c>
       <c r="AG66" s="9">
-        <v>380457</v>
+        <v>332376</v>
       </c>
       <c r="AH66" s="9">
-        <v>332376</v>
+        <v>296503</v>
       </c>
       <c r="AI66" s="9">
-        <v>296503</v>
+        <v>531290</v>
       </c>
       <c r="AJ66" s="9">
-        <v>531290</v>
+        <v>255696</v>
       </c>
       <c r="AK66" s="9">
-        <v>255696</v>
+        <v>241291</v>
       </c>
       <c r="AL66" s="9">
-        <v>241291</v>
+        <v>438589</v>
       </c>
       <c r="AM66" s="9">
-        <v>438589</v>
+        <v>494639</v>
       </c>
       <c r="AN66" s="9">
-        <v>494639</v>
+        <v>329574</v>
       </c>
       <c r="AO66" s="9">
-        <v>329574</v>
+        <v>346258</v>
       </c>
       <c r="AP66" s="9">
-        <v>346258</v>
+        <v>421735</v>
       </c>
       <c r="AQ66" s="9">
-        <v>421735</v>
+        <v>355816</v>
       </c>
       <c r="AR66" s="9">
-        <v>355816</v>
+        <v>432481</v>
       </c>
       <c r="AS66" s="9">
-        <v>432481</v>
+        <v>477529</v>
       </c>
       <c r="AT66" s="9">
-        <v>477529</v>
+        <v>473084</v>
       </c>
       <c r="AU66" s="9">
-        <v>473084</v>
+        <v>703851</v>
       </c>
       <c r="AV66" s="9">
-        <v>703851</v>
+        <v>611299</v>
       </c>
       <c r="AW66" s="9">
-        <v>611299</v>
+        <v>506450</v>
       </c>
       <c r="AX66" s="9">
-        <v>506450</v>
+        <v>948306</v>
       </c>
       <c r="AY66" s="9">
-        <v>948306</v>
+        <v>1318990</v>
       </c>
       <c r="AZ66" s="9">
-        <v>1318990</v>
+        <v>1161671</v>
       </c>
       <c r="BA66" s="9">
-        <v>1161671</v>
+        <v>774297</v>
       </c>
       <c r="BB66" s="9">
-        <v>774297</v>
+        <v>1109049</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8491,130 +8491,130 @@
         <v>0</v>
       </c>
       <c r="M67" s="19">
-        <v>0</v>
+        <v>300239</v>
       </c>
       <c r="N67" s="19">
-        <v>300239</v>
+        <v>799757</v>
       </c>
       <c r="O67" s="19">
-        <v>799757</v>
+        <v>858085</v>
       </c>
       <c r="P67" s="19">
-        <v>858085</v>
+        <v>1069564</v>
       </c>
       <c r="Q67" s="19">
-        <v>1069564</v>
+        <v>975782</v>
       </c>
       <c r="R67" s="19">
-        <v>975782</v>
+        <v>1043506</v>
       </c>
       <c r="S67" s="19">
-        <v>1043506</v>
+        <v>1101677</v>
       </c>
       <c r="T67" s="19">
-        <v>1101677</v>
+        <v>1123481</v>
       </c>
       <c r="U67" s="19">
-        <v>1123481</v>
+        <v>849253</v>
       </c>
       <c r="V67" s="19">
-        <v>849253</v>
+        <v>1235650</v>
       </c>
       <c r="W67" s="19">
-        <v>1235650</v>
+        <v>1801619</v>
       </c>
       <c r="X67" s="19">
-        <v>1801619</v>
+        <v>1319730</v>
       </c>
       <c r="Y67" s="19">
-        <v>1319730</v>
+        <v>685796</v>
       </c>
       <c r="Z67" s="19">
-        <v>685796</v>
+        <v>1383860</v>
       </c>
       <c r="AA67" s="19">
-        <v>1383860</v>
+        <v>1266657</v>
       </c>
       <c r="AB67" s="19">
-        <v>1266657</v>
+        <v>1483685</v>
       </c>
       <c r="AC67" s="19">
-        <v>1483685</v>
+        <v>1276747</v>
       </c>
       <c r="AD67" s="19">
-        <v>1276747</v>
+        <v>1422694</v>
       </c>
       <c r="AE67" s="19">
-        <v>1422694</v>
+        <v>1370396</v>
       </c>
       <c r="AF67" s="19">
-        <v>1370396</v>
+        <v>1557717</v>
       </c>
       <c r="AG67" s="19">
-        <v>1557717</v>
+        <v>1463200</v>
       </c>
       <c r="AH67" s="19">
-        <v>1463200</v>
+        <v>1462281</v>
       </c>
       <c r="AI67" s="19">
-        <v>1462281</v>
+        <v>2110997</v>
       </c>
       <c r="AJ67" s="19">
-        <v>2110997</v>
+        <v>1524533</v>
       </c>
       <c r="AK67" s="19">
-        <v>1524533</v>
+        <v>1028500</v>
       </c>
       <c r="AL67" s="19">
-        <v>1028500</v>
+        <v>2091167</v>
       </c>
       <c r="AM67" s="19">
-        <v>2091167</v>
+        <v>2461321</v>
       </c>
       <c r="AN67" s="19">
-        <v>2461321</v>
+        <v>2031233</v>
       </c>
       <c r="AO67" s="19">
-        <v>2031233</v>
+        <v>1982246</v>
       </c>
       <c r="AP67" s="19">
-        <v>1982246</v>
+        <v>2594241</v>
       </c>
       <c r="AQ67" s="19">
-        <v>2594241</v>
+        <v>1746024</v>
       </c>
       <c r="AR67" s="19">
-        <v>1746024</v>
+        <v>2715319</v>
       </c>
       <c r="AS67" s="19">
-        <v>2715319</v>
+        <v>2736313</v>
       </c>
       <c r="AT67" s="19">
-        <v>2736313</v>
+        <v>2633227</v>
       </c>
       <c r="AU67" s="19">
-        <v>2633227</v>
+        <v>2695481</v>
       </c>
       <c r="AV67" s="19">
-        <v>2695481</v>
+        <v>2291465</v>
       </c>
       <c r="AW67" s="19">
-        <v>2291465</v>
+        <v>1475680</v>
       </c>
       <c r="AX67" s="19">
-        <v>1475680</v>
+        <v>3436038</v>
       </c>
       <c r="AY67" s="19">
-        <v>3436038</v>
+        <v>3640829</v>
       </c>
       <c r="AZ67" s="19">
-        <v>3640829</v>
+        <v>3073414</v>
       </c>
       <c r="BA67" s="19">
-        <v>3073414</v>
+        <v>2858579</v>
       </c>
       <c r="BB67" s="19">
-        <v>2858579</v>
+        <v>4162253</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8706,131 +8706,131 @@
       <c r="L69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M69" s="9" t="s">
-        <v>58</v>
+      <c r="M69" s="9">
+        <v>611</v>
       </c>
       <c r="N69" s="9">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="O69" s="9">
-        <v>363</v>
+        <v>7629</v>
       </c>
       <c r="P69" s="9">
-        <v>7629</v>
+        <v>5786</v>
       </c>
       <c r="Q69" s="9">
-        <v>5786</v>
+        <v>2560</v>
       </c>
       <c r="R69" s="9">
-        <v>2560</v>
+        <v>7795</v>
       </c>
       <c r="S69" s="9">
-        <v>7795</v>
+        <v>4849</v>
       </c>
       <c r="T69" s="9">
-        <v>4849</v>
+        <v>10837</v>
       </c>
       <c r="U69" s="9">
-        <v>10837</v>
+        <v>9206</v>
       </c>
       <c r="V69" s="9">
-        <v>9206</v>
+        <v>4070</v>
       </c>
       <c r="W69" s="9">
-        <v>4070</v>
+        <v>4422</v>
       </c>
       <c r="X69" s="9">
-        <v>4422</v>
+        <v>10885</v>
       </c>
       <c r="Y69" s="9">
-        <v>10885</v>
+        <v>1501</v>
       </c>
       <c r="Z69" s="9">
-        <v>1501</v>
+        <v>9009</v>
       </c>
       <c r="AA69" s="9">
-        <v>9009</v>
+        <v>15333</v>
       </c>
       <c r="AB69" s="9">
-        <v>15333</v>
+        <v>1020</v>
       </c>
       <c r="AC69" s="9">
-        <v>1020</v>
+        <v>5279</v>
       </c>
       <c r="AD69" s="9">
-        <v>5279</v>
+        <v>3777</v>
       </c>
       <c r="AE69" s="9">
-        <v>3777</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="9">
-        <v>0</v>
+        <v>9707</v>
       </c>
       <c r="AG69" s="9">
-        <v>9707</v>
+        <v>3366</v>
       </c>
       <c r="AH69" s="9">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="9">
         <v>0</v>
       </c>
       <c r="AJ69" s="9">
-        <v>0</v>
+        <v>37489</v>
       </c>
       <c r="AK69" s="9">
-        <v>37489</v>
+        <v>1339</v>
       </c>
       <c r="AL69" s="9">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="9">
-        <v>0</v>
+        <v>11682</v>
       </c>
       <c r="AN69" s="9">
-        <v>11682</v>
+        <v>1337</v>
       </c>
       <c r="AO69" s="9">
-        <v>1337</v>
+        <v>3637</v>
       </c>
       <c r="AP69" s="9">
-        <v>3637</v>
+        <v>5396</v>
       </c>
       <c r="AQ69" s="9">
-        <v>5396</v>
+        <v>21055</v>
       </c>
       <c r="AR69" s="9">
-        <v>21055</v>
+        <v>13304</v>
       </c>
       <c r="AS69" s="9">
-        <v>13304</v>
+        <v>17136</v>
       </c>
       <c r="AT69" s="9">
-        <v>17136</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="9">
-        <v>0</v>
+        <v>8282</v>
       </c>
       <c r="AV69" s="9">
-        <v>8282</v>
+        <v>14272</v>
       </c>
       <c r="AW69" s="9">
-        <v>14272</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="9">
-        <v>0</v>
+        <v>5239</v>
       </c>
       <c r="AY69" s="9">
-        <v>5239</v>
+        <v>44418</v>
       </c>
       <c r="AZ69" s="9">
-        <v>44418</v>
+        <v>57979</v>
       </c>
       <c r="BA69" s="9">
-        <v>57979</v>
+        <v>42432</v>
       </c>
       <c r="BB69" s="9">
-        <v>42432</v>
+        <v>19593</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8865,107 +8865,107 @@
       <c r="L70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M70" s="13" t="s">
-        <v>58</v>
+      <c r="M70" s="13">
+        <v>0</v>
       </c>
       <c r="N70" s="13">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="O70" s="13">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="P70" s="13">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="Q70" s="13">
-        <v>2032</v>
+        <v>417</v>
       </c>
       <c r="R70" s="13">
-        <v>417</v>
+        <v>1847</v>
       </c>
       <c r="S70" s="13">
-        <v>1847</v>
+        <v>1325</v>
       </c>
       <c r="T70" s="13">
-        <v>1325</v>
+        <v>2217</v>
       </c>
       <c r="U70" s="13">
-        <v>2217</v>
+        <v>4027</v>
       </c>
       <c r="V70" s="13">
-        <v>4027</v>
+        <v>1745</v>
       </c>
       <c r="W70" s="13">
-        <v>1745</v>
+        <v>1477</v>
       </c>
       <c r="X70" s="13">
-        <v>1477</v>
+        <v>3283</v>
       </c>
       <c r="Y70" s="13">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="13">
         <v>0</v>
       </c>
       <c r="AA70" s="13">
-        <v>0</v>
+        <v>5218</v>
       </c>
       <c r="AB70" s="13">
-        <v>5218</v>
+        <v>85</v>
       </c>
       <c r="AC70" s="13">
-        <v>85</v>
+        <v>1324</v>
       </c>
       <c r="AD70" s="13">
-        <v>1324</v>
+        <v>809</v>
       </c>
       <c r="AE70" s="13">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="13">
-        <v>0</v>
+        <v>4003</v>
       </c>
       <c r="AG70" s="13">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="AH70" s="13">
         <v>0</v>
       </c>
       <c r="AI70" s="13">
-        <v>0</v>
+        <v>23364</v>
       </c>
       <c r="AJ70" s="13">
-        <v>23364</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="13">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="AL70" s="13">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="13">
-        <v>0</v>
+        <v>4078</v>
       </c>
       <c r="AN70" s="13">
-        <v>4078</v>
+        <v>2037</v>
       </c>
       <c r="AO70" s="13">
-        <v>2037</v>
+        <v>7255</v>
       </c>
       <c r="AP70" s="13">
-        <v>7255</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="13">
-        <v>0</v>
+        <v>3674</v>
       </c>
       <c r="AR70" s="13">
-        <v>3674</v>
+        <v>2879</v>
       </c>
       <c r="AS70" s="13">
-        <v>2879</v>
+        <v>5978</v>
       </c>
       <c r="AT70" s="13">
-        <v>5978</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="13">
         <v>0</v>
@@ -8977,19 +8977,19 @@
         <v>0</v>
       </c>
       <c r="AX70" s="13">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="AY70" s="13">
-        <v>1103</v>
+        <v>2111</v>
       </c>
       <c r="AZ70" s="13">
-        <v>2111</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="13">
-        <v>0</v>
+        <v>1727</v>
       </c>
       <c r="BB70" s="13">
-        <v>1727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9024,131 +9024,131 @@
       <c r="L71" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M71" s="9" t="s">
-        <v>58</v>
+      <c r="M71" s="9">
+        <v>237</v>
       </c>
       <c r="N71" s="9">
-        <v>237</v>
+        <v>1638</v>
       </c>
       <c r="O71" s="9">
-        <v>1638</v>
+        <v>5599</v>
       </c>
       <c r="P71" s="9">
-        <v>5599</v>
+        <v>4439</v>
       </c>
       <c r="Q71" s="9">
-        <v>4439</v>
+        <v>6119</v>
       </c>
       <c r="R71" s="9">
-        <v>6119</v>
+        <v>4642</v>
       </c>
       <c r="S71" s="9">
-        <v>4642</v>
+        <v>4957</v>
       </c>
       <c r="T71" s="9">
-        <v>4957</v>
+        <v>10652</v>
       </c>
       <c r="U71" s="9">
-        <v>10652</v>
+        <v>9420</v>
       </c>
       <c r="V71" s="9">
-        <v>9420</v>
+        <v>3843</v>
       </c>
       <c r="W71" s="9">
-        <v>3843</v>
+        <v>3960</v>
       </c>
       <c r="X71" s="9">
-        <v>3960</v>
+        <v>4454</v>
       </c>
       <c r="Y71" s="9">
-        <v>4454</v>
+        <v>1918</v>
       </c>
       <c r="Z71" s="9">
-        <v>1918</v>
+        <v>3638</v>
       </c>
       <c r="AA71" s="9">
-        <v>3638</v>
+        <v>16914</v>
       </c>
       <c r="AB71" s="9">
-        <v>16914</v>
+        <v>860</v>
       </c>
       <c r="AC71" s="9">
-        <v>860</v>
+        <v>1581</v>
       </c>
       <c r="AD71" s="9">
-        <v>1581</v>
+        <v>7462</v>
       </c>
       <c r="AE71" s="9">
-        <v>7462</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="9">
-        <v>0</v>
+        <v>18160</v>
       </c>
       <c r="AG71" s="9">
-        <v>18160</v>
+        <v>1674</v>
       </c>
       <c r="AH71" s="9">
-        <v>1674</v>
+        <v>11790</v>
       </c>
       <c r="AI71" s="9">
-        <v>11790</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="9">
-        <v>0</v>
+        <v>16265</v>
       </c>
       <c r="AK71" s="9">
-        <v>16265</v>
+        <v>214</v>
       </c>
       <c r="AL71" s="9">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="9">
-        <v>0</v>
+        <v>20170</v>
       </c>
       <c r="AN71" s="9">
-        <v>20170</v>
+        <v>1752</v>
       </c>
       <c r="AO71" s="9">
-        <v>1752</v>
+        <v>12940</v>
       </c>
       <c r="AP71" s="9">
-        <v>12940</v>
+        <v>1938</v>
       </c>
       <c r="AQ71" s="9">
-        <v>1938</v>
+        <v>20092</v>
       </c>
       <c r="AR71" s="9">
-        <v>20092</v>
+        <v>17842</v>
       </c>
       <c r="AS71" s="9">
-        <v>17842</v>
+        <v>20757</v>
       </c>
       <c r="AT71" s="9">
-        <v>20757</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="9">
-        <v>0</v>
+        <v>11424</v>
       </c>
       <c r="AV71" s="9">
-        <v>11424</v>
+        <v>22536</v>
       </c>
       <c r="AW71" s="9">
-        <v>22536</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="9">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="AY71" s="9">
-        <v>5008</v>
+        <v>68900</v>
       </c>
       <c r="AZ71" s="9">
-        <v>68900</v>
+        <v>34827</v>
       </c>
       <c r="BA71" s="9">
-        <v>34827</v>
+        <v>74510</v>
       </c>
       <c r="BB71" s="9">
-        <v>74510</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9182,130 +9182,130 @@
         <v>0</v>
       </c>
       <c r="M72" s="19">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="N72" s="19">
-        <v>848</v>
+        <v>2394</v>
       </c>
       <c r="O72" s="19">
-        <v>2394</v>
+        <v>13228</v>
       </c>
       <c r="P72" s="19">
-        <v>13228</v>
+        <v>12257</v>
       </c>
       <c r="Q72" s="19">
-        <v>12257</v>
+        <v>9096</v>
       </c>
       <c r="R72" s="19">
-        <v>9096</v>
+        <v>14284</v>
       </c>
       <c r="S72" s="19">
-        <v>14284</v>
+        <v>11131</v>
       </c>
       <c r="T72" s="19">
-        <v>11131</v>
+        <v>23706</v>
       </c>
       <c r="U72" s="19">
-        <v>23706</v>
+        <v>22653</v>
       </c>
       <c r="V72" s="19">
-        <v>22653</v>
+        <v>9658</v>
       </c>
       <c r="W72" s="19">
-        <v>9658</v>
+        <v>9859</v>
       </c>
       <c r="X72" s="19">
-        <v>9859</v>
+        <v>18622</v>
       </c>
       <c r="Y72" s="19">
-        <v>18622</v>
+        <v>3419</v>
       </c>
       <c r="Z72" s="19">
-        <v>3419</v>
+        <v>12647</v>
       </c>
       <c r="AA72" s="19">
-        <v>12647</v>
+        <v>37465</v>
       </c>
       <c r="AB72" s="19">
-        <v>37465</v>
+        <v>1965</v>
       </c>
       <c r="AC72" s="19">
-        <v>1965</v>
+        <v>8184</v>
       </c>
       <c r="AD72" s="19">
-        <v>8184</v>
+        <v>12048</v>
       </c>
       <c r="AE72" s="19">
-        <v>12048</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="19">
-        <v>0</v>
+        <v>31870</v>
       </c>
       <c r="AG72" s="19">
-        <v>31870</v>
+        <v>5040</v>
       </c>
       <c r="AH72" s="19">
-        <v>5040</v>
+        <v>11790</v>
       </c>
       <c r="AI72" s="19">
-        <v>11790</v>
+        <v>23364</v>
       </c>
       <c r="AJ72" s="19">
-        <v>23364</v>
+        <v>53754</v>
       </c>
       <c r="AK72" s="19">
-        <v>53754</v>
+        <v>2737</v>
       </c>
       <c r="AL72" s="19">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="19">
-        <v>0</v>
+        <v>35930</v>
       </c>
       <c r="AN72" s="19">
-        <v>35930</v>
+        <v>5126</v>
       </c>
       <c r="AO72" s="19">
-        <v>5126</v>
+        <v>23832</v>
       </c>
       <c r="AP72" s="19">
-        <v>23832</v>
+        <v>7334</v>
       </c>
       <c r="AQ72" s="19">
-        <v>7334</v>
+        <v>44821</v>
       </c>
       <c r="AR72" s="19">
-        <v>44821</v>
+        <v>34025</v>
       </c>
       <c r="AS72" s="19">
-        <v>34025</v>
+        <v>43871</v>
       </c>
       <c r="AT72" s="19">
-        <v>43871</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="19">
-        <v>0</v>
+        <v>19706</v>
       </c>
       <c r="AV72" s="19">
-        <v>19706</v>
+        <v>36808</v>
       </c>
       <c r="AW72" s="19">
-        <v>36808</v>
+        <v>0</v>
       </c>
       <c r="AX72" s="19">
-        <v>0</v>
+        <v>11350</v>
       </c>
       <c r="AY72" s="19">
-        <v>11350</v>
+        <v>115429</v>
       </c>
       <c r="AZ72" s="19">
-        <v>115429</v>
+        <v>92806</v>
       </c>
       <c r="BA72" s="19">
-        <v>92806</v>
+        <v>118669</v>
       </c>
       <c r="BB72" s="19">
-        <v>118669</v>
+        <v>32162</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -10039,8 +10039,8 @@
       <c r="L80" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M80" s="9" t="s">
-        <v>58</v>
+      <c r="M80" s="9">
+        <v>0</v>
       </c>
       <c r="N80" s="9">
         <v>0</v>
@@ -10354,130 +10354,130 @@
         <v>0</v>
       </c>
       <c r="M82" s="15">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="N82" s="15">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="O82" s="15">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="P82" s="15">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="Q82" s="15">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="R82" s="15">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="S82" s="15">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="T82" s="15">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="U82" s="15">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="V82" s="15">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="W82" s="15">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="X82" s="15">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="Y82" s="15">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="Z82" s="15">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AA82" s="15">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AB82" s="15">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AC82" s="15">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AD82" s="15">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AE82" s="15">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AF82" s="15">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AG82" s="15">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AH82" s="15">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AI82" s="15">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AJ82" s="15">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AK82" s="15">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AL82" s="15">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AM82" s="15">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AN82" s="15">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AO82" s="15">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AP82" s="15">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AQ82" s="15">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="AR82" s="15">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="AS82" s="15">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
       <c r="AT82" s="15">
-        <v>2780184</v>
+        <v>2633227</v>
       </c>
       <c r="AU82" s="15">
-        <v>2633227</v>
+        <v>2715187</v>
       </c>
       <c r="AV82" s="15">
-        <v>2715187</v>
+        <v>2328273</v>
       </c>
       <c r="AW82" s="15">
-        <v>2328273</v>
+        <v>1475680</v>
       </c>
       <c r="AX82" s="15">
-        <v>1475680</v>
+        <v>3447388</v>
       </c>
       <c r="AY82" s="15">
-        <v>3447388</v>
+        <v>3756258</v>
       </c>
       <c r="AZ82" s="15">
-        <v>3756258</v>
+        <v>3166220</v>
       </c>
       <c r="BA82" s="15">
-        <v>3166220</v>
+        <v>2977248</v>
       </c>
       <c r="BB82" s="15">
-        <v>2977248</v>
+        <v>4194415</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11001,131 +11001,131 @@
       <c r="L90" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M90" s="9" t="s">
-        <v>58</v>
+      <c r="M90" s="9">
+        <v>125145</v>
       </c>
       <c r="N90" s="9">
-        <v>125145</v>
+        <v>153468</v>
       </c>
       <c r="O90" s="9">
-        <v>153468</v>
+        <v>103910</v>
       </c>
       <c r="P90" s="9">
-        <v>103910</v>
+        <v>141979</v>
       </c>
       <c r="Q90" s="9">
-        <v>141979</v>
+        <v>164317</v>
       </c>
       <c r="R90" s="9">
-        <v>164317</v>
+        <v>183046</v>
       </c>
       <c r="S90" s="9">
-        <v>183046</v>
+        <v>156893</v>
       </c>
       <c r="T90" s="9">
-        <v>156893</v>
+        <v>214710</v>
       </c>
       <c r="U90" s="9">
-        <v>214710</v>
+        <v>324261</v>
       </c>
       <c r="V90" s="9">
-        <v>324261</v>
+        <v>203006</v>
       </c>
       <c r="W90" s="9">
-        <v>203006</v>
+        <v>221266</v>
       </c>
       <c r="X90" s="9">
-        <v>221266</v>
+        <v>311698</v>
       </c>
       <c r="Y90" s="9">
-        <v>311698</v>
+        <v>221168</v>
       </c>
       <c r="Z90" s="9">
-        <v>221168</v>
+        <v>234463</v>
       </c>
       <c r="AA90" s="9">
-        <v>234463</v>
+        <v>225705</v>
       </c>
       <c r="AB90" s="9">
-        <v>225705</v>
+        <v>240729</v>
       </c>
       <c r="AC90" s="9">
-        <v>240729</v>
+        <v>213886</v>
       </c>
       <c r="AD90" s="9">
-        <v>213886</v>
+        <v>238528</v>
       </c>
       <c r="AE90" s="9">
-        <v>238528</v>
+        <v>278515</v>
       </c>
       <c r="AF90" s="9">
-        <v>278515</v>
+        <v>291073</v>
       </c>
       <c r="AG90" s="9">
-        <v>291073</v>
+        <v>240829</v>
       </c>
       <c r="AH90" s="9">
-        <v>240829</v>
+        <v>256222</v>
       </c>
       <c r="AI90" s="9">
-        <v>256222</v>
+        <v>272017</v>
       </c>
       <c r="AJ90" s="9">
-        <v>272017</v>
+        <v>246066</v>
       </c>
       <c r="AK90" s="9">
-        <v>246066</v>
+        <v>247026</v>
       </c>
       <c r="AL90" s="9">
-        <v>247026</v>
+        <v>279010</v>
       </c>
       <c r="AM90" s="9">
-        <v>279010</v>
+        <v>298329</v>
       </c>
       <c r="AN90" s="9">
-        <v>298329</v>
+        <v>331697</v>
       </c>
       <c r="AO90" s="9">
-        <v>331697</v>
+        <v>333309</v>
       </c>
       <c r="AP90" s="9">
-        <v>333309</v>
+        <v>396615</v>
       </c>
       <c r="AQ90" s="9">
-        <v>396615</v>
+        <v>323402</v>
       </c>
       <c r="AR90" s="9">
-        <v>323402</v>
+        <v>367887</v>
       </c>
       <c r="AS90" s="9">
-        <v>367887</v>
+        <v>365773</v>
       </c>
       <c r="AT90" s="9">
-        <v>365773</v>
+        <v>408008</v>
       </c>
       <c r="AU90" s="9">
-        <v>408008</v>
+        <v>376953</v>
       </c>
       <c r="AV90" s="9">
-        <v>376953</v>
+        <v>386085</v>
       </c>
       <c r="AW90" s="9">
-        <v>386085</v>
+        <v>398143</v>
       </c>
       <c r="AX90" s="9">
-        <v>398143</v>
+        <v>412677</v>
       </c>
       <c r="AY90" s="9">
-        <v>412677</v>
+        <v>405918</v>
       </c>
       <c r="AZ90" s="9">
-        <v>405918</v>
+        <v>477545</v>
       </c>
       <c r="BA90" s="9">
-        <v>477545</v>
+        <v>437405</v>
       </c>
       <c r="BB90" s="9">
-        <v>437405</v>
+        <v>668053</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11160,131 +11160,131 @@
       <c r="L91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M91" s="13" t="s">
-        <v>58</v>
+      <c r="M91" s="13">
+        <v>211754</v>
       </c>
       <c r="N91" s="13">
-        <v>211754</v>
+        <v>429773</v>
       </c>
       <c r="O91" s="13">
-        <v>429773</v>
+        <v>167383</v>
       </c>
       <c r="P91" s="13">
-        <v>167383</v>
+        <v>239005</v>
       </c>
       <c r="Q91" s="13">
-        <v>239005</v>
+        <v>324275</v>
       </c>
       <c r="R91" s="13">
-        <v>324275</v>
+        <v>317909</v>
       </c>
       <c r="S91" s="13">
-        <v>317909</v>
+        <v>324002</v>
       </c>
       <c r="T91" s="13">
-        <v>324002</v>
+        <v>380830</v>
       </c>
       <c r="U91" s="13">
-        <v>380830</v>
+        <v>448523</v>
       </c>
       <c r="V91" s="13">
-        <v>448523</v>
+        <v>280634</v>
       </c>
       <c r="W91" s="13">
-        <v>280634</v>
+        <v>292845</v>
       </c>
       <c r="X91" s="13">
-        <v>292845</v>
+        <v>455982</v>
       </c>
       <c r="Y91" s="13">
-        <v>455982</v>
+        <v>398826</v>
       </c>
       <c r="Z91" s="13">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AA91" s="13">
-        <v>410775</v>
+        <v>335082</v>
       </c>
       <c r="AB91" s="13">
-        <v>335082</v>
+        <v>485164</v>
       </c>
       <c r="AC91" s="13">
-        <v>485164</v>
+        <v>375374</v>
       </c>
       <c r="AD91" s="13">
-        <v>375374</v>
+        <v>349373</v>
       </c>
       <c r="AE91" s="13">
-        <v>349373</v>
+        <v>337881</v>
       </c>
       <c r="AF91" s="13">
-        <v>337881</v>
+        <v>584772</v>
       </c>
       <c r="AG91" s="13">
-        <v>584772</v>
+        <v>504040</v>
       </c>
       <c r="AH91" s="13">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AI91" s="13">
-        <v>690066</v>
+        <v>521912</v>
       </c>
       <c r="AJ91" s="13">
-        <v>521912</v>
+        <v>663008</v>
       </c>
       <c r="AK91" s="13">
-        <v>663008</v>
+        <v>447806</v>
       </c>
       <c r="AL91" s="13">
-        <v>447806</v>
+        <v>593591</v>
       </c>
       <c r="AM91" s="13">
-        <v>593591</v>
+        <v>570884</v>
       </c>
       <c r="AN91" s="13">
-        <v>570884</v>
+        <v>571337</v>
       </c>
       <c r="AO91" s="13">
-        <v>571337</v>
+        <v>541921</v>
       </c>
       <c r="AP91" s="13">
-        <v>541921</v>
+        <v>706273</v>
       </c>
       <c r="AQ91" s="13">
-        <v>706273</v>
+        <v>554789</v>
       </c>
       <c r="AR91" s="13">
-        <v>554789</v>
+        <v>604033</v>
       </c>
       <c r="AS91" s="13">
-        <v>604033</v>
+        <v>656435</v>
       </c>
       <c r="AT91" s="13">
-        <v>656435</v>
+        <v>709579</v>
       </c>
       <c r="AU91" s="13">
-        <v>709579</v>
+        <v>681074</v>
       </c>
       <c r="AV91" s="13">
-        <v>681074</v>
+        <v>698657</v>
       </c>
       <c r="AW91" s="13">
-        <v>698657</v>
+        <v>805465</v>
       </c>
       <c r="AX91" s="13">
-        <v>805465</v>
+        <v>901256</v>
       </c>
       <c r="AY91" s="13">
-        <v>901256</v>
+        <v>524374</v>
       </c>
       <c r="AZ91" s="13">
-        <v>524374</v>
+        <v>981774</v>
       </c>
       <c r="BA91" s="13">
-        <v>981774</v>
+        <v>964639</v>
       </c>
       <c r="BB91" s="13">
-        <v>964639</v>
+        <v>1047076</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11319,131 +11319,131 @@
       <c r="L92" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M92" s="9" t="s">
-        <v>58</v>
+      <c r="M92" s="9">
+        <v>147638</v>
       </c>
       <c r="N92" s="9">
-        <v>147638</v>
+        <v>150416</v>
       </c>
       <c r="O92" s="9">
-        <v>150416</v>
+        <v>219130</v>
       </c>
       <c r="P92" s="9">
-        <v>219130</v>
+        <v>231008</v>
       </c>
       <c r="Q92" s="9">
-        <v>231008</v>
+        <v>238013</v>
       </c>
       <c r="R92" s="9">
-        <v>238013</v>
+        <v>216619</v>
       </c>
       <c r="S92" s="9">
-        <v>216619</v>
+        <v>193347</v>
       </c>
       <c r="T92" s="9">
-        <v>193347</v>
+        <v>237992</v>
       </c>
       <c r="U92" s="9">
-        <v>237992</v>
+        <v>253443</v>
       </c>
       <c r="V92" s="9">
-        <v>253443</v>
+        <v>229462</v>
       </c>
       <c r="W92" s="9">
-        <v>229462</v>
+        <v>262706</v>
       </c>
       <c r="X92" s="9">
-        <v>262706</v>
+        <v>392486</v>
       </c>
       <c r="Y92" s="9">
-        <v>392486</v>
+        <v>298472</v>
       </c>
       <c r="Z92" s="9">
-        <v>298472</v>
+        <v>326799</v>
       </c>
       <c r="AA92" s="9">
-        <v>326799</v>
+        <v>305414</v>
       </c>
       <c r="AB92" s="9">
-        <v>305414</v>
+        <v>398992</v>
       </c>
       <c r="AC92" s="9">
-        <v>398992</v>
+        <v>308404</v>
       </c>
       <c r="AD92" s="9">
-        <v>308404</v>
+        <v>280683</v>
       </c>
       <c r="AE92" s="9">
-        <v>280683</v>
+        <v>272686</v>
       </c>
       <c r="AF92" s="9">
-        <v>272686</v>
+        <v>312372</v>
       </c>
       <c r="AG92" s="9">
-        <v>312372</v>
+        <v>288746</v>
       </c>
       <c r="AH92" s="9">
-        <v>288746</v>
+        <v>338225</v>
       </c>
       <c r="AI92" s="9">
-        <v>338225</v>
+        <v>359462</v>
       </c>
       <c r="AJ92" s="9">
-        <v>359462</v>
+        <v>240340</v>
       </c>
       <c r="AK92" s="9">
-        <v>240340</v>
+        <v>281096</v>
       </c>
       <c r="AL92" s="9">
-        <v>281096</v>
+        <v>319368</v>
       </c>
       <c r="AM92" s="9">
-        <v>319368</v>
+        <v>321539</v>
       </c>
       <c r="AN92" s="9">
-        <v>321539</v>
+        <v>360417</v>
       </c>
       <c r="AO92" s="9">
-        <v>360417</v>
+        <v>320475</v>
       </c>
       <c r="AP92" s="9">
-        <v>320475</v>
+        <v>339099</v>
       </c>
       <c r="AQ92" s="9">
-        <v>339099</v>
+        <v>339485</v>
       </c>
       <c r="AR92" s="9">
-        <v>339485</v>
+        <v>303013</v>
       </c>
       <c r="AS92" s="9">
-        <v>303013</v>
+        <v>316548</v>
       </c>
       <c r="AT92" s="9">
-        <v>316548</v>
+        <v>430056</v>
       </c>
       <c r="AU92" s="9">
-        <v>430056</v>
+        <v>396945</v>
       </c>
       <c r="AV92" s="9">
-        <v>396945</v>
+        <v>400670</v>
       </c>
       <c r="AW92" s="9">
-        <v>400670</v>
+        <v>473030</v>
       </c>
       <c r="AX92" s="9">
-        <v>473030</v>
+        <v>513037</v>
       </c>
       <c r="AY92" s="9">
-        <v>513037</v>
+        <v>844150</v>
       </c>
       <c r="AZ92" s="9">
-        <v>844150</v>
+        <v>590565</v>
       </c>
       <c r="BA92" s="9">
-        <v>590565</v>
+        <v>600912</v>
       </c>
       <c r="BB92" s="9">
-        <v>600912</v>
+        <v>642984</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -11535,131 +11535,131 @@
       <c r="L94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M94" s="9" t="s">
-        <v>58</v>
+      <c r="M94" s="9">
+        <v>64235</v>
       </c>
       <c r="N94" s="9">
-        <v>64235</v>
+        <v>106140</v>
       </c>
       <c r="O94" s="9">
-        <v>106140</v>
+        <v>163474</v>
       </c>
       <c r="P94" s="9">
-        <v>163474</v>
+        <v>152103</v>
       </c>
       <c r="Q94" s="9">
-        <v>152103</v>
+        <v>143562</v>
       </c>
       <c r="R94" s="9">
-        <v>143562</v>
+        <v>185631</v>
       </c>
       <c r="S94" s="9">
-        <v>185631</v>
+        <v>190053</v>
       </c>
       <c r="T94" s="9">
-        <v>190053</v>
+        <v>157044</v>
       </c>
       <c r="U94" s="9">
-        <v>157044</v>
+        <v>159284</v>
       </c>
       <c r="V94" s="9">
-        <v>159284</v>
+        <v>171658</v>
       </c>
       <c r="W94" s="9">
-        <v>171658</v>
+        <v>195612</v>
       </c>
       <c r="X94" s="9">
-        <v>195612</v>
+        <v>170408</v>
       </c>
       <c r="Y94" s="9">
-        <v>170408</v>
+        <v>177423</v>
       </c>
       <c r="Z94" s="9">
-        <v>177423</v>
+        <v>160075</v>
       </c>
       <c r="AA94" s="9">
-        <v>160075</v>
+        <v>201920</v>
       </c>
       <c r="AB94" s="9">
-        <v>201920</v>
+        <v>165692</v>
       </c>
       <c r="AC94" s="9">
-        <v>165692</v>
+        <v>177888</v>
       </c>
       <c r="AD94" s="9">
-        <v>177888</v>
-      </c>
-      <c r="AE94" s="9">
         <v>220722</v>
       </c>
-      <c r="AF94" s="9" t="s">
-        <v>58</v>
+      <c r="AE94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF94" s="9">
+        <v>188599</v>
       </c>
       <c r="AG94" s="9">
-        <v>188599</v>
-      </c>
-      <c r="AH94" s="9">
         <v>172944</v>
       </c>
+      <c r="AH94" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="AI94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AJ94" s="9" t="s">
-        <v>58</v>
+      <c r="AJ94" s="9">
+        <v>234394</v>
       </c>
       <c r="AK94" s="9">
-        <v>234394</v>
-      </c>
-      <c r="AL94" s="9">
         <v>324370</v>
       </c>
-      <c r="AM94" s="9" t="s">
-        <v>58</v>
+      <c r="AL94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM94" s="9">
+        <v>203576</v>
       </c>
       <c r="AN94" s="9">
-        <v>203576</v>
+        <v>187886</v>
       </c>
       <c r="AO94" s="9">
-        <v>187886</v>
+        <v>275781</v>
       </c>
       <c r="AP94" s="9">
-        <v>275781</v>
+        <v>204766</v>
       </c>
       <c r="AQ94" s="9">
-        <v>204766</v>
+        <v>382637</v>
       </c>
       <c r="AR94" s="9">
-        <v>382637</v>
+        <v>273475</v>
       </c>
       <c r="AS94" s="9">
-        <v>273475</v>
-      </c>
-      <c r="AT94" s="9">
         <v>325755</v>
       </c>
-      <c r="AU94" s="9" t="s">
-        <v>58</v>
+      <c r="AT94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU94" s="9">
+        <v>438479</v>
       </c>
       <c r="AV94" s="9">
-        <v>438479</v>
-      </c>
-      <c r="AW94" s="9">
         <v>663937</v>
       </c>
-      <c r="AX94" s="9" t="s">
-        <v>58</v>
+      <c r="AW94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX94" s="9">
+        <v>385674</v>
       </c>
       <c r="AY94" s="9">
-        <v>385674</v>
+        <v>558464</v>
       </c>
       <c r="AZ94" s="9">
-        <v>558464</v>
+        <v>575063</v>
       </c>
       <c r="BA94" s="9">
-        <v>575063</v>
+        <v>422613</v>
       </c>
       <c r="BB94" s="9">
-        <v>422613</v>
+        <v>485865</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -11697,105 +11697,105 @@
       <c r="M95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O95" s="13">
+      <c r="N95" s="13">
         <v>102344</v>
       </c>
-      <c r="P95" s="13" t="s">
-        <v>58</v>
+      <c r="O95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P95" s="13">
+        <v>136202</v>
       </c>
       <c r="Q95" s="13">
-        <v>136202</v>
+        <v>387546</v>
       </c>
       <c r="R95" s="13">
-        <v>387546</v>
+        <v>861876</v>
       </c>
       <c r="S95" s="13">
-        <v>861876</v>
+        <v>220466</v>
       </c>
       <c r="T95" s="13">
-        <v>220466</v>
+        <v>232780</v>
       </c>
       <c r="U95" s="13">
-        <v>232780</v>
+        <v>206291</v>
       </c>
       <c r="V95" s="13">
-        <v>206291</v>
+        <v>307923</v>
       </c>
       <c r="W95" s="13">
-        <v>307923</v>
+        <v>305797</v>
       </c>
       <c r="X95" s="13">
-        <v>305797</v>
-      </c>
-      <c r="Y95" s="13">
         <v>295234</v>
       </c>
+      <c r="Y95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Z95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA95" s="13" t="s">
-        <v>58</v>
+      <c r="AA95" s="13">
+        <v>230691</v>
       </c>
       <c r="AB95" s="13">
-        <v>230691</v>
+        <v>590278</v>
       </c>
       <c r="AC95" s="13">
-        <v>590278</v>
+        <v>246785</v>
       </c>
       <c r="AD95" s="13">
-        <v>246785</v>
-      </c>
-      <c r="AE95" s="13">
         <v>244337</v>
       </c>
-      <c r="AF95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG95" s="13">
+      <c r="AE95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF95" s="13">
         <v>952868</v>
       </c>
+      <c r="AG95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ95" s="13">
+      <c r="AI95" s="13">
         <v>315138</v>
       </c>
-      <c r="AK95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL95" s="13">
+      <c r="AJ95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK95" s="13">
         <v>314225</v>
       </c>
-      <c r="AM95" s="13" t="s">
-        <v>58</v>
+      <c r="AL95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM95" s="13">
+        <v>453111</v>
       </c>
       <c r="AN95" s="13">
-        <v>453111</v>
+        <v>177007</v>
       </c>
       <c r="AO95" s="13">
-        <v>177007</v>
-      </c>
-      <c r="AP95" s="13">
         <v>278867</v>
       </c>
-      <c r="AQ95" s="13" t="s">
-        <v>58</v>
+      <c r="AP95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ95" s="13">
+        <v>401794</v>
       </c>
       <c r="AR95" s="13">
-        <v>401794</v>
+        <v>317770</v>
       </c>
       <c r="AS95" s="13">
-        <v>317770</v>
-      </c>
-      <c r="AT95" s="13">
         <v>320846</v>
       </c>
+      <c r="AT95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU95" s="13" t="s">
         <v>58</v>
       </c>
@@ -11805,20 +11805,20 @@
       <c r="AW95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX95" s="13" t="s">
-        <v>58</v>
+      <c r="AX95" s="13">
+        <v>765972</v>
       </c>
       <c r="AY95" s="13">
-        <v>765972</v>
-      </c>
-      <c r="AZ95" s="13">
         <v>732986</v>
       </c>
-      <c r="BA95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB95" s="13">
+      <c r="AZ95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA95" s="13">
         <v>508539</v>
+      </c>
+      <c r="BB95" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -11853,131 +11853,131 @@
       <c r="L96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M96" s="9" t="s">
-        <v>58</v>
+      <c r="M96" s="9">
+        <v>127419</v>
       </c>
       <c r="N96" s="9">
-        <v>127419</v>
+        <v>110976</v>
       </c>
       <c r="O96" s="9">
-        <v>110976</v>
+        <v>139030</v>
       </c>
       <c r="P96" s="9">
-        <v>139030</v>
+        <v>146212</v>
       </c>
       <c r="Q96" s="9">
-        <v>146212</v>
+        <v>359857</v>
       </c>
       <c r="R96" s="9">
-        <v>359857</v>
+        <v>156233</v>
       </c>
       <c r="S96" s="9">
-        <v>156233</v>
+        <v>224940</v>
       </c>
       <c r="T96" s="9">
-        <v>224940</v>
+        <v>179738</v>
       </c>
       <c r="U96" s="9">
-        <v>179738</v>
+        <v>249503</v>
       </c>
       <c r="V96" s="9">
-        <v>249503</v>
+        <v>189012</v>
       </c>
       <c r="W96" s="9">
-        <v>189012</v>
+        <v>170162</v>
       </c>
       <c r="X96" s="9">
-        <v>170162</v>
+        <v>179713</v>
       </c>
       <c r="Y96" s="9">
-        <v>179713</v>
+        <v>262884</v>
       </c>
       <c r="Z96" s="9">
-        <v>262884</v>
+        <v>200773</v>
       </c>
       <c r="AA96" s="9">
-        <v>200773</v>
+        <v>200612</v>
       </c>
       <c r="AB96" s="9">
-        <v>200612</v>
+        <v>200186</v>
       </c>
       <c r="AC96" s="9">
-        <v>200186</v>
+        <v>162454</v>
       </c>
       <c r="AD96" s="9">
-        <v>162454</v>
-      </c>
-      <c r="AE96" s="9">
         <v>236709</v>
       </c>
-      <c r="AF96" s="9" t="s">
-        <v>58</v>
+      <c r="AE96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF96" s="9">
+        <v>201852</v>
       </c>
       <c r="AG96" s="9">
-        <v>201852</v>
+        <v>224970</v>
       </c>
       <c r="AH96" s="9">
-        <v>224970</v>
-      </c>
-      <c r="AI96" s="9">
         <v>306234</v>
       </c>
-      <c r="AJ96" s="9" t="s">
-        <v>58</v>
+      <c r="AI96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ96" s="9">
+        <v>233076</v>
       </c>
       <c r="AK96" s="9">
-        <v>233076</v>
-      </c>
-      <c r="AL96" s="9">
         <v>204981</v>
       </c>
-      <c r="AM96" s="9" t="s">
-        <v>58</v>
+      <c r="AL96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM96" s="9">
+        <v>262712</v>
       </c>
       <c r="AN96" s="9">
-        <v>262712</v>
+        <v>180025</v>
       </c>
       <c r="AO96" s="9">
-        <v>180025</v>
+        <v>540879</v>
       </c>
       <c r="AP96" s="9">
-        <v>540879</v>
+        <v>246942</v>
       </c>
       <c r="AQ96" s="9">
-        <v>246942</v>
+        <v>395123</v>
       </c>
       <c r="AR96" s="9">
-        <v>395123</v>
+        <v>328945</v>
       </c>
       <c r="AS96" s="9">
-        <v>328945</v>
-      </c>
-      <c r="AT96" s="9">
         <v>332986</v>
       </c>
-      <c r="AU96" s="9" t="s">
-        <v>58</v>
+      <c r="AT96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU96" s="9">
+        <v>391662</v>
       </c>
       <c r="AV96" s="9">
-        <v>391662</v>
-      </c>
-      <c r="AW96" s="9">
         <v>390653</v>
       </c>
-      <c r="AX96" s="9" t="s">
-        <v>58</v>
+      <c r="AW96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX96" s="9">
+        <v>556444</v>
       </c>
       <c r="AY96" s="9">
-        <v>556444</v>
+        <v>519463</v>
       </c>
       <c r="AZ96" s="9">
-        <v>519463</v>
+        <v>590168</v>
       </c>
       <c r="BA96" s="9">
-        <v>590168</v>
+        <v>865490</v>
       </c>
       <c r="BB96" s="9">
-        <v>865490</v>
+        <v>687582</v>
       </c>
     </row>
   </sheetData>
